--- a/Test design technique assignment_Phạm Anh Đức.xlsx
+++ b/Test design technique assignment_Phạm Anh Đức.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\OJT Nash Tech\Test design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32003E4B-00A8-4E3D-9D8A-E25C45F18E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89A2E3B-4EDB-452C-8DEE-3CBF40608003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -931,7 +931,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="535">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -2627,43 +2627,7 @@
     <t>Pham Anh Duc</t>
   </si>
   <si>
-    <t>2. View product function - Display Photos</t>
-  </si>
-  <si>
-    <t>Verify 1st photo is displayed on the big photo frame</t>
-  </si>
-  <si>
-    <t>Click on Next "&gt;" button, next photo is loaded to the big photo frame</t>
-  </si>
-  <si>
-    <t>Click on Previous "&lt;" button, previous photo is loaded to the big photo frame</t>
-  </si>
-  <si>
     <t>View production function</t>
-  </si>
-  <si>
-    <t>Verify with 0 images no photo loaded to the big photo frame</t>
-  </si>
-  <si>
-    <t>Verify with 1-4 images the photo is loaded to the big photo frame</t>
-  </si>
-  <si>
-    <t>Verify with more than 5 images the photo is loaded to the big photo frame</t>
-  </si>
-  <si>
-    <t>Verify price has a comma between 1,000 - 999,999</t>
-  </si>
-  <si>
-    <t>Choose any value between 1,000-999,999 and verify that value has a comma</t>
-  </si>
-  <si>
-    <t>Verify price has 2 commas between 1,000,000 - 999,999,999</t>
-  </si>
-  <si>
-    <t>Choose any value between 1,000,000 - 999,999,999 and verify that value has 2 commas</t>
-  </si>
-  <si>
-    <t>Verify price between 0,1 - 0,49 will round down</t>
   </si>
   <si>
     <t>1.  View product function - Original Price</t>
@@ -2684,7 +2648,430 @@
     </r>
   </si>
   <si>
-    <t>Verify price between 0,5 - 0,9 will round up</t>
+    <t>Check currency</t>
+  </si>
+  <si>
+    <t>Verify the price has 2 commas and the value is 696,696,696</t>
+  </si>
+  <si>
+    <t>Verify the price has 2 commas and the value is 1,000,000</t>
+  </si>
+  <si>
+    <t>Verify the price has 2 commas and the value is 999,999,999</t>
+  </si>
+  <si>
+    <t>Verify the price has no comma and the value is 456</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                         2.1. Check Price</t>
+    </r>
+  </si>
+  <si>
+    <t>Check price has no comma between 0 - 999</t>
+  </si>
+  <si>
+    <t>Check price has a comma between 1,000 - 999,999</t>
+  </si>
+  <si>
+    <t>Check price has 2 commas between 1,000,000 - 999,999,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                             2.2. Check Rounding Function (with format x.y)</t>
+  </si>
+  <si>
+    <t>3. View product function - Display Photos</t>
+  </si>
+  <si>
+    <t>3.1. Big Photo Frame</t>
+  </si>
+  <si>
+    <t>Check with 1 image</t>
+  </si>
+  <si>
+    <t>Check with 5 images</t>
+  </si>
+  <si>
+    <t>Check with 1-5 images</t>
+  </si>
+  <si>
+    <t>Check with more than 5 images</t>
+  </si>
+  <si>
+    <t>Check the max number of photo list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3.2. Photo List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                          3.3. Button to view the next photo '&gt;'</t>
+  </si>
+  <si>
+    <t>Disable when it's the first photo in the photo list</t>
+  </si>
+  <si>
+    <t>Check that there is no comma when price = 999</t>
+  </si>
+  <si>
+    <t>Check that there are 2 commas when price = 1,000,000</t>
+  </si>
+  <si>
+    <t>Check that there are 2 commas when price = 999,999,999</t>
+  </si>
+  <si>
+    <t>1. On edit product page, select currency = VND
+2. Go to product view page, check the currency</t>
+  </si>
+  <si>
+    <t>The currency = VND</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Input price 1,000
+3. Check the original price in the product function</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Input price 999,999
+3. Check the original price in the product view page</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Input price 1,000,000
+3. Check the original price in the product view page</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Input price 696,696,696
+3. Check the original price in the product view page</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Input price 5,000
+3. Check the original price in the product view page</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Input price 456
+3. Check the original price in the product function</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Input price 999,999,999
+3. Check the original price in the product view page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check with 0 image </t>
+  </si>
+  <si>
+    <t>Check the initial status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on any photo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                           3.4. Button to view the previous photo '&lt;'</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Input price 1,000
+3. Check the discounted price in the product function</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Input price 999,999
+3. Check the discounted price in the product view page</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Input price 1,000,000
+3. Check the discounted price in the product view page</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Input price 999,999,999
+3. Check the discounted price in the product view page</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Input price 999
+3. Check the original price in the product view page</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Input price 999
+3. Check the discounted price in the product view page</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Input price 123
+3. Check the discounted price in the product function</t>
+  </si>
+  <si>
+    <t>Verify the price has no comma and the value is 123</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Input price 456,789
+3. Check the discounted price in the product view page</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Input price 123,456,789
+3. Check the discounted price in the product view page</t>
+  </si>
+  <si>
+    <t>Verify the price has 2 commas and the value is 123,456,789</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Input price 1,900
+3. Check the discounted price in the product view page</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Input price 1,500
+3. Check the discounted price in the product view page</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Input price 1,300
+3. Check the discounted price in the product view page</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Input price 1,000
+3. Check the discounted price in the product view page</t>
+  </si>
+  <si>
+    <t>1. Go to product view page 
+2. Check the initial status of the big photo frame</t>
+  </si>
+  <si>
+    <t>Verify big photo frame:
+- Doen't show any images in case 0 image in the photo list
+- Show the first image in the photo list in case the photo list has images</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Upload 0 image
+3. Check the display image of big photo frame in the product view page</t>
+  </si>
+  <si>
+    <t>Verify big photo frame doesn't show any images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to product view page 
+2. Click to next button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to product view page 
+2. Click to back button </t>
+  </si>
+  <si>
+    <t>1. Go to product view page 
+2. Click to any images in the photo list</t>
+  </si>
+  <si>
+    <t>it will show the previous image at the big photo frame</t>
+  </si>
+  <si>
+    <t>it will show the next image at the big photo frame</t>
+  </si>
+  <si>
+    <t>1. Go to product view page 
+2. Check the next button when there are 1 image in the photo list</t>
+  </si>
+  <si>
+    <t>1. Go to product view page 
+2. Check the next button when there are no image in the photo list</t>
+  </si>
+  <si>
+    <t>Disable when scrolling to the last image in the photo list</t>
+  </si>
+  <si>
+    <t>Enable when user focus on the close-to-last image</t>
+  </si>
+  <si>
+    <t>1. Go to product view page 
+2. Check the next button when scrolling to the last image in the photo list</t>
+  </si>
+  <si>
+    <t>1. Go to product view page 
+2. Check the next button when focus on the close-to-last image</t>
+  </si>
+  <si>
+    <t>1. Go to product view page 
+2. Check the next button when click the next button</t>
+  </si>
+  <si>
+    <t>The next image will be displayed at the big photo frame</t>
+  </si>
+  <si>
+    <t>1. Go to product view page 
+2. Check the back button when focus on the first image in the photo list</t>
+  </si>
+  <si>
+    <t>1. Go to product view page 
+2. Check the back button when scrolling to the first image in the photo list</t>
+  </si>
+  <si>
+    <t>1. Go to product view page 
+2. Check the back button when focus on second image in the photo list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable when user focus on second image
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to product view page 
+2. Click the back button </t>
+  </si>
+  <si>
+    <t>The previous image will be displayed at the big photo frame</t>
+  </si>
+  <si>
+    <t>Enable when scrolling to the first photo in the photo list</t>
+  </si>
+  <si>
+    <t>If 15 images are uploaded then photo list will display 15 images
+If more than 15 images are uploaded then the photo list won't be displayed</t>
+  </si>
+  <si>
+    <t>Check that there is a comma when price = 1,000</t>
+  </si>
+  <si>
+    <t>Check that there is a comma when price = 999,999</t>
+  </si>
+  <si>
+    <t>Verify the price has a comma and the value is 1,000</t>
+  </si>
+  <si>
+    <t>Verify the price has a comma and the value is 999,999</t>
+  </si>
+  <si>
+    <t>Verify the price has no comma and the value is 999</t>
+  </si>
+  <si>
+    <t>Verify the price has a comma and the value is 5,000</t>
+  </si>
+  <si>
+    <t>Verify the price has a comma and the value is 456,789</t>
+  </si>
+  <si>
+    <t>If the price value is a float when y&gt;5</t>
+  </si>
+  <si>
+    <t>If the price value is a float when y=5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the price value is a float when y&lt;5
+</t>
+  </si>
+  <si>
+    <t>If the price value is a float when price is interger</t>
+  </si>
+  <si>
+    <t>Verify the price has rounded up and the value is 2,000</t>
+  </si>
+  <si>
+    <t>Verify the price has rounded down and the value is 1,000</t>
+  </si>
+  <si>
+    <t>Verify the price has rounded up and the value is 1,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click 'next' button  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click 'back' button </t>
+  </si>
+  <si>
+    <t>it will show the chosen image at the big photo frame</t>
+  </si>
+  <si>
+    <t>Check with no image</t>
+  </si>
+  <si>
+    <t>The photo list won't display any images</t>
+  </si>
+  <si>
+    <t>The photo list will display the uploaded image</t>
+  </si>
+  <si>
+    <t>The photo list will display the 2 uploaded images</t>
+  </si>
+  <si>
+    <t>The photo list will display the 5 uploaded images</t>
+  </si>
+  <si>
+    <t>The photo list will display the 10 uploaded images</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Upload 0 image
+3. Check the displayed image of the photo list in the product view page</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Upload 1 image
+3. Check the displayed image of the photo list in the product view page</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Upload 5 images
+3. Check the displayed images of the photo list in the product view page</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Upload 2 images
+3. Check the displayed images of the photo list in the product view page</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Upload 10 images
+3. Check the displayed images of the photo list in the product view page</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Upload 15 images or more
+3. Check the displayed images of the photo list in the product view page</t>
+  </si>
+  <si>
+    <t>The button is disabled</t>
+  </si>
+  <si>
+    <t>The button is enabled</t>
+  </si>
+  <si>
+    <t>Disable when there are no images in the photo list</t>
+  </si>
+  <si>
+    <t>Disable when there is only an image in the photo list</t>
+  </si>
+  <si>
+    <t>When the button is clicked, the next image in the photo list will be displayed at the big photo frame</t>
+  </si>
+  <si>
+    <t>When the button is clicked, the previous image in the photo list will be displayed on the big photo frame</t>
+  </si>
+  <si>
+    <t>1. Go to product view page 
+2. Check the back button when there are an image in the photo list</t>
+  </si>
+  <si>
+    <t>1. Go to product view page 
+2. Check the back button when there are no images in the photo list</t>
   </si>
 </sst>
 </file>
@@ -2696,7 +3083,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="68">
+  <fonts count="70">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3153,14 +3540,27 @@
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color theme="2"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3314,6 +3714,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="41"/>
       </patternFill>
     </fill>
@@ -3705,7 +4123,7 @@
     <xf numFmtId="166" fontId="56" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -4161,9 +4579,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="25" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4186,6 +4601,49 @@
     <xf numFmtId="0" fontId="37" fillId="25" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="67" fillId="28" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4279,6 +4737,30 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4291,20 +4773,23 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="68" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5156,37 +5641,37 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="180"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="181"/>
+      <c r="B4" s="196"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="197"/>
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="183" t="s">
+      <c r="B5" s="198"/>
+      <c r="C5" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="184" t="s">
+      <c r="A6" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="185"/>
-      <c r="C6" s="178" t="s">
+      <c r="B6" s="201"/>
+      <c r="C6" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -5198,14 +5683,14 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" s="147" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="176" t="s">
+      <c r="A8" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="177"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
+      <c r="B8" s="193"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
     </row>
     <row r="9" spans="1:6" s="147" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="148" t="s">
@@ -5288,14 +5773,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="147" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="178" t="s">
+      <c r="A13" s="194" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="178"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
+      <c r="B13" s="194"/>
+      <c r="C13" s="194"/>
+      <c r="D13" s="194"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="194"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18"/>
@@ -5418,36 +5903,36 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="189" t="s">
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="205" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="189"/>
+      <c r="K2" s="205"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="190" t="s">
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="206" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="153"/>
@@ -5467,65 +5952,65 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="196" t="s">
+      <c r="A7" s="212" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="196"/>
+      <c r="B7" s="212"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="212"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="196"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="196"/>
+      <c r="A8" s="212"/>
+      <c r="B8" s="212"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="212"/>
+      <c r="G8" s="212"/>
+      <c r="H8" s="212"/>
+      <c r="I8" s="212"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="196" t="s">
+      <c r="A9" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="196"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="196"/>
+      <c r="B9" s="212"/>
+      <c r="C9" s="212"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="212"/>
+      <c r="F9" s="212"/>
+      <c r="G9" s="212"/>
+      <c r="H9" s="212"/>
+      <c r="I9" s="212"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="196"/>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
+      <c r="A10" s="212"/>
+      <c r="B10" s="212"/>
+      <c r="C10" s="212"/>
+      <c r="D10" s="212"/>
+      <c r="E10" s="212"/>
+      <c r="F10" s="212"/>
+      <c r="G10" s="212"/>
+      <c r="H10" s="212"/>
+      <c r="I10" s="212"/>
     </row>
     <row r="11" spans="1:11" ht="13.8">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="197"/>
-      <c r="C11" s="197"/>
-      <c r="D11" s="197"/>
-      <c r="E11" s="197"/>
-      <c r="F11" s="197"/>
-      <c r="G11" s="197"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="197"/>
+      <c r="B11" s="213"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="213"/>
+      <c r="I11" s="213"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3"/>
@@ -5547,65 +6032,65 @@
       <c r="A14" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="193" t="s">
+      <c r="B14" s="209" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="194"/>
-      <c r="D14" s="194"/>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="194"/>
-      <c r="K14" s="195"/>
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="210"/>
+      <c r="F14" s="210"/>
+      <c r="G14" s="210"/>
+      <c r="H14" s="210"/>
+      <c r="I14" s="210"/>
+      <c r="J14" s="210"/>
+      <c r="K14" s="211"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="193" t="s">
+      <c r="B15" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="194"/>
-      <c r="D15" s="194"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="194"/>
-      <c r="J15" s="194"/>
-      <c r="K15" s="195"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="210"/>
+      <c r="F15" s="210"/>
+      <c r="G15" s="210"/>
+      <c r="H15" s="210"/>
+      <c r="I15" s="210"/>
+      <c r="J15" s="210"/>
+      <c r="K15" s="211"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="134"/>
-      <c r="B16" s="193" t="s">
+      <c r="B16" s="209" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="194"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="195"/>
+      <c r="C16" s="210"/>
+      <c r="D16" s="210"/>
+      <c r="E16" s="210"/>
+      <c r="F16" s="210"/>
+      <c r="G16" s="210"/>
+      <c r="H16" s="210"/>
+      <c r="I16" s="210"/>
+      <c r="J16" s="210"/>
+      <c r="K16" s="211"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="134"/>
-      <c r="B17" s="193" t="s">
+      <c r="B17" s="209" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="194"/>
-      <c r="D17" s="194"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="194"/>
-      <c r="I17" s="194"/>
-      <c r="J17" s="194"/>
-      <c r="K17" s="195"/>
+      <c r="C17" s="210"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="210"/>
+      <c r="G17" s="210"/>
+      <c r="H17" s="210"/>
+      <c r="I17" s="210"/>
+      <c r="J17" s="210"/>
+      <c r="K17" s="211"/>
     </row>
     <row r="19" spans="1:14" ht="22.8">
       <c r="A19" s="4" t="s">
@@ -5616,40 +6101,40 @@
       <c r="A20" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="193" t="s">
+      <c r="B20" s="209" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="194"/>
-      <c r="D20" s="194"/>
-      <c r="E20" s="194"/>
-      <c r="F20" s="194"/>
-      <c r="G20" s="195"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="211"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="193" t="s">
+      <c r="B21" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="194"/>
-      <c r="D21" s="194"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="194"/>
-      <c r="G21" s="195"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="211"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="193" t="s">
+      <c r="B22" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="194"/>
-      <c r="D22" s="194"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="194"/>
-      <c r="G22" s="195"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="210"/>
+      <c r="E22" s="210"/>
+      <c r="F22" s="210"/>
+      <c r="G22" s="211"/>
     </row>
     <row r="24" spans="1:14" ht="22.8">
       <c r="A24" s="4" t="s">
@@ -5708,11 +6193,11 @@
       <c r="N27" s="70"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="186" t="s">
+      <c r="B29" s="202" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="187"/>
-      <c r="D29" s="188"/>
+      <c r="C29" s="203"/>
+      <c r="D29" s="204"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="5"/>
@@ -5789,14 +6274,14 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="24.6">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10"/>
@@ -5982,12 +6467,12 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="24.6">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="217" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
       <c r="E2" s="156"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -6148,18 +6633,18 @@
       <c r="F14" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="13.8">
-      <c r="A16" s="199" t="s">
+      <c r="A16" s="215" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="199"/>
+      <c r="B16" s="215"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="13.8">
-      <c r="A17" s="200" t="s">
+      <c r="A17" s="216" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="200"/>
+      <c r="B17" s="216"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="33"/>
@@ -6186,10 +6671,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:X38"/>
+  <dimension ref="A1:X70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:D32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2"/>
@@ -6203,10 +6688,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="202"/>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
+      <c r="A1" s="218"/>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -6215,13 +6700,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="219" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="211"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="223"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -6230,9 +6715,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="211"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="223"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -6243,11 +6728,11 @@
       <c r="A4" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="205" t="s">
-        <v>423</v>
-      </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
+      <c r="B4" s="221" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -6261,9 +6746,9 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="204"/>
-      <c r="C5" s="205"/>
-      <c r="D5" s="205"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -6277,11 +6762,11 @@
       <c r="A6" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="204" t="s">
+      <c r="B6" s="220" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="205"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -6292,11 +6777,11 @@
       <c r="A7" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="205" t="s">
+      <c r="B7" s="221" t="s">
         <v>418</v>
       </c>
-      <c r="C7" s="205"/>
-      <c r="D7" s="205"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -6308,9 +6793,9 @@
       <c r="A8" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
+      <c r="B8" s="222"/>
+      <c r="C8" s="222"/>
+      <c r="D8" s="222"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -6352,15 +6837,15 @@
         <v>41</v>
       </c>
       <c r="B11" s="75">
-        <f>COUNTIF($F$18:$F$49590,"*Passed")</f>
+        <f>COUNTIF($F$18:$F$49622,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C11" s="75">
-        <f>COUNTIF($G$18:$G$49590,"*Passed")</f>
+        <f>COUNTIF($G$18:$G$49622,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="75">
-        <f>COUNTIF($H$18:$H$49590,"*Passed")</f>
+        <f>COUNTIF($H$18:$H$49622,"*Passed")</f>
         <v>0</v>
       </c>
     </row>
@@ -6369,15 +6854,15 @@
         <v>43</v>
       </c>
       <c r="B12" s="75">
-        <f>COUNTIF($F$18:$F$49310,"*Failed*")</f>
+        <f>COUNTIF($F$18:$F$49342,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="75">
-        <f>COUNTIF($G$18:$G$49310,"*Failed*")</f>
+        <f>COUNTIF($G$18:$G$49342,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="75">
-        <f>COUNTIF($H$18:$H$49310,"*Failed*")</f>
+        <f>COUNTIF($H$18:$H$49342,"*Failed*")</f>
         <v>0</v>
       </c>
     </row>
@@ -6386,15 +6871,15 @@
         <v>45</v>
       </c>
       <c r="B13" s="75">
-        <f>COUNTIF($F$18:$F$49310,"*Not Run*")</f>
+        <f>COUNTIF($F$18:$F$49342,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="75">
-        <f>COUNTIF($G$18:$G$49310,"*Not Run*")</f>
+        <f>COUNTIF($G$18:$G$49342,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="75">
-        <f>COUNTIF($H$18:$H$49310,"*Not Run*")</f>
+        <f>COUNTIF($H$18:$H$49342,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
@@ -6408,15 +6893,15 @@
         <v>103</v>
       </c>
       <c r="B14" s="75">
-        <f>COUNTIF($F$18:$F$49310,"*NA*")</f>
+        <f>COUNTIF($F$18:$F$49342,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="75">
-        <f>COUNTIF($G$18:$G$49310,"*NA*")</f>
+        <f>COUNTIF($G$18:$G$49342,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="75">
-        <f>COUNTIF($H$18:$H$49310,"*NA*")</f>
+        <f>COUNTIF($H$18:$H$49342,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="1"/>
@@ -6430,15 +6915,15 @@
         <v>104</v>
       </c>
       <c r="B15" s="75">
-        <f>COUNTIF($F$18:$F$49310,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$18:$F$49342,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="75">
-        <f>COUNTIF($G$18:$G$49310,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$18:$G$49342,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="75">
-        <f>COUNTIF($H$18:$H$49310,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$18:$H$49342,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="1"/>
@@ -6453,11 +6938,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="210" t="s">
+      <c r="F16" s="234" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="210"/>
-      <c r="H16" s="210"/>
+      <c r="G16" s="234"/>
+      <c r="H16" s="234"/>
       <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39.6">
@@ -6490,326 +6975,974 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="171"/>
-      <c r="B18" s="207" t="s">
-        <v>432</v>
-      </c>
-      <c r="C18" s="208"/>
-      <c r="D18" s="209"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="171"/>
-    </row>
-    <row r="19" spans="1:9" s="45" customFormat="1" ht="26.4">
-      <c r="A19" s="52">
+      <c r="A18" s="170"/>
+      <c r="B18" s="231" t="s">
+        <v>420</v>
+      </c>
+      <c r="C18" s="232"/>
+      <c r="D18" s="233"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="170"/>
+    </row>
+    <row r="19" spans="1:9" s="45" customFormat="1" ht="52.8">
+      <c r="A19" s="62">
         <v>1</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>427</v>
-      </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
+        <v>422</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>445</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>446</v>
+      </c>
       <c r="E19" s="54"/>
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
       <c r="H19" s="52"/>
       <c r="I19" s="55"/>
     </row>
-    <row r="20" spans="1:9" s="45" customFormat="1" ht="26.4">
-      <c r="A20" s="58">
-        <f ca="1">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
+    <row r="20" spans="1:9" s="45" customFormat="1" ht="55.8" customHeight="1">
+      <c r="A20" s="62">
         <v>2</v>
       </c>
-      <c r="B20" s="167" t="s">
-        <v>429</v>
-      </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="59"/>
+      <c r="B20" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>462</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>502</v>
+      </c>
       <c r="E20" s="54"/>
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
       <c r="H20" s="52"/>
       <c r="I20" s="55"/>
     </row>
-    <row r="21" spans="1:9" s="45" customFormat="1" ht="26.4">
-      <c r="A21" s="58">
-        <f ca="1">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
+    <row r="21" spans="1:9" s="45" customFormat="1" ht="52.8">
+      <c r="A21" s="62">
         <v>3</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>428</v>
-      </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="60"/>
+        <v>498</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>447</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>500</v>
+      </c>
       <c r="E21" s="54"/>
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
       <c r="H21" s="52"/>
       <c r="I21" s="55"/>
     </row>
-    <row r="22" spans="1:9" s="45" customFormat="1" ht="39.6">
-      <c r="A22" s="58">
+    <row r="22" spans="1:9" s="45" customFormat="1" ht="53.4" customHeight="1">
+      <c r="A22" s="62">
         <v>4</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>430</v>
-      </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="60"/>
+        <v>499</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>448</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>501</v>
+      </c>
       <c r="E22" s="54"/>
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
       <c r="H22" s="52"/>
       <c r="I22" s="55"/>
     </row>
-    <row r="23" spans="1:9" s="45" customFormat="1">
-      <c r="A23" s="213" t="s">
-        <v>433</v>
-      </c>
-      <c r="B23" s="214"/>
-      <c r="C23" s="214"/>
-      <c r="D23" s="215"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="170"/>
-    </row>
-    <row r="24" spans="1:9" s="45" customFormat="1" ht="26.4">
-      <c r="A24" s="58">
-        <v>1</v>
+    <row r="23" spans="1:9" s="45" customFormat="1" ht="52.8">
+      <c r="A23" s="62">
+        <v>5</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>443</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>449</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>424</v>
+      </c>
+      <c r="E23" s="54"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="55"/>
+    </row>
+    <row r="24" spans="1:9" s="45" customFormat="1" ht="52.8">
+      <c r="A24" s="62">
+        <v>6</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>427</v>
-      </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="60"/>
+        <v>444</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>453</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>425</v>
+      </c>
       <c r="E24" s="54"/>
       <c r="F24" s="52"/>
       <c r="G24" s="52"/>
       <c r="H24" s="52"/>
       <c r="I24" s="55"/>
     </row>
-    <row r="25" spans="1:9" s="45" customFormat="1" ht="26.4">
-      <c r="A25" s="58">
-        <v>2</v>
+    <row r="25" spans="1:9" s="45" customFormat="1" ht="52.8">
+      <c r="A25" s="62">
+        <v>7</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>429</v>
-      </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="60"/>
+        <v>428</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>452</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>426</v>
+      </c>
       <c r="E25" s="54"/>
       <c r="F25" s="52"/>
       <c r="G25" s="52"/>
       <c r="H25" s="52"/>
       <c r="I25" s="55"/>
     </row>
-    <row r="26" spans="1:9" s="45" customFormat="1" ht="26.4">
-      <c r="A26" s="58">
-        <v>3</v>
+    <row r="26" spans="1:9" s="45" customFormat="1" ht="52.8">
+      <c r="A26" s="62">
+        <v>8</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>428</v>
-      </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="60"/>
+        <v>429</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="D26" s="60" t="s">
+        <v>503</v>
+      </c>
       <c r="E26" s="54"/>
       <c r="F26" s="52"/>
       <c r="G26" s="52"/>
       <c r="H26" s="52"/>
       <c r="I26" s="55"/>
     </row>
-    <row r="27" spans="1:9" s="45" customFormat="1" ht="39.6">
-      <c r="A27" s="58">
-        <v>4</v>
+    <row r="27" spans="1:9" s="45" customFormat="1" ht="52.8">
+      <c r="A27" s="62">
+        <v>9</v>
       </c>
       <c r="B27" s="52" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="60"/>
+      <c r="C27" s="52" t="s">
+        <v>450</v>
+      </c>
+      <c r="D27" s="60" t="s">
+        <v>423</v>
+      </c>
       <c r="E27" s="54"/>
       <c r="F27" s="52"/>
       <c r="G27" s="52"/>
       <c r="H27" s="52"/>
       <c r="I27" s="55"/>
     </row>
-    <row r="28" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A28" s="58">
-        <v>5</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>431</v>
-      </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="55"/>
-    </row>
-    <row r="29" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A29" s="58">
-        <v>6</v>
-      </c>
-      <c r="B29" s="52" t="s">
-        <v>434</v>
-      </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="55"/>
-    </row>
-    <row r="30" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A30" s="58">
-        <v>7</v>
-      </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="60"/>
+    <row r="28" spans="1:9" s="45" customFormat="1" ht="22.8" customHeight="1">
+      <c r="A28" s="225" t="s">
+        <v>421</v>
+      </c>
+      <c r="B28" s="226"/>
+      <c r="C28" s="226"/>
+      <c r="D28" s="227"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="168"/>
+      <c r="I28" s="169"/>
+    </row>
+    <row r="29" spans="1:9" s="177" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A29" s="235" t="s">
+        <v>427</v>
+      </c>
+      <c r="B29" s="236"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="236"/>
+      <c r="E29" s="237"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="176"/>
+    </row>
+    <row r="30" spans="1:9" s="45" customFormat="1" ht="51.6" customHeight="1">
+      <c r="A30" s="62">
+        <v>1</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>422</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>445</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>446</v>
+      </c>
       <c r="E30" s="54"/>
       <c r="F30" s="52"/>
       <c r="G30" s="52"/>
       <c r="H30" s="52"/>
       <c r="I30" s="55"/>
     </row>
-    <row r="31" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A31" s="58">
-        <f ca="1">IF(OFFSET(A31,-1,0) ="",OFFSET(A31,-2,0)+1,OFFSET(A31,-1,0)+1 )</f>
-        <v>8</v>
-      </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="54"/>
+    <row r="31" spans="1:9" s="45" customFormat="1" ht="52.8">
+      <c r="A31" s="62">
+        <v>2</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="D31" s="60" t="s">
+        <v>502</v>
+      </c>
       <c r="E31" s="54"/>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
       <c r="H31" s="52"/>
-      <c r="I31" s="61"/>
-    </row>
-    <row r="32" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A32" s="173"/>
-      <c r="B32" s="207" t="s">
-        <v>419</v>
-      </c>
-      <c r="C32" s="208"/>
-      <c r="D32" s="209"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="175"/>
-      <c r="I32" s="174"/>
-    </row>
-    <row r="33" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="I31" s="55"/>
+    </row>
+    <row r="32" spans="1:9" s="45" customFormat="1" ht="52.8">
+      <c r="A32" s="62">
+        <v>3</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>498</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>458</v>
+      </c>
+      <c r="D32" s="60" t="s">
+        <v>500</v>
+      </c>
+      <c r="E32" s="54"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="55"/>
+    </row>
+    <row r="33" spans="1:9" s="45" customFormat="1" ht="52.8">
       <c r="A33" s="62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>424</v>
-      </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="59"/>
+        <v>499</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>459</v>
+      </c>
+      <c r="D33" s="60" t="s">
+        <v>501</v>
+      </c>
       <c r="E33" s="54"/>
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
       <c r="H33" s="52"/>
-      <c r="I33" s="62"/>
-    </row>
-    <row r="34" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="I33" s="55"/>
+    </row>
+    <row r="34" spans="1:9" s="48" customFormat="1" ht="52.8">
       <c r="A34" s="62">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>425</v>
-      </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="59"/>
+        <v>443</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>460</v>
+      </c>
+      <c r="D34" s="60" t="s">
+        <v>424</v>
+      </c>
       <c r="E34" s="54"/>
       <c r="F34" s="52"/>
       <c r="G34" s="52"/>
       <c r="H34" s="52"/>
-      <c r="I34" s="62"/>
-    </row>
-    <row r="35" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="I34" s="55"/>
+    </row>
+    <row r="35" spans="1:9" s="48" customFormat="1" ht="52.8">
       <c r="A35" s="62">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>426</v>
-      </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="59"/>
+        <v>444</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>461</v>
+      </c>
+      <c r="D35" s="60" t="s">
+        <v>425</v>
+      </c>
       <c r="E35" s="54"/>
       <c r="F35" s="52"/>
       <c r="G35" s="52"/>
       <c r="H35" s="52"/>
-      <c r="I35" s="62"/>
-    </row>
-    <row r="36" spans="1:9" ht="26.4">
+      <c r="I35" s="55"/>
+    </row>
+    <row r="36" spans="1:9" s="48" customFormat="1" ht="52.8">
       <c r="A36" s="62">
-        <f t="shared" ref="A36:A38" ca="1" si="0">IF(OFFSET(A36,-1,0) ="",OFFSET(A36,-2,0)+1,OFFSET(A36,-1,0)+1 )</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>420</v>
-      </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="53"/>
+        <v>428</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>464</v>
+      </c>
+      <c r="D36" s="60" t="s">
+        <v>465</v>
+      </c>
       <c r="E36" s="54"/>
       <c r="F36" s="52"/>
       <c r="G36" s="52"/>
       <c r="H36" s="52"/>
-      <c r="I36" s="62"/>
-    </row>
-    <row r="37" spans="1:9" ht="26.4">
+      <c r="I36" s="55"/>
+    </row>
+    <row r="37" spans="1:9" s="48" customFormat="1" ht="52.8">
       <c r="A37" s="62">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>421</v>
-      </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="60"/>
+        <v>429</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>466</v>
+      </c>
+      <c r="D37" s="60" t="s">
+        <v>504</v>
+      </c>
       <c r="E37" s="54"/>
       <c r="F37" s="52"/>
       <c r="G37" s="52"/>
       <c r="H37" s="52"/>
-      <c r="I37" s="62"/>
-    </row>
-    <row r="38" spans="1:9" ht="26.4">
+      <c r="I37" s="55"/>
+    </row>
+    <row r="38" spans="1:9" s="48" customFormat="1" ht="57.6" customHeight="1">
       <c r="A38" s="62">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>422</v>
-      </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="54"/>
+        <v>430</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="D38" s="60" t="s">
+        <v>468</v>
+      </c>
       <c r="E38" s="54"/>
       <c r="F38" s="52"/>
       <c r="G38" s="52"/>
       <c r="H38" s="52"/>
-      <c r="I38" s="62"/>
+      <c r="I38" s="55"/>
+    </row>
+    <row r="39" spans="1:9" s="181" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A39" s="238" t="s">
+        <v>431</v>
+      </c>
+      <c r="B39" s="239"/>
+      <c r="C39" s="239"/>
+      <c r="D39" s="239"/>
+      <c r="E39" s="240"/>
+      <c r="F39" s="179"/>
+      <c r="G39" s="179"/>
+      <c r="H39" s="179"/>
+      <c r="I39" s="180"/>
+    </row>
+    <row r="40" spans="1:9" s="48" customFormat="1" ht="55.8" customHeight="1">
+      <c r="A40" s="62">
+        <v>1</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>505</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>469</v>
+      </c>
+      <c r="D40" s="60" t="s">
+        <v>509</v>
+      </c>
+      <c r="E40" s="54"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="55"/>
+    </row>
+    <row r="41" spans="1:9" s="48" customFormat="1" ht="56.4" customHeight="1">
+      <c r="A41" s="62">
+        <v>2</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>506</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>470</v>
+      </c>
+      <c r="D41" s="60" t="s">
+        <v>509</v>
+      </c>
+      <c r="E41" s="54"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="55"/>
+    </row>
+    <row r="42" spans="1:9" s="48" customFormat="1" ht="57" customHeight="1">
+      <c r="A42" s="62">
+        <v>3</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>507</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>471</v>
+      </c>
+      <c r="D42" s="60" t="s">
+        <v>510</v>
+      </c>
+      <c r="E42" s="54"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="55"/>
+    </row>
+    <row r="43" spans="1:9" s="48" customFormat="1" ht="57" customHeight="1">
+      <c r="A43" s="62">
+        <v>4</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>508</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>472</v>
+      </c>
+      <c r="D43" s="54" t="s">
+        <v>511</v>
+      </c>
+      <c r="E43" s="54"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="61"/>
+    </row>
+    <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A44" s="172"/>
+      <c r="B44" s="231" t="s">
+        <v>432</v>
+      </c>
+      <c r="C44" s="232"/>
+      <c r="D44" s="233"/>
+      <c r="E44" s="173"/>
+      <c r="F44" s="174"/>
+      <c r="G44" s="174"/>
+      <c r="H44" s="174"/>
+      <c r="I44" s="173"/>
+    </row>
+    <row r="45" spans="1:9" s="178" customFormat="1" ht="13.8">
+      <c r="A45" s="182"/>
+      <c r="B45" s="183"/>
+      <c r="C45" s="184" t="s">
+        <v>433</v>
+      </c>
+      <c r="D45" s="185"/>
+      <c r="E45" s="186"/>
+      <c r="F45" s="187"/>
+      <c r="G45" s="187"/>
+      <c r="H45" s="187"/>
+      <c r="I45" s="186"/>
+    </row>
+    <row r="46" spans="1:9" s="48" customFormat="1" ht="54" customHeight="1">
+      <c r="A46" s="62">
+        <v>1</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>454</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>475</v>
+      </c>
+      <c r="D46" s="59" t="s">
+        <v>476</v>
+      </c>
+      <c r="E46" s="54"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="62"/>
+    </row>
+    <row r="47" spans="1:9" s="48" customFormat="1" ht="68.400000000000006" customHeight="1">
+      <c r="A47" s="62">
+        <v>2</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>473</v>
+      </c>
+      <c r="D47" s="59" t="s">
+        <v>474</v>
+      </c>
+      <c r="E47" s="54"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="62"/>
+    </row>
+    <row r="48" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A48" s="62">
+        <v>3</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>512</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>477</v>
+      </c>
+      <c r="D48" s="59" t="s">
+        <v>481</v>
+      </c>
+      <c r="E48" s="54"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="62"/>
+    </row>
+    <row r="49" spans="1:9" ht="26.4">
+      <c r="A49" s="62">
+        <f t="shared" ref="A49" ca="1" si="0">IF(OFFSET(A49,-1,0) ="",OFFSET(A49,-2,0)+1,OFFSET(A49,-1,0)+1 )</f>
+        <v>4</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>513</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>478</v>
+      </c>
+      <c r="D49" s="53" t="s">
+        <v>480</v>
+      </c>
+      <c r="E49" s="54"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="62"/>
+    </row>
+    <row r="50" spans="1:9" ht="34.200000000000003" customHeight="1">
+      <c r="A50" s="62">
+        <v>5</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>479</v>
+      </c>
+      <c r="D50" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="E50" s="54"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="62"/>
+    </row>
+    <row r="51" spans="1:9" s="191" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A51" s="228" t="s">
+        <v>439</v>
+      </c>
+      <c r="B51" s="229"/>
+      <c r="C51" s="229"/>
+      <c r="D51" s="230"/>
+      <c r="E51" s="190"/>
+      <c r="F51" s="189"/>
+      <c r="G51" s="189"/>
+      <c r="H51" s="189"/>
+      <c r="I51" s="188"/>
+    </row>
+    <row r="52" spans="1:9" ht="58.8" customHeight="1">
+      <c r="A52" s="62">
+        <v>1</v>
+      </c>
+      <c r="B52" s="52" t="s">
+        <v>515</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>521</v>
+      </c>
+      <c r="D52" s="60" t="s">
+        <v>516</v>
+      </c>
+      <c r="E52" s="54"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="62"/>
+    </row>
+    <row r="53" spans="1:9" ht="61.2" customHeight="1">
+      <c r="A53" s="62">
+        <v>2</v>
+      </c>
+      <c r="B53" s="52" t="s">
+        <v>434</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>522</v>
+      </c>
+      <c r="D53" s="60" t="s">
+        <v>517</v>
+      </c>
+      <c r="E53" s="54"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="62"/>
+    </row>
+    <row r="54" spans="1:9" ht="56.4" customHeight="1">
+      <c r="A54" s="62">
+        <v>3</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>436</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="D54" s="60" t="s">
+        <v>518</v>
+      </c>
+      <c r="E54" s="54"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="62"/>
+    </row>
+    <row r="55" spans="1:9" ht="55.2" customHeight="1">
+      <c r="A55" s="62">
+        <v>4</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>435</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>523</v>
+      </c>
+      <c r="D55" s="60" t="s">
+        <v>519</v>
+      </c>
+      <c r="E55" s="54"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="62"/>
+    </row>
+    <row r="56" spans="1:9" ht="61.8" customHeight="1">
+      <c r="A56" s="62">
+        <v>5</v>
+      </c>
+      <c r="B56" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>525</v>
+      </c>
+      <c r="D56" s="60" t="s">
+        <v>520</v>
+      </c>
+      <c r="E56" s="54"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="62"/>
+    </row>
+    <row r="57" spans="1:9" ht="69.599999999999994" customHeight="1">
+      <c r="A57" s="62">
+        <v>6</v>
+      </c>
+      <c r="B57" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>526</v>
+      </c>
+      <c r="D57" s="60" t="s">
+        <v>497</v>
+      </c>
+      <c r="E57" s="54"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="62"/>
+    </row>
+    <row r="58" spans="1:9" s="191" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A58" s="228" t="s">
+        <v>440</v>
+      </c>
+      <c r="B58" s="229"/>
+      <c r="C58" s="229"/>
+      <c r="D58" s="230"/>
+      <c r="E58" s="190"/>
+      <c r="F58" s="189"/>
+      <c r="G58" s="189"/>
+      <c r="H58" s="189"/>
+      <c r="I58" s="188"/>
+    </row>
+    <row r="59" spans="1:9" ht="47.4" customHeight="1">
+      <c r="A59" s="62">
+        <v>1</v>
+      </c>
+      <c r="B59" s="52" t="s">
+        <v>529</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>483</v>
+      </c>
+      <c r="D59" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="E59" s="54"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="62"/>
+    </row>
+    <row r="60" spans="1:9" ht="43.8" customHeight="1">
+      <c r="A60" s="62">
+        <v>2</v>
+      </c>
+      <c r="B60" s="52" t="s">
+        <v>530</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>482</v>
+      </c>
+      <c r="D60" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="E60" s="54"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="62"/>
+    </row>
+    <row r="61" spans="1:9" ht="43.2" customHeight="1">
+      <c r="A61" s="62">
+        <v>3</v>
+      </c>
+      <c r="B61" s="52" t="s">
+        <v>484</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>486</v>
+      </c>
+      <c r="D61" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="E61" s="54"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="62"/>
+    </row>
+    <row r="62" spans="1:9" ht="42.6" customHeight="1">
+      <c r="A62" s="62">
+        <v>4</v>
+      </c>
+      <c r="B62" s="52" t="s">
+        <v>485</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="D62" s="60" t="s">
+        <v>528</v>
+      </c>
+      <c r="E62" s="54"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="62"/>
+    </row>
+    <row r="63" spans="1:9" ht="43.8" customHeight="1">
+      <c r="A63" s="62">
+        <v>5</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>531</v>
+      </c>
+      <c r="C63" s="52" t="s">
+        <v>488</v>
+      </c>
+      <c r="D63" s="60" t="s">
+        <v>489</v>
+      </c>
+      <c r="E63" s="54"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="62"/>
+    </row>
+    <row r="64" spans="1:9" s="191" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A64" s="228" t="s">
+        <v>457</v>
+      </c>
+      <c r="B64" s="229"/>
+      <c r="C64" s="229"/>
+      <c r="D64" s="230"/>
+      <c r="E64" s="190"/>
+      <c r="F64" s="189"/>
+      <c r="G64" s="189"/>
+      <c r="H64" s="189"/>
+      <c r="I64" s="188"/>
+    </row>
+    <row r="65" spans="1:9" ht="45" customHeight="1">
+      <c r="A65" s="62">
+        <v>1</v>
+      </c>
+      <c r="B65" s="52" t="s">
+        <v>529</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="D65" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="E65" s="54"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="62"/>
+    </row>
+    <row r="66" spans="1:9" ht="42.6" customHeight="1">
+      <c r="A66" s="62">
+        <v>2</v>
+      </c>
+      <c r="B66" s="52" t="s">
+        <v>530</v>
+      </c>
+      <c r="C66" s="52" t="s">
+        <v>533</v>
+      </c>
+      <c r="D66" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="E66" s="54"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="62"/>
+    </row>
+    <row r="67" spans="1:9" ht="45.6" customHeight="1">
+      <c r="A67" s="62">
+        <v>3</v>
+      </c>
+      <c r="B67" s="52" t="s">
+        <v>441</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>490</v>
+      </c>
+      <c r="D67" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="E67" s="54"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="62"/>
+    </row>
+    <row r="68" spans="1:9" ht="46.2" customHeight="1">
+      <c r="A68" s="62">
+        <v>4</v>
+      </c>
+      <c r="B68" s="52" t="s">
+        <v>496</v>
+      </c>
+      <c r="C68" s="52" t="s">
+        <v>491</v>
+      </c>
+      <c r="D68" s="60" t="s">
+        <v>528</v>
+      </c>
+      <c r="E68" s="54"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="62"/>
+    </row>
+    <row r="69" spans="1:9" ht="43.8" customHeight="1">
+      <c r="A69" s="62">
+        <v>5</v>
+      </c>
+      <c r="B69" s="52" t="s">
+        <v>493</v>
+      </c>
+      <c r="C69" s="52" t="s">
+        <v>492</v>
+      </c>
+      <c r="D69" s="60" t="s">
+        <v>528</v>
+      </c>
+      <c r="E69" s="54"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="62"/>
+    </row>
+    <row r="70" spans="1:9" ht="45" customHeight="1">
+      <c r="A70" s="62">
+        <v>6</v>
+      </c>
+      <c r="B70" s="52" t="s">
+        <v>532</v>
+      </c>
+      <c r="C70" s="52" t="s">
+        <v>494</v>
+      </c>
+      <c r="D70" s="54" t="s">
+        <v>495</v>
+      </c>
+      <c r="E70" s="54"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B32:D32"/>
+  <mergeCells count="18">
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="B44:D44"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A39:E39"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B6:D6"/>
@@ -6819,11 +7952,11 @@
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:H18" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F39:H96" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F71:H128" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F19:H38" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F19:H70" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -6852,10 +7985,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="202"/>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
+      <c r="A1" s="218"/>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -6864,13 +7997,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="219" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="211"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="223"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -6879,9 +8012,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="219"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="211"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="223"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -6892,11 +8025,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="221" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -6910,11 +8043,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="204" t="s">
+      <c r="B5" s="220" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="205"/>
-      <c r="D5" s="205"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -6928,11 +8061,11 @@
       <c r="A6" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="204" t="s">
+      <c r="B6" s="220" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="205"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -6943,11 +8076,11 @@
       <c r="A7" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="205" t="s">
+      <c r="B7" s="221" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="205"/>
-      <c r="D7" s="205"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -6959,11 +8092,11 @@
       <c r="A8" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="206">
+      <c r="B8" s="222">
         <v>40850</v>
       </c>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
+      <c r="C8" s="222"/>
+      <c r="D8" s="222"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -7106,11 +8239,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="220" t="s">
+      <c r="F16" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="221"/>
-      <c r="H16" s="222"/>
+      <c r="G16" s="246"/>
+      <c r="H16" s="247"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39.6">
@@ -7144,11 +8277,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="216" t="s">
+      <c r="B18" s="241" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="217"/>
-      <c r="D18" s="218"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="243"/>
       <c r="E18" s="67"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -7427,11 +8560,11 @@
     </row>
     <row r="29" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A29" s="77"/>
-      <c r="B29" s="216" t="s">
+      <c r="B29" s="241" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="217"/>
-      <c r="D29" s="218"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="243"/>
       <c r="E29" s="69"/>
       <c r="F29" s="66"/>
       <c r="G29" s="66"/>
@@ -7580,11 +8713,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A35" s="77"/>
-      <c r="B35" s="216" t="s">
+      <c r="B35" s="241" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="218"/>
+      <c r="C35" s="242"/>
+      <c r="D35" s="243"/>
       <c r="E35" s="69"/>
       <c r="F35" s="66"/>
       <c r="G35" s="66"/>
@@ -7621,11 +8754,11 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="77"/>
-      <c r="B37" s="216" t="s">
+      <c r="B37" s="241" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="217"/>
-      <c r="D37" s="218"/>
+      <c r="C37" s="242"/>
+      <c r="D37" s="243"/>
       <c r="E37" s="69"/>
       <c r="F37" s="66"/>
       <c r="G37" s="66"/>
@@ -7886,11 +9019,11 @@
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A47" s="77"/>
-      <c r="B47" s="216" t="s">
+      <c r="B47" s="241" t="s">
         <v>213</v>
       </c>
-      <c r="C47" s="217"/>
-      <c r="D47" s="218"/>
+      <c r="C47" s="242"/>
+      <c r="D47" s="243"/>
       <c r="E47" s="69"/>
       <c r="F47" s="66"/>
       <c r="G47" s="66"/>
@@ -8011,11 +9144,11 @@
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A52" s="77"/>
-      <c r="B52" s="216" t="s">
+      <c r="B52" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C52" s="217"/>
-      <c r="D52" s="218"/>
+      <c r="C52" s="242"/>
+      <c r="D52" s="243"/>
       <c r="E52" s="69"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -8108,11 +9241,11 @@
     </row>
     <row r="56" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A56" s="77"/>
-      <c r="B56" s="216" t="s">
+      <c r="B56" s="241" t="s">
         <v>240</v>
       </c>
-      <c r="C56" s="217"/>
-      <c r="D56" s="218"/>
+      <c r="C56" s="242"/>
+      <c r="D56" s="243"/>
       <c r="E56" s="69"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -8429,11 +9562,11 @@
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A68" s="77"/>
-      <c r="B68" s="216" t="s">
+      <c r="B68" s="241" t="s">
         <v>282</v>
       </c>
-      <c r="C68" s="217"/>
-      <c r="D68" s="218"/>
+      <c r="C68" s="242"/>
+      <c r="D68" s="243"/>
       <c r="E68" s="69"/>
       <c r="F68" s="66"/>
       <c r="G68" s="66"/>
@@ -8526,11 +9659,11 @@
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A72" s="77"/>
-      <c r="B72" s="216" t="s">
+      <c r="B72" s="241" t="s">
         <v>292</v>
       </c>
-      <c r="C72" s="217"/>
-      <c r="D72" s="218"/>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243"/>
       <c r="E72" s="69"/>
       <c r="F72" s="66"/>
       <c r="G72" s="66"/>
@@ -8623,11 +9756,11 @@
     </row>
     <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A76" s="77"/>
-      <c r="B76" s="216" t="s">
+      <c r="B76" s="241" t="s">
         <v>303</v>
       </c>
-      <c r="C76" s="217"/>
-      <c r="D76" s="218"/>
+      <c r="C76" s="242"/>
+      <c r="D76" s="243"/>
       <c r="E76" s="69"/>
       <c r="F76" s="66"/>
       <c r="G76" s="66"/>
@@ -8692,11 +9825,11 @@
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A79" s="77"/>
-      <c r="B79" s="216" t="s">
+      <c r="B79" s="241" t="s">
         <v>311</v>
       </c>
-      <c r="C79" s="217"/>
-      <c r="D79" s="218"/>
+      <c r="C79" s="242"/>
+      <c r="D79" s="243"/>
       <c r="E79" s="69"/>
       <c r="F79" s="66"/>
       <c r="G79" s="66"/>
@@ -8903,10 +10036,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="202"/>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
+      <c r="A1" s="218"/>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -8915,13 +10048,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="219" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="211"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="223"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -8930,9 +10063,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="219"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="211"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="223"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -8943,11 +10076,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="221" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -8961,11 +10094,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="204" t="s">
+      <c r="B5" s="220" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="205"/>
-      <c r="D5" s="205"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -8979,11 +10112,11 @@
       <c r="A6" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="204" t="s">
+      <c r="B6" s="220" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="205"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -8994,11 +10127,11 @@
       <c r="A7" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="205" t="s">
+      <c r="B7" s="221" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="205"/>
-      <c r="D7" s="205"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -9010,11 +10143,11 @@
       <c r="A8" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="206">
+      <c r="B8" s="222">
         <v>40850</v>
       </c>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
+      <c r="C8" s="222"/>
+      <c r="D8" s="222"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -9157,11 +10290,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="220" t="s">
+      <c r="F16" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="221"/>
-      <c r="H16" s="222"/>
+      <c r="G16" s="246"/>
+      <c r="H16" s="247"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39.6">
@@ -9195,11 +10328,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="216" t="s">
+      <c r="B18" s="241" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="217"/>
-      <c r="D18" s="218"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="243"/>
       <c r="E18" s="67"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -9480,11 +10613,11 @@
     </row>
     <row r="29" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A29" s="77"/>
-      <c r="B29" s="216" t="s">
+      <c r="B29" s="241" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="217"/>
-      <c r="D29" s="218"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="243"/>
       <c r="E29" s="69"/>
       <c r="F29" s="66"/>
       <c r="G29" s="66"/>
@@ -9633,11 +10766,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A35" s="77"/>
-      <c r="B35" s="216" t="s">
+      <c r="B35" s="241" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="218"/>
+      <c r="C35" s="242"/>
+      <c r="D35" s="243"/>
       <c r="E35" s="69"/>
       <c r="F35" s="66"/>
       <c r="G35" s="66"/>
@@ -9674,11 +10807,11 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="77"/>
-      <c r="B37" s="216" t="s">
+      <c r="B37" s="241" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="217"/>
-      <c r="D37" s="218"/>
+      <c r="C37" s="242"/>
+      <c r="D37" s="243"/>
       <c r="E37" s="69"/>
       <c r="F37" s="66"/>
       <c r="G37" s="66"/>
@@ -9939,11 +11072,11 @@
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A47" s="77"/>
-      <c r="B47" s="216" t="s">
+      <c r="B47" s="241" t="s">
         <v>213</v>
       </c>
-      <c r="C47" s="217"/>
-      <c r="D47" s="218"/>
+      <c r="C47" s="242"/>
+      <c r="D47" s="243"/>
       <c r="E47" s="69"/>
       <c r="F47" s="66"/>
       <c r="G47" s="66"/>
@@ -10064,11 +11197,11 @@
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A52" s="77"/>
-      <c r="B52" s="216" t="s">
+      <c r="B52" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C52" s="217"/>
-      <c r="D52" s="218"/>
+      <c r="C52" s="242"/>
+      <c r="D52" s="243"/>
       <c r="E52" s="69"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -10161,11 +11294,11 @@
     </row>
     <row r="56" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A56" s="77"/>
-      <c r="B56" s="216" t="s">
+      <c r="B56" s="241" t="s">
         <v>240</v>
       </c>
-      <c r="C56" s="217"/>
-      <c r="D56" s="218"/>
+      <c r="C56" s="242"/>
+      <c r="D56" s="243"/>
       <c r="E56" s="69"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -10482,11 +11615,11 @@
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A68" s="77"/>
-      <c r="B68" s="216" t="s">
+      <c r="B68" s="241" t="s">
         <v>282</v>
       </c>
-      <c r="C68" s="217"/>
-      <c r="D68" s="218"/>
+      <c r="C68" s="242"/>
+      <c r="D68" s="243"/>
       <c r="E68" s="69"/>
       <c r="F68" s="66"/>
       <c r="G68" s="66"/>
@@ -10579,11 +11712,11 @@
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A72" s="77"/>
-      <c r="B72" s="216" t="s">
+      <c r="B72" s="241" t="s">
         <v>292</v>
       </c>
-      <c r="C72" s="217"/>
-      <c r="D72" s="218"/>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243"/>
       <c r="E72" s="69"/>
       <c r="F72" s="66"/>
       <c r="G72" s="66"/>
@@ -10676,11 +11809,11 @@
     </row>
     <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A76" s="77"/>
-      <c r="B76" s="216" t="s">
+      <c r="B76" s="241" t="s">
         <v>303</v>
       </c>
-      <c r="C76" s="217"/>
-      <c r="D76" s="218"/>
+      <c r="C76" s="242"/>
+      <c r="D76" s="243"/>
       <c r="E76" s="69"/>
       <c r="F76" s="66"/>
       <c r="G76" s="66"/>
@@ -10745,11 +11878,11 @@
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A79" s="77"/>
-      <c r="B79" s="216" t="s">
+      <c r="B79" s="241" t="s">
         <v>311</v>
       </c>
-      <c r="C79" s="217"/>
-      <c r="D79" s="218"/>
+      <c r="C79" s="242"/>
+      <c r="D79" s="243"/>
       <c r="E79" s="69"/>
       <c r="F79" s="66"/>
       <c r="G79" s="66"/>
@@ -10975,13 +12108,13 @@
     </row>
     <row r="2" spans="1:12" s="84" customFormat="1" ht="24.6">
       <c r="A2" s="83"/>
-      <c r="C2" s="225" t="s">
+      <c r="C2" s="250" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="225"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
       <c r="H2" s="85" t="s">
         <v>334</v>
       </c>
@@ -10992,15 +12125,15 @@
     </row>
     <row r="3" spans="1:12" s="84" customFormat="1" ht="22.8">
       <c r="A3" s="83"/>
-      <c r="C3" s="226" t="s">
+      <c r="C3" s="251" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="226"/>
+      <c r="D3" s="251"/>
       <c r="E3" s="157"/>
-      <c r="F3" s="227" t="s">
+      <c r="F3" s="252" t="s">
         <v>336</v>
       </c>
-      <c r="G3" s="227"/>
+      <c r="G3" s="252"/>
       <c r="H3" s="86"/>
       <c r="I3" s="86"/>
       <c r="J3" s="87"/>
@@ -11025,10 +12158,10 @@
       <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="228" t="s">
+      <c r="B6" s="253" t="s">
         <v>337</v>
       </c>
-      <c r="C6" s="228"/>
+      <c r="C6" s="253"/>
       <c r="D6" s="94"/>
       <c r="E6" s="94"/>
       <c r="F6" s="94"/>
@@ -11197,11 +12330,11 @@
       <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="228" t="s">
+      <c r="B14" s="253" t="s">
         <v>367</v>
       </c>
-      <c r="C14" s="228"/>
-      <c r="D14" s="228"/>
+      <c r="C14" s="253"/>
+      <c r="D14" s="253"/>
       <c r="E14" s="94"/>
       <c r="F14" s="94"/>
       <c r="G14" s="95"/>
@@ -11377,11 +12510,11 @@
       <c r="G22" s="98"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="228" t="s">
+      <c r="B23" s="253" t="s">
         <v>377</v>
       </c>
-      <c r="C23" s="228"/>
-      <c r="D23" s="228"/>
+      <c r="C23" s="253"/>
+      <c r="D23" s="253"/>
       <c r="E23" s="94"/>
       <c r="F23" s="94"/>
       <c r="G23" s="95"/>
@@ -11427,10 +12560,10 @@
       <c r="F26" s="160" t="s">
         <v>384</v>
       </c>
-      <c r="G26" s="229" t="s">
+      <c r="G26" s="254" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="230"/>
+      <c r="H26" s="255"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="100">
@@ -11455,8 +12588,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="223"/>
-      <c r="H27" s="224"/>
+      <c r="G27" s="248"/>
+      <c r="H27" s="249"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="100">
@@ -11481,8 +12614,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="223"/>
-      <c r="H28" s="224"/>
+      <c r="G28" s="248"/>
+      <c r="H28" s="249"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="100">
@@ -11507,8 +12640,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="223"/>
-      <c r="H29" s="224"/>
+      <c r="G29" s="248"/>
+      <c r="H29" s="249"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="100">
@@ -11533,8 +12666,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="223"/>
-      <c r="H30" s="224"/>
+      <c r="G30" s="248"/>
+      <c r="H30" s="249"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="100"/>
@@ -11555,8 +12688,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="223"/>
-      <c r="H31" s="224"/>
+      <c r="G31" s="248"/>
+      <c r="H31" s="249"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="106"/>
@@ -11594,10 +12727,10 @@
       <c r="E34" s="160" t="s">
         <v>343</v>
       </c>
-      <c r="F34" s="231" t="s">
+      <c r="F34" s="256" t="s">
         <v>346</v>
       </c>
-      <c r="G34" s="232"/>
+      <c r="G34" s="257"/>
     </row>
     <row r="35" spans="1:12" s="125" customFormat="1" ht="14.4">
       <c r="A35" s="121"/>
@@ -11613,8 +12746,8 @@
       <c r="E35" s="126" t="s">
         <v>351</v>
       </c>
-      <c r="F35" s="234"/>
-      <c r="G35" s="235"/>
+      <c r="F35" s="259"/>
+      <c r="G35" s="260"/>
       <c r="H35" s="124"/>
       <c r="I35" s="124"/>
       <c r="J35" s="124"/>
@@ -11637,8 +12770,8 @@
       <c r="E36" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="F36" s="223"/>
-      <c r="G36" s="224"/>
+      <c r="F36" s="248"/>
+      <c r="G36" s="249"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="100">
@@ -11656,8 +12789,8 @@
       <c r="E37" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="F37" s="223"/>
-      <c r="G37" s="224"/>
+      <c r="F37" s="248"/>
+      <c r="G37" s="249"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="106"/>
@@ -11670,10 +12803,10 @@
       <c r="H38" s="108"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="228" t="s">
+      <c r="B39" s="253" t="s">
         <v>398</v>
       </c>
-      <c r="C39" s="228"/>
+      <c r="C39" s="253"/>
       <c r="D39" s="94"/>
       <c r="E39" s="94"/>
       <c r="F39" s="94"/>
@@ -11697,15 +12830,15 @@
       <c r="B41" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="233" t="s">
+      <c r="C41" s="258" t="s">
         <v>400</v>
       </c>
-      <c r="D41" s="233"/>
-      <c r="E41" s="233" t="s">
+      <c r="D41" s="258"/>
+      <c r="E41" s="258" t="s">
         <v>401</v>
       </c>
-      <c r="F41" s="233"/>
-      <c r="G41" s="233"/>
+      <c r="F41" s="258"/>
+      <c r="G41" s="258"/>
       <c r="H41" s="99" t="s">
         <v>402</v>
       </c>
@@ -11717,15 +12850,15 @@
       <c r="B42" s="161" t="s">
         <v>403</v>
       </c>
-      <c r="C42" s="236" t="s">
+      <c r="C42" s="261" t="s">
         <v>404</v>
       </c>
-      <c r="D42" s="236"/>
-      <c r="E42" s="236" t="s">
+      <c r="D42" s="261"/>
+      <c r="E42" s="261" t="s">
         <v>405</v>
       </c>
-      <c r="F42" s="236"/>
-      <c r="G42" s="236"/>
+      <c r="F42" s="261"/>
+      <c r="G42" s="261"/>
       <c r="H42" s="109"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -11735,15 +12868,15 @@
       <c r="B43" s="161" t="s">
         <v>403</v>
       </c>
-      <c r="C43" s="236" t="s">
+      <c r="C43" s="261" t="s">
         <v>404</v>
       </c>
-      <c r="D43" s="236"/>
-      <c r="E43" s="236" t="s">
+      <c r="D43" s="261"/>
+      <c r="E43" s="261" t="s">
         <v>405</v>
       </c>
-      <c r="F43" s="236"/>
-      <c r="G43" s="236"/>
+      <c r="F43" s="261"/>
+      <c r="G43" s="261"/>
       <c r="H43" s="109"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -11753,15 +12886,15 @@
       <c r="B44" s="161" t="s">
         <v>403</v>
       </c>
-      <c r="C44" s="236" t="s">
+      <c r="C44" s="261" t="s">
         <v>404</v>
       </c>
-      <c r="D44" s="236"/>
-      <c r="E44" s="236" t="s">
+      <c r="D44" s="261"/>
+      <c r="E44" s="261" t="s">
         <v>405</v>
       </c>
-      <c r="F44" s="236"/>
-      <c r="G44" s="236"/>
+      <c r="F44" s="261"/>
+      <c r="G44" s="261"/>
       <c r="H44" s="109"/>
     </row>
     <row r="45" spans="1:12">
@@ -11773,10 +12906,10 @@
       <c r="G45" s="98"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="228" t="s">
+      <c r="B46" s="253" t="s">
         <v>406</v>
       </c>
-      <c r="C46" s="228"/>
+      <c r="C46" s="253"/>
       <c r="D46" s="94"/>
       <c r="E46" s="94"/>
       <c r="F46" s="94"/>
@@ -11794,25 +12927,25 @@
       <c r="G47" s="98"/>
     </row>
     <row r="48" spans="1:12" s="113" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="239" t="s">
+      <c r="A48" s="264" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="241" t="s">
+      <c r="B48" s="266" t="s">
         <v>408</v>
       </c>
-      <c r="C48" s="231" t="s">
+      <c r="C48" s="256" t="s">
         <v>409</v>
       </c>
-      <c r="D48" s="243"/>
-      <c r="E48" s="243"/>
-      <c r="F48" s="232"/>
-      <c r="G48" s="244" t="s">
+      <c r="D48" s="268"/>
+      <c r="E48" s="268"/>
+      <c r="F48" s="257"/>
+      <c r="G48" s="269" t="s">
         <v>376</v>
       </c>
-      <c r="H48" s="244" t="s">
+      <c r="H48" s="269" t="s">
         <v>408</v>
       </c>
-      <c r="I48" s="237" t="s">
+      <c r="I48" s="262" t="s">
         <v>410</v>
       </c>
       <c r="J48" s="112"/>
@@ -11820,8 +12953,8 @@
       <c r="L48" s="112"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="240"/>
-      <c r="B49" s="242"/>
+      <c r="A49" s="265"/>
+      <c r="B49" s="267"/>
       <c r="C49" s="114" t="s">
         <v>385</v>
       </c>
@@ -11834,13 +12967,13 @@
       <c r="F49" s="115" t="s">
         <v>388</v>
       </c>
-      <c r="G49" s="245"/>
-      <c r="H49" s="245"/>
-      <c r="I49" s="238"/>
+      <c r="G49" s="270"/>
+      <c r="H49" s="270"/>
+      <c r="I49" s="263"/>
     </row>
     <row r="50" spans="1:9" ht="26.4">
-      <c r="A50" s="240"/>
-      <c r="B50" s="242"/>
+      <c r="A50" s="265"/>
+      <c r="B50" s="267"/>
       <c r="C50" s="128" t="s">
         <v>411</v>
       </c>

--- a/Test design technique assignment_Phạm Anh Đức.xlsx
+++ b/Test design technique assignment_Phạm Anh Đức.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\OJT Nash Tech\Test design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89A2E3B-4EDB-452C-8DEE-3CBF40608003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962C4D6C-53D1-40BD-9CFF-C628B29C8516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Record of Change" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Cover" sheetId="6" r:id="rId3"/>
     <sheet name="Common checklist" sheetId="7" r:id="rId4"/>
     <sheet name="Assignment 1" sheetId="8" r:id="rId5"/>
-    <sheet name="User Story 2" sheetId="9" r:id="rId6"/>
+    <sheet name="Assignment 2" sheetId="9" r:id="rId6"/>
     <sheet name="User Story 3" sheetId="15" r:id="rId7"/>
     <sheet name="Test report" sheetId="10" r:id="rId8"/>
   </sheets>
@@ -180,7 +180,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
-    <author>Nguyen Dao Thi Binh</author>
   </authors>
   <commentList>
     <comment ref="F17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
@@ -234,318 +233,6 @@
 Untested
 N/A
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F31" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nguyen Dao Thi Binh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bug ID: 13050</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F42" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nguyen Dao Thi Binh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bug ID: 13057</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F43" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nguyen Dao Thi Binh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bug ID: 13057</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F45" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nguyen Dao Thi Binh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bug ID: 13057</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F58" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nguyen Dao Thi Binh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bug ID: 13051</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G58" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nguyen Dao Thi Binh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bug ID: 13051</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F59" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nguyen Dao Thi Binh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bug ID: 13059</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G59" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nguyen Dao Thi Binh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bug ID: 13059</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F64" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nguyen Dao Thi Binh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bug ID: 13059</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G64" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nguyen Dao Thi Binh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bug ID: 13059</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F67" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nguyen Dao Thi Binh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bug ID: 13051</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F82" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nguyen Dao Thi Binh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bug ID: 13159</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F84" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nguyen Dao Thi Binh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bug ID: 13159</t>
         </r>
       </text>
     </comment>
@@ -931,7 +618,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="619">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -2835,32 +2522,8 @@
   </si>
   <si>
     <t>1. Go to edit product
-2. Input price 1,900
-3. Check the discounted price in the product view page</t>
-  </si>
-  <si>
-    <t>1. Go to edit product
-2. Input price 1,500
-3. Check the discounted price in the product view page</t>
-  </si>
-  <si>
-    <t>1. Go to edit product
-2. Input price 1,300
-3. Check the discounted price in the product view page</t>
-  </si>
-  <si>
-    <t>1. Go to edit product
 2. Input price 1,000
 3. Check the discounted price in the product view page</t>
-  </si>
-  <si>
-    <t>1. Go to product view page 
-2. Check the initial status of the big photo frame</t>
-  </si>
-  <si>
-    <t>Verify big photo frame:
-- Doen't show any images in case 0 image in the photo list
-- Show the first image in the photo list in case the photo list has images</t>
   </si>
   <si>
     <t>1. Go to edit product
@@ -2868,9 +2531,6 @@
 3. Check the display image of big photo frame in the product view page</t>
   </si>
   <si>
-    <t>Verify big photo frame doesn't show any images</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Go to product view page 
 2. Click to next button </t>
   </si>
@@ -2883,12 +2543,6 @@
 2. Click to any images in the photo list</t>
   </si>
   <si>
-    <t>it will show the previous image at the big photo frame</t>
-  </si>
-  <si>
-    <t>it will show the next image at the big photo frame</t>
-  </si>
-  <si>
     <t>1. Go to product view page 
 2. Check the next button when there are 1 image in the photo list</t>
   </si>
@@ -2912,18 +2566,7 @@
   </si>
   <si>
     <t>1. Go to product view page 
-2. Check the next button when click the next button</t>
-  </si>
-  <si>
-    <t>The next image will be displayed at the big photo frame</t>
-  </si>
-  <si>
-    <t>1. Go to product view page 
 2. Check the back button when focus on the first image in the photo list</t>
-  </si>
-  <si>
-    <t>1. Go to product view page 
-2. Check the back button when scrolling to the first image in the photo list</t>
   </si>
   <si>
     <t>1. Go to product view page 
@@ -2934,20 +2577,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Go to product view page 
-2. Click the back button </t>
-  </si>
-  <si>
-    <t>The previous image will be displayed at the big photo frame</t>
-  </si>
-  <si>
-    <t>Enable when scrolling to the first photo in the photo list</t>
-  </si>
-  <si>
-    <t>If 15 images are uploaded then photo list will display 15 images
-If more than 15 images are uploaded then the photo list won't be displayed</t>
-  </si>
-  <si>
     <t>Check that there is a comma when price = 1,000</t>
   </si>
   <si>
@@ -2982,12 +2611,6 @@
     <t>If the price value is a float when price is interger</t>
   </si>
   <si>
-    <t>Verify the price has rounded up and the value is 2,000</t>
-  </si>
-  <si>
-    <t>Verify the price has rounded down and the value is 1,000</t>
-  </si>
-  <si>
     <t>Verify the price has rounded up and the value is 1,000</t>
   </si>
   <si>
@@ -2997,9 +2620,6 @@
     <t xml:space="preserve">Click 'back' button </t>
   </si>
   <si>
-    <t>it will show the chosen image at the big photo frame</t>
-  </si>
-  <si>
     <t>Check with no image</t>
   </si>
   <si>
@@ -3013,9 +2633,6 @@
   </si>
   <si>
     <t>The photo list will display the 5 uploaded images</t>
-  </si>
-  <si>
-    <t>The photo list will display the 10 uploaded images</t>
   </si>
   <si>
     <t>1. Go to edit product
@@ -3043,11 +2660,6 @@
 3. Check the displayed images of the photo list in the product view page</t>
   </si>
   <si>
-    <t>1. Go to edit product
-2. Upload 15 images or more
-3. Check the displayed images of the photo list in the product view page</t>
-  </si>
-  <si>
     <t>The button is disabled</t>
   </si>
   <si>
@@ -3058,12 +2670,6 @@
   </si>
   <si>
     <t>Disable when there is only an image in the photo list</t>
-  </si>
-  <si>
-    <t>When the button is clicked, the next image in the photo list will be displayed at the big photo frame</t>
-  </si>
-  <si>
-    <t>When the button is clicked, the previous image in the photo list will be displayed on the big photo frame</t>
   </si>
   <si>
     <t>1. Go to product view page 
@@ -3072,6 +2678,332 @@
   <si>
     <t>1. Go to product view page 
 2. Check the back button when there are no images in the photo list</t>
+  </si>
+  <si>
+    <t>1. Go to edit product
+2. Upload 15 images 
+3. Check the displayed images of the photo list in the product view page</t>
+  </si>
+  <si>
+    <t>Verify that there are 15 images in the photo list in which the first 5 images are displayed and 10 images is scrolled</t>
+  </si>
+  <si>
+    <t>Verify that there are 10 images in the photo list in which the first 5 images are displayed and 5 images is scrolled</t>
+  </si>
+  <si>
+    <t>1. Go to product view page 
+2. Choose a product with images in the photo list
+3. Check the initial status of the big photo frame</t>
+  </si>
+  <si>
+    <t>Big photo frame doesn't show any images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big photo frame show the first image in the photo list </t>
+  </si>
+  <si>
+    <t>It will show the next image at the big photo frame</t>
+  </si>
+  <si>
+    <t>It will show the previous image at the big photo frame</t>
+  </si>
+  <si>
+    <t>It will show the chosen image at the big photo frame</t>
+  </si>
+  <si>
+    <t>1. Go to product view page
+2. Choose product has original price at 184,562 and get 10% off
+3. Check the discounted price in the product view page</t>
+  </si>
+  <si>
+    <t>Verify the price has rounded down and the value is 18455</t>
+  </si>
+  <si>
+    <t>Verify the price has rounded up and the value is 166,106</t>
+  </si>
+  <si>
+    <t>1. Go to product view page
+2. Choose product has original price at 155,055 and get 10% off
+3. Check the discounted price in the product view page</t>
+  </si>
+  <si>
+    <t>Verify the price has rounded up and the value is 139,550</t>
+  </si>
+  <si>
+    <t>1. Fields Test</t>
+  </si>
+  <si>
+    <t>2. Functions Test</t>
+  </si>
+  <si>
+    <t>Check when user does not enter any characters</t>
+  </si>
+  <si>
+    <t>Check when user enters 10 characters</t>
+  </si>
+  <si>
+    <t>Check when user enters more than 10 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                         1.1. Phone number Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      1.2. Password Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check when user enters 6 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check when user enters 50 characters </t>
+  </si>
+  <si>
+    <t>1.3. Birthday Field</t>
+  </si>
+  <si>
+    <t>Check when user doesn't enter day</t>
+  </si>
+  <si>
+    <t>Check when user doesn't enter month</t>
+  </si>
+  <si>
+    <t>Check when user doesn't enter year</t>
+  </si>
+  <si>
+    <t>Check when user enters invalid phone number</t>
+  </si>
+  <si>
+    <t>Check when user enters valid phone number</t>
+  </si>
+  <si>
+    <t>Check when user enters invalid password</t>
+  </si>
+  <si>
+    <t>Check when user enters valid password</t>
+  </si>
+  <si>
+    <t>Check when user enter only day</t>
+  </si>
+  <si>
+    <t>Check when user enter only month</t>
+  </si>
+  <si>
+    <t>Check when user enter only year</t>
+  </si>
+  <si>
+    <t>Check when user enters invalid birthday</t>
+  </si>
+  <si>
+    <t>Check when user enters valid birthday</t>
+  </si>
+  <si>
+    <t>1.4. Gender Field</t>
+  </si>
+  <si>
+    <t>Check when user doesn't enter gender</t>
+  </si>
+  <si>
+    <t>Check when user enter gender</t>
+  </si>
+  <si>
+    <t>1.5. Fullname Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check when user enters between 6-50  characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check when user enters more than 50 characters </t>
+  </si>
+  <si>
+    <t>Check when user enters 0 - 9 characters</t>
+  </si>
+  <si>
+    <t>Check when user not input numeric</t>
+  </si>
+  <si>
+    <t>Check when user enters both alphanumeric and non-alphanumeric</t>
+  </si>
+  <si>
+    <t>Check when user enters only non-alphanumeric</t>
+  </si>
+  <si>
+    <t>1.6. Email Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check when user enters between 6-60  characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check when user enters 60 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check when user enters more than 60 characters </t>
+  </si>
+  <si>
+    <t>Check when user enters invalid email</t>
+  </si>
+  <si>
+    <t>Check when user enters valid email</t>
+  </si>
+  <si>
+    <t>Check when user does not enter any digits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check when user enters 1-5 digits </t>
+  </si>
+  <si>
+    <t>Check when user enters 6 digits</t>
+  </si>
+  <si>
+    <t>Check when user enters valid SMS verification code</t>
+  </si>
+  <si>
+    <t>1.7. SMS Verification Code</t>
+  </si>
+  <si>
+    <t>1.8. Checkbox</t>
+  </si>
+  <si>
+    <t>Check when the user click on the checkbox</t>
+  </si>
+  <si>
+    <t>Check when the user does not check the checkbox</t>
+  </si>
+  <si>
+    <t>2.1. Login by phone number</t>
+  </si>
+  <si>
+    <t>Check when user doesn't enter any fields</t>
+  </si>
+  <si>
+    <t>Check when user does not enter fullname</t>
+  </si>
+  <si>
+    <t>Check when user does not enter phone number</t>
+  </si>
+  <si>
+    <t>Check when user does not enter SMS verification code</t>
+  </si>
+  <si>
+    <t>Check when user enters invalid SMS verification code</t>
+  </si>
+  <si>
+    <t>Check when user enters more than 6 digits</t>
+  </si>
+  <si>
+    <t>Check when the user only entered the correct phone number</t>
+  </si>
+  <si>
+    <t>Check when the user only entered the correct SMS verification code</t>
+  </si>
+  <si>
+    <t>Check when the user only entered the correct birthday</t>
+  </si>
+  <si>
+    <t>Check when the user only entered the correct password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check when user does not enter password </t>
+  </si>
+  <si>
+    <t>Check when user does not enter birthday</t>
+  </si>
+  <si>
+    <t>Check when the user only entered the correct fullname</t>
+  </si>
+  <si>
+    <t>Check when the user only clicked to the checkbox</t>
+  </si>
+  <si>
+    <t>Check when user enters valid phone number and SMS verification code but the rest of the fields are invalid</t>
+  </si>
+  <si>
+    <t>Check when user enters valid phone number and password but the rest of the fields are invalid</t>
+  </si>
+  <si>
+    <t>Check when user enters valid phone number and birthday but the rest of the fields are invalid</t>
+  </si>
+  <si>
+    <t>Check when user enters valid phone number and fullname but the rest of the fields are invalid</t>
+  </si>
+  <si>
+    <t>Check when user enters valid birthday and fullname but the rest of the fields are invalid</t>
+  </si>
+  <si>
+    <t>Check when user enters valid password and birthday but the rest of the fields are invalid</t>
+  </si>
+  <si>
+    <t>Check when user enters valid password and fullname but the rest of the fields are invalid</t>
+  </si>
+  <si>
+    <t>Check when the user enters valid all the fields but does not click on the checkbox</t>
+  </si>
+  <si>
+    <t>Check when user does not click on the check box</t>
+  </si>
+  <si>
+    <t>Check when the user enters valid all the fields and click on the checkbox</t>
+  </si>
+  <si>
+    <t>2.2. Login by email</t>
+  </si>
+  <si>
+    <t>Check when user does not enter email</t>
+  </si>
+  <si>
+    <t>Check when the user only entered the valid email</t>
+  </si>
+  <si>
+    <t>Check when user does not enter email code</t>
+  </si>
+  <si>
+    <t>Check when the user only entered the valid email code</t>
+  </si>
+  <si>
+    <t>Check when user enters valid email and email code but the rest of the fields are invalid</t>
+  </si>
+  <si>
+    <t>Check when user enters valid email and password but the rest of the fields are invalid</t>
+  </si>
+  <si>
+    <t>Check when user enters valid email and birthday but the rest of the fields are invalid</t>
+  </si>
+  <si>
+    <t>Check when user enters valid email and fullname but the rest of the fields are invalid</t>
+  </si>
+  <si>
+    <t>Check when the user only entered the vaild password</t>
+  </si>
+  <si>
+    <t>Check when the user only entered the vaild birthday</t>
+  </si>
+  <si>
+    <t>Check when the user only entered the valid fullname</t>
+  </si>
+  <si>
+    <t>2.3. Login by Facebook</t>
+  </si>
+  <si>
+    <t>Check when user only enter password</t>
+  </si>
+  <si>
+    <t>Check when user only enter username account</t>
+  </si>
+  <si>
+    <t>Check when user only enter valid username account</t>
+  </si>
+  <si>
+    <t>Check when user only enter valid password</t>
+  </si>
+  <si>
+    <t>Check when user enter valid username and password</t>
+  </si>
+  <si>
+    <t>Check the button status</t>
+  </si>
+  <si>
+    <t>2.4. Login by Google</t>
+  </si>
+  <si>
+    <t>Sign up with Phone number function</t>
   </si>
 </sst>
 </file>
@@ -3560,7 +3492,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3733,6 +3665,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -4123,7 +4073,7 @@
     <xf numFmtId="166" fontId="56" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -4880,6 +4830,57 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -6671,10 +6672,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:X70"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2"/>
@@ -6837,15 +6838,15 @@
         <v>41</v>
       </c>
       <c r="B11" s="75">
-        <f>COUNTIF($F$18:$F$49622,"*Passed")</f>
+        <f>COUNTIF($F$18:$F$49614,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C11" s="75">
-        <f>COUNTIF($G$18:$G$49622,"*Passed")</f>
+        <f>COUNTIF($G$18:$G$49614,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="75">
-        <f>COUNTIF($H$18:$H$49622,"*Passed")</f>
+        <f>COUNTIF($H$18:$H$49614,"*Passed")</f>
         <v>0</v>
       </c>
     </row>
@@ -6854,15 +6855,15 @@
         <v>43</v>
       </c>
       <c r="B12" s="75">
-        <f>COUNTIF($F$18:$F$49342,"*Failed*")</f>
+        <f>COUNTIF($F$18:$F$49334,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="75">
-        <f>COUNTIF($G$18:$G$49342,"*Failed*")</f>
+        <f>COUNTIF($G$18:$G$49334,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="75">
-        <f>COUNTIF($H$18:$H$49342,"*Failed*")</f>
+        <f>COUNTIF($H$18:$H$49334,"*Failed*")</f>
         <v>0</v>
       </c>
     </row>
@@ -6871,15 +6872,15 @@
         <v>45</v>
       </c>
       <c r="B13" s="75">
-        <f>COUNTIF($F$18:$F$49342,"*Not Run*")</f>
+        <f>COUNTIF($F$18:$F$49334,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="75">
-        <f>COUNTIF($G$18:$G$49342,"*Not Run*")</f>
+        <f>COUNTIF($G$18:$G$49334,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="75">
-        <f>COUNTIF($H$18:$H$49342,"*Not Run*")</f>
+        <f>COUNTIF($H$18:$H$49334,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
@@ -6893,15 +6894,15 @@
         <v>103</v>
       </c>
       <c r="B14" s="75">
-        <f>COUNTIF($F$18:$F$49342,"*NA*")</f>
+        <f>COUNTIF($F$18:$F$49334,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="75">
-        <f>COUNTIF($G$18:$G$49342,"*NA*")</f>
+        <f>COUNTIF($G$18:$G$49334,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="75">
-        <f>COUNTIF($H$18:$H$49342,"*NA*")</f>
+        <f>COUNTIF($H$18:$H$49334,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="1"/>
@@ -6915,15 +6916,15 @@
         <v>104</v>
       </c>
       <c r="B15" s="75">
-        <f>COUNTIF($F$18:$F$49342,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$18:$F$49334,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="75">
-        <f>COUNTIF($G$18:$G$49342,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$18:$G$49334,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="75">
-        <f>COUNTIF($H$18:$H$49342,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$18:$H$49334,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="1"/>
@@ -7017,7 +7018,7 @@
         <v>462</v>
       </c>
       <c r="D20" s="60" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="52"/>
@@ -7030,13 +7031,13 @@
         <v>3</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C21" s="52" t="s">
         <v>447</v>
       </c>
       <c r="D21" s="60" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="52"/>
@@ -7049,13 +7050,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="C22" s="52" t="s">
         <v>448</v>
       </c>
       <c r="D22" s="60" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="E22" s="54"/>
       <c r="F22" s="52"/>
@@ -7131,7 +7132,7 @@
         <v>451</v>
       </c>
       <c r="D26" s="60" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="E26" s="54"/>
       <c r="F26" s="52"/>
@@ -7214,7 +7215,7 @@
         <v>463</v>
       </c>
       <c r="D31" s="60" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="E31" s="54"/>
       <c r="F31" s="52"/>
@@ -7227,13 +7228,13 @@
         <v>3</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C32" s="52" t="s">
         <v>458</v>
       </c>
       <c r="D32" s="60" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="E32" s="54"/>
       <c r="F32" s="52"/>
@@ -7246,13 +7247,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="C33" s="52" t="s">
         <v>459</v>
       </c>
       <c r="D33" s="60" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="E33" s="54"/>
       <c r="F33" s="52"/>
@@ -7328,7 +7329,7 @@
         <v>466</v>
       </c>
       <c r="D37" s="60" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="E37" s="54"/>
       <c r="F37" s="52"/>
@@ -7373,13 +7374,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="D40" s="60" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="E40" s="54"/>
       <c r="F40" s="52"/>
@@ -7392,13 +7393,13 @@
         <v>2</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="D41" s="60" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="E41" s="54"/>
       <c r="F41" s="52"/>
@@ -7406,18 +7407,18 @@
       <c r="H41" s="52"/>
       <c r="I41" s="55"/>
     </row>
-    <row r="42" spans="1:9" s="48" customFormat="1" ht="57" customHeight="1">
+    <row r="42" spans="1:9" s="48" customFormat="1" ht="73.8" customHeight="1">
       <c r="A42" s="62">
         <v>3</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="D42" s="60" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="E42" s="54"/>
       <c r="F42" s="52"/>
@@ -7430,13 +7431,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D43" s="54" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="E43" s="54"/>
       <c r="F43" s="52"/>
@@ -7478,10 +7479,10 @@
         <v>454</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D46" s="59" t="s">
-        <v>476</v>
+        <v>517</v>
       </c>
       <c r="E46" s="54"/>
       <c r="F46" s="52"/>
@@ -7489,7 +7490,7 @@
       <c r="H46" s="52"/>
       <c r="I46" s="62"/>
     </row>
-    <row r="47" spans="1:9" s="48" customFormat="1" ht="68.400000000000006" customHeight="1">
+    <row r="47" spans="1:9" s="48" customFormat="1" ht="53.4" customHeight="1">
       <c r="A47" s="62">
         <v>2</v>
       </c>
@@ -7497,10 +7498,10 @@
         <v>455</v>
       </c>
       <c r="C47" s="52" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="D47" s="59" t="s">
-        <v>474</v>
+        <v>518</v>
       </c>
       <c r="E47" s="54"/>
       <c r="F47" s="52"/>
@@ -7513,13 +7514,13 @@
         <v>3</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D48" s="59" t="s">
-        <v>481</v>
+        <v>519</v>
       </c>
       <c r="E48" s="54"/>
       <c r="F48" s="52"/>
@@ -7533,13 +7534,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="52" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="C49" s="52" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D49" s="53" t="s">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="E49" s="54"/>
       <c r="F49" s="52"/>
@@ -7555,10 +7556,10 @@
         <v>456</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D50" s="54" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="E50" s="54"/>
       <c r="F50" s="52"/>
@@ -7584,13 +7585,13 @@
         <v>1</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="D52" s="60" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="E52" s="54"/>
       <c r="F52" s="52"/>
@@ -7606,10 +7607,10 @@
         <v>434</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="D53" s="60" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="E53" s="54"/>
       <c r="F53" s="52"/>
@@ -7625,10 +7626,10 @@
         <v>436</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="D54" s="60" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="E54" s="54"/>
       <c r="F54" s="52"/>
@@ -7644,10 +7645,10 @@
         <v>435</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="D55" s="60" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="E55" s="54"/>
       <c r="F55" s="52"/>
@@ -7663,10 +7664,10 @@
         <v>437</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="D56" s="60" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E56" s="54"/>
       <c r="F56" s="52"/>
@@ -7682,10 +7683,10 @@
         <v>438</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="D57" s="60" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="E57" s="54"/>
       <c r="F57" s="52"/>
@@ -7711,13 +7712,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="52" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="D59" s="60" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="E59" s="54"/>
       <c r="F59" s="52"/>
@@ -7730,13 +7731,13 @@
         <v>2</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D60" s="60" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="E60" s="54"/>
       <c r="F60" s="52"/>
@@ -7749,13 +7750,13 @@
         <v>3</v>
       </c>
       <c r="B61" s="52" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D61" s="60" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="E61" s="54"/>
       <c r="F61" s="52"/>
@@ -7768,13 +7769,13 @@
         <v>4</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D62" s="60" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="E62" s="54"/>
       <c r="F62" s="52"/>
@@ -7782,50 +7783,50 @@
       <c r="H62" s="52"/>
       <c r="I62" s="62"/>
     </row>
-    <row r="63" spans="1:9" ht="43.8" customHeight="1">
-      <c r="A63" s="62">
-        <v>5</v>
-      </c>
-      <c r="B63" s="52" t="s">
-        <v>531</v>
-      </c>
-      <c r="C63" s="52" t="s">
-        <v>488</v>
-      </c>
-      <c r="D63" s="60" t="s">
-        <v>489</v>
-      </c>
-      <c r="E63" s="54"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="62"/>
-    </row>
-    <row r="64" spans="1:9" s="191" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A64" s="228" t="s">
+    <row r="63" spans="1:9" s="191" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A63" s="228" t="s">
         <v>457</v>
       </c>
-      <c r="B64" s="229"/>
-      <c r="C64" s="229"/>
-      <c r="D64" s="230"/>
-      <c r="E64" s="190"/>
-      <c r="F64" s="189"/>
-      <c r="G64" s="189"/>
-      <c r="H64" s="189"/>
-      <c r="I64" s="188"/>
-    </row>
-    <row r="65" spans="1:9" ht="45" customHeight="1">
+      <c r="B63" s="229"/>
+      <c r="C63" s="229"/>
+      <c r="D63" s="230"/>
+      <c r="E63" s="190"/>
+      <c r="F63" s="189"/>
+      <c r="G63" s="189"/>
+      <c r="H63" s="189"/>
+      <c r="I63" s="188"/>
+    </row>
+    <row r="64" spans="1:9" ht="45" customHeight="1">
+      <c r="A64" s="62">
+        <v>1</v>
+      </c>
+      <c r="B64" s="52" t="s">
+        <v>509</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>512</v>
+      </c>
+      <c r="D64" s="60" t="s">
+        <v>507</v>
+      </c>
+      <c r="E64" s="54"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="62"/>
+    </row>
+    <row r="65" spans="1:9" ht="42.6" customHeight="1">
       <c r="A65" s="62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B65" s="52" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="C65" s="52" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="D65" s="60" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="E65" s="54"/>
       <c r="F65" s="52"/>
@@ -7833,18 +7834,18 @@
       <c r="H65" s="52"/>
       <c r="I65" s="62"/>
     </row>
-    <row r="66" spans="1:9" ht="42.6" customHeight="1">
+    <row r="66" spans="1:9" ht="45.6" customHeight="1">
       <c r="A66" s="62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B66" s="52" t="s">
-        <v>530</v>
+        <v>441</v>
       </c>
       <c r="C66" s="52" t="s">
-        <v>533</v>
+        <v>480</v>
       </c>
       <c r="D66" s="60" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="E66" s="54"/>
       <c r="F66" s="52"/>
@@ -7852,18 +7853,18 @@
       <c r="H66" s="52"/>
       <c r="I66" s="62"/>
     </row>
-    <row r="67" spans="1:9" ht="45.6" customHeight="1">
+    <row r="67" spans="1:9" ht="43.8" customHeight="1">
       <c r="A67" s="62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B67" s="52" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="C67" s="52" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D67" s="60" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="E67" s="54"/>
       <c r="F67" s="52"/>
@@ -7871,68 +7872,11 @@
       <c r="H67" s="52"/>
       <c r="I67" s="62"/>
     </row>
-    <row r="68" spans="1:9" ht="46.2" customHeight="1">
-      <c r="A68" s="62">
-        <v>4</v>
-      </c>
-      <c r="B68" s="52" t="s">
-        <v>496</v>
-      </c>
-      <c r="C68" s="52" t="s">
-        <v>491</v>
-      </c>
-      <c r="D68" s="60" t="s">
-        <v>528</v>
-      </c>
-      <c r="E68" s="54"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
-      <c r="I68" s="62"/>
-    </row>
-    <row r="69" spans="1:9" ht="43.8" customHeight="1">
-      <c r="A69" s="62">
-        <v>5</v>
-      </c>
-      <c r="B69" s="52" t="s">
-        <v>493</v>
-      </c>
-      <c r="C69" s="52" t="s">
-        <v>492</v>
-      </c>
-      <c r="D69" s="60" t="s">
-        <v>528</v>
-      </c>
-      <c r="E69" s="54"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="62"/>
-    </row>
-    <row r="70" spans="1:9" ht="45" customHeight="1">
-      <c r="A70" s="62">
-        <v>6</v>
-      </c>
-      <c r="B70" s="52" t="s">
-        <v>532</v>
-      </c>
-      <c r="C70" s="52" t="s">
-        <v>494</v>
-      </c>
-      <c r="D70" s="54" t="s">
-        <v>495</v>
-      </c>
-      <c r="E70" s="54"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="62"/>
-    </row>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B18:D18"/>
@@ -7952,11 +7896,11 @@
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:H18" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F71:H128" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F68:H120" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F19:H70" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F19:H67" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -7968,10 +7912,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:X84"/>
+  <dimension ref="A1:X149"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2"/>
@@ -8026,7 +7970,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="221" t="s">
-        <v>330</v>
+        <v>618</v>
       </c>
       <c r="C4" s="221"/>
       <c r="D4" s="221"/>
@@ -8043,9 +7987,7 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="220" t="s">
-        <v>94</v>
-      </c>
+      <c r="B5" s="220"/>
       <c r="C5" s="221"/>
       <c r="D5" s="221"/>
       <c r="E5" s="39"/>
@@ -8061,9 +8003,7 @@
       <c r="A6" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="220" t="s">
-        <v>97</v>
-      </c>
+      <c r="B6" s="220"/>
       <c r="C6" s="221"/>
       <c r="D6" s="221"/>
       <c r="E6" s="39"/>
@@ -8076,9 +8016,7 @@
       <c r="A7" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="221" t="s">
-        <v>99</v>
-      </c>
+      <c r="B7" s="221"/>
       <c r="C7" s="221"/>
       <c r="D7" s="221"/>
       <c r="E7" s="39"/>
@@ -8092,9 +8030,7 @@
       <c r="A8" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="222">
-        <v>40850</v>
-      </c>
+      <c r="B8" s="222"/>
       <c r="C8" s="222"/>
       <c r="D8" s="222"/>
       <c r="E8" s="39"/>
@@ -8122,15 +8058,15 @@
       </c>
       <c r="B10" s="74">
         <f>SUM(B11:B14)</f>
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="C10" s="74">
         <f>SUM(C11:C14)</f>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D10" s="74">
         <f>SUM(D11:D14)</f>
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="43" customFormat="1">
@@ -8138,16 +8074,16 @@
         <v>41</v>
       </c>
       <c r="B11" s="75">
-        <f>COUNTIF($F$18:$F$49636,"*Passed")</f>
-        <v>46</v>
+        <f>COUNTIF($F$18:$F$49701,"*Passed")</f>
+        <v>0</v>
       </c>
       <c r="C11" s="75">
-        <f>COUNTIF($G$18:$G$49636,"*Passed")</f>
-        <v>52</v>
+        <f>COUNTIF($G$18:$G$49701,"*Passed")</f>
+        <v>0</v>
       </c>
       <c r="D11" s="75">
-        <f>COUNTIF($H$18:$H$49636,"*Passed")</f>
-        <v>56</v>
+        <f>COUNTIF($H$18:$H$49701,"*Passed")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="43" customFormat="1">
@@ -8155,15 +8091,15 @@
         <v>43</v>
       </c>
       <c r="B12" s="75">
-        <f>COUNTIF($F$18:$F$49356,"*Failed*")</f>
-        <v>10</v>
+        <f>COUNTIF($F$18:$F$49421,"*Failed*")</f>
+        <v>0</v>
       </c>
       <c r="C12" s="75">
-        <f>COUNTIF($G$18:$G$49356,"*Failed*")</f>
-        <v>3</v>
+        <f>COUNTIF($G$18:$G$49421,"*Failed*")</f>
+        <v>0</v>
       </c>
       <c r="D12" s="75">
-        <f>COUNTIF($H$18:$H$49356,"*Failed*")</f>
+        <f>COUNTIF($H$18:$H$49421,"*Failed*")</f>
         <v>0</v>
       </c>
     </row>
@@ -8172,15 +8108,15 @@
         <v>45</v>
       </c>
       <c r="B13" s="75">
-        <f>COUNTIF($F$18:$F$49356,"*Not Run*")</f>
+        <f>COUNTIF($F$18:$F$49421,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="75">
-        <f>COUNTIF($G$18:$G$49356,"*Not Run*")</f>
+        <f>COUNTIF($G$18:$G$49421,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="75">
-        <f>COUNTIF($H$18:$H$49356,"*Not Run*")</f>
+        <f>COUNTIF($H$18:$H$49421,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
@@ -8194,15 +8130,15 @@
         <v>103</v>
       </c>
       <c r="B14" s="75">
-        <f>COUNTIF($F$18:$F$49356,"*NA*")</f>
+        <f>COUNTIF($F$18:$F$49421,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="75">
-        <f>COUNTIF($G$18:$G$49356,"*NA*")</f>
+        <f>COUNTIF($G$18:$G$49421,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="75">
-        <f>COUNTIF($H$18:$H$49356,"*NA*")</f>
+        <f>COUNTIF($H$18:$H$49421,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="64"/>
@@ -8216,15 +8152,15 @@
         <v>104</v>
       </c>
       <c r="B15" s="75">
-        <f>COUNTIF($F$18:$F$49356,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$18:$F$49421,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="75">
-        <f>COUNTIF($G$18:$G$49356,"*Passed in previous build*")</f>
-        <v>1</v>
+        <f>COUNTIF($G$18:$G$49421,"*Passed in previous build*")</f>
+        <v>0</v>
       </c>
       <c r="D15" s="75">
-        <f>COUNTIF($H$18:$H$49356,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$18:$H$49421,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="1"/>
@@ -8278,7 +8214,7 @@
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
       <c r="B18" s="241" t="s">
-        <v>114</v>
+        <v>527</v>
       </c>
       <c r="C18" s="242"/>
       <c r="D18" s="243"/>
@@ -8288,1696 +8224,1884 @@
       <c r="H18" s="68"/>
       <c r="I18" s="67"/>
     </row>
-    <row r="19" spans="1:9" s="45" customFormat="1" ht="66">
-      <c r="A19" s="52">
+    <row r="19" spans="1:9" s="45" customFormat="1" ht="16.8" customHeight="1">
+      <c r="A19" s="275" t="s">
+        <v>532</v>
+      </c>
+      <c r="B19" s="276"/>
+      <c r="C19" s="276"/>
+      <c r="D19" s="277"/>
+      <c r="E19" s="272"/>
+      <c r="F19" s="271"/>
+      <c r="G19" s="271"/>
+      <c r="H19" s="271"/>
+      <c r="I19" s="273"/>
+    </row>
+    <row r="20" spans="1:9" s="45" customFormat="1" ht="26.4">
+      <c r="A20" s="62">
         <v>1</v>
       </c>
-      <c r="B19" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="55"/>
-    </row>
-    <row r="20" spans="1:9" s="45" customFormat="1" ht="39.6">
-      <c r="A20" s="58">
+      <c r="B20" s="52" t="s">
+        <v>529</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="55"/>
+    </row>
+    <row r="21" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A21" s="62">
+        <v>3</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>555</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="61"/>
+    </row>
+    <row r="22" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A22" s="62">
+        <v>4</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>530</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="61"/>
+    </row>
+    <row r="23" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A23" s="62">
+        <v>5</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>531</v>
+      </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="61"/>
+    </row>
+    <row r="24" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A24" s="62">
+        <v>6</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>556</v>
+      </c>
+      <c r="C24" s="52"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="61"/>
+    </row>
+    <row r="25" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A25" s="62">
+        <v>7</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="61"/>
+    </row>
+    <row r="26" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A26" s="62">
+        <v>8</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>540</v>
+      </c>
+      <c r="C26" s="52"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="61"/>
+    </row>
+    <row r="27" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A27" s="62">
+        <v>9</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>541</v>
+      </c>
+      <c r="C27" s="52"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="61"/>
+    </row>
+    <row r="28" spans="1:9" s="49" customFormat="1" ht="13.8">
+      <c r="A28" s="278"/>
+      <c r="B28" s="284" t="s">
+        <v>533</v>
+      </c>
+      <c r="C28" s="279"/>
+      <c r="D28" s="280"/>
+      <c r="E28" s="281"/>
+      <c r="F28" s="282"/>
+      <c r="G28" s="282"/>
+      <c r="H28" s="282"/>
+      <c r="I28" s="281"/>
+    </row>
+    <row r="29" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A29" s="62">
+        <v>1</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>529</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="62"/>
+    </row>
+    <row r="30" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A30" s="62">
         <v>2</v>
       </c>
-      <c r="B20" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="55"/>
-    </row>
-    <row r="21" spans="1:9" s="45" customFormat="1" ht="39.6">
-      <c r="A21" s="58">
+      <c r="B30" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="C30" s="52"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="62"/>
+    </row>
+    <row r="31" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A31" s="62">
         <v>3</v>
       </c>
-      <c r="B21" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="55"/>
-    </row>
-    <row r="22" spans="1:9" s="48" customFormat="1" ht="92.4">
-      <c r="A22" s="58">
+      <c r="B31" s="52" t="s">
+        <v>553</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="62"/>
+    </row>
+    <row r="32" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A32" s="62">
         <v>4</v>
       </c>
-      <c r="B22" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="61"/>
-    </row>
-    <row r="23" spans="1:9" s="48" customFormat="1" ht="105.6">
-      <c r="A23" s="58">
+      <c r="B32" s="52" t="s">
+        <v>535</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="62"/>
+    </row>
+    <row r="33" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A33" s="62"/>
+      <c r="B33" s="52" t="s">
+        <v>542</v>
+      </c>
+      <c r="C33" s="52"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="62"/>
+    </row>
+    <row r="34" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A34" s="62">
         <v>5</v>
       </c>
-      <c r="B23" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="F23" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="61"/>
-    </row>
-    <row r="24" spans="1:9" s="48" customFormat="1" ht="79.2">
-      <c r="A24" s="58">
+      <c r="B34" s="52" t="s">
+        <v>543</v>
+      </c>
+      <c r="C34" s="52"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="62"/>
+    </row>
+    <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A35" s="62">
         <v>6</v>
       </c>
-      <c r="B24" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="F24" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="61"/>
-    </row>
-    <row r="25" spans="1:9" s="48" customFormat="1" ht="132">
-      <c r="A25" s="58">
+      <c r="B35" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="C35" s="52"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="62"/>
+    </row>
+    <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A36" s="285"/>
+      <c r="B36" s="284" t="s">
+        <v>536</v>
+      </c>
+      <c r="C36" s="287"/>
+      <c r="D36" s="288"/>
+      <c r="E36" s="286"/>
+      <c r="F36" s="274"/>
+      <c r="G36" s="274"/>
+      <c r="H36" s="274"/>
+      <c r="I36" s="286"/>
+    </row>
+    <row r="37" spans="1:9" s="49" customFormat="1" ht="13.8">
+      <c r="A37" s="63">
+        <v>1</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="C37" s="52"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="63"/>
+    </row>
+    <row r="38" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A38" s="62">
+        <v>2</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>537</v>
+      </c>
+      <c r="C38" s="52"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="62"/>
+    </row>
+    <row r="39" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A39" s="62">
+        <v>3</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>538</v>
+      </c>
+      <c r="C39" s="52"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="62"/>
+    </row>
+    <row r="40" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A40" s="62">
+        <v>4</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>539</v>
+      </c>
+      <c r="C40" s="52"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="62"/>
+    </row>
+    <row r="41" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A41" s="62">
+        <v>5</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="C41" s="52"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="62"/>
+    </row>
+    <row r="42" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A42" s="62">
+        <v>6</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="C42" s="52"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="62"/>
+    </row>
+    <row r="43" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A43" s="62">
         <v>7</v>
       </c>
-      <c r="B25" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="F25" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="61"/>
-    </row>
-    <row r="26" spans="1:9" s="48" customFormat="1" ht="132">
-      <c r="A26" s="58">
+      <c r="B43" s="52" t="s">
+        <v>546</v>
+      </c>
+      <c r="C43" s="52"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="62"/>
+    </row>
+    <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A44" s="62">
         <v>8</v>
       </c>
-      <c r="B26" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="61"/>
-    </row>
-    <row r="27" spans="1:9" s="48" customFormat="1" ht="79.2">
-      <c r="A27" s="58">
+      <c r="B44" s="52" t="s">
+        <v>547</v>
+      </c>
+      <c r="C44" s="52"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="62"/>
+    </row>
+    <row r="45" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A45" s="62">
         <v>9</v>
       </c>
-      <c r="B27" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="E27" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="61"/>
-    </row>
-    <row r="28" spans="1:9" s="48" customFormat="1" ht="79.2">
-      <c r="A28" s="58">
+      <c r="B45" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="C45" s="52"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="62"/>
+    </row>
+    <row r="46" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A46" s="62"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="62"/>
+    </row>
+    <row r="47" spans="1:9" s="283" customFormat="1" ht="13.8">
+      <c r="A47" s="278"/>
+      <c r="B47" s="284" t="s">
+        <v>549</v>
+      </c>
+      <c r="C47" s="279"/>
+      <c r="D47" s="280"/>
+      <c r="E47" s="281"/>
+      <c r="F47" s="282"/>
+      <c r="G47" s="282"/>
+      <c r="H47" s="282"/>
+      <c r="I47" s="281"/>
+    </row>
+    <row r="48" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A48" s="62">
+        <v>1</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="C48" s="52"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="62"/>
+    </row>
+    <row r="49" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A49" s="62">
+        <v>2</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>550</v>
+      </c>
+      <c r="C49" s="52"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="62"/>
+    </row>
+    <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A50" s="62">
+        <v>3</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>551</v>
+      </c>
+      <c r="C50" s="52"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="62"/>
+    </row>
+    <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A51" s="62"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="62"/>
+    </row>
+    <row r="52" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A52" s="278"/>
+      <c r="B52" s="284" t="s">
+        <v>552</v>
+      </c>
+      <c r="C52" s="279"/>
+      <c r="D52" s="280"/>
+      <c r="E52" s="281"/>
+      <c r="F52" s="282"/>
+      <c r="G52" s="282"/>
+      <c r="H52" s="282"/>
+      <c r="I52" s="281"/>
+    </row>
+    <row r="53" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A53" s="62">
+        <v>1</v>
+      </c>
+      <c r="B53" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="C53" s="52"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="62"/>
+    </row>
+    <row r="54" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A54" s="62">
+        <v>2</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>529</v>
+      </c>
+      <c r="C54" s="52"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="62"/>
+    </row>
+    <row r="55" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A55" s="62">
+        <v>3</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="C55" s="52"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="62"/>
+    </row>
+    <row r="56" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A56" s="62">
+        <v>4</v>
+      </c>
+      <c r="B56" s="52" t="s">
+        <v>553</v>
+      </c>
+      <c r="C56" s="52"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="62"/>
+    </row>
+    <row r="57" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A57" s="62">
+        <v>5</v>
+      </c>
+      <c r="B57" s="52" t="s">
+        <v>535</v>
+      </c>
+      <c r="C57" s="52"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="62"/>
+    </row>
+    <row r="58" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A58" s="62">
+        <v>6</v>
+      </c>
+      <c r="B58" s="52" t="s">
+        <v>554</v>
+      </c>
+      <c r="C58" s="52"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="62"/>
+    </row>
+    <row r="59" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A59" s="62">
+        <v>7</v>
+      </c>
+      <c r="B59" s="52" t="s">
+        <v>557</v>
+      </c>
+      <c r="C59" s="52"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="62"/>
+    </row>
+    <row r="60" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A60" s="62">
+        <v>8</v>
+      </c>
+      <c r="B60" s="52" t="s">
+        <v>558</v>
+      </c>
+      <c r="C60" s="52"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="62"/>
+    </row>
+    <row r="61" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A61" s="278"/>
+      <c r="B61" s="284" t="s">
+        <v>559</v>
+      </c>
+      <c r="C61" s="279"/>
+      <c r="D61" s="280"/>
+      <c r="E61" s="281"/>
+      <c r="F61" s="282"/>
+      <c r="G61" s="282"/>
+      <c r="H61" s="282"/>
+      <c r="I61" s="281"/>
+    </row>
+    <row r="62" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A62" s="62">
+        <v>1</v>
+      </c>
+      <c r="B62" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="C62" s="52"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="62"/>
+    </row>
+    <row r="63" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A63" s="62">
+        <v>2</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>529</v>
+      </c>
+      <c r="C63" s="52"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="62"/>
+    </row>
+    <row r="64" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A64" s="62">
+        <v>3</v>
+      </c>
+      <c r="B64" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="C64" s="52"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="62"/>
+    </row>
+    <row r="65" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A65" s="62">
+        <v>4</v>
+      </c>
+      <c r="B65" s="52" t="s">
+        <v>560</v>
+      </c>
+      <c r="C65" s="52"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="62"/>
+    </row>
+    <row r="66" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A66" s="62">
+        <v>5</v>
+      </c>
+      <c r="B66" s="52" t="s">
+        <v>561</v>
+      </c>
+      <c r="C66" s="52"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="62"/>
+    </row>
+    <row r="67" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A67" s="62">
+        <v>6</v>
+      </c>
+      <c r="B67" s="52" t="s">
+        <v>562</v>
+      </c>
+      <c r="C67" s="52"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="62"/>
+    </row>
+    <row r="68" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A68" s="62">
+        <v>7</v>
+      </c>
+      <c r="B68" s="52" t="s">
+        <v>557</v>
+      </c>
+      <c r="C68" s="52"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="62"/>
+    </row>
+    <row r="69" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A69" s="62">
+        <v>8</v>
+      </c>
+      <c r="B69" s="52" t="s">
+        <v>558</v>
+      </c>
+      <c r="C69" s="52"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="62"/>
+    </row>
+    <row r="70" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A70" s="62">
+        <v>9</v>
+      </c>
+      <c r="B70" s="52" t="s">
+        <v>563</v>
+      </c>
+      <c r="C70" s="52"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="62"/>
+    </row>
+    <row r="71" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A71" s="62">
         <v>10</v>
       </c>
-      <c r="B28" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="F28" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I28" s="61"/>
-    </row>
-    <row r="29" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A29" s="77"/>
-      <c r="B29" s="241" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="242"/>
-      <c r="D29" s="243"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="69"/>
-    </row>
-    <row r="30" spans="1:9" s="48" customFormat="1" ht="158.4">
-      <c r="A30" s="62">
-        <f t="shared" ref="A30:A34" ca="1" si="0">IF(OFFSET(A30,-1,0) ="",OFFSET(A30,-2,0)+1,OFFSET(A30,-1,0)+1 )</f>
+      <c r="B71" s="52" t="s">
+        <v>564</v>
+      </c>
+      <c r="C71" s="52"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="62"/>
+    </row>
+    <row r="72" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A72" s="62"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="62"/>
+    </row>
+    <row r="73" spans="1:9" s="49" customFormat="1" ht="13.8">
+      <c r="A73" s="278"/>
+      <c r="B73" s="284" t="s">
+        <v>569</v>
+      </c>
+      <c r="C73" s="279"/>
+      <c r="D73" s="280"/>
+      <c r="E73" s="281"/>
+      <c r="F73" s="282"/>
+      <c r="G73" s="282"/>
+      <c r="H73" s="282"/>
+      <c r="I73" s="281"/>
+    </row>
+    <row r="74" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A74" s="62">
+        <v>1</v>
+      </c>
+      <c r="B74" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="C74" s="52"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="62"/>
+    </row>
+    <row r="75" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A75" s="62">
+        <v>2</v>
+      </c>
+      <c r="B75" s="52" t="s">
+        <v>565</v>
+      </c>
+      <c r="C75" s="52"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="62"/>
+    </row>
+    <row r="76" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A76" s="62">
+        <v>3</v>
+      </c>
+      <c r="B76" s="52" t="s">
+        <v>566</v>
+      </c>
+      <c r="C76" s="52"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="52"/>
+      <c r="I76" s="62"/>
+    </row>
+    <row r="77" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A77" s="62">
+        <v>4</v>
+      </c>
+      <c r="B77" s="52" t="s">
+        <v>567</v>
+      </c>
+      <c r="C77" s="52"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="52"/>
+      <c r="I77" s="62"/>
+    </row>
+    <row r="78" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A78" s="62"/>
+      <c r="B78" s="52" t="s">
+        <v>579</v>
+      </c>
+      <c r="C78" s="52"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="52"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="62"/>
+    </row>
+    <row r="79" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A79" s="62">
+        <v>5</v>
+      </c>
+      <c r="B79" s="52" t="s">
+        <v>578</v>
+      </c>
+      <c r="C79" s="52"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="52"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="52"/>
+      <c r="I79" s="62"/>
+    </row>
+    <row r="80" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A80" s="62">
+        <v>6</v>
+      </c>
+      <c r="B80" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="C80" s="52"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="52"/>
+      <c r="I80" s="62"/>
+    </row>
+    <row r="81" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A81" s="62"/>
+      <c r="B81" s="52"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="52"/>
+      <c r="H81" s="52"/>
+      <c r="I81" s="62"/>
+    </row>
+    <row r="82" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A82" s="278"/>
+      <c r="B82" s="284" t="s">
+        <v>570</v>
+      </c>
+      <c r="C82" s="279"/>
+      <c r="D82" s="280"/>
+      <c r="E82" s="281"/>
+      <c r="F82" s="282"/>
+      <c r="G82" s="282"/>
+      <c r="H82" s="282"/>
+      <c r="I82" s="281"/>
+    </row>
+    <row r="83" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A83" s="62">
+        <v>1</v>
+      </c>
+      <c r="B83" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="C83" s="52"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="52"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="62"/>
+    </row>
+    <row r="84" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A84" s="62">
+        <v>2</v>
+      </c>
+      <c r="B84" s="52" t="s">
+        <v>571</v>
+      </c>
+      <c r="C84" s="52"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="52"/>
+      <c r="I84" s="62"/>
+    </row>
+    <row r="85" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A85" s="62">
+        <v>3</v>
+      </c>
+      <c r="B85" s="52" t="s">
+        <v>572</v>
+      </c>
+      <c r="C85" s="52"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="52"/>
+      <c r="I85" s="62"/>
+    </row>
+    <row r="86" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A86" s="77"/>
+      <c r="B86" s="241" t="s">
+        <v>528</v>
+      </c>
+      <c r="C86" s="242"/>
+      <c r="D86" s="243"/>
+      <c r="E86" s="69"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="69"/>
+    </row>
+    <row r="87" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A87" s="289"/>
+      <c r="B87" s="275" t="s">
+        <v>573</v>
+      </c>
+      <c r="C87" s="276"/>
+      <c r="D87" s="277"/>
+      <c r="E87" s="272"/>
+      <c r="F87" s="271"/>
+      <c r="G87" s="271"/>
+      <c r="H87" s="271"/>
+      <c r="I87" s="289"/>
+    </row>
+    <row r="88" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A88" s="62">
+        <v>1</v>
+      </c>
+      <c r="B88" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="C88" s="52"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="52"/>
+      <c r="H88" s="52"/>
+      <c r="I88" s="62"/>
+    </row>
+    <row r="89" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A89" s="62">
+        <v>2</v>
+      </c>
+      <c r="B89" s="52" t="s">
+        <v>576</v>
+      </c>
+      <c r="C89" s="52"/>
+      <c r="D89" s="60"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="52"/>
+      <c r="H89" s="52"/>
+      <c r="I89" s="62"/>
+    </row>
+    <row r="90" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A90" s="62">
+        <v>3</v>
+      </c>
+      <c r="B90" s="52" t="s">
+        <v>577</v>
+      </c>
+      <c r="C90" s="52"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="52"/>
+      <c r="I90" s="62"/>
+    </row>
+    <row r="91" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A91" s="62">
+        <v>4</v>
+      </c>
+      <c r="B91" s="52" t="s">
+        <v>584</v>
+      </c>
+      <c r="C91" s="52"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="52"/>
+      <c r="I91" s="62"/>
+    </row>
+    <row r="92" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A92" s="62">
+        <v>5</v>
+      </c>
+      <c r="B92" s="52" t="s">
+        <v>585</v>
+      </c>
+      <c r="C92" s="52"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="52"/>
+      <c r="I92" s="62"/>
+    </row>
+    <row r="93" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A93" s="62">
+        <v>6</v>
+      </c>
+      <c r="B93" s="52" t="s">
+        <v>575</v>
+      </c>
+      <c r="C93" s="52"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="52"/>
+      <c r="G93" s="52"/>
+      <c r="H93" s="52"/>
+      <c r="I93" s="62"/>
+    </row>
+    <row r="94" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A94" s="62">
+        <v>7</v>
+      </c>
+      <c r="B94" s="52" t="s">
+        <v>596</v>
+      </c>
+      <c r="C94" s="52"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="52"/>
+      <c r="G94" s="52"/>
+      <c r="H94" s="52"/>
+      <c r="I94" s="62"/>
+    </row>
+    <row r="95" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A95" s="62">
+        <v>8</v>
+      </c>
+      <c r="B95" s="52" t="s">
+        <v>580</v>
+      </c>
+      <c r="C95" s="52"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="52"/>
+      <c r="G95" s="52"/>
+      <c r="H95" s="52"/>
+      <c r="I95" s="62"/>
+    </row>
+    <row r="96" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A96" s="62">
+        <v>9</v>
+      </c>
+      <c r="B96" s="52" t="s">
+        <v>581</v>
+      </c>
+      <c r="C96" s="52"/>
+      <c r="D96" s="60"/>
+      <c r="E96" s="54"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="52"/>
+      <c r="I96" s="62"/>
+    </row>
+    <row r="97" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A97" s="62">
+        <v>10</v>
+      </c>
+      <c r="B97" s="52" t="s">
+        <v>583</v>
+      </c>
+      <c r="C97" s="52"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="52"/>
+      <c r="I97" s="62"/>
+    </row>
+    <row r="98" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A98" s="62">
         <v>11</v>
       </c>
-      <c r="B30" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="62"/>
-    </row>
-    <row r="31" spans="1:9" s="48" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A31" s="62">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B98" s="52" t="s">
+        <v>582</v>
+      </c>
+      <c r="C98" s="52"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="52"/>
+      <c r="I98" s="62"/>
+    </row>
+    <row r="99" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A99" s="62">
         <v>12</v>
       </c>
-      <c r="B31" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="E31" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="F31" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" s="62"/>
-    </row>
-    <row r="32" spans="1:9" s="48" customFormat="1" ht="66">
-      <c r="A32" s="62">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B99" s="52" t="s">
+        <v>586</v>
+      </c>
+      <c r="C99" s="52"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="52"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="52"/>
+      <c r="I99" s="62"/>
+    </row>
+    <row r="100" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A100" s="62">
         <v>13</v>
       </c>
-      <c r="B32" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" s="62"/>
-    </row>
-    <row r="33" spans="1:9" s="48" customFormat="1" ht="145.19999999999999">
-      <c r="A33" s="62">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B100" s="52" t="s">
+        <v>587</v>
+      </c>
+      <c r="C100" s="52"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="54"/>
+      <c r="F100" s="52"/>
+      <c r="G100" s="52"/>
+      <c r="H100" s="52"/>
+      <c r="I100" s="62"/>
+    </row>
+    <row r="101" spans="1:9" s="48" customFormat="1" ht="39.6">
+      <c r="A101" s="62">
         <v>14</v>
       </c>
-      <c r="B33" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="E33" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H33" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I33" s="62"/>
-    </row>
-    <row r="34" spans="1:9" s="48" customFormat="1" ht="171.6">
-      <c r="A34" s="62">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B101" s="52" t="s">
+        <v>588</v>
+      </c>
+      <c r="C101" s="52"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="52"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="52"/>
+      <c r="I101" s="62"/>
+    </row>
+    <row r="102" spans="1:9" s="48" customFormat="1" ht="39.6">
+      <c r="A102" s="62">
         <v>15</v>
       </c>
-      <c r="B34" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="E34" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="F34" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34" s="62"/>
-    </row>
-    <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A35" s="77"/>
-      <c r="B35" s="241" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35" s="242"/>
-      <c r="D35" s="243"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="69"/>
-    </row>
-    <row r="36" spans="1:9" s="48" customFormat="1" ht="92.4">
-      <c r="A36" s="62">
-        <f t="shared" ref="A36:A84" ca="1" si="1">IF(OFFSET(A36,-1,0) ="",OFFSET(A36,-2,0)+1,OFFSET(A36,-1,0)+1 )</f>
+      <c r="B102" s="52" t="s">
+        <v>589</v>
+      </c>
+      <c r="C102" s="52"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="52"/>
+      <c r="G102" s="52"/>
+      <c r="H102" s="52"/>
+      <c r="I102" s="62"/>
+    </row>
+    <row r="103" spans="1:9" s="48" customFormat="1" ht="39.6">
+      <c r="A103" s="62">
         <v>16</v>
       </c>
-      <c r="B36" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="D36" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="E36" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I36" s="62"/>
-    </row>
-    <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A37" s="77"/>
-      <c r="B37" s="241" t="s">
-        <v>177</v>
-      </c>
-      <c r="C37" s="242"/>
-      <c r="D37" s="243"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="69"/>
-    </row>
-    <row r="38" spans="1:9" s="49" customFormat="1" ht="66">
-      <c r="A38" s="63">
-        <f t="shared" ca="1" si="1"/>
+      <c r="B103" s="52" t="s">
+        <v>590</v>
+      </c>
+      <c r="C103" s="52"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="52"/>
+      <c r="I103" s="62"/>
+    </row>
+    <row r="104" spans="1:9" s="48" customFormat="1" ht="39.6">
+      <c r="A104" s="62">
         <v>17</v>
       </c>
-      <c r="B38" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="D38" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="E38" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="F38" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I38" s="63"/>
-    </row>
-    <row r="39" spans="1:9" s="48" customFormat="1" ht="92.4">
-      <c r="A39" s="62">
-        <f t="shared" ca="1" si="1"/>
+      <c r="B104" s="52" t="s">
+        <v>591</v>
+      </c>
+      <c r="C104" s="52"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="52"/>
+      <c r="G104" s="52"/>
+      <c r="H104" s="52"/>
+      <c r="I104" s="62"/>
+    </row>
+    <row r="105" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A105" s="62">
         <v>18</v>
       </c>
-      <c r="B39" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="D39" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="E39" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="F39" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H39" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I39" s="62"/>
-    </row>
-    <row r="40" spans="1:9" s="48" customFormat="1" ht="79.2">
-      <c r="A40" s="62">
-        <f t="shared" ca="1" si="1"/>
+      <c r="B105" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="C105" s="52"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="54"/>
+      <c r="F105" s="52"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="52"/>
+      <c r="I105" s="62"/>
+    </row>
+    <row r="106" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A106" s="62">
         <v>19</v>
       </c>
-      <c r="B40" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="D40" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="E40" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F40" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" s="62"/>
-    </row>
-    <row r="41" spans="1:9" s="48" customFormat="1" ht="79.2">
-      <c r="A41" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B41" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="C41" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="D41" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="E41" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="F41" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H41" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I41" s="62"/>
-    </row>
-    <row r="42" spans="1:9" s="48" customFormat="1" ht="171.6">
-      <c r="A42" s="62">
-        <f t="shared" ca="1" si="1"/>
+      <c r="B106" s="52" t="s">
+        <v>594</v>
+      </c>
+      <c r="C106" s="52"/>
+      <c r="D106" s="60"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="52"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="52"/>
+      <c r="I106" s="62"/>
+    </row>
+    <row r="107" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A107" s="62">
         <v>21</v>
       </c>
-      <c r="B42" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="D42" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="E42" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="F42" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H42" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I42" s="62"/>
-    </row>
-    <row r="43" spans="1:9" s="48" customFormat="1" ht="184.8">
-      <c r="A43" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="D43" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="E43" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="F43" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H43" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I43" s="62"/>
-    </row>
-    <row r="44" spans="1:9" s="48" customFormat="1" ht="171.6">
-      <c r="A44" s="62">
-        <f t="shared" ca="1" si="1"/>
+      <c r="B107" s="52" t="s">
+        <v>592</v>
+      </c>
+      <c r="C107" s="52"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="52"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="52"/>
+      <c r="I107" s="62"/>
+    </row>
+    <row r="108" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A108" s="62">
         <v>23</v>
       </c>
-      <c r="B44" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="D44" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="E44" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="F44" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H44" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I44" s="62"/>
-    </row>
-    <row r="45" spans="1:9" s="48" customFormat="1" ht="105.6">
-      <c r="A45" s="62">
-        <f ca="1">IF(OFFSET(A45,-1,0) ="",OFFSET(A45,-2,0)+1,OFFSET(A45,-1,0)+1 )</f>
+      <c r="B108" s="52" t="s">
+        <v>595</v>
+      </c>
+      <c r="C108" s="52"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="54"/>
+      <c r="F108" s="52"/>
+      <c r="G108" s="52"/>
+      <c r="H108" s="52"/>
+      <c r="I108" s="62"/>
+    </row>
+    <row r="109" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A109" s="62">
         <v>24</v>
       </c>
-      <c r="B45" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="C45" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="D45" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="E45" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="F45" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H45" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I45" s="62"/>
-    </row>
-    <row r="46" spans="1:9" s="48" customFormat="1" ht="66">
-      <c r="A46" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B46" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="C46" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="D46" s="60" t="s">
-        <v>211</v>
-      </c>
-      <c r="E46" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="F46" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H46" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I46" s="62"/>
-    </row>
-    <row r="47" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A47" s="77"/>
-      <c r="B47" s="241" t="s">
-        <v>213</v>
-      </c>
-      <c r="C47" s="242"/>
-      <c r="D47" s="243"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="69"/>
-    </row>
-    <row r="48" spans="1:9" s="48" customFormat="1" ht="79.2">
-      <c r="A48" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B48" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="D48" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="E48" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="F48" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H48" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I48" s="62"/>
-    </row>
-    <row r="49" spans="1:9" s="48" customFormat="1" ht="145.19999999999999">
-      <c r="A49" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B49" s="52" t="s">
-        <v>217</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>218</v>
-      </c>
-      <c r="D49" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="E49" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="F49" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G49" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H49" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I49" s="62"/>
-    </row>
-    <row r="50" spans="1:9" s="48" customFormat="1" ht="158.4">
-      <c r="A50" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B50" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="D50" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="E50" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="F50" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H50" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I50" s="62"/>
-    </row>
-    <row r="51" spans="1:9" s="48" customFormat="1" ht="92.4">
-      <c r="A51" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B51" s="52" t="s">
-        <v>224</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="D51" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="E51" s="54" t="s">
-        <v>227</v>
-      </c>
-      <c r="F51" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G51" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H51" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I51" s="62"/>
-    </row>
-    <row r="52" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A52" s="77"/>
-      <c r="B52" s="241" t="s">
-        <v>228</v>
-      </c>
-      <c r="C52" s="242"/>
-      <c r="D52" s="243"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="66"/>
-      <c r="I52" s="69"/>
-    </row>
-    <row r="53" spans="1:9" s="48" customFormat="1" ht="52.8">
-      <c r="A53" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B53" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="D53" s="53" t="s">
-        <v>231</v>
-      </c>
-      <c r="E53" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="F53" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G53" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H53" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I53" s="62"/>
-    </row>
-    <row r="54" spans="1:9" s="48" customFormat="1" ht="105.6">
-      <c r="A54" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B54" s="52" t="s">
-        <v>232</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="D54" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="E54" s="60" t="s">
-        <v>235</v>
-      </c>
-      <c r="F54" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G54" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H54" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I54" s="62"/>
-    </row>
-    <row r="55" spans="1:9" s="48" customFormat="1" ht="66">
-      <c r="A55" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B55" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="C55" s="52" t="s">
-        <v>237</v>
-      </c>
-      <c r="D55" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="E55" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="F55" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G55" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H55" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I55" s="62"/>
-    </row>
-    <row r="56" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A56" s="77"/>
-      <c r="B56" s="241" t="s">
-        <v>240</v>
-      </c>
-      <c r="C56" s="242"/>
-      <c r="D56" s="243"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="69"/>
-    </row>
-    <row r="57" spans="1:9" s="48" customFormat="1" ht="66">
-      <c r="A57" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B57" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="C57" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="D57" s="53" t="s">
-        <v>243</v>
-      </c>
-      <c r="E57" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="F57" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G57" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H57" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I57" s="62"/>
-    </row>
-    <row r="58" spans="1:9" s="48" customFormat="1" ht="105.6">
-      <c r="A58" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B58" s="52" t="s">
-        <v>244</v>
-      </c>
-      <c r="C58" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="D58" s="54" t="s">
-        <v>246</v>
-      </c>
-      <c r="E58" s="60" t="s">
-        <v>247</v>
-      </c>
-      <c r="F58" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G58" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="H58" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I58" s="62"/>
-    </row>
-    <row r="59" spans="1:9" s="48" customFormat="1" ht="105.6">
-      <c r="A59" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B59" s="52" t="s">
-        <v>248</v>
-      </c>
-      <c r="C59" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="D59" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="E59" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="F59" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G59" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="H59" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I59" s="62"/>
-    </row>
-    <row r="60" spans="1:9" s="48" customFormat="1" ht="92.4">
-      <c r="A60" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B60" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="C60" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="D60" s="54" t="s">
-        <v>253</v>
-      </c>
-      <c r="E60" s="60" t="s">
-        <v>254</v>
-      </c>
-      <c r="F60" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G60" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H60" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I60" s="62"/>
-    </row>
-    <row r="61" spans="1:9" s="48" customFormat="1" ht="105.6">
-      <c r="A61" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>255</v>
-      </c>
-      <c r="C61" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="D61" s="54" t="s">
-        <v>257</v>
-      </c>
-      <c r="E61" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="F61" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G61" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H61" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I61" s="62"/>
-    </row>
-    <row r="62" spans="1:9" s="48" customFormat="1" ht="92.4">
-      <c r="A62" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B62" s="52" t="s">
-        <v>259</v>
-      </c>
-      <c r="C62" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="D62" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="E62" s="54" t="s">
-        <v>262</v>
-      </c>
-      <c r="F62" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G62" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H62" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I62" s="62"/>
-    </row>
-    <row r="63" spans="1:9" s="48" customFormat="1" ht="92.4">
-      <c r="A63" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B63" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="C63" s="52" t="s">
-        <v>264</v>
-      </c>
-      <c r="D63" s="60" t="s">
-        <v>265</v>
-      </c>
-      <c r="E63" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F63" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G63" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H63" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I63" s="62"/>
-    </row>
-    <row r="64" spans="1:9" s="48" customFormat="1" ht="66">
-      <c r="A64" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B64" s="52" t="s">
-        <v>267</v>
-      </c>
-      <c r="C64" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="D64" s="60" t="s">
-        <v>269</v>
-      </c>
-      <c r="E64" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="F64" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G64" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="H64" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I64" s="62"/>
-    </row>
-    <row r="65" spans="1:9" s="48" customFormat="1" ht="92.4">
-      <c r="A65" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B65" s="52" t="s">
-        <v>271</v>
-      </c>
-      <c r="C65" s="52" t="s">
-        <v>272</v>
-      </c>
-      <c r="D65" s="60" t="s">
-        <v>273</v>
-      </c>
-      <c r="E65" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="F65" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G65" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H65" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I65" s="62"/>
-    </row>
-    <row r="66" spans="1:9" s="48" customFormat="1" ht="118.8">
-      <c r="A66" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B66" s="52" t="s">
-        <v>275</v>
-      </c>
-      <c r="C66" s="52" t="s">
-        <v>276</v>
-      </c>
-      <c r="D66" s="54" t="s">
-        <v>277</v>
-      </c>
-      <c r="E66" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="F66" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G66" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H66" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I66" s="62"/>
-    </row>
-    <row r="67" spans="1:9" s="48" customFormat="1" ht="118.8">
-      <c r="A67" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B67" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="C67" s="52" t="s">
-        <v>280</v>
-      </c>
-      <c r="D67" s="54" t="s">
-        <v>281</v>
-      </c>
-      <c r="E67" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="F67" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G67" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H67" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I67" s="62"/>
-    </row>
-    <row r="68" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A68" s="77"/>
-      <c r="B68" s="241" t="s">
-        <v>282</v>
-      </c>
-      <c r="C68" s="242"/>
-      <c r="D68" s="243"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="69"/>
-    </row>
-    <row r="69" spans="1:9" s="48" customFormat="1" ht="52.8">
-      <c r="A69" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B69" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="C69" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="D69" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="E69" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="F69" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G69" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H69" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I69" s="62"/>
-    </row>
-    <row r="70" spans="1:9" s="48" customFormat="1" ht="79.2">
-      <c r="A70" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B70" s="52" t="s">
-        <v>286</v>
-      </c>
-      <c r="C70" s="52" t="s">
-        <v>287</v>
-      </c>
-      <c r="D70" s="60" t="s">
-        <v>288</v>
-      </c>
-      <c r="E70" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="F70" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G70" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H70" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I70" s="62"/>
-    </row>
-    <row r="71" spans="1:9" s="48" customFormat="1" ht="66">
-      <c r="A71" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="B71" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="C71" s="52" t="s">
-        <v>290</v>
-      </c>
-      <c r="D71" s="60" t="s">
-        <v>291</v>
-      </c>
-      <c r="E71" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="F71" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G71" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H71" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I71" s="62"/>
-    </row>
-    <row r="72" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A72" s="77"/>
-      <c r="B72" s="241" t="s">
-        <v>292</v>
-      </c>
-      <c r="C72" s="242"/>
-      <c r="D72" s="243"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="66"/>
-      <c r="I72" s="69"/>
-    </row>
-    <row r="73" spans="1:9" s="48" customFormat="1" ht="118.8">
-      <c r="A73" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="B73" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="C73" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D73" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="E73" s="54" t="s">
-        <v>296</v>
-      </c>
-      <c r="F73" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G73" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H73" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I73" s="62"/>
-    </row>
-    <row r="74" spans="1:9" s="48" customFormat="1" ht="145.19999999999999">
-      <c r="A74" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="B74" s="52" t="s">
-        <v>297</v>
-      </c>
-      <c r="C74" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D74" s="54" t="s">
-        <v>298</v>
-      </c>
-      <c r="E74" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="F74" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G74" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H74" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I74" s="62"/>
-    </row>
-    <row r="75" spans="1:9" s="48" customFormat="1" ht="79.2">
-      <c r="A75" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="B75" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="C75" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D75" s="54" t="s">
-        <v>301</v>
-      </c>
-      <c r="E75" s="54" t="s">
-        <v>302</v>
-      </c>
-      <c r="F75" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G75" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H75" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I75" s="62"/>
-    </row>
-    <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A76" s="77"/>
-      <c r="B76" s="241" t="s">
-        <v>303</v>
-      </c>
-      <c r="C76" s="242"/>
-      <c r="D76" s="243"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="69"/>
-    </row>
-    <row r="77" spans="1:9" s="48" customFormat="1" ht="198">
-      <c r="A77" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="B77" s="52" t="s">
-        <v>304</v>
-      </c>
-      <c r="C77" s="52" t="s">
-        <v>305</v>
-      </c>
-      <c r="D77" s="54" t="s">
-        <v>306</v>
-      </c>
-      <c r="E77" s="60" t="s">
-        <v>307</v>
-      </c>
-      <c r="F77" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G77" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H77" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I77" s="62"/>
-    </row>
-    <row r="78" spans="1:9" s="48" customFormat="1" ht="79.2">
-      <c r="A78" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="B78" s="52" t="s">
-        <v>308</v>
-      </c>
-      <c r="C78" s="52" t="s">
-        <v>305</v>
-      </c>
-      <c r="D78" s="60" t="s">
-        <v>309</v>
-      </c>
-      <c r="E78" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="F78" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G78" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H78" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I78" s="62"/>
-    </row>
-    <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A79" s="77"/>
-      <c r="B79" s="241" t="s">
-        <v>311</v>
-      </c>
-      <c r="C79" s="242"/>
-      <c r="D79" s="243"/>
-      <c r="E79" s="69"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="69"/>
-    </row>
-    <row r="80" spans="1:9" s="48" customFormat="1" ht="79.2">
-      <c r="A80" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="B80" s="52" t="s">
-        <v>312</v>
-      </c>
-      <c r="C80" s="52" t="s">
-        <v>313</v>
-      </c>
-      <c r="D80" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="E80" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="F80" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G80" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H80" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I80" s="62"/>
-    </row>
-    <row r="81" spans="1:9" s="48" customFormat="1" ht="105.6">
-      <c r="A81" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="B81" s="52" t="s">
-        <v>315</v>
-      </c>
-      <c r="C81" s="52" t="s">
-        <v>316</v>
-      </c>
-      <c r="D81" s="60" t="s">
-        <v>317</v>
-      </c>
-      <c r="E81" s="54" t="s">
-        <v>318</v>
-      </c>
-      <c r="F81" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G81" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H81" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I81" s="62"/>
-    </row>
-    <row r="82" spans="1:9" s="48" customFormat="1" ht="66">
-      <c r="A82" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="B82" s="52" t="s">
-        <v>319</v>
-      </c>
-      <c r="C82" s="52" t="s">
-        <v>320</v>
-      </c>
-      <c r="D82" s="60" t="s">
-        <v>321</v>
-      </c>
-      <c r="E82" s="54" t="s">
-        <v>322</v>
-      </c>
-      <c r="F82" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G82" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H82" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I82" s="62"/>
-    </row>
-    <row r="83" spans="1:9" s="48" customFormat="1" ht="79.2">
-      <c r="A83" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="B83" s="52" t="s">
-        <v>323</v>
-      </c>
-      <c r="C83" s="52" t="s">
-        <v>324</v>
-      </c>
-      <c r="D83" s="60" t="s">
-        <v>325</v>
-      </c>
-      <c r="E83" s="54" t="s">
-        <v>326</v>
-      </c>
-      <c r="F83" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G83" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H83" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I83" s="62"/>
-    </row>
-    <row r="84" spans="1:9" s="48" customFormat="1" ht="79.2">
-      <c r="A84" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="B84" s="52" t="s">
-        <v>327</v>
-      </c>
-      <c r="C84" s="52" t="s">
-        <v>328</v>
-      </c>
-      <c r="D84" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="E84" s="54" t="s">
-        <v>326</v>
-      </c>
-      <c r="F84" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G84" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H84" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I84" s="62"/>
+      <c r="B109" s="52" t="s">
+        <v>597</v>
+      </c>
+      <c r="C109" s="52"/>
+      <c r="D109" s="60"/>
+      <c r="E109" s="54"/>
+      <c r="F109" s="52"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="52"/>
+      <c r="I109" s="62"/>
+    </row>
+    <row r="110" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A110" s="289"/>
+      <c r="B110" s="275" t="s">
+        <v>598</v>
+      </c>
+      <c r="C110" s="276"/>
+      <c r="D110" s="277"/>
+      <c r="E110" s="272"/>
+      <c r="F110" s="271"/>
+      <c r="G110" s="271"/>
+      <c r="H110" s="271"/>
+      <c r="I110" s="289"/>
+    </row>
+    <row r="111" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A111" s="62"/>
+      <c r="B111" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="C111" s="52"/>
+      <c r="D111" s="60"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="52"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="52"/>
+      <c r="I111" s="62"/>
+    </row>
+    <row r="112" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A112" s="62"/>
+      <c r="B112" s="52" t="s">
+        <v>599</v>
+      </c>
+      <c r="C112" s="52"/>
+      <c r="D112" s="60"/>
+      <c r="E112" s="54"/>
+      <c r="F112" s="52"/>
+      <c r="G112" s="52"/>
+      <c r="H112" s="52"/>
+      <c r="I112" s="62"/>
+    </row>
+    <row r="113" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A113" s="62"/>
+      <c r="B113" s="52" t="s">
+        <v>601</v>
+      </c>
+      <c r="C113" s="52"/>
+      <c r="D113" s="60"/>
+      <c r="E113" s="54"/>
+      <c r="F113" s="52"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="52"/>
+      <c r="I113" s="62"/>
+    </row>
+    <row r="114" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A114" s="62"/>
+      <c r="B114" s="52" t="s">
+        <v>584</v>
+      </c>
+      <c r="C114" s="52"/>
+      <c r="D114" s="60"/>
+      <c r="E114" s="54"/>
+      <c r="F114" s="52"/>
+      <c r="G114" s="52"/>
+      <c r="H114" s="52"/>
+      <c r="I114" s="62"/>
+    </row>
+    <row r="115" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A115" s="62"/>
+      <c r="B115" s="52" t="s">
+        <v>585</v>
+      </c>
+      <c r="C115" s="52"/>
+      <c r="D115" s="60"/>
+      <c r="E115" s="54"/>
+      <c r="F115" s="52"/>
+      <c r="G115" s="52"/>
+      <c r="H115" s="52"/>
+      <c r="I115" s="62"/>
+    </row>
+    <row r="116" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A116" s="62"/>
+      <c r="B116" s="52" t="s">
+        <v>575</v>
+      </c>
+      <c r="C116" s="52"/>
+      <c r="D116" s="60"/>
+      <c r="E116" s="54"/>
+      <c r="F116" s="52"/>
+      <c r="G116" s="52"/>
+      <c r="H116" s="52"/>
+      <c r="I116" s="62"/>
+    </row>
+    <row r="117" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A117" s="62"/>
+      <c r="B117" s="52" t="s">
+        <v>596</v>
+      </c>
+      <c r="C117" s="52"/>
+      <c r="D117" s="60"/>
+      <c r="E117" s="54"/>
+      <c r="F117" s="52"/>
+      <c r="G117" s="52"/>
+      <c r="H117" s="52"/>
+      <c r="I117" s="62"/>
+    </row>
+    <row r="118" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A118" s="62"/>
+      <c r="B118" s="52" t="s">
+        <v>600</v>
+      </c>
+      <c r="C118" s="52"/>
+      <c r="D118" s="60"/>
+      <c r="E118" s="54"/>
+      <c r="F118" s="52"/>
+      <c r="G118" s="52"/>
+      <c r="H118" s="52"/>
+      <c r="I118" s="62"/>
+    </row>
+    <row r="119" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A119" s="62"/>
+      <c r="B119" s="52" t="s">
+        <v>602</v>
+      </c>
+      <c r="C119" s="52"/>
+      <c r="D119" s="60"/>
+      <c r="E119" s="54"/>
+      <c r="F119" s="52"/>
+      <c r="G119" s="52"/>
+      <c r="H119" s="52"/>
+      <c r="I119" s="62"/>
+    </row>
+    <row r="120" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A120" s="62"/>
+      <c r="B120" s="52" t="s">
+        <v>607</v>
+      </c>
+      <c r="C120" s="52"/>
+      <c r="D120" s="60"/>
+      <c r="E120" s="54"/>
+      <c r="F120" s="52"/>
+      <c r="G120" s="52"/>
+      <c r="H120" s="52"/>
+      <c r="I120" s="62"/>
+    </row>
+    <row r="121" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A121" s="62"/>
+      <c r="B121" s="52" t="s">
+        <v>608</v>
+      </c>
+      <c r="C121" s="52"/>
+      <c r="D121" s="60"/>
+      <c r="E121" s="54"/>
+      <c r="F121" s="52"/>
+      <c r="G121" s="52"/>
+      <c r="H121" s="52"/>
+      <c r="I121" s="62"/>
+    </row>
+    <row r="122" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A122" s="62"/>
+      <c r="B122" s="52" t="s">
+        <v>609</v>
+      </c>
+      <c r="C122" s="52"/>
+      <c r="D122" s="60"/>
+      <c r="E122" s="54"/>
+      <c r="F122" s="52"/>
+      <c r="G122" s="52"/>
+      <c r="H122" s="52"/>
+      <c r="I122" s="62"/>
+    </row>
+    <row r="123" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A123" s="62"/>
+      <c r="B123" s="52" t="s">
+        <v>587</v>
+      </c>
+      <c r="C123" s="52"/>
+      <c r="D123" s="60"/>
+      <c r="E123" s="54"/>
+      <c r="F123" s="52"/>
+      <c r="G123" s="52"/>
+      <c r="H123" s="52"/>
+      <c r="I123" s="62"/>
+    </row>
+    <row r="124" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A124" s="62"/>
+      <c r="B124" s="52" t="s">
+        <v>603</v>
+      </c>
+      <c r="C124" s="52"/>
+      <c r="D124" s="60"/>
+      <c r="E124" s="54"/>
+      <c r="F124" s="52"/>
+      <c r="G124" s="52"/>
+      <c r="H124" s="52"/>
+      <c r="I124" s="62"/>
+    </row>
+    <row r="125" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A125" s="62"/>
+      <c r="B125" s="52" t="s">
+        <v>604</v>
+      </c>
+      <c r="C125" s="52"/>
+      <c r="D125" s="60"/>
+      <c r="E125" s="54"/>
+      <c r="F125" s="52"/>
+      <c r="G125" s="52"/>
+      <c r="H125" s="52"/>
+      <c r="I125" s="62"/>
+    </row>
+    <row r="126" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A126" s="62"/>
+      <c r="B126" s="52" t="s">
+        <v>605</v>
+      </c>
+      <c r="C126" s="52"/>
+      <c r="D126" s="60"/>
+      <c r="E126" s="54"/>
+      <c r="F126" s="52"/>
+      <c r="G126" s="52"/>
+      <c r="H126" s="52"/>
+      <c r="I126" s="62"/>
+    </row>
+    <row r="127" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A127" s="62"/>
+      <c r="B127" s="52" t="s">
+        <v>606</v>
+      </c>
+      <c r="C127" s="52"/>
+      <c r="D127" s="60"/>
+      <c r="E127" s="54"/>
+      <c r="F127" s="52"/>
+      <c r="G127" s="52"/>
+      <c r="H127" s="52"/>
+      <c r="I127" s="62"/>
+    </row>
+    <row r="128" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A128" s="62"/>
+      <c r="B128" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="C128" s="52"/>
+      <c r="D128" s="60"/>
+      <c r="E128" s="54"/>
+      <c r="F128" s="52"/>
+      <c r="G128" s="52"/>
+      <c r="H128" s="52"/>
+      <c r="I128" s="62"/>
+    </row>
+    <row r="129" spans="1:9" s="48" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A129" s="62"/>
+      <c r="B129" s="52" t="s">
+        <v>594</v>
+      </c>
+      <c r="C129" s="52"/>
+      <c r="D129" s="60"/>
+      <c r="E129" s="54"/>
+      <c r="F129" s="52"/>
+      <c r="G129" s="52"/>
+      <c r="H129" s="52"/>
+      <c r="I129" s="62"/>
+    </row>
+    <row r="130" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A130" s="62"/>
+      <c r="B130" s="52" t="s">
+        <v>592</v>
+      </c>
+      <c r="C130" s="52"/>
+      <c r="D130" s="60"/>
+      <c r="E130" s="54"/>
+      <c r="F130" s="52"/>
+      <c r="G130" s="52"/>
+      <c r="H130" s="52"/>
+      <c r="I130" s="62"/>
+    </row>
+    <row r="131" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A131" s="62"/>
+      <c r="B131" s="52" t="s">
+        <v>595</v>
+      </c>
+      <c r="C131" s="52"/>
+      <c r="D131" s="60"/>
+      <c r="E131" s="54"/>
+      <c r="F131" s="52"/>
+      <c r="G131" s="52"/>
+      <c r="H131" s="52"/>
+      <c r="I131" s="62"/>
+    </row>
+    <row r="132" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A132" s="62"/>
+      <c r="B132" s="52" t="s">
+        <v>597</v>
+      </c>
+      <c r="C132" s="52"/>
+      <c r="D132" s="60"/>
+      <c r="E132" s="54"/>
+      <c r="F132" s="52"/>
+      <c r="G132" s="52"/>
+      <c r="H132" s="52"/>
+      <c r="I132" s="62"/>
+    </row>
+    <row r="133" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A133" s="289"/>
+      <c r="B133" s="275" t="s">
+        <v>610</v>
+      </c>
+      <c r="C133" s="276"/>
+      <c r="D133" s="277"/>
+      <c r="E133" s="272"/>
+      <c r="F133" s="271"/>
+      <c r="G133" s="271"/>
+      <c r="H133" s="271"/>
+      <c r="I133" s="289"/>
+    </row>
+    <row r="134" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A134" s="62">
+        <v>1</v>
+      </c>
+      <c r="B134" s="52" t="s">
+        <v>616</v>
+      </c>
+      <c r="C134" s="52"/>
+      <c r="D134" s="60"/>
+      <c r="E134" s="54"/>
+      <c r="F134" s="52"/>
+      <c r="G134" s="52"/>
+      <c r="H134" s="52"/>
+      <c r="I134" s="62"/>
+    </row>
+    <row r="135" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A135" s="62">
+        <v>2</v>
+      </c>
+      <c r="B135" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="C135" s="52"/>
+      <c r="D135" s="60"/>
+      <c r="E135" s="54"/>
+      <c r="F135" s="52"/>
+      <c r="G135" s="52"/>
+      <c r="H135" s="52"/>
+      <c r="I135" s="62"/>
+    </row>
+    <row r="136" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A136" s="62">
+        <v>3</v>
+      </c>
+      <c r="B136" s="52" t="s">
+        <v>612</v>
+      </c>
+      <c r="C136" s="52"/>
+      <c r="D136" s="60"/>
+      <c r="E136" s="54"/>
+      <c r="F136" s="52"/>
+      <c r="G136" s="52"/>
+      <c r="H136" s="52"/>
+      <c r="I136" s="62"/>
+    </row>
+    <row r="137" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A137" s="62">
+        <v>4</v>
+      </c>
+      <c r="B137" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="C137" s="52"/>
+      <c r="D137" s="60"/>
+      <c r="E137" s="54"/>
+      <c r="F137" s="52"/>
+      <c r="G137" s="52"/>
+      <c r="H137" s="52"/>
+      <c r="I137" s="62"/>
+    </row>
+    <row r="138" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A138" s="62">
+        <v>5</v>
+      </c>
+      <c r="B138" s="52" t="s">
+        <v>613</v>
+      </c>
+      <c r="C138" s="52"/>
+      <c r="D138" s="60"/>
+      <c r="E138" s="54"/>
+      <c r="F138" s="52"/>
+      <c r="G138" s="52"/>
+      <c r="H138" s="52"/>
+      <c r="I138" s="62"/>
+    </row>
+    <row r="139" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A139" s="62">
+        <v>6</v>
+      </c>
+      <c r="B139" s="52" t="s">
+        <v>614</v>
+      </c>
+      <c r="C139" s="52"/>
+      <c r="D139" s="60"/>
+      <c r="E139" s="54"/>
+      <c r="F139" s="52"/>
+      <c r="G139" s="52"/>
+      <c r="H139" s="52"/>
+      <c r="I139" s="62"/>
+    </row>
+    <row r="140" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A140" s="62">
+        <v>7</v>
+      </c>
+      <c r="B140" s="52" t="s">
+        <v>615</v>
+      </c>
+      <c r="C140" s="52"/>
+      <c r="D140" s="60"/>
+      <c r="E140" s="54"/>
+      <c r="F140" s="52"/>
+      <c r="G140" s="52"/>
+      <c r="H140" s="52"/>
+      <c r="I140" s="62"/>
+    </row>
+    <row r="141" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A141" s="289"/>
+      <c r="B141" s="275" t="s">
+        <v>617</v>
+      </c>
+      <c r="C141" s="276"/>
+      <c r="D141" s="277"/>
+      <c r="E141" s="272"/>
+      <c r="F141" s="271"/>
+      <c r="G141" s="271"/>
+      <c r="H141" s="271"/>
+      <c r="I141" s="289"/>
+    </row>
+    <row r="142" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A142" s="62">
+        <v>1</v>
+      </c>
+      <c r="B142" s="52" t="s">
+        <v>616</v>
+      </c>
+      <c r="C142" s="52"/>
+      <c r="D142" s="60"/>
+      <c r="E142" s="54"/>
+      <c r="F142" s="52"/>
+      <c r="G142" s="52"/>
+      <c r="H142" s="52"/>
+      <c r="I142" s="62"/>
+    </row>
+    <row r="143" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A143" s="62">
+        <v>2</v>
+      </c>
+      <c r="B143" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="C143" s="52"/>
+      <c r="D143" s="60"/>
+      <c r="E143" s="54"/>
+      <c r="F143" s="52"/>
+      <c r="G143" s="52"/>
+      <c r="H143" s="52"/>
+      <c r="I143" s="62"/>
+    </row>
+    <row r="144" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A144" s="62">
+        <v>3</v>
+      </c>
+      <c r="B144" s="52" t="s">
+        <v>612</v>
+      </c>
+      <c r="C144" s="52"/>
+      <c r="D144" s="60"/>
+      <c r="E144" s="54"/>
+      <c r="F144" s="52"/>
+      <c r="G144" s="52"/>
+      <c r="H144" s="52"/>
+      <c r="I144" s="62"/>
+    </row>
+    <row r="145" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A145" s="62">
+        <v>4</v>
+      </c>
+      <c r="B145" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="C145" s="52"/>
+      <c r="D145" s="60"/>
+      <c r="E145" s="54"/>
+      <c r="F145" s="52"/>
+      <c r="G145" s="52"/>
+      <c r="H145" s="52"/>
+      <c r="I145" s="62"/>
+    </row>
+    <row r="146" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A146" s="62">
+        <v>5</v>
+      </c>
+      <c r="B146" s="52" t="s">
+        <v>613</v>
+      </c>
+      <c r="C146" s="52"/>
+      <c r="D146" s="60"/>
+      <c r="E146" s="54"/>
+      <c r="F146" s="52"/>
+      <c r="G146" s="52"/>
+      <c r="H146" s="52"/>
+      <c r="I146" s="62"/>
+    </row>
+    <row r="147" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A147" s="62">
+        <v>6</v>
+      </c>
+      <c r="B147" s="52" t="s">
+        <v>614</v>
+      </c>
+      <c r="C147" s="52"/>
+      <c r="D147" s="60"/>
+      <c r="E147" s="54"/>
+      <c r="F147" s="52"/>
+      <c r="G147" s="52"/>
+      <c r="H147" s="52"/>
+      <c r="I147" s="62"/>
+    </row>
+    <row r="148" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A148" s="62">
+        <v>7</v>
+      </c>
+      <c r="B148" s="52" t="s">
+        <v>615</v>
+      </c>
+      <c r="C148" s="52"/>
+      <c r="D148" s="60"/>
+      <c r="E148" s="54"/>
+      <c r="F148" s="52"/>
+      <c r="G148" s="52"/>
+      <c r="H148" s="52"/>
+      <c r="I148" s="62"/>
+    </row>
+    <row r="149" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A149" s="62"/>
+      <c r="B149" s="52"/>
+      <c r="C149" s="52"/>
+      <c r="D149" s="60"/>
+      <c r="E149" s="54"/>
+      <c r="F149" s="52"/>
+      <c r="G149" s="52"/>
+      <c r="H149" s="52"/>
+      <c r="I149" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="24">
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B133:D133"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -9989,25 +10113,23 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B73:D73"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F85:H142" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F150:H207" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:H18" xr:uid="{00000000-0002-0000-0500-000001000000}"/>
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17" xr:uid="{00000000-0002-0000-0500-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" sqref="F19:H84" xr:uid="{00000000-0002-0000-0500-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F19:H149" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -13154,6 +13276,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -13318,7 +13446,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -13327,13 +13455,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13352,19 +13483,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Test design technique assignment_Phạm Anh Đức.xlsx
+++ b/Test design technique assignment_Phạm Anh Đức.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\OJT Nash Tech\Test design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962C4D6C-53D1-40BD-9CFF-C628B29C8516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D370E1F6-326E-455D-B542-D764429BDA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="611">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -2817,9 +2817,6 @@
     <t>Check when user enters 0 - 9 characters</t>
   </si>
   <si>
-    <t>Check when user not input numeric</t>
-  </si>
-  <si>
     <t>Check when user enters both alphanumeric and non-alphanumeric</t>
   </si>
   <si>
@@ -2859,15 +2856,9 @@
     <t>1.7. SMS Verification Code</t>
   </si>
   <si>
-    <t>1.8. Checkbox</t>
-  </si>
-  <si>
     <t>Check when the user click on the checkbox</t>
   </si>
   <si>
-    <t>Check when the user does not check the checkbox</t>
-  </si>
-  <si>
     <t>2.1. Login by phone number</t>
   </si>
   <si>
@@ -2943,60 +2934,9 @@
     <t>Check when the user enters valid all the fields and click on the checkbox</t>
   </si>
   <si>
-    <t>2.2. Login by email</t>
-  </si>
-  <si>
-    <t>Check when user does not enter email</t>
-  </si>
-  <si>
-    <t>Check when the user only entered the valid email</t>
-  </si>
-  <si>
-    <t>Check when user does not enter email code</t>
-  </si>
-  <si>
-    <t>Check when the user only entered the valid email code</t>
-  </si>
-  <si>
-    <t>Check when user enters valid email and email code but the rest of the fields are invalid</t>
-  </si>
-  <si>
-    <t>Check when user enters valid email and password but the rest of the fields are invalid</t>
-  </si>
-  <si>
-    <t>Check when user enters valid email and birthday but the rest of the fields are invalid</t>
-  </si>
-  <si>
-    <t>Check when user enters valid email and fullname but the rest of the fields are invalid</t>
-  </si>
-  <si>
-    <t>Check when the user only entered the vaild password</t>
-  </si>
-  <si>
-    <t>Check when the user only entered the vaild birthday</t>
-  </si>
-  <si>
-    <t>Check when the user only entered the valid fullname</t>
-  </si>
-  <si>
     <t>2.3. Login by Facebook</t>
   </si>
   <si>
-    <t>Check when user only enter password</t>
-  </si>
-  <si>
-    <t>Check when user only enter username account</t>
-  </si>
-  <si>
-    <t>Check when user only enter valid username account</t>
-  </si>
-  <si>
-    <t>Check when user only enter valid password</t>
-  </si>
-  <si>
-    <t>Check when user enter valid username and password</t>
-  </si>
-  <si>
     <t>Check the button status</t>
   </si>
   <si>
@@ -3004,6 +2944,42 @@
   </si>
   <si>
     <t>Sign up with Phone number function</t>
+  </si>
+  <si>
+    <t>Check when the user clicks the button login with Google</t>
+  </si>
+  <si>
+    <t>Check when the user clicks the button login with Facebook</t>
+  </si>
+  <si>
+    <t>2.2. Login by Email</t>
+  </si>
+  <si>
+    <t>Check when the user clicks the button login with Email</t>
+  </si>
+  <si>
+    <t>Check when the user enters wrong format of the email</t>
+  </si>
+  <si>
+    <t>Check when the user enters correct format of the email</t>
+  </si>
+  <si>
+    <t>1.8. Email Code</t>
+  </si>
+  <si>
+    <t>1.9. Checkbox</t>
+  </si>
+  <si>
+    <t>Check when user enters invalid Email code</t>
+  </si>
+  <si>
+    <t>Check when user enters valid Email code</t>
+  </si>
+  <si>
+    <t>Check when user enters both numeric and non-numeric</t>
+  </si>
+  <si>
+    <t>Check when user enters only non-numeric</t>
   </si>
 </sst>
 </file>
@@ -4073,7 +4049,7 @@
     <xf numFmtId="166" fontId="56" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -4594,243 +4570,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4843,44 +4582,284 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="30" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -5642,37 +5621,37 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="195" t="s">
+      <c r="A4" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="196"/>
-      <c r="C4" s="196"/>
-      <c r="D4" s="196"/>
-      <c r="E4" s="197"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="208"/>
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="198" t="s">
+      <c r="A5" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="198"/>
-      <c r="C5" s="199" t="s">
+      <c r="B5" s="209"/>
+      <c r="C5" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="210"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="200" t="s">
+      <c r="A6" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="201"/>
-      <c r="C6" s="194" t="s">
+      <c r="B6" s="212"/>
+      <c r="C6" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -5684,14 +5663,14 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" s="147" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="192" t="s">
+      <c r="A8" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="193"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="193"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="204"/>
     </row>
     <row r="9" spans="1:6" s="147" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="148" t="s">
@@ -5774,14 +5753,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="147" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="194" t="s">
+      <c r="A13" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="194"/>
-      <c r="C13" s="194"/>
-      <c r="D13" s="194"/>
-      <c r="E13" s="194"/>
-      <c r="F13" s="194"/>
+      <c r="B13" s="205"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="205"/>
+      <c r="E13" s="205"/>
+      <c r="F13" s="205"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18"/>
@@ -5904,36 +5883,36 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="218" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="205" t="s">
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="216" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="205"/>
+      <c r="K2" s="216"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="219" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="206" t="s">
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="217" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="153"/>
@@ -5953,65 +5932,65 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="212" t="s">
+      <c r="A7" s="223" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="212"/>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="212"/>
-      <c r="H7" s="212"/>
-      <c r="I7" s="212"/>
+      <c r="B7" s="223"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="223"/>
+      <c r="E7" s="223"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="223"/>
+      <c r="H7" s="223"/>
+      <c r="I7" s="223"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="212"/>
-      <c r="B8" s="212"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="212"/>
-      <c r="H8" s="212"/>
-      <c r="I8" s="212"/>
+      <c r="A8" s="223"/>
+      <c r="B8" s="223"/>
+      <c r="C8" s="223"/>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="223"/>
+      <c r="I8" s="223"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="212" t="s">
+      <c r="A9" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="212"/>
-      <c r="C9" s="212"/>
-      <c r="D9" s="212"/>
-      <c r="E9" s="212"/>
-      <c r="F9" s="212"/>
-      <c r="G9" s="212"/>
-      <c r="H9" s="212"/>
-      <c r="I9" s="212"/>
+      <c r="B9" s="223"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="223"/>
+      <c r="E9" s="223"/>
+      <c r="F9" s="223"/>
+      <c r="G9" s="223"/>
+      <c r="H9" s="223"/>
+      <c r="I9" s="223"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="212"/>
-      <c r="B10" s="212"/>
-      <c r="C10" s="212"/>
-      <c r="D10" s="212"/>
-      <c r="E10" s="212"/>
-      <c r="F10" s="212"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="212"/>
-      <c r="I10" s="212"/>
+      <c r="A10" s="223"/>
+      <c r="B10" s="223"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="223"/>
+      <c r="G10" s="223"/>
+      <c r="H10" s="223"/>
+      <c r="I10" s="223"/>
     </row>
     <row r="11" spans="1:11" ht="13.8">
-      <c r="A11" s="213" t="s">
+      <c r="A11" s="224" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="213"/>
-      <c r="C11" s="213"/>
-      <c r="D11" s="213"/>
-      <c r="E11" s="213"/>
-      <c r="F11" s="213"/>
-      <c r="G11" s="213"/>
-      <c r="H11" s="213"/>
-      <c r="I11" s="213"/>
+      <c r="B11" s="224"/>
+      <c r="C11" s="224"/>
+      <c r="D11" s="224"/>
+      <c r="E11" s="224"/>
+      <c r="F11" s="224"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="224"/>
+      <c r="I11" s="224"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3"/>
@@ -6033,65 +6012,65 @@
       <c r="A14" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="209" t="s">
+      <c r="B14" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="210"/>
-      <c r="F14" s="210"/>
-      <c r="G14" s="210"/>
-      <c r="H14" s="210"/>
-      <c r="I14" s="210"/>
-      <c r="J14" s="210"/>
-      <c r="K14" s="211"/>
+      <c r="C14" s="221"/>
+      <c r="D14" s="221"/>
+      <c r="E14" s="221"/>
+      <c r="F14" s="221"/>
+      <c r="G14" s="221"/>
+      <c r="H14" s="221"/>
+      <c r="I14" s="221"/>
+      <c r="J14" s="221"/>
+      <c r="K14" s="222"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="209" t="s">
+      <c r="B15" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="210"/>
-      <c r="F15" s="210"/>
-      <c r="G15" s="210"/>
-      <c r="H15" s="210"/>
-      <c r="I15" s="210"/>
-      <c r="J15" s="210"/>
-      <c r="K15" s="211"/>
+      <c r="C15" s="221"/>
+      <c r="D15" s="221"/>
+      <c r="E15" s="221"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="221"/>
+      <c r="H15" s="221"/>
+      <c r="I15" s="221"/>
+      <c r="J15" s="221"/>
+      <c r="K15" s="222"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="134"/>
-      <c r="B16" s="209" t="s">
+      <c r="B16" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="210"/>
-      <c r="D16" s="210"/>
-      <c r="E16" s="210"/>
-      <c r="F16" s="210"/>
-      <c r="G16" s="210"/>
-      <c r="H16" s="210"/>
-      <c r="I16" s="210"/>
-      <c r="J16" s="210"/>
-      <c r="K16" s="211"/>
+      <c r="C16" s="221"/>
+      <c r="D16" s="221"/>
+      <c r="E16" s="221"/>
+      <c r="F16" s="221"/>
+      <c r="G16" s="221"/>
+      <c r="H16" s="221"/>
+      <c r="I16" s="221"/>
+      <c r="J16" s="221"/>
+      <c r="K16" s="222"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="134"/>
-      <c r="B17" s="209" t="s">
+      <c r="B17" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="210"/>
-      <c r="D17" s="210"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="210"/>
-      <c r="G17" s="210"/>
-      <c r="H17" s="210"/>
-      <c r="I17" s="210"/>
-      <c r="J17" s="210"/>
-      <c r="K17" s="211"/>
+      <c r="C17" s="221"/>
+      <c r="D17" s="221"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="221"/>
+      <c r="H17" s="221"/>
+      <c r="I17" s="221"/>
+      <c r="J17" s="221"/>
+      <c r="K17" s="222"/>
     </row>
     <row r="19" spans="1:14" ht="22.8">
       <c r="A19" s="4" t="s">
@@ -6102,40 +6081,40 @@
       <c r="A20" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="209" t="s">
+      <c r="B20" s="220" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="210"/>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="211"/>
+      <c r="C20" s="221"/>
+      <c r="D20" s="221"/>
+      <c r="E20" s="221"/>
+      <c r="F20" s="221"/>
+      <c r="G20" s="222"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="209" t="s">
+      <c r="B21" s="220" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="210"/>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="211"/>
+      <c r="C21" s="221"/>
+      <c r="D21" s="221"/>
+      <c r="E21" s="221"/>
+      <c r="F21" s="221"/>
+      <c r="G21" s="222"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="209" t="s">
+      <c r="B22" s="220" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="210"/>
-      <c r="D22" s="210"/>
-      <c r="E22" s="210"/>
-      <c r="F22" s="210"/>
-      <c r="G22" s="211"/>
+      <c r="C22" s="221"/>
+      <c r="D22" s="221"/>
+      <c r="E22" s="221"/>
+      <c r="F22" s="221"/>
+      <c r="G22" s="222"/>
     </row>
     <row r="24" spans="1:14" ht="22.8">
       <c r="A24" s="4" t="s">
@@ -6194,11 +6173,11 @@
       <c r="N27" s="70"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="202" t="s">
+      <c r="B29" s="213" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="203"/>
-      <c r="D29" s="204"/>
+      <c r="C29" s="214"/>
+      <c r="D29" s="215"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="5"/>
@@ -6275,14 +6254,14 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="24.6">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="225" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10"/>
@@ -6468,12 +6447,12 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="24.6">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="228" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
       <c r="E2" s="156"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -6634,18 +6613,18 @@
       <c r="F14" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="13.8">
-      <c r="A16" s="215" t="s">
+      <c r="A16" s="226" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="215"/>
+      <c r="B16" s="226"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="13.8">
-      <c r="A17" s="216" t="s">
+      <c r="A17" s="227" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="216"/>
+      <c r="B17" s="227"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="33"/>
@@ -6689,10 +6668,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="218"/>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
+      <c r="A1" s="249"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -6701,13 +6680,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="223"/>
+      <c r="B2" s="250"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="242"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -6716,9 +6695,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="223"/>
+      <c r="C3" s="243"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="242"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -6729,11 +6708,11 @@
       <c r="A4" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="221" t="s">
+      <c r="B4" s="244" t="s">
         <v>419</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -6747,9 +6726,9 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="220"/>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -6763,11 +6742,11 @@
       <c r="A6" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="220" t="s">
+      <c r="B6" s="245" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
+      <c r="C6" s="244"/>
+      <c r="D6" s="244"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -6778,11 +6757,11 @@
       <c r="A7" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="221" t="s">
+      <c r="B7" s="244" t="s">
         <v>418</v>
       </c>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="244"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -6794,9 +6773,9 @@
       <c r="A8" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="222"/>
-      <c r="C8" s="222"/>
-      <c r="D8" s="222"/>
+      <c r="B8" s="251"/>
+      <c r="C8" s="251"/>
+      <c r="D8" s="251"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -6939,11 +6918,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="234" t="s">
+      <c r="F16" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="234"/>
-      <c r="H16" s="234"/>
+      <c r="G16" s="235"/>
+      <c r="H16" s="235"/>
       <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39.6">
@@ -6977,11 +6956,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="170"/>
-      <c r="B18" s="231" t="s">
+      <c r="B18" s="232" t="s">
         <v>420</v>
       </c>
-      <c r="C18" s="232"/>
-      <c r="D18" s="233"/>
+      <c r="C18" s="233"/>
+      <c r="D18" s="234"/>
       <c r="E18" s="170"/>
       <c r="F18" s="171"/>
       <c r="G18" s="171"/>
@@ -7160,12 +7139,12 @@
       <c r="I27" s="55"/>
     </row>
     <row r="28" spans="1:9" s="45" customFormat="1" ht="22.8" customHeight="1">
-      <c r="A28" s="225" t="s">
+      <c r="A28" s="246" t="s">
         <v>421</v>
       </c>
-      <c r="B28" s="226"/>
-      <c r="C28" s="226"/>
-      <c r="D28" s="227"/>
+      <c r="B28" s="247"/>
+      <c r="C28" s="247"/>
+      <c r="D28" s="248"/>
       <c r="E28" s="167"/>
       <c r="F28" s="168"/>
       <c r="G28" s="168"/>
@@ -7173,13 +7152,13 @@
       <c r="I28" s="169"/>
     </row>
     <row r="29" spans="1:9" s="177" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A29" s="235" t="s">
+      <c r="A29" s="236" t="s">
         <v>427</v>
       </c>
-      <c r="B29" s="236"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="236"/>
-      <c r="E29" s="237"/>
+      <c r="B29" s="237"/>
+      <c r="C29" s="237"/>
+      <c r="D29" s="237"/>
+      <c r="E29" s="238"/>
       <c r="F29" s="175"/>
       <c r="G29" s="175"/>
       <c r="H29" s="175"/>
@@ -7357,13 +7336,13 @@
       <c r="I38" s="55"/>
     </row>
     <row r="39" spans="1:9" s="181" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A39" s="238" t="s">
+      <c r="A39" s="239" t="s">
         <v>431</v>
       </c>
-      <c r="B39" s="239"/>
-      <c r="C39" s="239"/>
-      <c r="D39" s="239"/>
-      <c r="E39" s="240"/>
+      <c r="B39" s="240"/>
+      <c r="C39" s="240"/>
+      <c r="D39" s="240"/>
+      <c r="E39" s="241"/>
       <c r="F39" s="179"/>
       <c r="G39" s="179"/>
       <c r="H39" s="179"/>
@@ -7447,11 +7426,11 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A44" s="172"/>
-      <c r="B44" s="231" t="s">
+      <c r="B44" s="232" t="s">
         <v>432</v>
       </c>
-      <c r="C44" s="232"/>
-      <c r="D44" s="233"/>
+      <c r="C44" s="233"/>
+      <c r="D44" s="234"/>
       <c r="E44" s="173"/>
       <c r="F44" s="174"/>
       <c r="G44" s="174"/>
@@ -7568,12 +7547,12 @@
       <c r="I50" s="62"/>
     </row>
     <row r="51" spans="1:9" s="191" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A51" s="228" t="s">
+      <c r="A51" s="229" t="s">
         <v>439</v>
       </c>
-      <c r="B51" s="229"/>
-      <c r="C51" s="229"/>
-      <c r="D51" s="230"/>
+      <c r="B51" s="230"/>
+      <c r="C51" s="230"/>
+      <c r="D51" s="231"/>
       <c r="E51" s="190"/>
       <c r="F51" s="189"/>
       <c r="G51" s="189"/>
@@ -7695,12 +7674,12 @@
       <c r="I57" s="62"/>
     </row>
     <row r="58" spans="1:9" s="191" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A58" s="228" t="s">
+      <c r="A58" s="229" t="s">
         <v>440</v>
       </c>
-      <c r="B58" s="229"/>
-      <c r="C58" s="229"/>
-      <c r="D58" s="230"/>
+      <c r="B58" s="230"/>
+      <c r="C58" s="230"/>
+      <c r="D58" s="231"/>
       <c r="E58" s="190"/>
       <c r="F58" s="189"/>
       <c r="G58" s="189"/>
@@ -7784,12 +7763,12 @@
       <c r="I62" s="62"/>
     </row>
     <row r="63" spans="1:9" s="191" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A63" s="228" t="s">
+      <c r="A63" s="229" t="s">
         <v>457</v>
       </c>
-      <c r="B63" s="229"/>
-      <c r="C63" s="229"/>
-      <c r="D63" s="230"/>
+      <c r="B63" s="230"/>
+      <c r="C63" s="230"/>
+      <c r="D63" s="231"/>
       <c r="E63" s="190"/>
       <c r="F63" s="189"/>
       <c r="G63" s="189"/>
@@ -7874,6 +7853,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A63:D63"/>
@@ -7882,16 +7871,6 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="A39:E39"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
@@ -7912,10 +7891,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:X149"/>
+  <dimension ref="A1:X128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2"/>
@@ -7929,10 +7908,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="218"/>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
+      <c r="A1" s="249"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -7941,13 +7920,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="223"/>
+      <c r="B2" s="250"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="242"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -7956,9 +7935,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="223"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="242"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -7969,11 +7948,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="221" t="s">
-        <v>618</v>
-      </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
+      <c r="B4" s="244" t="s">
+        <v>598</v>
+      </c>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -7987,9 +7966,9 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="220"/>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -8003,9 +7982,9 @@
       <c r="A6" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="220"/>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
+      <c r="B6" s="245"/>
+      <c r="C6" s="244"/>
+      <c r="D6" s="244"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -8016,9 +7995,9 @@
       <c r="A7" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="221"/>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
+      <c r="B7" s="244"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="244"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -8030,9 +8009,9 @@
       <c r="A8" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="222"/>
-      <c r="C8" s="222"/>
-      <c r="D8" s="222"/>
+      <c r="B8" s="251"/>
+      <c r="C8" s="251"/>
+      <c r="D8" s="251"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -8074,15 +8053,15 @@
         <v>41</v>
       </c>
       <c r="B11" s="75">
-        <f>COUNTIF($F$18:$F$49701,"*Passed")</f>
+        <f>COUNTIF($F$18:$F$49680,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C11" s="75">
-        <f>COUNTIF($G$18:$G$49701,"*Passed")</f>
+        <f>COUNTIF($G$18:$G$49680,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="75">
-        <f>COUNTIF($H$18:$H$49701,"*Passed")</f>
+        <f>COUNTIF($H$18:$H$49680,"*Passed")</f>
         <v>0</v>
       </c>
     </row>
@@ -8091,15 +8070,15 @@
         <v>43</v>
       </c>
       <c r="B12" s="75">
-        <f>COUNTIF($F$18:$F$49421,"*Failed*")</f>
+        <f>COUNTIF($F$18:$F$49400,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="75">
-        <f>COUNTIF($G$18:$G$49421,"*Failed*")</f>
+        <f>COUNTIF($G$18:$G$49400,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="75">
-        <f>COUNTIF($H$18:$H$49421,"*Failed*")</f>
+        <f>COUNTIF($H$18:$H$49400,"*Failed*")</f>
         <v>0</v>
       </c>
     </row>
@@ -8108,15 +8087,15 @@
         <v>45</v>
       </c>
       <c r="B13" s="75">
-        <f>COUNTIF($F$18:$F$49421,"*Not Run*")</f>
+        <f>COUNTIF($F$18:$F$49400,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="75">
-        <f>COUNTIF($G$18:$G$49421,"*Not Run*")</f>
+        <f>COUNTIF($G$18:$G$49400,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="75">
-        <f>COUNTIF($H$18:$H$49421,"*Not Run*")</f>
+        <f>COUNTIF($H$18:$H$49400,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
@@ -8130,15 +8109,15 @@
         <v>103</v>
       </c>
       <c r="B14" s="75">
-        <f>COUNTIF($F$18:$F$49421,"*NA*")</f>
+        <f>COUNTIF($F$18:$F$49400,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="75">
-        <f>COUNTIF($G$18:$G$49421,"*NA*")</f>
+        <f>COUNTIF($G$18:$G$49400,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="75">
-        <f>COUNTIF($H$18:$H$49421,"*NA*")</f>
+        <f>COUNTIF($H$18:$H$49400,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="64"/>
@@ -8152,15 +8131,15 @@
         <v>104</v>
       </c>
       <c r="B15" s="75">
-        <f>COUNTIF($F$18:$F$49421,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$18:$F$49400,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="75">
-        <f>COUNTIF($G$18:$G$49421,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$18:$G$49400,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="75">
-        <f>COUNTIF($H$18:$H$49421,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$18:$H$49400,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="1"/>
@@ -8175,11 +8154,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="245" t="s">
+      <c r="F16" s="256" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="246"/>
-      <c r="H16" s="247"/>
+      <c r="G16" s="257"/>
+      <c r="H16" s="258"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39.6">
@@ -8213,11 +8192,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="259" t="s">
         <v>527</v>
       </c>
-      <c r="C18" s="242"/>
-      <c r="D18" s="243"/>
+      <c r="C18" s="260"/>
+      <c r="D18" s="261"/>
       <c r="E18" s="67"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -8225,17 +8204,17 @@
       <c r="I18" s="67"/>
     </row>
     <row r="19" spans="1:9" s="45" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A19" s="275" t="s">
+      <c r="A19" s="252" t="s">
         <v>532</v>
       </c>
-      <c r="B19" s="276"/>
-      <c r="C19" s="276"/>
-      <c r="D19" s="277"/>
-      <c r="E19" s="272"/>
-      <c r="F19" s="271"/>
-      <c r="G19" s="271"/>
-      <c r="H19" s="271"/>
-      <c r="I19" s="273"/>
+      <c r="B19" s="253"/>
+      <c r="C19" s="253"/>
+      <c r="D19" s="254"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="192"/>
+      <c r="I19" s="194"/>
     </row>
     <row r="20" spans="1:9" s="45" customFormat="1" ht="26.4">
       <c r="A20" s="62">
@@ -8297,12 +8276,12 @@
       <c r="H23" s="52"/>
       <c r="I23" s="61"/>
     </row>
-    <row r="24" spans="1:9" s="48" customFormat="1" ht="13.8">
+    <row r="24" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A24" s="62">
         <v>6</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>556</v>
+        <v>609</v>
       </c>
       <c r="C24" s="52"/>
       <c r="D24" s="54"/>
@@ -8317,7 +8296,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>455</v>
+        <v>610</v>
       </c>
       <c r="C25" s="52"/>
       <c r="D25" s="54"/>
@@ -8327,12 +8306,12 @@
       <c r="H25" s="52"/>
       <c r="I25" s="61"/>
     </row>
-    <row r="26" spans="1:9" s="48" customFormat="1" ht="26.4">
+    <row r="26" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A26" s="62">
         <v>8</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>540</v>
+        <v>455</v>
       </c>
       <c r="C26" s="52"/>
       <c r="D26" s="54"/>
@@ -8342,12 +8321,12 @@
       <c r="H26" s="52"/>
       <c r="I26" s="61"/>
     </row>
-    <row r="27" spans="1:9" s="48" customFormat="1" ht="13.8">
+    <row r="27" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A27" s="62">
         <v>9</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C27" s="52"/>
       <c r="D27" s="54"/>
@@ -8357,40 +8336,40 @@
       <c r="H27" s="52"/>
       <c r="I27" s="61"/>
     </row>
-    <row r="28" spans="1:9" s="49" customFormat="1" ht="13.8">
-      <c r="A28" s="278"/>
-      <c r="B28" s="284" t="s">
+    <row r="28" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A28" s="62">
+        <v>10</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>541</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="61"/>
+    </row>
+    <row r="29" spans="1:9" s="49" customFormat="1" ht="13.8">
+      <c r="A29" s="196"/>
+      <c r="B29" s="262" t="s">
         <v>533</v>
       </c>
-      <c r="C28" s="279"/>
-      <c r="D28" s="280"/>
-      <c r="E28" s="281"/>
-      <c r="F28" s="282"/>
-      <c r="G28" s="282"/>
-      <c r="H28" s="282"/>
-      <c r="I28" s="281"/>
-    </row>
-    <row r="29" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A29" s="62">
+      <c r="C29" s="263"/>
+      <c r="D29" s="264"/>
+      <c r="E29" s="197"/>
+      <c r="F29" s="198"/>
+      <c r="G29" s="198"/>
+      <c r="H29" s="198"/>
+      <c r="I29" s="197"/>
+    </row>
+    <row r="30" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A30" s="62">
         <v>1</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B30" s="52" t="s">
         <v>529</v>
-      </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="62"/>
-    </row>
-    <row r="30" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A30" s="62">
-        <v>2</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>534</v>
       </c>
       <c r="C30" s="52"/>
       <c r="D30" s="53"/>
@@ -8400,27 +8379,27 @@
       <c r="H30" s="52"/>
       <c r="I30" s="62"/>
     </row>
-    <row r="31" spans="1:9" s="48" customFormat="1" ht="26.4">
+    <row r="31" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A31" s="62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="C31" s="52"/>
-      <c r="D31" s="60"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="54"/>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
       <c r="H31" s="52"/>
       <c r="I31" s="62"/>
     </row>
-    <row r="32" spans="1:9" s="48" customFormat="1" ht="13.8">
+    <row r="32" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A32" s="62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="C32" s="52"/>
       <c r="D32" s="60"/>
@@ -8431,9 +8410,11 @@
       <c r="I32" s="62"/>
     </row>
     <row r="33" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A33" s="62"/>
+      <c r="A33" s="62">
+        <v>4</v>
+      </c>
       <c r="B33" s="52" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="C33" s="52"/>
       <c r="D33" s="60"/>
@@ -8444,11 +8425,9 @@
       <c r="I33" s="62"/>
     </row>
     <row r="34" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A34" s="62">
-        <v>5</v>
-      </c>
+      <c r="A34" s="62"/>
       <c r="B34" s="52" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C34" s="52"/>
       <c r="D34" s="60"/>
@@ -8460,13 +8439,13 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A35" s="62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>455</v>
+        <v>543</v>
       </c>
       <c r="C35" s="52"/>
-      <c r="D35" s="54"/>
+      <c r="D35" s="60"/>
       <c r="E35" s="54"/>
       <c r="F35" s="52"/>
       <c r="G35" s="52"/>
@@ -8474,54 +8453,54 @@
       <c r="I35" s="62"/>
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A36" s="285"/>
-      <c r="B36" s="284" t="s">
+      <c r="A36" s="62">
+        <v>6</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="62"/>
+    </row>
+    <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A37" s="200"/>
+      <c r="B37" s="262" t="s">
         <v>536</v>
       </c>
-      <c r="C36" s="287"/>
-      <c r="D36" s="288"/>
-      <c r="E36" s="286"/>
-      <c r="F36" s="274"/>
-      <c r="G36" s="274"/>
-      <c r="H36" s="274"/>
-      <c r="I36" s="286"/>
-    </row>
-    <row r="37" spans="1:9" s="49" customFormat="1" ht="13.8">
-      <c r="A37" s="63">
+      <c r="C37" s="265"/>
+      <c r="D37" s="266"/>
+      <c r="E37" s="201"/>
+      <c r="F37" s="195"/>
+      <c r="G37" s="195"/>
+      <c r="H37" s="195"/>
+      <c r="I37" s="201"/>
+    </row>
+    <row r="38" spans="1:9" s="49" customFormat="1" ht="13.8">
+      <c r="A38" s="63">
         <v>1</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B38" s="52" t="s">
         <v>455</v>
       </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="63"/>
-    </row>
-    <row r="38" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A38" s="62">
-        <v>2</v>
-      </c>
-      <c r="B38" s="52" t="s">
-        <v>537</v>
-      </c>
       <c r="C38" s="52"/>
-      <c r="D38" s="54"/>
+      <c r="D38" s="53"/>
       <c r="E38" s="54"/>
       <c r="F38" s="52"/>
       <c r="G38" s="52"/>
       <c r="H38" s="52"/>
-      <c r="I38" s="62"/>
+      <c r="I38" s="63"/>
     </row>
     <row r="39" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A39" s="62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C39" s="52"/>
       <c r="D39" s="54"/>
@@ -8533,14 +8512,14 @@
     </row>
     <row r="40" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A40" s="62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C40" s="52"/>
       <c r="D40" s="54"/>
-      <c r="E40" s="60"/>
+      <c r="E40" s="54"/>
       <c r="F40" s="52"/>
       <c r="G40" s="52"/>
       <c r="H40" s="52"/>
@@ -8548,14 +8527,14 @@
     </row>
     <row r="41" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A41" s="62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C41" s="52"/>
       <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
+      <c r="E41" s="60"/>
       <c r="F41" s="52"/>
       <c r="G41" s="52"/>
       <c r="H41" s="52"/>
@@ -8563,10 +8542,10 @@
     </row>
     <row r="42" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A42" s="62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C42" s="52"/>
       <c r="D42" s="54"/>
@@ -8578,10 +8557,10 @@
     </row>
     <row r="43" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A43" s="62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C43" s="52"/>
       <c r="D43" s="54"/>
@@ -8593,10 +8572,10 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A44" s="62">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C44" s="52"/>
       <c r="D44" s="54"/>
@@ -8608,10 +8587,10 @@
     </row>
     <row r="45" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A45" s="62">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="52" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C45" s="52"/>
       <c r="D45" s="54"/>
@@ -8622,28 +8601,32 @@
       <c r="I45" s="62"/>
     </row>
     <row r="46" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A46" s="62"/>
-      <c r="B46" s="52"/>
+      <c r="A46" s="62">
+        <v>9</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>548</v>
+      </c>
       <c r="C46" s="52"/>
-      <c r="D46" s="60"/>
+      <c r="D46" s="54"/>
       <c r="E46" s="54"/>
       <c r="F46" s="52"/>
       <c r="G46" s="52"/>
       <c r="H46" s="52"/>
       <c r="I46" s="62"/>
     </row>
-    <row r="47" spans="1:9" s="283" customFormat="1" ht="13.8">
-      <c r="A47" s="278"/>
-      <c r="B47" s="284" t="s">
+    <row r="47" spans="1:9" s="199" customFormat="1" ht="13.8">
+      <c r="A47" s="196"/>
+      <c r="B47" s="262" t="s">
         <v>549</v>
       </c>
-      <c r="C47" s="279"/>
-      <c r="D47" s="280"/>
-      <c r="E47" s="281"/>
-      <c r="F47" s="282"/>
-      <c r="G47" s="282"/>
-      <c r="H47" s="282"/>
-      <c r="I47" s="281"/>
+      <c r="C47" s="263"/>
+      <c r="D47" s="264"/>
+      <c r="E47" s="197"/>
+      <c r="F47" s="198"/>
+      <c r="G47" s="198"/>
+      <c r="H47" s="198"/>
+      <c r="I47" s="197"/>
     </row>
     <row r="48" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A48" s="62">
@@ -8691,35 +8674,39 @@
       <c r="I50" s="62"/>
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A51" s="62"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="62"/>
+      <c r="A51" s="196"/>
+      <c r="B51" s="262" t="s">
+        <v>552</v>
+      </c>
+      <c r="C51" s="263"/>
+      <c r="D51" s="264"/>
+      <c r="E51" s="197"/>
+      <c r="F51" s="198"/>
+      <c r="G51" s="198"/>
+      <c r="H51" s="198"/>
+      <c r="I51" s="197"/>
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A52" s="278"/>
-      <c r="B52" s="284" t="s">
-        <v>552</v>
-      </c>
-      <c r="C52" s="279"/>
-      <c r="D52" s="280"/>
-      <c r="E52" s="281"/>
-      <c r="F52" s="282"/>
-      <c r="G52" s="282"/>
-      <c r="H52" s="282"/>
-      <c r="I52" s="281"/>
-    </row>
-    <row r="53" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A52" s="62">
+        <v>1</v>
+      </c>
+      <c r="B52" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="C52" s="52"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="62"/>
+    </row>
+    <row r="53" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A53" s="62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>455</v>
+        <v>529</v>
       </c>
       <c r="C53" s="52"/>
       <c r="D53" s="53"/>
@@ -8729,12 +8716,12 @@
       <c r="H53" s="52"/>
       <c r="I53" s="62"/>
     </row>
-    <row r="54" spans="1:9" s="48" customFormat="1" ht="26.4">
+    <row r="54" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A54" s="62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B54" s="52" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="C54" s="52"/>
       <c r="D54" s="53"/>
@@ -8744,12 +8731,12 @@
       <c r="H54" s="52"/>
       <c r="I54" s="62"/>
     </row>
-    <row r="55" spans="1:9" s="48" customFormat="1" ht="13.8">
+    <row r="55" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A55" s="62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B55" s="52" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="C55" s="52"/>
       <c r="D55" s="53"/>
@@ -8759,12 +8746,12 @@
       <c r="H55" s="52"/>
       <c r="I55" s="62"/>
     </row>
-    <row r="56" spans="1:9" s="48" customFormat="1" ht="26.4">
+    <row r="56" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A56" s="62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="C56" s="52"/>
       <c r="D56" s="53"/>
@@ -8774,12 +8761,12 @@
       <c r="H56" s="52"/>
       <c r="I56" s="62"/>
     </row>
-    <row r="57" spans="1:9" s="48" customFormat="1" ht="13.8">
+    <row r="57" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A57" s="62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="C57" s="52"/>
       <c r="D57" s="53"/>
@@ -8791,14 +8778,14 @@
     </row>
     <row r="58" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A58" s="62">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C58" s="52"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="60"/>
       <c r="F58" s="52"/>
       <c r="G58" s="52"/>
       <c r="H58" s="52"/>
@@ -8806,68 +8793,68 @@
     </row>
     <row r="59" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A59" s="62">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B59" s="52" t="s">
         <v>557</v>
       </c>
       <c r="C59" s="52"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="54"/>
       <c r="F59" s="52"/>
       <c r="G59" s="52"/>
       <c r="H59" s="52"/>
       <c r="I59" s="62"/>
     </row>
-    <row r="60" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A60" s="62">
-        <v>8</v>
-      </c>
-      <c r="B60" s="52" t="s">
+    <row r="60" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A60" s="196"/>
+      <c r="B60" s="262" t="s">
         <v>558</v>
       </c>
-      <c r="C60" s="52"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="62"/>
+      <c r="C60" s="263"/>
+      <c r="D60" s="264"/>
+      <c r="E60" s="197"/>
+      <c r="F60" s="198"/>
+      <c r="G60" s="198"/>
+      <c r="H60" s="198"/>
+      <c r="I60" s="197"/>
     </row>
     <row r="61" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A61" s="278"/>
-      <c r="B61" s="284" t="s">
-        <v>559</v>
-      </c>
-      <c r="C61" s="279"/>
-      <c r="D61" s="280"/>
-      <c r="E61" s="281"/>
-      <c r="F61" s="282"/>
-      <c r="G61" s="282"/>
-      <c r="H61" s="282"/>
-      <c r="I61" s="281"/>
-    </row>
-    <row r="62" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A61" s="62">
+        <v>1</v>
+      </c>
+      <c r="B61" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="C61" s="52"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="62"/>
+    </row>
+    <row r="62" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A62" s="62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>455</v>
+        <v>529</v>
       </c>
       <c r="C62" s="52"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="54"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="60"/>
       <c r="F62" s="52"/>
       <c r="G62" s="52"/>
       <c r="H62" s="52"/>
       <c r="I62" s="62"/>
     </row>
-    <row r="63" spans="1:9" s="48" customFormat="1" ht="26.4">
+    <row r="63" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A63" s="62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B63" s="52" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="C63" s="52"/>
       <c r="D63" s="54"/>
@@ -8877,12 +8864,12 @@
       <c r="H63" s="52"/>
       <c r="I63" s="62"/>
     </row>
-    <row r="64" spans="1:9" s="48" customFormat="1" ht="13.8">
+    <row r="64" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A64" s="62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B64" s="52" t="s">
-        <v>534</v>
+        <v>559</v>
       </c>
       <c r="C64" s="52"/>
       <c r="D64" s="54"/>
@@ -8892,24 +8879,24 @@
       <c r="H64" s="52"/>
       <c r="I64" s="62"/>
     </row>
-    <row r="65" spans="1:9" s="48" customFormat="1" ht="26.4">
+    <row r="65" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A65" s="62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B65" s="52" t="s">
         <v>560</v>
       </c>
       <c r="C65" s="52"/>
       <c r="D65" s="54"/>
-      <c r="E65" s="60"/>
+      <c r="E65" s="54"/>
       <c r="F65" s="52"/>
       <c r="G65" s="52"/>
       <c r="H65" s="52"/>
       <c r="I65" s="62"/>
     </row>
-    <row r="66" spans="1:9" s="48" customFormat="1" ht="13.8">
+    <row r="66" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A66" s="62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B66" s="52" t="s">
         <v>561</v>
@@ -8924,13 +8911,13 @@
     </row>
     <row r="67" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A67" s="62">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B67" s="52" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C67" s="52"/>
-      <c r="D67" s="54"/>
+      <c r="D67" s="60"/>
       <c r="E67" s="54"/>
       <c r="F67" s="52"/>
       <c r="G67" s="52"/>
@@ -8939,7 +8926,7 @@
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A68" s="62">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B68" s="52" t="s">
         <v>557</v>
@@ -8954,10 +8941,10 @@
     </row>
     <row r="69" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A69" s="62">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B69" s="52" t="s">
-        <v>558</v>
+        <v>603</v>
       </c>
       <c r="C69" s="52"/>
       <c r="D69" s="60"/>
@@ -8967,16 +8954,16 @@
       <c r="H69" s="52"/>
       <c r="I69" s="62"/>
     </row>
-    <row r="70" spans="1:9" s="48" customFormat="1" ht="13.8">
+    <row r="70" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A70" s="62">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B70" s="52" t="s">
-        <v>563</v>
+        <v>604</v>
       </c>
       <c r="C70" s="52"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="54"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="60"/>
       <c r="F70" s="52"/>
       <c r="G70" s="52"/>
       <c r="H70" s="52"/>
@@ -8984,10 +8971,10 @@
     </row>
     <row r="71" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A71" s="62">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B71" s="52" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C71" s="52"/>
       <c r="D71" s="54"/>
@@ -8998,8 +8985,12 @@
       <c r="I71" s="62"/>
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A72" s="62"/>
-      <c r="B72" s="52"/>
+      <c r="A72" s="62">
+        <v>12</v>
+      </c>
+      <c r="B72" s="52" t="s">
+        <v>563</v>
+      </c>
       <c r="C72" s="52"/>
       <c r="D72" s="54"/>
       <c r="E72" s="60"/>
@@ -9009,17 +9000,17 @@
       <c r="I72" s="62"/>
     </row>
     <row r="73" spans="1:9" s="49" customFormat="1" ht="13.8">
-      <c r="A73" s="278"/>
-      <c r="B73" s="284" t="s">
-        <v>569</v>
-      </c>
-      <c r="C73" s="279"/>
-      <c r="D73" s="280"/>
-      <c r="E73" s="281"/>
-      <c r="F73" s="282"/>
-      <c r="G73" s="282"/>
-      <c r="H73" s="282"/>
-      <c r="I73" s="281"/>
+      <c r="A73" s="196"/>
+      <c r="B73" s="262" t="s">
+        <v>568</v>
+      </c>
+      <c r="C73" s="263"/>
+      <c r="D73" s="264"/>
+      <c r="E73" s="197"/>
+      <c r="F73" s="198"/>
+      <c r="G73" s="198"/>
+      <c r="H73" s="198"/>
+      <c r="I73" s="197"/>
     </row>
     <row r="74" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A74" s="62">
@@ -9041,7 +9032,7 @@
         <v>2</v>
       </c>
       <c r="B75" s="52" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C75" s="52"/>
       <c r="D75" s="53"/>
@@ -9056,7 +9047,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="52" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C76" s="52"/>
       <c r="D76" s="53"/>
@@ -9071,7 +9062,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="52" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C77" s="52"/>
       <c r="D77" s="60"/>
@@ -9082,9 +9073,11 @@
       <c r="I77" s="62"/>
     </row>
     <row r="78" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A78" s="62"/>
+      <c r="A78" s="62">
+        <v>5</v>
+      </c>
       <c r="B78" s="52" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C78" s="52"/>
       <c r="D78" s="60"/>
@@ -9096,10 +9089,10 @@
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A79" s="62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B79" s="52" t="s">
-        <v>578</v>
+        <v>609</v>
       </c>
       <c r="C79" s="52"/>
       <c r="D79" s="60"/>
@@ -9109,12 +9102,12 @@
       <c r="H79" s="52"/>
       <c r="I79" s="62"/>
     </row>
-    <row r="80" spans="1:9" s="48" customFormat="1" ht="26.4">
+    <row r="80" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A80" s="62">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="C80" s="52"/>
       <c r="D80" s="60"/>
@@ -9124,9 +9117,13 @@
       <c r="H80" s="52"/>
       <c r="I80" s="62"/>
     </row>
-    <row r="81" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A81" s="62"/>
-      <c r="B81" s="52"/>
+    <row r="81" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A81" s="62">
+        <v>8</v>
+      </c>
+      <c r="B81" s="52" t="s">
+        <v>575</v>
+      </c>
       <c r="C81" s="52"/>
       <c r="D81" s="60"/>
       <c r="E81" s="60"/>
@@ -9135,100 +9132,104 @@
       <c r="H81" s="52"/>
       <c r="I81" s="62"/>
     </row>
-    <row r="82" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A82" s="278"/>
-      <c r="B82" s="284" t="s">
-        <v>570</v>
-      </c>
-      <c r="C82" s="279"/>
-      <c r="D82" s="280"/>
-      <c r="E82" s="281"/>
-      <c r="F82" s="282"/>
-      <c r="G82" s="282"/>
-      <c r="H82" s="282"/>
-      <c r="I82" s="281"/>
+    <row r="82" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A82" s="62">
+        <v>9</v>
+      </c>
+      <c r="B82" s="52" t="s">
+        <v>567</v>
+      </c>
+      <c r="C82" s="52"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="62"/>
     </row>
     <row r="83" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A83" s="62">
-        <v>1</v>
-      </c>
-      <c r="B83" s="52" t="s">
-        <v>455</v>
-      </c>
-      <c r="C83" s="52"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="52"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="62"/>
+      <c r="A83" s="202"/>
+      <c r="B83" s="252" t="s">
+        <v>605</v>
+      </c>
+      <c r="C83" s="253"/>
+      <c r="D83" s="254"/>
+      <c r="E83" s="290"/>
+      <c r="F83" s="192"/>
+      <c r="G83" s="192"/>
+      <c r="H83" s="192"/>
+      <c r="I83" s="202"/>
     </row>
     <row r="84" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A84" s="62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B84" s="52" t="s">
-        <v>571</v>
+        <v>455</v>
       </c>
       <c r="C84" s="52"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="54"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
       <c r="F84" s="52"/>
       <c r="G84" s="52"/>
       <c r="H84" s="52"/>
       <c r="I84" s="62"/>
     </row>
-    <row r="85" spans="1:9" s="48" customFormat="1" ht="26.4">
+    <row r="85" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A85" s="62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B85" s="52" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="C85" s="52"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="54"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="60"/>
       <c r="F85" s="52"/>
       <c r="G85" s="52"/>
       <c r="H85" s="52"/>
       <c r="I85" s="62"/>
     </row>
-    <row r="86" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A86" s="77"/>
-      <c r="B86" s="241" t="s">
-        <v>528</v>
-      </c>
-      <c r="C86" s="242"/>
-      <c r="D86" s="243"/>
-      <c r="E86" s="69"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="66"/>
-      <c r="H86" s="66"/>
-      <c r="I86" s="69"/>
+    <row r="86" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A86" s="62">
+        <v>3</v>
+      </c>
+      <c r="B86" s="52" t="s">
+        <v>565</v>
+      </c>
+      <c r="C86" s="52"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="52"/>
+      <c r="I86" s="62"/>
     </row>
     <row r="87" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A87" s="289"/>
-      <c r="B87" s="275" t="s">
-        <v>573</v>
-      </c>
-      <c r="C87" s="276"/>
-      <c r="D87" s="277"/>
-      <c r="E87" s="272"/>
-      <c r="F87" s="271"/>
-      <c r="G87" s="271"/>
-      <c r="H87" s="271"/>
-      <c r="I87" s="289"/>
+      <c r="A87" s="62">
+        <v>4</v>
+      </c>
+      <c r="B87" s="52" t="s">
+        <v>566</v>
+      </c>
+      <c r="C87" s="52"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="62"/>
     </row>
     <row r="88" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A88" s="62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B88" s="52" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C88" s="52"/>
       <c r="D88" s="60"/>
-      <c r="E88" s="54"/>
+      <c r="E88" s="60"/>
       <c r="F88" s="52"/>
       <c r="G88" s="52"/>
       <c r="H88" s="52"/>
@@ -9236,29 +9237,29 @@
     </row>
     <row r="89" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A89" s="62">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B89" s="52" t="s">
-        <v>576</v>
+        <v>609</v>
       </c>
       <c r="C89" s="52"/>
       <c r="D89" s="60"/>
-      <c r="E89" s="54"/>
+      <c r="E89" s="60"/>
       <c r="F89" s="52"/>
       <c r="G89" s="52"/>
       <c r="H89" s="52"/>
       <c r="I89" s="62"/>
     </row>
-    <row r="90" spans="1:9" s="48" customFormat="1" ht="26.4">
+    <row r="90" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A90" s="62">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B90" s="52" t="s">
-        <v>577</v>
+        <v>610</v>
       </c>
       <c r="C90" s="52"/>
       <c r="D90" s="60"/>
-      <c r="E90" s="54"/>
+      <c r="E90" s="60"/>
       <c r="F90" s="52"/>
       <c r="G90" s="52"/>
       <c r="H90" s="52"/>
@@ -9266,14 +9267,14 @@
     </row>
     <row r="91" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A91" s="62">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B91" s="52" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
       <c r="C91" s="52"/>
       <c r="D91" s="60"/>
-      <c r="E91" s="54"/>
+      <c r="E91" s="60"/>
       <c r="F91" s="52"/>
       <c r="G91" s="52"/>
       <c r="H91" s="52"/>
@@ -9281,100 +9282,94 @@
     </row>
     <row r="92" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A92" s="62">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B92" s="52" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="C92" s="52"/>
       <c r="D92" s="60"/>
-      <c r="E92" s="54"/>
+      <c r="E92" s="60"/>
       <c r="F92" s="52"/>
       <c r="G92" s="52"/>
       <c r="H92" s="52"/>
       <c r="I92" s="62"/>
     </row>
     <row r="93" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A93" s="62">
-        <v>6</v>
-      </c>
-      <c r="B93" s="52" t="s">
-        <v>575</v>
-      </c>
-      <c r="C93" s="52"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="54"/>
-      <c r="F93" s="52"/>
-      <c r="G93" s="52"/>
-      <c r="H93" s="52"/>
-      <c r="I93" s="62"/>
-    </row>
-    <row r="94" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A93" s="196"/>
+      <c r="B93" s="262" t="s">
+        <v>606</v>
+      </c>
+      <c r="C93" s="263"/>
+      <c r="D93" s="264"/>
+      <c r="E93" s="197"/>
+      <c r="F93" s="198"/>
+      <c r="G93" s="198"/>
+      <c r="H93" s="198"/>
+      <c r="I93" s="197"/>
+    </row>
+    <row r="94" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A94" s="62">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B94" s="52" t="s">
-        <v>596</v>
+        <v>455</v>
       </c>
       <c r="C94" s="52"/>
-      <c r="D94" s="60"/>
+      <c r="D94" s="54"/>
       <c r="E94" s="54"/>
       <c r="F94" s="52"/>
       <c r="G94" s="52"/>
       <c r="H94" s="52"/>
       <c r="I94" s="62"/>
     </row>
-    <row r="95" spans="1:9" s="48" customFormat="1" ht="26.4">
+    <row r="95" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A95" s="62">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B95" s="52" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="C95" s="52"/>
-      <c r="D95" s="60"/>
+      <c r="D95" s="54"/>
       <c r="E95" s="54"/>
       <c r="F95" s="52"/>
       <c r="G95" s="52"/>
       <c r="H95" s="52"/>
       <c r="I95" s="62"/>
     </row>
-    <row r="96" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A96" s="62">
-        <v>9</v>
-      </c>
-      <c r="B96" s="52" t="s">
-        <v>581</v>
-      </c>
-      <c r="C96" s="52"/>
-      <c r="D96" s="60"/>
-      <c r="E96" s="54"/>
-      <c r="F96" s="52"/>
-      <c r="G96" s="52"/>
-      <c r="H96" s="52"/>
-      <c r="I96" s="62"/>
-    </row>
-    <row r="97" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A97" s="62">
-        <v>10</v>
-      </c>
-      <c r="B97" s="52" t="s">
-        <v>583</v>
-      </c>
-      <c r="C97" s="52"/>
-      <c r="D97" s="60"/>
-      <c r="E97" s="54"/>
-      <c r="F97" s="52"/>
-      <c r="G97" s="52"/>
-      <c r="H97" s="52"/>
-      <c r="I97" s="62"/>
-    </row>
-    <row r="98" spans="1:9" s="48" customFormat="1" ht="26.4">
+    <row r="96" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A96" s="77"/>
+      <c r="B96" s="259" t="s">
+        <v>528</v>
+      </c>
+      <c r="C96" s="260"/>
+      <c r="D96" s="261"/>
+      <c r="E96" s="69"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="66"/>
+      <c r="I96" s="69"/>
+    </row>
+    <row r="97" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A97" s="202"/>
+      <c r="B97" s="252" t="s">
+        <v>570</v>
+      </c>
+      <c r="C97" s="253"/>
+      <c r="D97" s="254"/>
+      <c r="E97" s="193"/>
+      <c r="F97" s="192"/>
+      <c r="G97" s="192"/>
+      <c r="H97" s="192"/>
+      <c r="I97" s="202"/>
+    </row>
+    <row r="98" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A98" s="62">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B98" s="52" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="C98" s="52"/>
       <c r="D98" s="60"/>
@@ -9386,10 +9381,10 @@
     </row>
     <row r="99" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A99" s="62">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B99" s="52" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="C99" s="52"/>
       <c r="D99" s="60"/>
@@ -9401,10 +9396,10 @@
     </row>
     <row r="100" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A100" s="62">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B100" s="52" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="C100" s="52"/>
       <c r="D100" s="60"/>
@@ -9414,12 +9409,12 @@
       <c r="H100" s="52"/>
       <c r="I100" s="62"/>
     </row>
-    <row r="101" spans="1:9" s="48" customFormat="1" ht="39.6">
+    <row r="101" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A101" s="62">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B101" s="52" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C101" s="52"/>
       <c r="D101" s="60"/>
@@ -9429,12 +9424,12 @@
       <c r="H101" s="52"/>
       <c r="I101" s="62"/>
     </row>
-    <row r="102" spans="1:9" s="48" customFormat="1" ht="39.6">
+    <row r="102" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A102" s="62">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B102" s="52" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C102" s="52"/>
       <c r="D102" s="60"/>
@@ -9444,12 +9439,12 @@
       <c r="H102" s="52"/>
       <c r="I102" s="62"/>
     </row>
-    <row r="103" spans="1:9" s="48" customFormat="1" ht="39.6">
+    <row r="103" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A103" s="62">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B103" s="52" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="C103" s="52"/>
       <c r="D103" s="60"/>
@@ -9459,12 +9454,12 @@
       <c r="H103" s="52"/>
       <c r="I103" s="62"/>
     </row>
-    <row r="104" spans="1:9" s="48" customFormat="1" ht="39.6">
+    <row r="104" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A104" s="62">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B104" s="52" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C104" s="52"/>
       <c r="D104" s="60"/>
@@ -9476,10 +9471,10 @@
     </row>
     <row r="105" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A105" s="62">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B105" s="52" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="C105" s="52"/>
       <c r="D105" s="60"/>
@@ -9491,10 +9486,10 @@
     </row>
     <row r="106" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A106" s="62">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B106" s="52" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="C106" s="52"/>
       <c r="D106" s="60"/>
@@ -9506,10 +9501,10 @@
     </row>
     <row r="107" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A107" s="62">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B107" s="52" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="C107" s="52"/>
       <c r="D107" s="60"/>
@@ -9521,10 +9516,10 @@
     </row>
     <row r="108" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A108" s="62">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B108" s="52" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="C108" s="52"/>
       <c r="D108" s="60"/>
@@ -9536,10 +9531,10 @@
     </row>
     <row r="109" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A109" s="62">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B109" s="52" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="C109" s="52"/>
       <c r="D109" s="60"/>
@@ -9549,23 +9544,27 @@
       <c r="H109" s="52"/>
       <c r="I109" s="62"/>
     </row>
-    <row r="110" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A110" s="289"/>
-      <c r="B110" s="275" t="s">
-        <v>598</v>
-      </c>
-      <c r="C110" s="276"/>
-      <c r="D110" s="277"/>
-      <c r="E110" s="272"/>
-      <c r="F110" s="271"/>
-      <c r="G110" s="271"/>
-      <c r="H110" s="271"/>
-      <c r="I110" s="289"/>
-    </row>
-    <row r="111" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A111" s="62"/>
+    <row r="110" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A110" s="62">
+        <v>13</v>
+      </c>
+      <c r="B110" s="52" t="s">
+        <v>584</v>
+      </c>
+      <c r="C110" s="52"/>
+      <c r="D110" s="60"/>
+      <c r="E110" s="54"/>
+      <c r="F110" s="52"/>
+      <c r="G110" s="52"/>
+      <c r="H110" s="52"/>
+      <c r="I110" s="62"/>
+    </row>
+    <row r="111" spans="1:9" s="48" customFormat="1" ht="39.6">
+      <c r="A111" s="62">
+        <v>14</v>
+      </c>
       <c r="B111" s="52" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="C111" s="52"/>
       <c r="D111" s="60"/>
@@ -9575,10 +9574,12 @@
       <c r="H111" s="52"/>
       <c r="I111" s="62"/>
     </row>
-    <row r="112" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A112" s="62"/>
+    <row r="112" spans="1:9" s="48" customFormat="1" ht="39.6">
+      <c r="A112" s="62">
+        <v>15</v>
+      </c>
       <c r="B112" s="52" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="C112" s="52"/>
       <c r="D112" s="60"/>
@@ -9588,10 +9589,12 @@
       <c r="H112" s="52"/>
       <c r="I112" s="62"/>
     </row>
-    <row r="113" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A113" s="62"/>
+    <row r="113" spans="1:9" s="48" customFormat="1" ht="39.6">
+      <c r="A113" s="62">
+        <v>16</v>
+      </c>
       <c r="B113" s="52" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C113" s="52"/>
       <c r="D113" s="60"/>
@@ -9601,10 +9604,12 @@
       <c r="H113" s="52"/>
       <c r="I113" s="62"/>
     </row>
-    <row r="114" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A114" s="62"/>
+    <row r="114" spans="1:9" s="48" customFormat="1" ht="39.6">
+      <c r="A114" s="62">
+        <v>17</v>
+      </c>
       <c r="B114" s="52" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C114" s="52"/>
       <c r="D114" s="60"/>
@@ -9614,10 +9619,12 @@
       <c r="H114" s="52"/>
       <c r="I114" s="62"/>
     </row>
-    <row r="115" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A115" s="62"/>
+    <row r="115" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A115" s="62">
+        <v>18</v>
+      </c>
       <c r="B115" s="52" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="C115" s="52"/>
       <c r="D115" s="60"/>
@@ -9627,10 +9634,12 @@
       <c r="H115" s="52"/>
       <c r="I115" s="62"/>
     </row>
-    <row r="116" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A116" s="62"/>
+    <row r="116" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A116" s="62">
+        <v>19</v>
+      </c>
       <c r="B116" s="52" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="C116" s="52"/>
       <c r="D116" s="60"/>
@@ -9641,9 +9650,11 @@
       <c r="I116" s="62"/>
     </row>
     <row r="117" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A117" s="62"/>
+      <c r="A117" s="62">
+        <v>21</v>
+      </c>
       <c r="B117" s="52" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="C117" s="52"/>
       <c r="D117" s="60"/>
@@ -9654,9 +9665,11 @@
       <c r="I117" s="62"/>
     </row>
     <row r="118" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A118" s="62"/>
+      <c r="A118" s="62">
+        <v>23</v>
+      </c>
       <c r="B118" s="52" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C118" s="52"/>
       <c r="D118" s="60"/>
@@ -9667,9 +9680,11 @@
       <c r="I118" s="62"/>
     </row>
     <row r="119" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A119" s="62"/>
+      <c r="A119" s="62">
+        <v>24</v>
+      </c>
       <c r="B119" s="52" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="C119" s="52"/>
       <c r="D119" s="60"/>
@@ -9679,23 +9694,25 @@
       <c r="H119" s="52"/>
       <c r="I119" s="62"/>
     </row>
-    <row r="120" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A120" s="62"/>
-      <c r="B120" s="52" t="s">
-        <v>607</v>
-      </c>
-      <c r="C120" s="52"/>
-      <c r="D120" s="60"/>
-      <c r="E120" s="54"/>
-      <c r="F120" s="52"/>
-      <c r="G120" s="52"/>
-      <c r="H120" s="52"/>
-      <c r="I120" s="62"/>
-    </row>
-    <row r="121" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A121" s="62"/>
+    <row r="120" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A120" s="202"/>
+      <c r="B120" s="252" t="s">
+        <v>601</v>
+      </c>
+      <c r="C120" s="253"/>
+      <c r="D120" s="254"/>
+      <c r="E120" s="193"/>
+      <c r="F120" s="192"/>
+      <c r="G120" s="192"/>
+      <c r="H120" s="192"/>
+      <c r="I120" s="202"/>
+    </row>
+    <row r="121" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A121" s="62">
+        <v>1</v>
+      </c>
       <c r="B121" s="52" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="C121" s="52"/>
       <c r="D121" s="60"/>
@@ -9706,9 +9723,11 @@
       <c r="I121" s="62"/>
     </row>
     <row r="122" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A122" s="62"/>
+      <c r="A122" s="62">
+        <v>2</v>
+      </c>
       <c r="B122" s="52" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="C122" s="52"/>
       <c r="D122" s="60"/>
@@ -9718,23 +9737,25 @@
       <c r="H122" s="52"/>
       <c r="I122" s="62"/>
     </row>
-    <row r="123" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A123" s="62"/>
-      <c r="B123" s="52" t="s">
-        <v>587</v>
-      </c>
-      <c r="C123" s="52"/>
-      <c r="D123" s="60"/>
-      <c r="E123" s="54"/>
-      <c r="F123" s="52"/>
-      <c r="G123" s="52"/>
-      <c r="H123" s="52"/>
-      <c r="I123" s="62"/>
-    </row>
-    <row r="124" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A124" s="62"/>
+    <row r="123" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A123" s="202"/>
+      <c r="B123" s="252" t="s">
+        <v>595</v>
+      </c>
+      <c r="C123" s="253"/>
+      <c r="D123" s="254"/>
+      <c r="E123" s="193"/>
+      <c r="F123" s="192"/>
+      <c r="G123" s="192"/>
+      <c r="H123" s="192"/>
+      <c r="I123" s="202"/>
+    </row>
+    <row r="124" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A124" s="62">
+        <v>1</v>
+      </c>
       <c r="B124" s="52" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C124" s="52"/>
       <c r="D124" s="60"/>
@@ -9745,9 +9766,11 @@
       <c r="I124" s="62"/>
     </row>
     <row r="125" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A125" s="62"/>
+      <c r="A125" s="62">
+        <v>2</v>
+      </c>
       <c r="B125" s="52" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C125" s="52"/>
       <c r="D125" s="60"/>
@@ -9757,23 +9780,25 @@
       <c r="H125" s="52"/>
       <c r="I125" s="62"/>
     </row>
-    <row r="126" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A126" s="62"/>
-      <c r="B126" s="52" t="s">
-        <v>605</v>
-      </c>
-      <c r="C126" s="52"/>
-      <c r="D126" s="60"/>
-      <c r="E126" s="54"/>
-      <c r="F126" s="52"/>
-      <c r="G126" s="52"/>
-      <c r="H126" s="52"/>
-      <c r="I126" s="62"/>
-    </row>
-    <row r="127" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A127" s="62"/>
+    <row r="126" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A126" s="202"/>
+      <c r="B126" s="252" t="s">
+        <v>597</v>
+      </c>
+      <c r="C126" s="253"/>
+      <c r="D126" s="254"/>
+      <c r="E126" s="193"/>
+      <c r="F126" s="192"/>
+      <c r="G126" s="192"/>
+      <c r="H126" s="192"/>
+      <c r="I126" s="202"/>
+    </row>
+    <row r="127" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A127" s="62">
+        <v>1</v>
+      </c>
       <c r="B127" s="52" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="C127" s="52"/>
       <c r="D127" s="60"/>
@@ -9784,9 +9809,11 @@
       <c r="I127" s="62"/>
     </row>
     <row r="128" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A128" s="62"/>
+      <c r="A128" s="62">
+        <v>2</v>
+      </c>
       <c r="B128" s="52" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="C128" s="52"/>
       <c r="D128" s="60"/>
@@ -9796,340 +9823,42 @@
       <c r="H128" s="52"/>
       <c r="I128" s="62"/>
     </row>
-    <row r="129" spans="1:9" s="48" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A129" s="62"/>
-      <c r="B129" s="52" t="s">
-        <v>594</v>
-      </c>
-      <c r="C129" s="52"/>
-      <c r="D129" s="60"/>
-      <c r="E129" s="54"/>
-      <c r="F129" s="52"/>
-      <c r="G129" s="52"/>
-      <c r="H129" s="52"/>
-      <c r="I129" s="62"/>
-    </row>
-    <row r="130" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A130" s="62"/>
-      <c r="B130" s="52" t="s">
-        <v>592</v>
-      </c>
-      <c r="C130" s="52"/>
-      <c r="D130" s="60"/>
-      <c r="E130" s="54"/>
-      <c r="F130" s="52"/>
-      <c r="G130" s="52"/>
-      <c r="H130" s="52"/>
-      <c r="I130" s="62"/>
-    </row>
-    <row r="131" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A131" s="62"/>
-      <c r="B131" s="52" t="s">
-        <v>595</v>
-      </c>
-      <c r="C131" s="52"/>
-      <c r="D131" s="60"/>
-      <c r="E131" s="54"/>
-      <c r="F131" s="52"/>
-      <c r="G131" s="52"/>
-      <c r="H131" s="52"/>
-      <c r="I131" s="62"/>
-    </row>
-    <row r="132" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A132" s="62"/>
-      <c r="B132" s="52" t="s">
-        <v>597</v>
-      </c>
-      <c r="C132" s="52"/>
-      <c r="D132" s="60"/>
-      <c r="E132" s="54"/>
-      <c r="F132" s="52"/>
-      <c r="G132" s="52"/>
-      <c r="H132" s="52"/>
-      <c r="I132" s="62"/>
-    </row>
-    <row r="133" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A133" s="289"/>
-      <c r="B133" s="275" t="s">
-        <v>610</v>
-      </c>
-      <c r="C133" s="276"/>
-      <c r="D133" s="277"/>
-      <c r="E133" s="272"/>
-      <c r="F133" s="271"/>
-      <c r="G133" s="271"/>
-      <c r="H133" s="271"/>
-      <c r="I133" s="289"/>
-    </row>
-    <row r="134" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A134" s="62">
-        <v>1</v>
-      </c>
-      <c r="B134" s="52" t="s">
-        <v>616</v>
-      </c>
-      <c r="C134" s="52"/>
-      <c r="D134" s="60"/>
-      <c r="E134" s="54"/>
-      <c r="F134" s="52"/>
-      <c r="G134" s="52"/>
-      <c r="H134" s="52"/>
-      <c r="I134" s="62"/>
-    </row>
-    <row r="135" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A135" s="62">
-        <v>2</v>
-      </c>
-      <c r="B135" s="52" t="s">
-        <v>574</v>
-      </c>
-      <c r="C135" s="52"/>
-      <c r="D135" s="60"/>
-      <c r="E135" s="54"/>
-      <c r="F135" s="52"/>
-      <c r="G135" s="52"/>
-      <c r="H135" s="52"/>
-      <c r="I135" s="62"/>
-    </row>
-    <row r="136" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A136" s="62">
-        <v>3</v>
-      </c>
-      <c r="B136" s="52" t="s">
-        <v>612</v>
-      </c>
-      <c r="C136" s="52"/>
-      <c r="D136" s="60"/>
-      <c r="E136" s="54"/>
-      <c r="F136" s="52"/>
-      <c r="G136" s="52"/>
-      <c r="H136" s="52"/>
-      <c r="I136" s="62"/>
-    </row>
-    <row r="137" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A137" s="62">
-        <v>4</v>
-      </c>
-      <c r="B137" s="52" t="s">
-        <v>611</v>
-      </c>
-      <c r="C137" s="52"/>
-      <c r="D137" s="60"/>
-      <c r="E137" s="54"/>
-      <c r="F137" s="52"/>
-      <c r="G137" s="52"/>
-      <c r="H137" s="52"/>
-      <c r="I137" s="62"/>
-    </row>
-    <row r="138" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A138" s="62">
-        <v>5</v>
-      </c>
-      <c r="B138" s="52" t="s">
-        <v>613</v>
-      </c>
-      <c r="C138" s="52"/>
-      <c r="D138" s="60"/>
-      <c r="E138" s="54"/>
-      <c r="F138" s="52"/>
-      <c r="G138" s="52"/>
-      <c r="H138" s="52"/>
-      <c r="I138" s="62"/>
-    </row>
-    <row r="139" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A139" s="62">
-        <v>6</v>
-      </c>
-      <c r="B139" s="52" t="s">
-        <v>614</v>
-      </c>
-      <c r="C139" s="52"/>
-      <c r="D139" s="60"/>
-      <c r="E139" s="54"/>
-      <c r="F139" s="52"/>
-      <c r="G139" s="52"/>
-      <c r="H139" s="52"/>
-      <c r="I139" s="62"/>
-    </row>
-    <row r="140" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A140" s="62">
-        <v>7</v>
-      </c>
-      <c r="B140" s="52" t="s">
-        <v>615</v>
-      </c>
-      <c r="C140" s="52"/>
-      <c r="D140" s="60"/>
-      <c r="E140" s="54"/>
-      <c r="F140" s="52"/>
-      <c r="G140" s="52"/>
-      <c r="H140" s="52"/>
-      <c r="I140" s="62"/>
-    </row>
-    <row r="141" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A141" s="289"/>
-      <c r="B141" s="275" t="s">
-        <v>617</v>
-      </c>
-      <c r="C141" s="276"/>
-      <c r="D141" s="277"/>
-      <c r="E141" s="272"/>
-      <c r="F141" s="271"/>
-      <c r="G141" s="271"/>
-      <c r="H141" s="271"/>
-      <c r="I141" s="289"/>
-    </row>
-    <row r="142" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A142" s="62">
-        <v>1</v>
-      </c>
-      <c r="B142" s="52" t="s">
-        <v>616</v>
-      </c>
-      <c r="C142" s="52"/>
-      <c r="D142" s="60"/>
-      <c r="E142" s="54"/>
-      <c r="F142" s="52"/>
-      <c r="G142" s="52"/>
-      <c r="H142" s="52"/>
-      <c r="I142" s="62"/>
-    </row>
-    <row r="143" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A143" s="62">
-        <v>2</v>
-      </c>
-      <c r="B143" s="52" t="s">
-        <v>574</v>
-      </c>
-      <c r="C143" s="52"/>
-      <c r="D143" s="60"/>
-      <c r="E143" s="54"/>
-      <c r="F143" s="52"/>
-      <c r="G143" s="52"/>
-      <c r="H143" s="52"/>
-      <c r="I143" s="62"/>
-    </row>
-    <row r="144" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A144" s="62">
-        <v>3</v>
-      </c>
-      <c r="B144" s="52" t="s">
-        <v>612</v>
-      </c>
-      <c r="C144" s="52"/>
-      <c r="D144" s="60"/>
-      <c r="E144" s="54"/>
-      <c r="F144" s="52"/>
-      <c r="G144" s="52"/>
-      <c r="H144" s="52"/>
-      <c r="I144" s="62"/>
-    </row>
-    <row r="145" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A145" s="62">
-        <v>4</v>
-      </c>
-      <c r="B145" s="52" t="s">
-        <v>611</v>
-      </c>
-      <c r="C145" s="52"/>
-      <c r="D145" s="60"/>
-      <c r="E145" s="54"/>
-      <c r="F145" s="52"/>
-      <c r="G145" s="52"/>
-      <c r="H145" s="52"/>
-      <c r="I145" s="62"/>
-    </row>
-    <row r="146" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A146" s="62">
-        <v>5</v>
-      </c>
-      <c r="B146" s="52" t="s">
-        <v>613</v>
-      </c>
-      <c r="C146" s="52"/>
-      <c r="D146" s="60"/>
-      <c r="E146" s="54"/>
-      <c r="F146" s="52"/>
-      <c r="G146" s="52"/>
-      <c r="H146" s="52"/>
-      <c r="I146" s="62"/>
-    </row>
-    <row r="147" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A147" s="62">
-        <v>6</v>
-      </c>
-      <c r="B147" s="52" t="s">
-        <v>614</v>
-      </c>
-      <c r="C147" s="52"/>
-      <c r="D147" s="60"/>
-      <c r="E147" s="54"/>
-      <c r="F147" s="52"/>
-      <c r="G147" s="52"/>
-      <c r="H147" s="52"/>
-      <c r="I147" s="62"/>
-    </row>
-    <row r="148" spans="1:9" s="48" customFormat="1" ht="26.4">
-      <c r="A148" s="62">
-        <v>7</v>
-      </c>
-      <c r="B148" s="52" t="s">
-        <v>615</v>
-      </c>
-      <c r="C148" s="52"/>
-      <c r="D148" s="60"/>
-      <c r="E148" s="54"/>
-      <c r="F148" s="52"/>
-      <c r="G148" s="52"/>
-      <c r="H148" s="52"/>
-      <c r="I148" s="62"/>
-    </row>
-    <row r="149" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A149" s="62"/>
-      <c r="B149" s="52"/>
-      <c r="C149" s="52"/>
-      <c r="D149" s="60"/>
-      <c r="E149" s="54"/>
-      <c r="F149" s="52"/>
-      <c r="G149" s="52"/>
-      <c r="H149" s="52"/>
-      <c r="I149" s="62"/>
-    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B133:D133"/>
+  <mergeCells count="25">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B37:D37"/>
     <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B60:D60"/>
     <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B83:D83"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F150:H207" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F129:H186" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:H18" xr:uid="{00000000-0002-0000-0500-000001000000}"/>
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17" xr:uid="{00000000-0002-0000-0500-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" sqref="F19:H149" xr:uid="{00000000-0002-0000-0500-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F19:H128" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -10158,10 +9887,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="218"/>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
+      <c r="A1" s="249"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -10170,13 +9899,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="223"/>
+      <c r="B2" s="250"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="242"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -10185,9 +9914,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="223"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="242"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -10198,11 +9927,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="221" t="s">
+      <c r="B4" s="244" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -10216,11 +9945,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="220" t="s">
+      <c r="B5" s="245" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -10234,11 +9963,11 @@
       <c r="A6" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="220" t="s">
+      <c r="B6" s="245" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
+      <c r="C6" s="244"/>
+      <c r="D6" s="244"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -10249,11 +9978,11 @@
       <c r="A7" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="221" t="s">
+      <c r="B7" s="244" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="244"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -10265,11 +9994,11 @@
       <c r="A8" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="222">
+      <c r="B8" s="251">
         <v>40850</v>
       </c>
-      <c r="C8" s="222"/>
-      <c r="D8" s="222"/>
+      <c r="C8" s="251"/>
+      <c r="D8" s="251"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -10412,11 +10141,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="245" t="s">
+      <c r="F16" s="256" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="246"/>
-      <c r="H16" s="247"/>
+      <c r="G16" s="257"/>
+      <c r="H16" s="258"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39.6">
@@ -10450,11 +10179,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="259" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="242"/>
-      <c r="D18" s="243"/>
+      <c r="C18" s="260"/>
+      <c r="D18" s="261"/>
       <c r="E18" s="67"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -10735,11 +10464,11 @@
     </row>
     <row r="29" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A29" s="77"/>
-      <c r="B29" s="241" t="s">
+      <c r="B29" s="259" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="242"/>
-      <c r="D29" s="243"/>
+      <c r="C29" s="260"/>
+      <c r="D29" s="261"/>
       <c r="E29" s="69"/>
       <c r="F29" s="66"/>
       <c r="G29" s="66"/>
@@ -10888,11 +10617,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A35" s="77"/>
-      <c r="B35" s="241" t="s">
+      <c r="B35" s="259" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="242"/>
-      <c r="D35" s="243"/>
+      <c r="C35" s="260"/>
+      <c r="D35" s="261"/>
       <c r="E35" s="69"/>
       <c r="F35" s="66"/>
       <c r="G35" s="66"/>
@@ -10929,11 +10658,11 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="77"/>
-      <c r="B37" s="241" t="s">
+      <c r="B37" s="259" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="242"/>
-      <c r="D37" s="243"/>
+      <c r="C37" s="260"/>
+      <c r="D37" s="261"/>
       <c r="E37" s="69"/>
       <c r="F37" s="66"/>
       <c r="G37" s="66"/>
@@ -11194,11 +10923,11 @@
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A47" s="77"/>
-      <c r="B47" s="241" t="s">
+      <c r="B47" s="259" t="s">
         <v>213</v>
       </c>
-      <c r="C47" s="242"/>
-      <c r="D47" s="243"/>
+      <c r="C47" s="260"/>
+      <c r="D47" s="261"/>
       <c r="E47" s="69"/>
       <c r="F47" s="66"/>
       <c r="G47" s="66"/>
@@ -11319,11 +11048,11 @@
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A52" s="77"/>
-      <c r="B52" s="241" t="s">
+      <c r="B52" s="259" t="s">
         <v>228</v>
       </c>
-      <c r="C52" s="242"/>
-      <c r="D52" s="243"/>
+      <c r="C52" s="260"/>
+      <c r="D52" s="261"/>
       <c r="E52" s="69"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -11416,11 +11145,11 @@
     </row>
     <row r="56" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A56" s="77"/>
-      <c r="B56" s="241" t="s">
+      <c r="B56" s="259" t="s">
         <v>240</v>
       </c>
-      <c r="C56" s="242"/>
-      <c r="D56" s="243"/>
+      <c r="C56" s="260"/>
+      <c r="D56" s="261"/>
       <c r="E56" s="69"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -11737,11 +11466,11 @@
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A68" s="77"/>
-      <c r="B68" s="241" t="s">
+      <c r="B68" s="259" t="s">
         <v>282</v>
       </c>
-      <c r="C68" s="242"/>
-      <c r="D68" s="243"/>
+      <c r="C68" s="260"/>
+      <c r="D68" s="261"/>
       <c r="E68" s="69"/>
       <c r="F68" s="66"/>
       <c r="G68" s="66"/>
@@ -11834,11 +11563,11 @@
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A72" s="77"/>
-      <c r="B72" s="241" t="s">
+      <c r="B72" s="259" t="s">
         <v>292</v>
       </c>
-      <c r="C72" s="242"/>
-      <c r="D72" s="243"/>
+      <c r="C72" s="260"/>
+      <c r="D72" s="261"/>
       <c r="E72" s="69"/>
       <c r="F72" s="66"/>
       <c r="G72" s="66"/>
@@ -11931,11 +11660,11 @@
     </row>
     <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A76" s="77"/>
-      <c r="B76" s="241" t="s">
+      <c r="B76" s="259" t="s">
         <v>303</v>
       </c>
-      <c r="C76" s="242"/>
-      <c r="D76" s="243"/>
+      <c r="C76" s="260"/>
+      <c r="D76" s="261"/>
       <c r="E76" s="69"/>
       <c r="F76" s="66"/>
       <c r="G76" s="66"/>
@@ -12000,11 +11729,11 @@
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A79" s="77"/>
-      <c r="B79" s="241" t="s">
+      <c r="B79" s="259" t="s">
         <v>311</v>
       </c>
-      <c r="C79" s="242"/>
-      <c r="D79" s="243"/>
+      <c r="C79" s="260"/>
+      <c r="D79" s="261"/>
       <c r="E79" s="69"/>
       <c r="F79" s="66"/>
       <c r="G79" s="66"/>
@@ -12153,6 +11882,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B76:D76"/>
@@ -12163,17 +11903,6 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B68:D68"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="F19:H84" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -12230,13 +11959,13 @@
     </row>
     <row r="2" spans="1:12" s="84" customFormat="1" ht="24.6">
       <c r="A2" s="83"/>
-      <c r="C2" s="250" t="s">
+      <c r="C2" s="285" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="250"/>
-      <c r="E2" s="250"/>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
+      <c r="D2" s="285"/>
+      <c r="E2" s="285"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="285"/>
       <c r="H2" s="85" t="s">
         <v>334</v>
       </c>
@@ -12247,15 +11976,15 @@
     </row>
     <row r="3" spans="1:12" s="84" customFormat="1" ht="22.8">
       <c r="A3" s="83"/>
-      <c r="C3" s="251" t="s">
+      <c r="C3" s="286" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="251"/>
+      <c r="D3" s="286"/>
       <c r="E3" s="157"/>
-      <c r="F3" s="252" t="s">
+      <c r="F3" s="287" t="s">
         <v>336</v>
       </c>
-      <c r="G3" s="252"/>
+      <c r="G3" s="287"/>
       <c r="H3" s="86"/>
       <c r="I3" s="86"/>
       <c r="J3" s="87"/>
@@ -12280,10 +12009,10 @@
       <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="253" t="s">
+      <c r="B6" s="269" t="s">
         <v>337</v>
       </c>
-      <c r="C6" s="253"/>
+      <c r="C6" s="269"/>
       <c r="D6" s="94"/>
       <c r="E6" s="94"/>
       <c r="F6" s="94"/>
@@ -12452,11 +12181,11 @@
       <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="253" t="s">
+      <c r="B14" s="269" t="s">
         <v>367</v>
       </c>
-      <c r="C14" s="253"/>
-      <c r="D14" s="253"/>
+      <c r="C14" s="269"/>
+      <c r="D14" s="269"/>
       <c r="E14" s="94"/>
       <c r="F14" s="94"/>
       <c r="G14" s="95"/>
@@ -12632,11 +12361,11 @@
       <c r="G22" s="98"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="253" t="s">
+      <c r="B23" s="269" t="s">
         <v>377</v>
       </c>
-      <c r="C23" s="253"/>
-      <c r="D23" s="253"/>
+      <c r="C23" s="269"/>
+      <c r="D23" s="269"/>
       <c r="E23" s="94"/>
       <c r="F23" s="94"/>
       <c r="G23" s="95"/>
@@ -12682,10 +12411,10 @@
       <c r="F26" s="160" t="s">
         <v>384</v>
       </c>
-      <c r="G26" s="254" t="s">
+      <c r="G26" s="288" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="255"/>
+      <c r="H26" s="289"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="100">
@@ -12710,8 +12439,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="248"/>
-      <c r="H27" s="249"/>
+      <c r="G27" s="280"/>
+      <c r="H27" s="281"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="100">
@@ -12736,8 +12465,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="248"/>
-      <c r="H28" s="249"/>
+      <c r="G28" s="280"/>
+      <c r="H28" s="281"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="100">
@@ -12762,8 +12491,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="248"/>
-      <c r="H29" s="249"/>
+      <c r="G29" s="280"/>
+      <c r="H29" s="281"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="100">
@@ -12788,8 +12517,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="248"/>
-      <c r="H30" s="249"/>
+      <c r="G30" s="280"/>
+      <c r="H30" s="281"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="100"/>
@@ -12810,8 +12539,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="248"/>
-      <c r="H31" s="249"/>
+      <c r="G31" s="280"/>
+      <c r="H31" s="281"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="106"/>
@@ -12849,10 +12578,10 @@
       <c r="E34" s="160" t="s">
         <v>343</v>
       </c>
-      <c r="F34" s="256" t="s">
+      <c r="F34" s="274" t="s">
         <v>346</v>
       </c>
-      <c r="G34" s="257"/>
+      <c r="G34" s="276"/>
     </row>
     <row r="35" spans="1:12" s="125" customFormat="1" ht="14.4">
       <c r="A35" s="121"/>
@@ -12868,8 +12597,8 @@
       <c r="E35" s="126" t="s">
         <v>351</v>
       </c>
-      <c r="F35" s="259"/>
-      <c r="G35" s="260"/>
+      <c r="F35" s="283"/>
+      <c r="G35" s="284"/>
       <c r="H35" s="124"/>
       <c r="I35" s="124"/>
       <c r="J35" s="124"/>
@@ -12892,8 +12621,8 @@
       <c r="E36" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="F36" s="248"/>
-      <c r="G36" s="249"/>
+      <c r="F36" s="280"/>
+      <c r="G36" s="281"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="100">
@@ -12911,8 +12640,8 @@
       <c r="E37" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="F37" s="248"/>
-      <c r="G37" s="249"/>
+      <c r="F37" s="280"/>
+      <c r="G37" s="281"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="106"/>
@@ -12925,10 +12654,10 @@
       <c r="H38" s="108"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="253" t="s">
+      <c r="B39" s="269" t="s">
         <v>398</v>
       </c>
-      <c r="C39" s="253"/>
+      <c r="C39" s="269"/>
       <c r="D39" s="94"/>
       <c r="E39" s="94"/>
       <c r="F39" s="94"/>
@@ -12952,15 +12681,15 @@
       <c r="B41" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="258" t="s">
+      <c r="C41" s="282" t="s">
         <v>400</v>
       </c>
-      <c r="D41" s="258"/>
-      <c r="E41" s="258" t="s">
+      <c r="D41" s="282"/>
+      <c r="E41" s="282" t="s">
         <v>401</v>
       </c>
-      <c r="F41" s="258"/>
-      <c r="G41" s="258"/>
+      <c r="F41" s="282"/>
+      <c r="G41" s="282"/>
       <c r="H41" s="99" t="s">
         <v>402</v>
       </c>
@@ -12972,15 +12701,15 @@
       <c r="B42" s="161" t="s">
         <v>403</v>
       </c>
-      <c r="C42" s="261" t="s">
+      <c r="C42" s="279" t="s">
         <v>404</v>
       </c>
-      <c r="D42" s="261"/>
-      <c r="E42" s="261" t="s">
+      <c r="D42" s="279"/>
+      <c r="E42" s="279" t="s">
         <v>405</v>
       </c>
-      <c r="F42" s="261"/>
-      <c r="G42" s="261"/>
+      <c r="F42" s="279"/>
+      <c r="G42" s="279"/>
       <c r="H42" s="109"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -12990,15 +12719,15 @@
       <c r="B43" s="161" t="s">
         <v>403</v>
       </c>
-      <c r="C43" s="261" t="s">
+      <c r="C43" s="279" t="s">
         <v>404</v>
       </c>
-      <c r="D43" s="261"/>
-      <c r="E43" s="261" t="s">
+      <c r="D43" s="279"/>
+      <c r="E43" s="279" t="s">
         <v>405</v>
       </c>
-      <c r="F43" s="261"/>
-      <c r="G43" s="261"/>
+      <c r="F43" s="279"/>
+      <c r="G43" s="279"/>
       <c r="H43" s="109"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -13008,15 +12737,15 @@
       <c r="B44" s="161" t="s">
         <v>403</v>
       </c>
-      <c r="C44" s="261" t="s">
+      <c r="C44" s="279" t="s">
         <v>404</v>
       </c>
-      <c r="D44" s="261"/>
-      <c r="E44" s="261" t="s">
+      <c r="D44" s="279"/>
+      <c r="E44" s="279" t="s">
         <v>405</v>
       </c>
-      <c r="F44" s="261"/>
-      <c r="G44" s="261"/>
+      <c r="F44" s="279"/>
+      <c r="G44" s="279"/>
       <c r="H44" s="109"/>
     </row>
     <row r="45" spans="1:12">
@@ -13028,10 +12757,10 @@
       <c r="G45" s="98"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="253" t="s">
+      <c r="B46" s="269" t="s">
         <v>406</v>
       </c>
-      <c r="C46" s="253"/>
+      <c r="C46" s="269"/>
       <c r="D46" s="94"/>
       <c r="E46" s="94"/>
       <c r="F46" s="94"/>
@@ -13049,25 +12778,25 @@
       <c r="G47" s="98"/>
     </row>
     <row r="48" spans="1:12" s="113" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="264" t="s">
+      <c r="A48" s="270" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="266" t="s">
+      <c r="B48" s="272" t="s">
         <v>408</v>
       </c>
-      <c r="C48" s="256" t="s">
+      <c r="C48" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="D48" s="268"/>
-      <c r="E48" s="268"/>
-      <c r="F48" s="257"/>
-      <c r="G48" s="269" t="s">
+      <c r="D48" s="275"/>
+      <c r="E48" s="275"/>
+      <c r="F48" s="276"/>
+      <c r="G48" s="277" t="s">
         <v>376</v>
       </c>
-      <c r="H48" s="269" t="s">
+      <c r="H48" s="277" t="s">
         <v>408</v>
       </c>
-      <c r="I48" s="262" t="s">
+      <c r="I48" s="267" t="s">
         <v>410</v>
       </c>
       <c r="J48" s="112"/>
@@ -13075,8 +12804,8 @@
       <c r="L48" s="112"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="265"/>
-      <c r="B49" s="267"/>
+      <c r="A49" s="271"/>
+      <c r="B49" s="273"/>
       <c r="C49" s="114" t="s">
         <v>385</v>
       </c>
@@ -13089,13 +12818,13 @@
       <c r="F49" s="115" t="s">
         <v>388</v>
       </c>
-      <c r="G49" s="270"/>
-      <c r="H49" s="270"/>
-      <c r="I49" s="263"/>
+      <c r="G49" s="278"/>
+      <c r="H49" s="278"/>
+      <c r="I49" s="268"/>
     </row>
     <row r="50" spans="1:9" ht="26.4">
-      <c r="A50" s="265"/>
-      <c r="B50" s="267"/>
+      <c r="A50" s="271"/>
+      <c r="B50" s="273"/>
       <c r="C50" s="128" t="s">
         <v>411</v>
       </c>
@@ -13207,26 +12936,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -13239,6 +12948,26 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -13282,6 +13011,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -13446,15 +13184,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
   <ds:schemaRefs>
@@ -13465,6 +13194,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13481,12 +13218,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Test design technique assignment_Phạm Anh Đức.xlsx
+++ b/Test design technique assignment_Phạm Anh Đức.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\OJT Nash Tech\Test design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9217ED49-AD0F-41C7-8721-93FBA3A299A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F512BCF8-E270-4EC1-A877-8036E762E1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Record of Change" sheetId="4" r:id="rId1"/>
@@ -21,59 +21,76 @@
     <sheet name="Assignment 2" sheetId="9" r:id="rId6"/>
     <sheet name="Assignment 3" sheetId="15" r:id="rId7"/>
     <sheet name="Assignment 4" sheetId="18" r:id="rId8"/>
-    <sheet name="Test report" sheetId="10" r:id="rId9"/>
+    <sheet name="Assignment 5" sheetId="20" r:id="rId9"/>
+    <sheet name="Test report" sheetId="10" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="abc" localSheetId="6">#REF!</definedName>
     <definedName name="abc" localSheetId="7">#REF!</definedName>
+    <definedName name="abc" localSheetId="8">#REF!</definedName>
     <definedName name="abc">#REF!</definedName>
     <definedName name="CS_IT_1.1_001" localSheetId="6">#REF!</definedName>
     <definedName name="CS_IT_1.1_001" localSheetId="7">#REF!</definedName>
+    <definedName name="CS_IT_1.1_001" localSheetId="8">#REF!</definedName>
     <definedName name="CS_IT_1.1_001">#REF!</definedName>
     <definedName name="CS_IT_1.1_002" localSheetId="6">#REF!</definedName>
     <definedName name="CS_IT_1.1_002" localSheetId="7">#REF!</definedName>
+    <definedName name="CS_IT_1.1_002" localSheetId="8">#REF!</definedName>
     <definedName name="CS_IT_1.1_002">#REF!</definedName>
     <definedName name="CS_IT_1.1_003" localSheetId="6">#REF!</definedName>
     <definedName name="CS_IT_1.1_003" localSheetId="7">#REF!</definedName>
+    <definedName name="CS_IT_1.1_003" localSheetId="8">#REF!</definedName>
     <definedName name="CS_IT_1.1_003">#REF!</definedName>
     <definedName name="CS_IT_1.1_004" localSheetId="6">#REF!</definedName>
     <definedName name="CS_IT_1.1_004" localSheetId="7">#REF!</definedName>
+    <definedName name="CS_IT_1.1_004" localSheetId="8">#REF!</definedName>
     <definedName name="CS_IT_1.1_004">#REF!</definedName>
     <definedName name="Check_inputed_mail_address" localSheetId="6">#REF!</definedName>
     <definedName name="Check_inputed_mail_address" localSheetId="7">#REF!</definedName>
+    <definedName name="Check_inputed_mail_address" localSheetId="8">#REF!</definedName>
     <definedName name="Check_inputed_mail_address">#REF!</definedName>
     <definedName name="Evaluation" localSheetId="6">#REF!</definedName>
     <definedName name="Evaluation" localSheetId="7">#REF!</definedName>
+    <definedName name="Evaluation" localSheetId="8">#REF!</definedName>
     <definedName name="Evaluation">#REF!</definedName>
     <definedName name="JaEnNickname" localSheetId="6">#REF!</definedName>
     <definedName name="JaEnNickname" localSheetId="7">#REF!</definedName>
+    <definedName name="JaEnNickname" localSheetId="8">#REF!</definedName>
     <definedName name="JaEnNickname">#REF!</definedName>
     <definedName name="Mail_Magazine" localSheetId="6">#REF!</definedName>
     <definedName name="Mail_Magazine" localSheetId="7">#REF!</definedName>
+    <definedName name="Mail_Magazine" localSheetId="8">#REF!</definedName>
     <definedName name="Mail_Magazine">#REF!</definedName>
     <definedName name="project_code" localSheetId="6">#REF!</definedName>
     <definedName name="project_code" localSheetId="7">#REF!</definedName>
+    <definedName name="project_code" localSheetId="8">#REF!</definedName>
     <definedName name="project_code">#REF!</definedName>
     <definedName name="ProjectName" localSheetId="6">'[1]Version 1'!#REF!</definedName>
     <definedName name="ProjectName" localSheetId="7">'[1]Version 1'!#REF!</definedName>
+    <definedName name="ProjectName" localSheetId="8">'[1]Version 1'!#REF!</definedName>
     <definedName name="ProjectName">'[1]Version 1'!#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_001" localSheetId="6">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_001" localSheetId="7">#REF!</definedName>
+    <definedName name="Result_CS_IT_1.1_001" localSheetId="8">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_001">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_002" localSheetId="6">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_002" localSheetId="7">#REF!</definedName>
+    <definedName name="Result_CS_IT_1.1_002" localSheetId="8">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_002">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_003" localSheetId="6">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_003" localSheetId="7">#REF!</definedName>
+    <definedName name="Result_CS_IT_1.1_003" localSheetId="8">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_003">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_004" localSheetId="6">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_004" localSheetId="7">#REF!</definedName>
+    <definedName name="Result_CS_IT_1.1_004" localSheetId="8">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_004">#REF!</definedName>
     <definedName name="safa" localSheetId="6">#REF!</definedName>
     <definedName name="safa" localSheetId="7">#REF!</definedName>
+    <definedName name="safa" localSheetId="8">#REF!</definedName>
     <definedName name="safa">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -385,8 +402,72 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{9D2B01E2-C3AF-44FE-B38F-94DEB11180A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{0E0BE31D-2012-418D-957A-409402565C10}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{E15FD43C-CCC5-4AB4-BA6B-84C72A5158B0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="803">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -3430,6 +3511,107 @@
   <si>
     <t>1.
 2. Switch to the select default billing address screen with the user's addresses in the address book section and have a blank box at the end of each address line for the user to select default billing address</t>
+  </si>
+  <si>
+    <t>Add New Address function</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Delete Address function</t>
+  </si>
+  <si>
+    <t>Asignment 5</t>
+  </si>
+  <si>
+    <t>Asignment 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Delete Address function test</t>
+  </si>
+  <si>
+    <t>Check when the user click delete default address</t>
+  </si>
+  <si>
+    <t>Check when the user click delete normal address</t>
+  </si>
+  <si>
+    <t>Confirmation pop-up test</t>
+  </si>
+  <si>
+    <t>Check when user click "x" in the top right corner</t>
+  </si>
+  <si>
+    <t>Check when user click "Cancel"</t>
+  </si>
+  <si>
+    <t>Check when user click "Delete"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.
+2. 
+3. The screen displayed a error message: "You cannot delete your default address" </t>
+  </si>
+  <si>
+    <t>1. Go to the Address Book screen
+2. Click "Edit" in the default address line 
+3. Click "Delete" in the top right corner</t>
+  </si>
+  <si>
+    <t>1. Go to the Address Book screen
+2. Click "Edit" in the normal address line 
+3. Click "Delete" in the top right corner
+4. Click "Delete"</t>
+  </si>
+  <si>
+    <t>1.
+2.
+3. A confirmation pop-up is displayed
+4. The deleted address is not displayed in Address Book anymore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to the Edit address screen
+2. Click "Delete" in the top right corner
+3. Check the pop-up 
+</t>
+  </si>
+  <si>
+    <t>1. 
+2. 
+3. A confirmation pop-up is displayed</t>
+  </si>
+  <si>
+    <t>1.
+2.
+3. The confirmation pop-up displays information about the user's address with the fields: Full name, address, phone number. Cancel box to exit and delete box to confirm deletion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to the Edit address screen
+2. Click "Delete" in the top right corner
+3. Check the confirmation pop-up </t>
+  </si>
+  <si>
+    <t>1. Go to the Edit address screen
+2. Click "Delete" in the top right corner
+3. Click "x" in the top right corner</t>
+  </si>
+  <si>
+    <t>1.
+2.
+3. Back to the address edit screen</t>
+  </si>
+  <si>
+    <t>1. Go to the Edit address screen
+2. Click "Delete" in the top right corner
+3. Click "Cancel" box at the bottom left</t>
+  </si>
+  <si>
+    <t>1. Go to the Edit address screen
+2. Click "Delete" in the top right corner
+3. Click "Delete" box at the bottom right</t>
+  </si>
+  <si>
+    <t>1.
+2. 
+3. That address is deleted and it's not displayed in Address Book anymore</t>
   </si>
 </sst>
 </file>
@@ -4524,7 +4706,7 @@
     <xf numFmtId="166" fontId="56" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -5076,6 +5258,30 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="70" fillId="33" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="33" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="33" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="33" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="33" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5154,6 +5360,36 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5193,35 +5429,26 @@
     <xf numFmtId="0" fontId="37" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -5241,32 +5468,62 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="52" fillId="35" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5274,9 +5531,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5289,86 +5543,20 @@
     <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="33" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="33" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="33" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="33" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="33" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="35" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -6185,37 +6373,37 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="208" t="s">
+      <c r="A4" s="216" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="209"/>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="210"/>
+      <c r="B4" s="217"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="218"/>
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="211"/>
-      <c r="C5" s="212" t="s">
+      <c r="B5" s="219"/>
+      <c r="C5" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="212"/>
-      <c r="E5" s="212"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="220"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="213" t="s">
+      <c r="A6" s="221" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="214"/>
-      <c r="C6" s="207" t="s">
+      <c r="B6" s="222"/>
+      <c r="C6" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="207"/>
-      <c r="E6" s="207"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -6227,14 +6415,14 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" s="147" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="205" t="s">
+      <c r="A8" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
-      <c r="F8" s="206"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
     </row>
     <row r="9" spans="1:6" s="147" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="148" t="s">
@@ -6317,14 +6505,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="147" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="207" t="s">
+      <c r="A13" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="207"/>
-      <c r="C13" s="207"/>
-      <c r="D13" s="207"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="207"/>
+      <c r="B13" s="215"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="215"/>
+      <c r="E13" s="215"/>
+      <c r="F13" s="215"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18"/>
@@ -6417,6 +6605,1089 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:L61"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="4" style="79" customWidth="1"/>
+    <col min="2" max="2" width="16.09765625" style="80" customWidth="1"/>
+    <col min="3" max="3" width="19" style="80" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" style="80" customWidth="1"/>
+    <col min="5" max="5" width="16.296875" style="80" customWidth="1"/>
+    <col min="6" max="6" width="19" style="80" customWidth="1"/>
+    <col min="7" max="7" width="15" style="82" customWidth="1"/>
+    <col min="8" max="8" width="23.59765625" style="82" customWidth="1"/>
+    <col min="9" max="9" width="25.3984375" style="82" customWidth="1"/>
+    <col min="10" max="10" width="21" style="82" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" style="82" customWidth="1"/>
+    <col min="12" max="12" width="17.296875" style="82" customWidth="1"/>
+    <col min="13" max="13" width="17.296875" style="80" customWidth="1"/>
+    <col min="14" max="14" width="14.09765625" style="80" customWidth="1"/>
+    <col min="15" max="15" width="18.3984375" style="80" customWidth="1"/>
+    <col min="16" max="16384" width="9.09765625" style="80"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="G1" s="81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="84" customFormat="1" ht="24.6">
+      <c r="A2" s="83"/>
+      <c r="C2" s="282" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+    </row>
+    <row r="3" spans="1:12" s="84" customFormat="1" ht="22.8">
+      <c r="A3" s="83"/>
+      <c r="C3" s="283" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="283"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="284" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="284"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="83"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="H4" s="89"/>
+    </row>
+    <row r="5" spans="1:12" s="90" customFormat="1">
+      <c r="A5" s="83"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+    </row>
+    <row r="6" spans="1:12" ht="21.75" customHeight="1">
+      <c r="B6" s="285" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="285"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="98"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="160" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="160" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="160" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="160" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="160" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="160" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="159" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="80"/>
+    </row>
+    <row r="9" spans="1:12" s="125" customFormat="1" ht="14.4">
+      <c r="A9" s="121"/>
+      <c r="B9" s="122" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="122" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="122" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="122" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="122" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="123"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="100">
+        <v>1</v>
+      </c>
+      <c r="B10" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" s="102"/>
+      <c r="L10" s="80"/>
+    </row>
+    <row r="11" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A11" s="100">
+        <v>2</v>
+      </c>
+      <c r="B11" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="101" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="L11" s="80"/>
+    </row>
+    <row r="12" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A12" s="100">
+        <v>3</v>
+      </c>
+      <c r="B12" s="101" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="101" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="102"/>
+      <c r="L12" s="80"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="B13" s="103"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="98"/>
+    </row>
+    <row r="14" spans="1:12" ht="21.75" customHeight="1">
+      <c r="B14" s="285" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="285"/>
+      <c r="D14" s="285"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="96" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="98"/>
+    </row>
+    <row r="16" spans="1:12" ht="31.5" customHeight="1">
+      <c r="A16" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="160" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="160" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="160" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="160" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="160" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="160" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" s="80"/>
+    </row>
+    <row r="17" spans="1:12" s="125" customFormat="1" ht="39.6">
+      <c r="A17" s="121"/>
+      <c r="B17" s="122" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="126" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="126" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="126" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="126" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="126" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="100">
+        <v>1</v>
+      </c>
+      <c r="B18" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="104">
+        <f>'Assignment 1'!D11</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="104">
+        <f>'Assignment 1'!D12</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="104">
+        <f>'Assignment 1'!D14</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="104">
+        <f>'Assignment 1'!D13</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="104">
+        <f>'Assignment 1'!D15</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="80"/>
+    </row>
+    <row r="19" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A19" s="100">
+        <v>2</v>
+      </c>
+      <c r="B19" s="101" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="104">
+        <f>'Assignment 3'!D11</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="104">
+        <f>'Assignment 3'!D12</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="104">
+        <f>'Assignment 3'!D14</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="104">
+        <f>'Assignment 3'!D13</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="104">
+        <f>'Assignment 3'!D15</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="80"/>
+    </row>
+    <row r="20" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A20" s="100">
+        <v>3</v>
+      </c>
+      <c r="B20" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="104">
+        <f>SUM(C18:C19)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="104">
+        <f t="shared" ref="D20:G20" si="0">SUM(D18:D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="80"/>
+    </row>
+    <row r="21" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A21" s="106"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="120" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="119" t="e">
+        <f>SUM(C20,D20,G20)/SUM(C20:G20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="L21" s="80"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="B22" s="103"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="98"/>
+    </row>
+    <row r="23" spans="1:12" ht="21.75" customHeight="1">
+      <c r="B23" s="285" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="285"/>
+      <c r="D23" s="285"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+    </row>
+    <row r="24" spans="1:12" ht="21.75" customHeight="1">
+      <c r="B24" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="158"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.4">
+      <c r="B25" s="105" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="98"/>
+    </row>
+    <row r="26" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A26" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="160" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="160" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="160" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="160" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="160" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="286" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="287"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="100">
+        <v>1</v>
+      </c>
+      <c r="B27" s="101" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Open*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D27" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Resolved*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E27" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Reopened*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F27" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G27" s="280"/>
+      <c r="H27" s="281"/>
+    </row>
+    <row r="28" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A28" s="100">
+        <v>2</v>
+      </c>
+      <c r="B28" s="101" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Open*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D28" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Resolved*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E28" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Reopened*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F28" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G28" s="280"/>
+      <c r="H28" s="281"/>
+    </row>
+    <row r="29" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A29" s="100">
+        <v>3</v>
+      </c>
+      <c r="B29" s="101" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Open*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D29" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Resolved*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E29" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Reopened*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F29" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G29" s="280"/>
+      <c r="H29" s="281"/>
+    </row>
+    <row r="30" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A30" s="100">
+        <v>4</v>
+      </c>
+      <c r="B30" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Open*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D30" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Resolved*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E30" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Reopened*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F30" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G30" s="280"/>
+      <c r="H30" s="281"/>
+    </row>
+    <row r="31" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A31" s="100"/>
+      <c r="B31" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="99" t="e">
+        <f>SUM(C27:C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D31" s="99">
+        <v>0</v>
+      </c>
+      <c r="E31" s="99">
+        <v>0</v>
+      </c>
+      <c r="F31" s="99" t="e">
+        <f>SUM(F27:F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G31" s="280"/>
+      <c r="H31" s="281"/>
+    </row>
+    <row r="32" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A32" s="106"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.4">
+      <c r="B33" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="98"/>
+    </row>
+    <row r="34" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A34" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="160" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="160" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="160" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" s="160" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" s="288" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="289"/>
+    </row>
+    <row r="35" spans="1:12" s="125" customFormat="1" ht="14.4">
+      <c r="A35" s="121"/>
+      <c r="B35" s="122" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="126" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" s="126" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="291"/>
+      <c r="G35" s="292"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="124"/>
+      <c r="J35" s="124"/>
+      <c r="K35" s="124"/>
+      <c r="L35" s="124"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="100">
+        <v>1</v>
+      </c>
+      <c r="B36" s="101" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="104" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" s="104" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="280"/>
+      <c r="G36" s="281"/>
+    </row>
+    <row r="37" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A37" s="100">
+        <v>2</v>
+      </c>
+      <c r="B37" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="104" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="104" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="280"/>
+      <c r="G37" s="281"/>
+    </row>
+    <row r="38" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A38" s="106"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="108"/>
+    </row>
+    <row r="39" spans="1:12" ht="21.75" customHeight="1">
+      <c r="B39" s="285" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="285"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="B40" s="96" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="98"/>
+    </row>
+    <row r="41" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A41" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="160" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="290" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="290"/>
+      <c r="E41" s="290" t="s">
+        <v>182</v>
+      </c>
+      <c r="F41" s="290"/>
+      <c r="G41" s="290"/>
+      <c r="H41" s="99" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="34.5" customHeight="1">
+      <c r="A42" s="100">
+        <v>1</v>
+      </c>
+      <c r="B42" s="161" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="293" t="s">
+        <v>185</v>
+      </c>
+      <c r="D42" s="293"/>
+      <c r="E42" s="293" t="s">
+        <v>186</v>
+      </c>
+      <c r="F42" s="293"/>
+      <c r="G42" s="293"/>
+      <c r="H42" s="109"/>
+    </row>
+    <row r="43" spans="1:12" ht="34.5" customHeight="1">
+      <c r="A43" s="100">
+        <v>2</v>
+      </c>
+      <c r="B43" s="161" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" s="293" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" s="293"/>
+      <c r="E43" s="293" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43" s="293"/>
+      <c r="G43" s="293"/>
+      <c r="H43" s="109"/>
+    </row>
+    <row r="44" spans="1:12" ht="34.5" customHeight="1">
+      <c r="A44" s="100">
+        <v>3</v>
+      </c>
+      <c r="B44" s="161" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" s="293" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44" s="293"/>
+      <c r="E44" s="293" t="s">
+        <v>186</v>
+      </c>
+      <c r="F44" s="293"/>
+      <c r="G44" s="293"/>
+      <c r="H44" s="109"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="B45" s="110"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="98"/>
+    </row>
+    <row r="46" spans="1:12" ht="21.75" customHeight="1">
+      <c r="B46" s="285" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="285"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="B47" s="96" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="98"/>
+    </row>
+    <row r="48" spans="1:12" s="113" customFormat="1" ht="21" customHeight="1">
+      <c r="A48" s="296" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="298" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="288" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="300"/>
+      <c r="E48" s="300"/>
+      <c r="F48" s="289"/>
+      <c r="G48" s="301" t="s">
+        <v>157</v>
+      </c>
+      <c r="H48" s="301" t="s">
+        <v>189</v>
+      </c>
+      <c r="I48" s="294" t="s">
+        <v>191</v>
+      </c>
+      <c r="J48" s="112"/>
+      <c r="K48" s="112"/>
+      <c r="L48" s="112"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="297"/>
+      <c r="B49" s="299"/>
+      <c r="C49" s="114" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="114" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="115" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" s="115" t="s">
+        <v>169</v>
+      </c>
+      <c r="G49" s="302"/>
+      <c r="H49" s="302"/>
+      <c r="I49" s="295"/>
+    </row>
+    <row r="50" spans="1:9" ht="26.4">
+      <c r="A50" s="297"/>
+      <c r="B50" s="299"/>
+      <c r="C50" s="128" t="s">
+        <v>192</v>
+      </c>
+      <c r="D50" s="128" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" s="128" t="s">
+        <v>194</v>
+      </c>
+      <c r="F50" s="128" t="s">
+        <v>195</v>
+      </c>
+      <c r="G50" s="127" t="s">
+        <v>196</v>
+      </c>
+      <c r="H50" s="127" t="s">
+        <v>197</v>
+      </c>
+      <c r="I50" s="127" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="26.4">
+      <c r="A51" s="100">
+        <v>1</v>
+      </c>
+      <c r="B51" s="121" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" s="128" t="s">
+        <v>192</v>
+      </c>
+      <c r="D51" s="128" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" s="128" t="s">
+        <v>194</v>
+      </c>
+      <c r="F51" s="128" t="s">
+        <v>195</v>
+      </c>
+      <c r="G51" s="116" t="s">
+        <v>196</v>
+      </c>
+      <c r="H51" s="116" t="s">
+        <v>197</v>
+      </c>
+      <c r="I51" s="116" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="100">
+        <v>2</v>
+      </c>
+      <c r="B52" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="116">
+        <v>0</v>
+      </c>
+      <c r="D52" s="116">
+        <v>0</v>
+      </c>
+      <c r="E52" s="116">
+        <v>0</v>
+      </c>
+      <c r="F52" s="116" t="e">
+        <f>SUM(C31:E31)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G52" s="129" t="e">
+        <f>D21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H52" s="116" t="s">
+        <v>197</v>
+      </c>
+      <c r="I52" s="116" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="18.75" customHeight="1">
+      <c r="B53" s="117"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="B54" s="118"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="B55" s="118"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="B56" s="118"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="B57" s="118"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="B58" s="118"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="B59" s="118"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="B60" s="118"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="B61" s="118"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:I52">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H51:I52" xr:uid="{00000000-0002-0000-0700-000000000000}">
+      <formula1>"PASS,FAIL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N33"/>
@@ -6447,36 +7718,36 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="228" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="218" t="s">
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="226" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="218"/>
+      <c r="K2" s="226"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="221" t="s">
+      <c r="B3" s="229" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="219" t="s">
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="227" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="219"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="218"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="226"/>
+      <c r="K3" s="226"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="153"/>
@@ -6496,65 +7767,65 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="225" t="s">
+      <c r="A7" s="233" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="225"/>
-      <c r="C7" s="225"/>
-      <c r="D7" s="225"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="225"/>
-      <c r="H7" s="225"/>
-      <c r="I7" s="225"/>
+      <c r="B7" s="233"/>
+      <c r="C7" s="233"/>
+      <c r="D7" s="233"/>
+      <c r="E7" s="233"/>
+      <c r="F7" s="233"/>
+      <c r="G7" s="233"/>
+      <c r="H7" s="233"/>
+      <c r="I7" s="233"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="225"/>
-      <c r="B8" s="225"/>
-      <c r="C8" s="225"/>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="225"/>
-      <c r="H8" s="225"/>
-      <c r="I8" s="225"/>
+      <c r="A8" s="233"/>
+      <c r="B8" s="233"/>
+      <c r="C8" s="233"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="233"/>
+      <c r="F8" s="233"/>
+      <c r="G8" s="233"/>
+      <c r="H8" s="233"/>
+      <c r="I8" s="233"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="225" t="s">
+      <c r="A9" s="233" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="225"/>
-      <c r="C9" s="225"/>
-      <c r="D9" s="225"/>
-      <c r="E9" s="225"/>
-      <c r="F9" s="225"/>
-      <c r="G9" s="225"/>
-      <c r="H9" s="225"/>
-      <c r="I9" s="225"/>
+      <c r="B9" s="233"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="233"/>
+      <c r="G9" s="233"/>
+      <c r="H9" s="233"/>
+      <c r="I9" s="233"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="225"/>
-      <c r="B10" s="225"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="225"/>
-      <c r="E10" s="225"/>
-      <c r="F10" s="225"/>
-      <c r="G10" s="225"/>
-      <c r="H10" s="225"/>
-      <c r="I10" s="225"/>
+      <c r="A10" s="233"/>
+      <c r="B10" s="233"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="233"/>
+      <c r="G10" s="233"/>
+      <c r="H10" s="233"/>
+      <c r="I10" s="233"/>
     </row>
     <row r="11" spans="1:11" ht="13.8">
-      <c r="A11" s="226" t="s">
+      <c r="A11" s="234" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="226"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="226"/>
-      <c r="I11" s="226"/>
+      <c r="B11" s="234"/>
+      <c r="C11" s="234"/>
+      <c r="D11" s="234"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="234"/>
+      <c r="G11" s="234"/>
+      <c r="H11" s="234"/>
+      <c r="I11" s="234"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3"/>
@@ -6576,65 +7847,65 @@
       <c r="A14" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="222" t="s">
+      <c r="B14" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="223"/>
-      <c r="D14" s="223"/>
-      <c r="E14" s="223"/>
-      <c r="F14" s="223"/>
-      <c r="G14" s="223"/>
-      <c r="H14" s="223"/>
-      <c r="I14" s="223"/>
-      <c r="J14" s="223"/>
-      <c r="K14" s="224"/>
+      <c r="C14" s="231"/>
+      <c r="D14" s="231"/>
+      <c r="E14" s="231"/>
+      <c r="F14" s="231"/>
+      <c r="G14" s="231"/>
+      <c r="H14" s="231"/>
+      <c r="I14" s="231"/>
+      <c r="J14" s="231"/>
+      <c r="K14" s="232"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="222" t="s">
+      <c r="B15" s="230" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="223"/>
-      <c r="D15" s="223"/>
-      <c r="E15" s="223"/>
-      <c r="F15" s="223"/>
-      <c r="G15" s="223"/>
-      <c r="H15" s="223"/>
-      <c r="I15" s="223"/>
-      <c r="J15" s="223"/>
-      <c r="K15" s="224"/>
+      <c r="C15" s="231"/>
+      <c r="D15" s="231"/>
+      <c r="E15" s="231"/>
+      <c r="F15" s="231"/>
+      <c r="G15" s="231"/>
+      <c r="H15" s="231"/>
+      <c r="I15" s="231"/>
+      <c r="J15" s="231"/>
+      <c r="K15" s="232"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="134"/>
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="230" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="223"/>
-      <c r="D16" s="223"/>
-      <c r="E16" s="223"/>
-      <c r="F16" s="223"/>
-      <c r="G16" s="223"/>
-      <c r="H16" s="223"/>
-      <c r="I16" s="223"/>
-      <c r="J16" s="223"/>
-      <c r="K16" s="224"/>
+      <c r="C16" s="231"/>
+      <c r="D16" s="231"/>
+      <c r="E16" s="231"/>
+      <c r="F16" s="231"/>
+      <c r="G16" s="231"/>
+      <c r="H16" s="231"/>
+      <c r="I16" s="231"/>
+      <c r="J16" s="231"/>
+      <c r="K16" s="232"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="134"/>
-      <c r="B17" s="222" t="s">
+      <c r="B17" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="223"/>
-      <c r="D17" s="223"/>
-      <c r="E17" s="223"/>
-      <c r="F17" s="223"/>
-      <c r="G17" s="223"/>
-      <c r="H17" s="223"/>
-      <c r="I17" s="223"/>
-      <c r="J17" s="223"/>
-      <c r="K17" s="224"/>
+      <c r="C17" s="231"/>
+      <c r="D17" s="231"/>
+      <c r="E17" s="231"/>
+      <c r="F17" s="231"/>
+      <c r="G17" s="231"/>
+      <c r="H17" s="231"/>
+      <c r="I17" s="231"/>
+      <c r="J17" s="231"/>
+      <c r="K17" s="232"/>
     </row>
     <row r="19" spans="1:14" ht="22.8">
       <c r="A19" s="4" t="s">
@@ -6645,40 +7916,40 @@
       <c r="A20" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="222" t="s">
+      <c r="B20" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="223"/>
-      <c r="D20" s="223"/>
-      <c r="E20" s="223"/>
-      <c r="F20" s="223"/>
-      <c r="G20" s="224"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="231"/>
+      <c r="E20" s="231"/>
+      <c r="F20" s="231"/>
+      <c r="G20" s="232"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="222" t="s">
+      <c r="B21" s="230" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="223"/>
-      <c r="D21" s="223"/>
-      <c r="E21" s="223"/>
-      <c r="F21" s="223"/>
-      <c r="G21" s="224"/>
+      <c r="C21" s="231"/>
+      <c r="D21" s="231"/>
+      <c r="E21" s="231"/>
+      <c r="F21" s="231"/>
+      <c r="G21" s="232"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="222" t="s">
+      <c r="B22" s="230" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="223"/>
-      <c r="D22" s="223"/>
-      <c r="E22" s="223"/>
-      <c r="F22" s="223"/>
-      <c r="G22" s="224"/>
+      <c r="C22" s="231"/>
+      <c r="D22" s="231"/>
+      <c r="E22" s="231"/>
+      <c r="F22" s="231"/>
+      <c r="G22" s="232"/>
     </row>
     <row r="24" spans="1:14" ht="22.8">
       <c r="A24" s="4" t="s">
@@ -6737,11 +8008,11 @@
       <c r="N27" s="70"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="215" t="s">
+      <c r="B29" s="223" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="216"/>
-      <c r="D29" s="217"/>
+      <c r="C29" s="224"/>
+      <c r="D29" s="225"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="5"/>
@@ -6818,14 +8089,14 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="24.6">
-      <c r="A2" s="227" t="s">
+      <c r="A2" s="235" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="227"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10"/>
@@ -7011,12 +8282,12 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="24.6">
-      <c r="A2" s="230" t="s">
+      <c r="A2" s="238" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
       <c r="E2" s="156"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -7177,18 +8448,18 @@
       <c r="F14" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="13.8">
-      <c r="A16" s="228" t="s">
+      <c r="A16" s="236" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="228"/>
+      <c r="B16" s="236"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="13.8">
-      <c r="A17" s="229" t="s">
+      <c r="A17" s="237" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="229"/>
+      <c r="B17" s="237"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="33"/>
@@ -7232,10 +8503,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="251"/>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
+      <c r="A1" s="239"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -7244,12 +8515,12 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="252" t="s">
+      <c r="A2" s="240" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="252"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="252"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
       <c r="E2" s="244"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -7272,11 +8543,11 @@
       <c r="A4" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="246" t="s">
+      <c r="B4" s="242" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="246"/>
-      <c r="D4" s="246"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -7290,9 +8561,9 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -7306,9 +8577,9 @@
       <c r="A6" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="247"/>
-      <c r="C6" s="246"/>
-      <c r="D6" s="246"/>
+      <c r="B6" s="241"/>
+      <c r="C6" s="242"/>
+      <c r="D6" s="242"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -7319,11 +8590,11 @@
       <c r="A7" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="246" t="s">
+      <c r="B7" s="242" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
+      <c r="C7" s="242"/>
+      <c r="D7" s="242"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -7335,9 +8606,9 @@
       <c r="A8" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="253"/>
-      <c r="C8" s="253"/>
-      <c r="D8" s="253"/>
+      <c r="B8" s="243"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="243"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -7480,11 +8751,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="237" t="s">
+      <c r="F16" s="255" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="237"/>
-      <c r="H16" s="237"/>
+      <c r="G16" s="255"/>
+      <c r="H16" s="255"/>
       <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39.6">
@@ -7518,11 +8789,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="170"/>
-      <c r="B18" s="234" t="s">
+      <c r="B18" s="252" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="235"/>
-      <c r="D18" s="236"/>
+      <c r="C18" s="253"/>
+      <c r="D18" s="254"/>
       <c r="E18" s="170"/>
       <c r="F18" s="171"/>
       <c r="G18" s="171"/>
@@ -7701,12 +8972,12 @@
       <c r="I27" s="55"/>
     </row>
     <row r="28" spans="1:9" s="45" customFormat="1" ht="22.8" customHeight="1">
-      <c r="A28" s="248" t="s">
+      <c r="A28" s="246" t="s">
         <v>202</v>
       </c>
-      <c r="B28" s="249"/>
-      <c r="C28" s="249"/>
-      <c r="D28" s="250"/>
+      <c r="B28" s="247"/>
+      <c r="C28" s="247"/>
+      <c r="D28" s="248"/>
       <c r="E28" s="167"/>
       <c r="F28" s="168"/>
       <c r="G28" s="168"/>
@@ -7714,13 +8985,13 @@
       <c r="I28" s="169"/>
     </row>
     <row r="29" spans="1:9" s="177" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A29" s="238" t="s">
+      <c r="A29" s="256" t="s">
         <v>208</v>
       </c>
-      <c r="B29" s="239"/>
-      <c r="C29" s="239"/>
-      <c r="D29" s="239"/>
-      <c r="E29" s="240"/>
+      <c r="B29" s="257"/>
+      <c r="C29" s="257"/>
+      <c r="D29" s="257"/>
+      <c r="E29" s="258"/>
       <c r="F29" s="175"/>
       <c r="G29" s="175"/>
       <c r="H29" s="175"/>
@@ -7898,13 +9169,13 @@
       <c r="I38" s="55"/>
     </row>
     <row r="39" spans="1:9" s="181" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A39" s="241" t="s">
+      <c r="A39" s="259" t="s">
         <v>212</v>
       </c>
-      <c r="B39" s="242"/>
-      <c r="C39" s="242"/>
-      <c r="D39" s="242"/>
-      <c r="E39" s="243"/>
+      <c r="B39" s="260"/>
+      <c r="C39" s="260"/>
+      <c r="D39" s="260"/>
+      <c r="E39" s="261"/>
       <c r="F39" s="179"/>
       <c r="G39" s="179"/>
       <c r="H39" s="179"/>
@@ -7988,11 +9259,11 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A44" s="172"/>
-      <c r="B44" s="234" t="s">
+      <c r="B44" s="252" t="s">
         <v>213</v>
       </c>
-      <c r="C44" s="235"/>
-      <c r="D44" s="236"/>
+      <c r="C44" s="253"/>
+      <c r="D44" s="254"/>
       <c r="E44" s="173"/>
       <c r="F44" s="174"/>
       <c r="G44" s="174"/>
@@ -8109,12 +9380,12 @@
       <c r="I50" s="62"/>
     </row>
     <row r="51" spans="1:9" s="191" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A51" s="231" t="s">
+      <c r="A51" s="249" t="s">
         <v>220</v>
       </c>
-      <c r="B51" s="232"/>
-      <c r="C51" s="232"/>
-      <c r="D51" s="233"/>
+      <c r="B51" s="250"/>
+      <c r="C51" s="250"/>
+      <c r="D51" s="251"/>
       <c r="E51" s="190"/>
       <c r="F51" s="189"/>
       <c r="G51" s="189"/>
@@ -8236,12 +9507,12 @@
       <c r="I57" s="62"/>
     </row>
     <row r="58" spans="1:9" s="191" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A58" s="231" t="s">
+      <c r="A58" s="249" t="s">
         <v>221</v>
       </c>
-      <c r="B58" s="232"/>
-      <c r="C58" s="232"/>
-      <c r="D58" s="233"/>
+      <c r="B58" s="250"/>
+      <c r="C58" s="250"/>
+      <c r="D58" s="251"/>
       <c r="E58" s="190"/>
       <c r="F58" s="189"/>
       <c r="G58" s="189"/>
@@ -8325,12 +9596,12 @@
       <c r="I62" s="62"/>
     </row>
     <row r="63" spans="1:9" s="191" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A63" s="231" t="s">
+      <c r="A63" s="249" t="s">
         <v>238</v>
       </c>
-      <c r="B63" s="232"/>
-      <c r="C63" s="232"/>
-      <c r="D63" s="233"/>
+      <c r="B63" s="250"/>
+      <c r="C63" s="250"/>
+      <c r="D63" s="251"/>
       <c r="E63" s="190"/>
       <c r="F63" s="189"/>
       <c r="G63" s="189"/>
@@ -8415,16 +9686,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A63:D63"/>
@@ -8433,6 +9694,16 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="A39:E39"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
@@ -8470,10 +9741,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="251"/>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
+      <c r="A1" s="239"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -8482,12 +9753,12 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A2" s="252" t="s">
+      <c r="A2" s="240" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="252"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="252"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
       <c r="E2" s="244"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -8510,11 +9781,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="246" t="s">
+      <c r="B4" s="242" t="s">
         <v>340</v>
       </c>
-      <c r="C4" s="246"/>
-      <c r="D4" s="246"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -8528,9 +9799,9 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -8544,9 +9815,9 @@
       <c r="A6" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="247"/>
-      <c r="C6" s="246"/>
-      <c r="D6" s="246"/>
+      <c r="B6" s="241"/>
+      <c r="C6" s="242"/>
+      <c r="D6" s="242"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -8557,11 +9828,11 @@
       <c r="A7" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="246" t="s">
+      <c r="B7" s="242" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
+      <c r="C7" s="242"/>
+      <c r="D7" s="242"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -8573,9 +9844,9 @@
       <c r="A8" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="253"/>
-      <c r="C8" s="253"/>
-      <c r="D8" s="253"/>
+      <c r="B8" s="243"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="243"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -8756,11 +10027,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="260" t="s">
+      <c r="B18" s="262" t="s">
         <v>308</v>
       </c>
-      <c r="C18" s="261"/>
-      <c r="D18" s="262"/>
+      <c r="C18" s="263"/>
+      <c r="D18" s="264"/>
       <c r="E18" s="67"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -8768,12 +10039,12 @@
       <c r="I18" s="67"/>
     </row>
     <row r="19" spans="1:9" s="45" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A19" s="254" t="s">
+      <c r="A19" s="269" t="s">
         <v>313</v>
       </c>
-      <c r="B19" s="255"/>
-      <c r="C19" s="255"/>
-      <c r="D19" s="256"/>
+      <c r="B19" s="270"/>
+      <c r="C19" s="270"/>
+      <c r="D19" s="271"/>
       <c r="E19" s="193"/>
       <c r="F19" s="192"/>
       <c r="G19" s="192"/>
@@ -8991,11 +10262,11 @@
     </row>
     <row r="31" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A31" s="196"/>
-      <c r="B31" s="257" t="s">
+      <c r="B31" s="272" t="s">
         <v>314</v>
       </c>
-      <c r="C31" s="258"/>
-      <c r="D31" s="259"/>
+      <c r="C31" s="273"/>
+      <c r="D31" s="274"/>
       <c r="E31" s="197"/>
       <c r="F31" s="198"/>
       <c r="G31" s="198"/>
@@ -9365,11 +10636,11 @@
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A51" s="200"/>
-      <c r="B51" s="257" t="s">
+      <c r="B51" s="272" t="s">
         <v>317</v>
       </c>
-      <c r="C51" s="263"/>
-      <c r="D51" s="264"/>
+      <c r="C51" s="275"/>
+      <c r="D51" s="276"/>
       <c r="E51" s="201"/>
       <c r="F51" s="195"/>
       <c r="G51" s="195"/>
@@ -9701,11 +10972,11 @@
     </row>
     <row r="69" spans="1:9" s="199" customFormat="1" ht="13.8">
       <c r="A69" s="196"/>
-      <c r="B69" s="257" t="s">
+      <c r="B69" s="272" t="s">
         <v>322</v>
       </c>
-      <c r="C69" s="258"/>
-      <c r="D69" s="259"/>
+      <c r="C69" s="273"/>
+      <c r="D69" s="274"/>
       <c r="E69" s="197"/>
       <c r="F69" s="198"/>
       <c r="G69" s="198"/>
@@ -9790,11 +11061,11 @@
     </row>
     <row r="74" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A74" s="196"/>
-      <c r="B74" s="257" t="s">
+      <c r="B74" s="272" t="s">
         <v>325</v>
       </c>
-      <c r="C74" s="258"/>
-      <c r="D74" s="259"/>
+      <c r="C74" s="273"/>
+      <c r="D74" s="274"/>
       <c r="E74" s="197"/>
       <c r="F74" s="198"/>
       <c r="G74" s="198"/>
@@ -10012,11 +11283,11 @@
     </row>
     <row r="86" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A86" s="196"/>
-      <c r="B86" s="257" t="s">
+      <c r="B86" s="272" t="s">
         <v>384</v>
       </c>
-      <c r="C86" s="258"/>
-      <c r="D86" s="259"/>
+      <c r="C86" s="273"/>
+      <c r="D86" s="274"/>
       <c r="E86" s="197"/>
       <c r="F86" s="198"/>
       <c r="G86" s="198"/>
@@ -10234,11 +11505,11 @@
     </row>
     <row r="98" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A98" s="196"/>
-      <c r="B98" s="257" t="s">
+      <c r="B98" s="272" t="s">
         <v>385</v>
       </c>
-      <c r="C98" s="258"/>
-      <c r="D98" s="259"/>
+      <c r="C98" s="273"/>
+      <c r="D98" s="274"/>
       <c r="E98" s="197"/>
       <c r="F98" s="198"/>
       <c r="G98" s="198"/>
@@ -10302,11 +11573,11 @@
     </row>
     <row r="102" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A102" s="77"/>
-      <c r="B102" s="260" t="s">
+      <c r="B102" s="262" t="s">
         <v>309</v>
       </c>
-      <c r="C102" s="261"/>
-      <c r="D102" s="262"/>
+      <c r="C102" s="263"/>
+      <c r="D102" s="264"/>
       <c r="E102" s="69"/>
       <c r="F102" s="66"/>
       <c r="G102" s="66"/>
@@ -10315,11 +11586,11 @@
     </row>
     <row r="103" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A103" s="202"/>
-      <c r="B103" s="254" t="s">
+      <c r="B103" s="269" t="s">
         <v>333</v>
       </c>
-      <c r="C103" s="255"/>
-      <c r="D103" s="256"/>
+      <c r="C103" s="270"/>
+      <c r="D103" s="271"/>
       <c r="E103" s="193"/>
       <c r="F103" s="192"/>
       <c r="G103" s="192"/>
@@ -10455,11 +11726,11 @@
     </row>
     <row r="111" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A111" s="202"/>
-      <c r="B111" s="254" t="s">
+      <c r="B111" s="269" t="s">
         <v>343</v>
       </c>
-      <c r="C111" s="255"/>
-      <c r="D111" s="256"/>
+      <c r="C111" s="270"/>
+      <c r="D111" s="271"/>
       <c r="E111" s="193"/>
       <c r="F111" s="192"/>
       <c r="G111" s="192"/>
@@ -10506,11 +11777,11 @@
     </row>
     <row r="114" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A114" s="202"/>
-      <c r="B114" s="254" t="s">
+      <c r="B114" s="269" t="s">
         <v>337</v>
       </c>
-      <c r="C114" s="255"/>
-      <c r="D114" s="256"/>
+      <c r="C114" s="270"/>
+      <c r="D114" s="271"/>
       <c r="E114" s="193"/>
       <c r="F114" s="192"/>
       <c r="G114" s="192"/>
@@ -10557,11 +11828,11 @@
     </row>
     <row r="117" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A117" s="202"/>
-      <c r="B117" s="254" t="s">
+      <c r="B117" s="269" t="s">
         <v>339</v>
       </c>
-      <c r="C117" s="255"/>
-      <c r="D117" s="256"/>
+      <c r="C117" s="270"/>
+      <c r="D117" s="271"/>
       <c r="E117" s="193"/>
       <c r="F117" s="192"/>
       <c r="G117" s="192"/>
@@ -10608,11 +11879,11 @@
     </row>
     <row r="120" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A120" s="202"/>
-      <c r="B120" s="254" t="s">
+      <c r="B120" s="269" t="s">
         <v>356</v>
       </c>
-      <c r="C120" s="255"/>
-      <c r="D120" s="256"/>
+      <c r="C120" s="270"/>
+      <c r="D120" s="271"/>
       <c r="E120" s="193"/>
       <c r="F120" s="192"/>
       <c r="G120" s="192"/>
@@ -10733,17 +12004,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="B120:D120"/>
     <mergeCell ref="B117:D117"/>
     <mergeCell ref="A19:D19"/>
@@ -10757,6 +12017,17 @@
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="B86:D86"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F124:H181" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -10794,10 +12065,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="251"/>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
+      <c r="A1" s="239"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -10806,12 +12077,12 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="252" t="s">
+      <c r="A2" s="240" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="252"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="252"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
       <c r="E2" s="244"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -10834,11 +12105,11 @@
       <c r="A4" s="139" t="s">
         <v>441</v>
       </c>
-      <c r="B4" s="246" t="s">
+      <c r="B4" s="242" t="s">
         <v>442</v>
       </c>
-      <c r="C4" s="246"/>
-      <c r="D4" s="246"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -10852,9 +12123,9 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -10868,9 +12139,9 @@
       <c r="A6" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="247"/>
-      <c r="C6" s="246"/>
-      <c r="D6" s="246"/>
+      <c r="B6" s="241"/>
+      <c r="C6" s="242"/>
+      <c r="D6" s="242"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -10881,11 +12152,11 @@
       <c r="A7" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="246" t="s">
+      <c r="B7" s="242" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
+      <c r="C7" s="242"/>
+      <c r="D7" s="242"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -10897,11 +12168,11 @@
       <c r="A8" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="253">
+      <c r="B8" s="243">
         <v>44857</v>
       </c>
-      <c r="C8" s="253"/>
-      <c r="D8" s="253"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="243"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -11082,11 +12353,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="260" t="s">
+      <c r="B18" s="262" t="s">
         <v>403</v>
       </c>
-      <c r="C18" s="261"/>
-      <c r="D18" s="262"/>
+      <c r="C18" s="263"/>
+      <c r="D18" s="264"/>
       <c r="E18" s="67"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -11418,11 +12689,11 @@
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A36" s="77"/>
-      <c r="B36" s="260" t="s">
+      <c r="B36" s="262" t="s">
         <v>402</v>
       </c>
-      <c r="C36" s="261"/>
-      <c r="D36" s="262"/>
+      <c r="C36" s="263"/>
+      <c r="D36" s="264"/>
       <c r="E36" s="69"/>
       <c r="F36" s="66"/>
       <c r="G36" s="66"/>
@@ -11507,11 +12778,11 @@
     </row>
     <row r="41" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A41" s="203"/>
-      <c r="B41" s="254" t="s">
+      <c r="B41" s="269" t="s">
         <v>431</v>
       </c>
-      <c r="C41" s="255"/>
-      <c r="D41" s="256"/>
+      <c r="C41" s="270"/>
+      <c r="D41" s="271"/>
       <c r="E41" s="193"/>
       <c r="F41" s="192"/>
       <c r="G41" s="192"/>
@@ -11607,11 +12878,11 @@
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A47" s="203"/>
-      <c r="B47" s="254" t="s">
+      <c r="B47" s="269" t="s">
         <v>432</v>
       </c>
-      <c r="C47" s="255"/>
-      <c r="D47" s="256"/>
+      <c r="C47" s="270"/>
+      <c r="D47" s="271"/>
       <c r="E47" s="193"/>
       <c r="F47" s="192"/>
       <c r="G47" s="192"/>
@@ -11677,6 +12948,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="A1:D1"/>
@@ -11685,12 +12962,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17" xr:uid="{00000000-0002-0000-0600-000001000000}"/>
@@ -11713,8 +12984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6293B0-DF3D-4C68-9428-8CCCA99D1C41}">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView showGridLines="0" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2"/>
@@ -11728,10 +12999,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="251"/>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
+      <c r="A1" s="239"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -11740,12 +13011,12 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="252" t="s">
+      <c r="A2" s="240" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="252"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="252"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
       <c r="E2" s="244"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -11766,13 +13037,13 @@
     </row>
     <row r="4" spans="1:24" s="38" customFormat="1">
       <c r="A4" s="139" t="s">
-        <v>441</v>
-      </c>
-      <c r="B4" s="246" t="s">
-        <v>442</v>
-      </c>
-      <c r="C4" s="246"/>
-      <c r="D4" s="246"/>
+        <v>782</v>
+      </c>
+      <c r="B4" s="242" t="s">
+        <v>779</v>
+      </c>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -11786,9 +13057,9 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -11802,9 +13073,9 @@
       <c r="A6" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="247"/>
-      <c r="C6" s="246"/>
-      <c r="D6" s="246"/>
+      <c r="B6" s="241"/>
+      <c r="C6" s="242"/>
+      <c r="D6" s="242"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -11815,11 +13086,11 @@
       <c r="A7" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="246" t="s">
+      <c r="B7" s="242" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
+      <c r="C7" s="242"/>
+      <c r="D7" s="242"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -11831,11 +13102,11 @@
       <c r="A8" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="253">
-        <v>44857</v>
-      </c>
-      <c r="C8" s="253"/>
-      <c r="D8" s="253"/>
+      <c r="B8" s="243">
+        <v>44861</v>
+      </c>
+      <c r="C8" s="243"/>
+      <c r="D8" s="243"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -12015,25 +13286,25 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="30.6" customHeight="1">
-      <c r="A18" s="292"/>
-      <c r="B18" s="293"/>
-      <c r="C18" s="296" t="s">
+      <c r="A18" s="205"/>
+      <c r="B18" s="206"/>
+      <c r="C18" s="209" t="s">
         <v>740</v>
       </c>
-      <c r="D18" s="294"/>
-      <c r="E18" s="294"/>
-      <c r="F18" s="295"/>
-      <c r="G18" s="295"/>
-      <c r="H18" s="295"/>
-      <c r="I18" s="295"/>
+      <c r="D18" s="207"/>
+      <c r="E18" s="207"/>
+      <c r="F18" s="208"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="208"/>
+      <c r="I18" s="208"/>
     </row>
     <row r="19" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="67"/>
-      <c r="B19" s="260" t="s">
+      <c r="B19" s="262" t="s">
         <v>308</v>
       </c>
-      <c r="C19" s="261"/>
-      <c r="D19" s="262"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="264"/>
       <c r="E19" s="67"/>
       <c r="F19" s="68"/>
       <c r="G19" s="68"/>
@@ -12042,11 +13313,11 @@
     </row>
     <row r="20" spans="1:9" s="45" customFormat="1">
       <c r="A20" s="192"/>
-      <c r="B20" s="254" t="s">
+      <c r="B20" s="269" t="s">
         <v>621</v>
       </c>
-      <c r="C20" s="255"/>
-      <c r="D20" s="256"/>
+      <c r="C20" s="270"/>
+      <c r="D20" s="271"/>
       <c r="E20" s="193"/>
       <c r="F20" s="192"/>
       <c r="G20" s="192"/>
@@ -12313,11 +13584,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A35" s="202"/>
-      <c r="B35" s="254" t="s">
+      <c r="B35" s="269" t="s">
         <v>633</v>
       </c>
-      <c r="C35" s="255"/>
-      <c r="D35" s="256"/>
+      <c r="C35" s="270"/>
+      <c r="D35" s="271"/>
       <c r="E35" s="193"/>
       <c r="F35" s="192"/>
       <c r="G35" s="192"/>
@@ -12546,11 +13817,11 @@
     </row>
     <row r="48" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A48" s="202"/>
-      <c r="B48" s="254" t="s">
+      <c r="B48" s="269" t="s">
         <v>664</v>
       </c>
-      <c r="C48" s="255"/>
-      <c r="D48" s="256"/>
+      <c r="C48" s="270"/>
+      <c r="D48" s="271"/>
       <c r="E48" s="193"/>
       <c r="F48" s="192"/>
       <c r="G48" s="192"/>
@@ -12817,11 +14088,11 @@
     </row>
     <row r="63" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A63" s="202"/>
-      <c r="B63" s="254" t="s">
+      <c r="B63" s="269" t="s">
         <v>701</v>
       </c>
-      <c r="C63" s="255"/>
-      <c r="D63" s="256"/>
+      <c r="C63" s="270"/>
+      <c r="D63" s="271"/>
       <c r="E63" s="193"/>
       <c r="F63" s="192"/>
       <c r="G63" s="192"/>
@@ -12900,11 +14171,11 @@
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A68" s="202"/>
-      <c r="B68" s="254" t="s">
+      <c r="B68" s="269" t="s">
         <v>711</v>
       </c>
-      <c r="C68" s="255"/>
-      <c r="D68" s="256"/>
+      <c r="C68" s="270"/>
+      <c r="D68" s="271"/>
       <c r="E68" s="193"/>
       <c r="F68" s="192"/>
       <c r="G68" s="192"/>
@@ -12981,11 +14252,11 @@
     </row>
     <row r="73" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A73" s="202"/>
-      <c r="B73" s="254" t="s">
+      <c r="B73" s="269" t="s">
         <v>720</v>
       </c>
-      <c r="C73" s="255"/>
-      <c r="D73" s="256"/>
+      <c r="C73" s="270"/>
+      <c r="D73" s="271"/>
       <c r="E73" s="193"/>
       <c r="F73" s="192"/>
       <c r="G73" s="192"/>
@@ -13062,11 +14333,11 @@
     </row>
     <row r="78" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A78" s="202"/>
-      <c r="B78" s="254" t="s">
+      <c r="B78" s="269" t="s">
         <v>726</v>
       </c>
-      <c r="C78" s="255"/>
-      <c r="D78" s="256"/>
+      <c r="C78" s="270"/>
+      <c r="D78" s="271"/>
       <c r="E78" s="193"/>
       <c r="F78" s="192"/>
       <c r="G78" s="192"/>
@@ -13162,11 +14433,11 @@
     </row>
     <row r="84" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A84" s="77"/>
-      <c r="B84" s="260" t="s">
+      <c r="B84" s="262" t="s">
         <v>309</v>
       </c>
-      <c r="C84" s="261"/>
-      <c r="D84" s="262"/>
+      <c r="C84" s="263"/>
+      <c r="D84" s="264"/>
       <c r="E84" s="69"/>
       <c r="F84" s="66"/>
       <c r="G84" s="66"/>
@@ -13383,17 +14654,17 @@
       <c r="I95" s="62"/>
     </row>
     <row r="96" spans="1:9" s="48" customFormat="1" ht="27" customHeight="1">
-      <c r="A96" s="297"/>
-      <c r="B96" s="302" t="s">
+      <c r="A96" s="210"/>
+      <c r="B96" s="277" t="s">
         <v>761</v>
       </c>
-      <c r="C96" s="300"/>
-      <c r="D96" s="301"/>
-      <c r="E96" s="299"/>
-      <c r="F96" s="298"/>
-      <c r="G96" s="298"/>
-      <c r="H96" s="298"/>
-      <c r="I96" s="297"/>
+      <c r="C96" s="278"/>
+      <c r="D96" s="279"/>
+      <c r="E96" s="212"/>
+      <c r="F96" s="211"/>
+      <c r="G96" s="211"/>
+      <c r="H96" s="211"/>
+      <c r="I96" s="210"/>
     </row>
     <row r="97" spans="1:9" s="48" customFormat="1" ht="79.2">
       <c r="A97" s="62">
@@ -13522,26 +14793,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="B73:D73"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B96:D96"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B84:D84"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B68:D68"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F104:H161" xr:uid="{A26CAB16-5177-405E-A193-96BF75473D78}">
@@ -13562,1101 +14833,591 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:L61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA4F572-02A8-4D7C-BFA9-148701534C50}">
+  <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4" style="79" customWidth="1"/>
-    <col min="2" max="2" width="16.09765625" style="80" customWidth="1"/>
-    <col min="3" max="3" width="19" style="80" customWidth="1"/>
-    <col min="4" max="4" width="20.3984375" style="80" customWidth="1"/>
-    <col min="5" max="5" width="16.296875" style="80" customWidth="1"/>
-    <col min="6" max="6" width="19" style="80" customWidth="1"/>
-    <col min="7" max="7" width="15" style="82" customWidth="1"/>
-    <col min="8" max="8" width="23.59765625" style="82" customWidth="1"/>
-    <col min="9" max="9" width="25.3984375" style="82" customWidth="1"/>
-    <col min="10" max="10" width="21" style="82" customWidth="1"/>
-    <col min="11" max="11" width="11.3984375" style="82" customWidth="1"/>
-    <col min="12" max="12" width="17.296875" style="82" customWidth="1"/>
-    <col min="13" max="13" width="17.296875" style="80" customWidth="1"/>
-    <col min="14" max="14" width="14.09765625" style="80" customWidth="1"/>
-    <col min="15" max="15" width="18.3984375" style="80" customWidth="1"/>
-    <col min="16" max="16384" width="9.09765625" style="80"/>
+    <col min="1" max="1" width="12.296875" style="78" customWidth="1"/>
+    <col min="2" max="4" width="35.09765625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="32.09765625" style="46" customWidth="1"/>
+    <col min="6" max="8" width="9.69921875" style="46" customWidth="1"/>
+    <col min="9" max="9" width="17.69921875" style="46" customWidth="1"/>
+    <col min="10" max="16384" width="9.09765625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="G1" s="81" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="84" customFormat="1" ht="24.6">
-      <c r="A2" s="83"/>
-      <c r="C2" s="287" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287"/>
-      <c r="H2" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-    </row>
-    <row r="3" spans="1:12" s="84" customFormat="1" ht="22.8">
-      <c r="A3" s="83"/>
-      <c r="C3" s="288" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="288"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="289" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="289"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="83"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="H4" s="89"/>
-    </row>
-    <row r="5" spans="1:12" s="90" customFormat="1">
-      <c r="A5" s="83"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-    </row>
-    <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="271" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="271"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7" s="96" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="98"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="160" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="160" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="160" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="160" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="160" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="160" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" s="160" t="s">
-        <v>126</v>
-      </c>
-      <c r="I8" s="159" t="s">
-        <v>127</v>
-      </c>
-      <c r="L8" s="80"/>
-    </row>
-    <row r="9" spans="1:12" s="125" customFormat="1" ht="14.4">
-      <c r="A9" s="121"/>
-      <c r="B9" s="122" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="122" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="122" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="122" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="122" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="122" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="122" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" s="123"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="100">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
+      <c r="A1" s="239"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A2" s="240" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A3" s="47"/>
+      <c r="C3" s="265"/>
+      <c r="D3" s="265"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:24" s="38" customFormat="1">
+      <c r="A4" s="139" t="s">
+        <v>781</v>
+      </c>
+      <c r="B4" s="242" t="s">
+        <v>780</v>
+      </c>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="X4" s="38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="38" customFormat="1" ht="144.75" customHeight="1">
+      <c r="A5" s="139" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="241"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="X5" s="38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="38" customFormat="1">
+      <c r="A6" s="139" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="241"/>
+      <c r="C6" s="242"/>
+      <c r="D6" s="242"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:24" s="38" customFormat="1">
+      <c r="A7" s="139" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="242" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="242"/>
+      <c r="D7" s="242"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="40"/>
+      <c r="X7" s="42"/>
+    </row>
+    <row r="8" spans="1:24" s="43" customFormat="1">
+      <c r="A8" s="139" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="243">
+        <v>44861</v>
+      </c>
+      <c r="C8" s="243"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="39"/>
+    </row>
+    <row r="9" spans="1:24" s="43" customFormat="1">
+      <c r="A9" s="140" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="73" t="str">
+        <f>F17</f>
+        <v>Internal Build 03112011</v>
+      </c>
+      <c r="C9" s="73" t="str">
+        <f>G17</f>
+        <v>Internal build 14112011</v>
+      </c>
+      <c r="D9" s="73" t="str">
+        <f>H17</f>
+        <v>External build 16112011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="43" customFormat="1">
+      <c r="A10" s="141" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="74">
+        <f>SUM(B11:B14)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="74">
+        <f>SUM(C11:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="74">
+        <f>SUM(D11:D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="43" customFormat="1">
+      <c r="A11" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="75">
+        <f>COUNTIF($F$18:$F$49580,"*Passed")</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="75">
+        <f>COUNTIF($G$18:$G$49580,"*Passed")</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="75">
+        <f>COUNTIF($H$18:$H$49580,"*Passed")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="43" customFormat="1">
+      <c r="A12" s="141" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="75">
+        <f>COUNTIF($F$18:$F$49300,"*Failed*")</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="75">
+        <f>COUNTIF($G$18:$G$49300,"*Failed*")</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="75">
+        <f>COUNTIF($H$18:$H$49300,"*Failed*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="43" customFormat="1">
+      <c r="A13" s="141" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="75">
+        <f>COUNTIF($F$18:$F$49300,"*Not Run*")</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="75">
+        <f>COUNTIF($G$18:$G$49300,"*Not Run*")</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="75">
+        <f>COUNTIF($H$18:$H$49300,"*Not Run*")</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" s="43" customFormat="1">
+      <c r="A14" s="141" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="75">
+        <f>COUNTIF($F$18:$F$49300,"*NA*")</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="75">
+        <f>COUNTIF($G$18:$G$49300,"*NA*")</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="75">
+        <f>COUNTIF($H$18:$H$49300,"*NA*")</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="64"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" s="43" customFormat="1" ht="26.4">
+      <c r="A15" s="141" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="75">
+        <f>COUNTIF($F$18:$F$49300,"*Passed in previous build*")</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="75">
+        <f>COUNTIF($G$18:$G$49300,"*Passed in previous build*")</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="75">
+        <f>COUNTIF($H$18:$H$49300,"*Passed in previous build*")</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="76"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="266" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="267"/>
+      <c r="H16" s="268"/>
+      <c r="I16" s="65"/>
+    </row>
+    <row r="17" spans="1:9" s="44" customFormat="1" ht="39.6">
+      <c r="A17" s="142" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="143" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="143" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="144" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="143" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="143" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="143" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="143" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="303"/>
+      <c r="B18" s="272" t="s">
+        <v>783</v>
+      </c>
+      <c r="C18" s="273"/>
+      <c r="D18" s="274"/>
+      <c r="E18" s="303"/>
+      <c r="F18" s="304"/>
+      <c r="G18" s="304"/>
+      <c r="H18" s="304"/>
+      <c r="I18" s="303"/>
+    </row>
+    <row r="19" spans="1:9" s="45" customFormat="1" ht="52.8">
+      <c r="A19" s="52">
         <v>1</v>
       </c>
-      <c r="B10" s="101" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="101" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="101" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="101" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="I10" s="102"/>
-      <c r="L10" s="80"/>
-    </row>
-    <row r="11" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A11" s="100">
+      <c r="B19" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>794</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>795</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="55"/>
+    </row>
+    <row r="20" spans="1:9" s="45" customFormat="1" ht="52.8">
+      <c r="A20" s="52">
         <v>2</v>
       </c>
-      <c r="B11" s="101" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="101" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="101" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="101" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" s="101" t="s">
-        <v>138</v>
-      </c>
-      <c r="G11" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="101" t="s">
-        <v>143</v>
-      </c>
-      <c r="I11" s="102" t="s">
-        <v>144</v>
-      </c>
-      <c r="L11" s="80"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A12" s="100">
+      <c r="B20" s="52" t="s">
+        <v>784</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>791</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>790</v>
+      </c>
+      <c r="E20" s="54"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="55"/>
+    </row>
+    <row r="21" spans="1:9" s="45" customFormat="1" ht="66">
+      <c r="A21" s="62">
         <v>3</v>
       </c>
-      <c r="B12" s="101" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="101" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="101" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="101" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="101" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="H12" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="I12" s="102"/>
-      <c r="L12" s="80"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
-      <c r="B13" s="103"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="98"/>
-    </row>
-    <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="271" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="271"/>
-      <c r="D14" s="271"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="98"/>
-    </row>
-    <row r="16" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A16" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="160" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="160" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="160" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="160" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="160" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="160" t="s">
-        <v>151</v>
-      </c>
-      <c r="L16" s="80"/>
-    </row>
-    <row r="17" spans="1:12" s="125" customFormat="1" ht="39.6">
-      <c r="A17" s="121"/>
-      <c r="B17" s="122" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="126" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="126" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="126" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" s="126" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" s="126" t="s">
-        <v>156</v>
-      </c>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="100">
+      <c r="B21" s="52" t="s">
+        <v>785</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>792</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>793</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="55"/>
+    </row>
+    <row r="22" spans="1:9" s="45" customFormat="1">
+      <c r="A22" s="62"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="55"/>
+    </row>
+    <row r="23" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A23" s="202"/>
+      <c r="B23" s="269" t="s">
+        <v>786</v>
+      </c>
+      <c r="C23" s="270"/>
+      <c r="D23" s="271"/>
+      <c r="E23" s="193"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="192"/>
+      <c r="H23" s="192"/>
+      <c r="I23" s="204"/>
+    </row>
+    <row r="24" spans="1:9" s="48" customFormat="1" ht="92.4">
+      <c r="A24" s="62">
         <v>1</v>
       </c>
-      <c r="B18" s="101" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="104">
-        <f>'Assignment 1'!D11</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="104">
-        <f>'Assignment 1'!D12</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="104">
-        <f>'Assignment 1'!D14</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="104">
-        <f>'Assignment 1'!D13</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="104">
-        <f>'Assignment 1'!D15</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="80"/>
-    </row>
-    <row r="19" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A19" s="100">
+      <c r="B24" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>797</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>796</v>
+      </c>
+      <c r="E24" s="54"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="61"/>
+    </row>
+    <row r="25" spans="1:9" s="48" customFormat="1" ht="39.6">
+      <c r="A25" s="62">
         <v>2</v>
       </c>
-      <c r="B19" s="101" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="104">
-        <f>'Assignment 3'!D11</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="104">
-        <f>'Assignment 3'!D12</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="104">
-        <f>'Assignment 3'!D14</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="104">
-        <f>'Assignment 3'!D13</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="104">
-        <f>'Assignment 3'!D15</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="80"/>
-    </row>
-    <row r="20" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A20" s="100">
+      <c r="B25" s="52" t="s">
+        <v>787</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>798</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>799</v>
+      </c>
+      <c r="E25" s="54"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="61"/>
+    </row>
+    <row r="26" spans="1:9" s="48" customFormat="1" ht="39.6">
+      <c r="A26" s="62">
         <v>3</v>
       </c>
-      <c r="B20" s="101" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="104">
-        <f>SUM(C18:C19)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="104">
-        <f t="shared" ref="D20:G20" si="0">SUM(D18:D19)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="80"/>
-    </row>
-    <row r="21" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A21" s="106"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="120" t="s">
-        <v>157</v>
-      </c>
-      <c r="D21" s="119" t="e">
-        <f>SUM(C20,D20,G20)/SUM(C20:G20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="L21" s="80"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="B22" s="103"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="98"/>
-    </row>
-    <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="271" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="271"/>
-      <c r="D23" s="271"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-    </row>
-    <row r="24" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B24" s="96" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24" s="158"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-    </row>
-    <row r="25" spans="1:12" ht="14.4">
-      <c r="B25" s="105" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="98"/>
-    </row>
-    <row r="26" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A26" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="160" t="s">
-        <v>161</v>
-      </c>
-      <c r="C26" s="160" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" s="160" t="s">
-        <v>163</v>
-      </c>
-      <c r="E26" s="160" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" s="160" t="s">
-        <v>165</v>
-      </c>
-      <c r="G26" s="290" t="s">
-        <v>110</v>
-      </c>
-      <c r="H26" s="291"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="100">
-        <v>1</v>
-      </c>
-      <c r="B27" s="101" t="s">
-        <v>166</v>
-      </c>
-      <c r="C27" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Open*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D27" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Resolved*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E27" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Reopened*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F27" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G27" s="282"/>
-      <c r="H27" s="283"/>
-    </row>
-    <row r="28" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A28" s="100">
-        <v>2</v>
-      </c>
-      <c r="B28" s="101" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Open*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D28" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Resolved*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E28" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Reopened*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F28" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G28" s="282"/>
-      <c r="H28" s="283"/>
-    </row>
-    <row r="29" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A29" s="100">
-        <v>3</v>
-      </c>
-      <c r="B29" s="101" t="s">
-        <v>168</v>
-      </c>
-      <c r="C29" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Open*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D29" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Resolved*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E29" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Reopened*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F29" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G29" s="282"/>
-      <c r="H29" s="283"/>
-    </row>
-    <row r="30" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A30" s="100">
+      <c r="B26" s="52" t="s">
+        <v>788</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>800</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>799</v>
+      </c>
+      <c r="E26" s="54"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="61"/>
+    </row>
+    <row r="27" spans="1:9" s="48" customFormat="1" ht="52.8">
+      <c r="A27" s="62">
         <v>4</v>
       </c>
-      <c r="B30" s="101" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Open*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D30" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Resolved*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E30" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Reopened*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F30" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G30" s="282"/>
-      <c r="H30" s="283"/>
-    </row>
-    <row r="31" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A31" s="100"/>
-      <c r="B31" s="99" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="99" t="e">
-        <f>SUM(C27:C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D31" s="99">
-        <v>0</v>
-      </c>
-      <c r="E31" s="99">
-        <v>0</v>
-      </c>
-      <c r="F31" s="99" t="e">
-        <f>SUM(F27:F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G31" s="282"/>
-      <c r="H31" s="283"/>
-    </row>
-    <row r="32" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A32" s="106"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-    </row>
-    <row r="33" spans="1:12" ht="14.4">
-      <c r="B33" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="98"/>
-    </row>
-    <row r="34" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A34" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="160" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" s="160" t="s">
-        <v>172</v>
-      </c>
-      <c r="D34" s="160" t="s">
-        <v>173</v>
-      </c>
-      <c r="E34" s="160" t="s">
-        <v>124</v>
-      </c>
-      <c r="F34" s="276" t="s">
-        <v>127</v>
-      </c>
-      <c r="G34" s="278"/>
-    </row>
-    <row r="35" spans="1:12" s="125" customFormat="1" ht="14.4">
-      <c r="A35" s="121"/>
-      <c r="B35" s="122" t="s">
-        <v>174</v>
-      </c>
-      <c r="C35" s="126" t="s">
-        <v>175</v>
-      </c>
-      <c r="D35" s="126" t="s">
-        <v>176</v>
-      </c>
-      <c r="E35" s="126" t="s">
-        <v>132</v>
-      </c>
-      <c r="F35" s="285"/>
-      <c r="G35" s="286"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="124"/>
-      <c r="J35" s="124"/>
-      <c r="K35" s="124"/>
-      <c r="L35" s="124"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="100">
-        <v>1</v>
-      </c>
-      <c r="B36" s="101" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="104" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" s="104" t="s">
-        <v>169</v>
-      </c>
-      <c r="E36" s="104" t="s">
-        <v>138</v>
-      </c>
-      <c r="F36" s="282"/>
-      <c r="G36" s="283"/>
-    </row>
-    <row r="37" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A37" s="100">
-        <v>2</v>
-      </c>
-      <c r="B37" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="104" t="s">
-        <v>178</v>
-      </c>
-      <c r="D37" s="104" t="s">
-        <v>169</v>
-      </c>
-      <c r="E37" s="104" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" s="282"/>
-      <c r="G37" s="283"/>
-    </row>
-    <row r="38" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A38" s="106"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="108"/>
-      <c r="G38" s="108"/>
-      <c r="H38" s="108"/>
-    </row>
-    <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="271" t="s">
-        <v>179</v>
-      </c>
-      <c r="C39" s="271"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="B40" s="96" t="s">
-        <v>180</v>
-      </c>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="98"/>
-    </row>
-    <row r="41" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A41" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="160" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="284" t="s">
-        <v>181</v>
-      </c>
-      <c r="D41" s="284"/>
-      <c r="E41" s="284" t="s">
-        <v>182</v>
-      </c>
-      <c r="F41" s="284"/>
-      <c r="G41" s="284"/>
-      <c r="H41" s="99" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A42" s="100">
-        <v>1</v>
-      </c>
-      <c r="B42" s="161" t="s">
-        <v>184</v>
-      </c>
-      <c r="C42" s="281" t="s">
-        <v>185</v>
-      </c>
-      <c r="D42" s="281"/>
-      <c r="E42" s="281" t="s">
-        <v>186</v>
-      </c>
-      <c r="F42" s="281"/>
-      <c r="G42" s="281"/>
-      <c r="H42" s="109"/>
-    </row>
-    <row r="43" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A43" s="100">
-        <v>2</v>
-      </c>
-      <c r="B43" s="161" t="s">
-        <v>184</v>
-      </c>
-      <c r="C43" s="281" t="s">
-        <v>185</v>
-      </c>
-      <c r="D43" s="281"/>
-      <c r="E43" s="281" t="s">
-        <v>186</v>
-      </c>
-      <c r="F43" s="281"/>
-      <c r="G43" s="281"/>
-      <c r="H43" s="109"/>
-    </row>
-    <row r="44" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A44" s="100">
-        <v>3</v>
-      </c>
-      <c r="B44" s="161" t="s">
-        <v>184</v>
-      </c>
-      <c r="C44" s="281" t="s">
-        <v>185</v>
-      </c>
-      <c r="D44" s="281"/>
-      <c r="E44" s="281" t="s">
-        <v>186</v>
-      </c>
-      <c r="F44" s="281"/>
-      <c r="G44" s="281"/>
-      <c r="H44" s="109"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="B45" s="110"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="98"/>
-    </row>
-    <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="271" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46" s="271"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="95"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="B47" s="96" t="s">
-        <v>188</v>
-      </c>
-      <c r="C47" s="110"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="98"/>
-    </row>
-    <row r="48" spans="1:12" s="113" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="272" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="274" t="s">
-        <v>189</v>
-      </c>
-      <c r="C48" s="276" t="s">
-        <v>190</v>
-      </c>
-      <c r="D48" s="277"/>
-      <c r="E48" s="277"/>
-      <c r="F48" s="278"/>
-      <c r="G48" s="279" t="s">
-        <v>157</v>
-      </c>
-      <c r="H48" s="279" t="s">
-        <v>189</v>
-      </c>
-      <c r="I48" s="269" t="s">
-        <v>191</v>
-      </c>
-      <c r="J48" s="112"/>
-      <c r="K48" s="112"/>
-      <c r="L48" s="112"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="273"/>
-      <c r="B49" s="275"/>
-      <c r="C49" s="114" t="s">
-        <v>166</v>
-      </c>
-      <c r="D49" s="114" t="s">
-        <v>167</v>
-      </c>
-      <c r="E49" s="115" t="s">
-        <v>168</v>
-      </c>
-      <c r="F49" s="115" t="s">
-        <v>169</v>
-      </c>
-      <c r="G49" s="280"/>
-      <c r="H49" s="280"/>
-      <c r="I49" s="270"/>
-    </row>
-    <row r="50" spans="1:9" ht="26.4">
-      <c r="A50" s="273"/>
-      <c r="B50" s="275"/>
-      <c r="C50" s="128" t="s">
-        <v>192</v>
-      </c>
-      <c r="D50" s="128" t="s">
-        <v>193</v>
-      </c>
-      <c r="E50" s="128" t="s">
-        <v>194</v>
-      </c>
-      <c r="F50" s="128" t="s">
-        <v>195</v>
-      </c>
-      <c r="G50" s="127" t="s">
-        <v>196</v>
-      </c>
-      <c r="H50" s="127" t="s">
-        <v>197</v>
-      </c>
-      <c r="I50" s="127" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="26.4">
-      <c r="A51" s="100">
-        <v>1</v>
-      </c>
-      <c r="B51" s="121" t="s">
-        <v>198</v>
-      </c>
-      <c r="C51" s="128" t="s">
-        <v>192</v>
-      </c>
-      <c r="D51" s="128" t="s">
-        <v>193</v>
-      </c>
-      <c r="E51" s="128" t="s">
-        <v>194</v>
-      </c>
-      <c r="F51" s="128" t="s">
-        <v>195</v>
-      </c>
-      <c r="G51" s="116" t="s">
-        <v>196</v>
-      </c>
-      <c r="H51" s="116" t="s">
-        <v>197</v>
-      </c>
-      <c r="I51" s="116" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="100">
-        <v>2</v>
-      </c>
-      <c r="B52" s="100" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="116">
-        <v>0</v>
-      </c>
-      <c r="D52" s="116">
-        <v>0</v>
-      </c>
-      <c r="E52" s="116">
-        <v>0</v>
-      </c>
-      <c r="F52" s="116" t="e">
-        <f>SUM(C31:E31)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G52" s="129" t="e">
-        <f>D21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H52" s="116" t="s">
-        <v>197</v>
-      </c>
-      <c r="I52" s="116" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="18.75" customHeight="1">
-      <c r="B53" s="117"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="B54" s="118"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="B55" s="118"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="B56" s="118"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="B57" s="118"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="B58" s="118"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="B59" s="118"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="B60" s="118"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="B61" s="118"/>
+      <c r="B27" s="52" t="s">
+        <v>789</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>801</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>802</v>
+      </c>
+      <c r="E27" s="54"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="61"/>
+    </row>
+    <row r="28" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A28" s="62"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="62"/>
+    </row>
+    <row r="29" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A29" s="78"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+    </row>
+    <row r="30" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A30" s="78"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+    </row>
+    <row r="31" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A31" s="78"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+    </row>
+    <row r="32" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A32" s="78"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+    </row>
+    <row r="33" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A33" s="78"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C2:G2"/>
+  <mergeCells count="12">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51:I52">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H51:I52" xr:uid="{00000000-0002-0000-0700-000000000000}">
-      <formula1>"PASS,FAIL"</formula1>
+  <dataValidations count="4">
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17" xr:uid="{E4040F56-3E48-4B09-B800-39EA178C1DA8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:H18" xr:uid="{5B79A2A5-7ECD-41DE-9E54-E876B0A23207}"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F29:H86" xr:uid="{FC3DC3AC-9DBC-4230-825E-FF3809DE0356}">
+      <formula1>#REF!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F19:H28" xr:uid="{1671E7B6-0145-4D70-BE3D-8F7EE7BA573F}">
+      <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14825,18 +15586,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Test design technique assignment_Phạm Anh Đức.xlsx
+++ b/Test design technique assignment_Phạm Anh Đức.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\OJT Nash Tech\Test design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F512BCF8-E270-4EC1-A877-8036E762E1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0DC5B2-1992-45F8-B457-17545EA0F082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="808">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -2900,10 +2900,6 @@
 </t>
   </si>
   <si>
-    <t>1. 
-2. No error message are displayed</t>
-  </si>
-  <si>
     <t>Check when user enters special characters</t>
   </si>
   <si>
@@ -2969,10 +2965,6 @@
 2. Check the phone number field</t>
   </si>
   <si>
-    <t>1. 
-2. The field displayed: "Please enter your phone number"</t>
-  </si>
-  <si>
     <t>1. Go to add new address screen
 2. Not enter any characters</t>
   </si>
@@ -3026,21 +3018,6 @@
   </si>
   <si>
     <t>1. Go to add new address screen
-2. Copy the number: "094548952"
-3. Paste it to the phone number filed</t>
-  </si>
-  <si>
-    <t>1.
-2. 
-3. Available to paste</t>
-  </si>
-  <si>
-    <t>1. 
-2. 
-3. Clear all the phone number field</t>
-  </si>
-  <si>
-    <t>1. Go to add new address screen
 2. Enter: "123456789"</t>
   </si>
   <si>
@@ -3063,18 +3040,10 @@
   </si>
   <si>
     <t>Check when user copy and paste address field</t>
-  </si>
-  <si>
-    <t>1. 
-2. Fullname filed displayed: "Enter fullname"</t>
   </si>
   <si>
     <t>1. Go to add new address screen
 2. Check the address field</t>
-  </si>
-  <si>
-    <t>1. 
-2. The field displayed: "Please enter your address"</t>
   </si>
   <si>
     <t>1. Go to add new address screen
@@ -3107,11 +3076,6 @@
 3. Clicks the button clear all</t>
   </si>
   <si>
-    <t>1. 
-2. 
-3. Clear all the address field</t>
-  </si>
-  <si>
     <t>1. Go to add new address screen
 2. Enter: "@@@@@@@@@@@@@@@@@@@"</t>
   </si>
@@ -3129,70 +3093,6 @@
 2. Enter: "                       "</t>
   </si>
   <si>
-    <t>1.
-2. The screen displayed a error message: "Please enter only house number, street name, apartment/building/company name here (Length from 5-350 characters)"</t>
-  </si>
-  <si>
-    <t>1.
-2. The screen displayed a error message: "Please enter valid address"</t>
-  </si>
-  <si>
-    <t>1. 
-2. The screen displayed a error message: "The addresslength should be 5 - 350 characters."</t>
-  </si>
-  <si>
-    <t>1. 
-2. The screen displayed a error message: "Please enter your address"</t>
-  </si>
-  <si>
-    <t>1.
-2. The screen displayed a error message: "Please enter valid phone number"</t>
-  </si>
-  <si>
-    <t>1.
-2. 
-3. The screen displayed a error message: "Please enter valid phone number"</t>
-  </si>
-  <si>
-    <t>1. 
-2. The screen displayed a error message: "The length of Phone number should be 10 characters."</t>
-  </si>
-  <si>
-    <t>1. 
-2. The screen displayed a error message: "The length of Phone number should be 10 characters"</t>
-  </si>
-  <si>
-    <t>1. 
-2. The screen displayed a error message: "Please enter phone number"</t>
-  </si>
-  <si>
-    <t>1. 
-2. The screen displayed a error message: "The name length should be 2 - 50 characters."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 
-2. The screen displayed a error message: "Name cannot contain special characters" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 
-2.The screen displayed a error message: "Name cannot contain special characters" </t>
-  </si>
-  <si>
-    <t>1. 
-2. No error message and the fullname displayed: Pham Anh Duc
-3. Name is pasted</t>
-  </si>
-  <si>
-    <t>1. 
-2. The screen displayed a error message: The name length should be 2 - 50 characters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.
-2. 
-3. 
-4. The screen displayed a error message: "Please enter your Full name" </t>
-  </si>
-  <si>
     <t>1.4. Province Field</t>
   </si>
   <si>
@@ -3203,39 +3103,11 @@
 2. Check the province field</t>
   </si>
   <si>
-    <t>Check when user select province</t>
-  </si>
-  <si>
-    <t>1. Go to add new address screen
-2. Doesn't select province
-3. Click save</t>
-  </si>
-  <si>
     <t>1. Go to add new address screen
 2. Click on the province section and check the  scrollbar</t>
   </si>
   <si>
-    <t>1. 
-2. The field displayed: "Please select your Province"</t>
-  </si>
-  <si>
-    <t>1. 
-2. 
-3. The screen displayed warning message: "This is required information"</t>
-  </si>
-  <si>
-    <t>1. 
-2. The scrollbar can scroll up and down</t>
-  </si>
-  <si>
-    <t>1. 
-2. No error message are displayed and the user continues to select to the district field</t>
-  </si>
-  <si>
     <t>1.5. District Field</t>
-  </si>
-  <si>
-    <t>Check when user select district</t>
   </si>
   <si>
     <t>1. Go to add new address screen
@@ -3243,34 +3115,10 @@
   </si>
   <si>
     <t>1. Go to add new address screen
-2. Doesn't select district
-3. Click save</t>
-  </si>
-  <si>
-    <t>1. Go to add new address screen
 2. Click on the district section and check the  scrollbar</t>
   </si>
   <si>
-    <t>1. Go to add new address screen
-2. Select province</t>
-  </si>
-  <si>
-    <t>1. Go to add new address screen
-2. Select district</t>
-  </si>
-  <si>
-    <t>1. 
-2. The field displayed: "Please select your District"</t>
-  </si>
-  <si>
-    <t>1. 
-2. No error message are displayed and the user continues to select to the ward field</t>
-  </si>
-  <si>
     <t>1.6. Ward Field</t>
-  </si>
-  <si>
-    <t>Check when user select ward</t>
   </si>
   <si>
     <t>1. Go to add new address screen
@@ -3278,28 +3126,10 @@
   </si>
   <si>
     <t>1. Go to add new address screen
-2. Doesn't select ward
-3. Click save</t>
-  </si>
-  <si>
-    <t>1. Go to add new address screen
 2. Click on the ward section and check the  scrollbar</t>
   </si>
   <si>
-    <t>1. 
-2. The field displayed: "Please select your Ward"</t>
-  </si>
-  <si>
     <t>1.7. Home/Office address selection box</t>
-  </si>
-  <si>
-    <t>Check when user doesn't select ward</t>
-  </si>
-  <si>
-    <t>Check when user doesn't select district</t>
-  </si>
-  <si>
-    <t>Check when user doesn't select province</t>
   </si>
   <si>
     <t>Check when user doesn't enter any characters</t>
@@ -3324,16 +3154,6 @@
     <t>Check when user select address selection box is office</t>
   </si>
   <si>
-    <t>1. 
-2. The field displayed 2 boxs: Home (with orange border) and Office (With blue border)</t>
-  </si>
-  <si>
-    <t>1.
-2.
-3. Don't click in any box
-4. No error message are displayed and user is redirected to the Address Book screen</t>
-  </si>
-  <si>
     <t>1. Go to the add new address screen
 2. Enter valid information in all other fields
 3. Click to the home address selection box
@@ -3352,36 +3172,6 @@
     <t>Check sorted of the scrollbar</t>
   </si>
   <si>
-    <t>1. 
-2. Scrollbar sorted by alphabetically</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note: Phần này các tỉnh được sắp xếp theo thứ tự bảng chữ cái nhưng có thành phố Hồ Chí Minh là được đặt lên đầu nên em không rõ lắm cách sắp xếp của phần này ạ 
-</t>
-  </si>
-  <si>
-    <t>1. Go to add new address screen
-2. Select ward
-3. Click save</t>
-  </si>
-  <si>
-    <t>1. 
-2. 
-3. No error message are displayed and user is redirected to the Address Book screen</t>
-  </si>
-  <si>
-    <t>1.
-2.
-3. 
-4. Displayed message:" New address can be added successfully" and user is redirected to the Address Book screen with address information displayed as office</t>
-  </si>
-  <si>
-    <t>1.
-2.
-3. 
-4. Displayed message:" New address can be added successfully" and user is redirected to the Address Book screen with address information displayed as home</t>
-  </si>
-  <si>
     <t>Check when user enters invalid fullname</t>
   </si>
   <si>
@@ -3399,22 +3189,6 @@
     <t>1. Go to add new address screen
 2. Enters valid information all fields
 3. Click save</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.
-2.
-3. Displayed message:" New address can be added successfully" and user is redirected to the Address Book screen </t>
-  </si>
-  <si>
-    <t>1. 
-2. 
-3. Fields: Full name, phone number, address, province, and district displayed a error message: "This is required information"</t>
-  </si>
-  <si>
-    <t>1.
-2. The screen displayed a error message in fullname field: "Name cannot contain special characters" 
-3. 
-4. Can not save information</t>
   </si>
   <si>
     <t>1. Go to add new address screen
@@ -3435,84 +3209,6 @@
 4. Click save</t>
   </si>
   <si>
-    <t>1.
-2. The screen displayed a error message in phone number field: "Please enter valid phone number" 
-3. 
-4. Can not save information</t>
-  </si>
-  <si>
-    <t>1.
-2. The screen doen't displayed any error message in address field
-3. 
-4. User is redirected to the Address Book screen</t>
-  </si>
-  <si>
-    <t>Address Book</t>
-  </si>
-  <si>
-    <t>Check when user successfully enter new address</t>
-  </si>
-  <si>
-    <t>Check when the user clicks on the add new address box</t>
-  </si>
-  <si>
-    <t>Check when the user clicks on the edit box</t>
-  </si>
-  <si>
-    <t>1. Go to address book screen
-2. Check the screen</t>
-  </si>
-  <si>
-    <t>1. 
-2. The user's information is displayed in the form of a table: column 1: full name, column 2: address, column 3: postcode, column 4: phone number and at the end of each user's information line there will be an edit box</t>
-  </si>
-  <si>
-    <t>1. Go to address book screen
-2. Check the screen when user successfully enter new address</t>
-  </si>
-  <si>
-    <t>1. 
-2. The latest information added appear at the top of Address Book</t>
-  </si>
-  <si>
-    <t>1. Go to address book screen
-2. Clicks on the add new address box</t>
-  </si>
-  <si>
-    <t>1. Go to address book screen
-2. Clicks on the edit box</t>
-  </si>
-  <si>
-    <t>1. 
-2. Switch to the add a new address screen</t>
-  </si>
-  <si>
-    <t>1. 
-2. Switch to the edit address screen with the information in editable sections</t>
-  </si>
-  <si>
-    <t>Check when the user clicks on the "Select default billing address"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check when the user clicks on the "Select your default delivery address" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Go to address book screen
-2. Clicks on the "Select your default delivery address" </t>
-  </si>
-  <si>
-    <t>1. Go to address book screen
-2. Clicks on the "Select default billing address"</t>
-  </si>
-  <si>
-    <t>1.
-2. Switch to the default delivery address screen with the user's addresses in the address book section and have a blank box at the end of each address line for the user to select the default delivery address</t>
-  </si>
-  <si>
-    <t>1.
-2. Switch to the select default billing address screen with the user's addresses in the address book section and have a blank box at the end of each address line for the user to select default billing address</t>
-  </si>
-  <si>
     <t>Add New Address function</t>
   </si>
   <si>
@@ -3525,16 +3221,10 @@
     <t>Asignment 4</t>
   </si>
   <si>
-    <t xml:space="preserve"> Delete Address function test</t>
-  </si>
-  <si>
     <t>Check when the user click delete default address</t>
   </si>
   <si>
     <t>Check when the user click delete normal address</t>
-  </si>
-  <si>
-    <t>Confirmation pop-up test</t>
   </si>
   <si>
     <t>Check when user click "x" in the top right corner</t>
@@ -3612,6 +3302,295 @@
     <t>1.
 2. 
 3. That address is deleted and it's not displayed in Address Book anymore</t>
+  </si>
+  <si>
+    <t>Check the default value</t>
+  </si>
+  <si>
+    <t>Check quanlity when user select field</t>
+  </si>
+  <si>
+    <t>1. Go to add new address screen
+2. Click on the province section and check the  quanlity</t>
+  </si>
+  <si>
+    <t>1. Go to add new address screen
+2. Click on the district section and check the  quanlity</t>
+  </si>
+  <si>
+    <t>1. Go to add new address screen
+2. Click on the ward section and check the  quanlity</t>
+  </si>
+  <si>
+    <t>Check when user changes province</t>
+  </si>
+  <si>
+    <t>1. Go to add new address screen
+2. Change province
+3. Check the district</t>
+  </si>
+  <si>
+    <t>Check when user changes district</t>
+  </si>
+  <si>
+    <t>1. Go to add new address screen
+2. Change district
+3. Check the ward</t>
+  </si>
+  <si>
+    <t>Check when user unclicks the box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to the add new address screen
+2. Click to the checkbox
+3. Unclick to the checkbox
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check when user copy and paste </t>
+  </si>
+  <si>
+    <t>1. Go to add new address screen
+2. Select province:"Ha Noi"
+3. Select district:"Nam Tu Liem District" 
+4. Copy:"Nam Tu Liem District"  
+4. Paste it to the address filed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to add new address screen
+2. Select province:"Ha Noi" 
+3. Copy:"Ha Noi"
+3. Paste it to the address filed
+</t>
+  </si>
+  <si>
+    <t>1. Go to add new address screen
+2. Select province:"Ha Noi"
+3. Select district:"Nam Tu Liem District" 
+4. Select ward:"My Dinh Ward 1"
+5. Copy: "My Dinh Ward 1"
+6. Paste it to the address filed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Check automatically trim space</t>
+  </si>
+  <si>
+    <t>1. Go to add new address screen
+2. Enter: "   18 ngõ 254 đường Mỹ Đình   "
+3. Click save</t>
+  </si>
+  <si>
+    <t>1. Go to add new address screen
+2. Enter: "  Pham Anh Duc   "
+3. Click save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to add new address screen
+2. Enter: "    "
+</t>
+  </si>
+  <si>
+    <t>1. Go to add new address screen
+2. Copy the number: "Abc094548952@"
+3. Paste it to the phone number filed</t>
+  </si>
+  <si>
+    <t>5. "My Dinh Ward 1" is copied 
+6. Available to pasted</t>
+  </si>
+  <si>
+    <t>3. The ward are updated according to the selected district</t>
+  </si>
+  <si>
+    <t>3. The ward are updated according to the selected province and district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2. Sufficient number of ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2. Scrollbar sorted by alphabetically</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2. The scrollbar can scroll up and down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2. The field displayed: "Please select your Ward"</t>
+  </si>
+  <si>
+    <t>3. No error message are displayed
+4. Redirect to the Address Book screen</t>
+  </si>
+  <si>
+    <t>4. Displayed message:" New address can be added successfully" and user is redirected to the Address Book screen with address information displayed as home</t>
+  </si>
+  <si>
+    <t>4. Displayed message:" New address can be added successfully" and user is redirected to the Address Book screen with address information displayed as office</t>
+  </si>
+  <si>
+    <t>3. Fields: Full name, phone number, address, province, and district displayed a error message: "This is required information"</t>
+  </si>
+  <si>
+    <t>2. The screen displayed a error message in phone number field: "Please enter valid phone number"  
+4. Can not save information</t>
+  </si>
+  <si>
+    <t>2. The screen displayed a error message in fullname field: "Name cannot contain special characters" 
+ 4. Can not save information</t>
+  </si>
+  <si>
+    <t>2. The screen doen't displayed any error message in address field
+4. User is redirected to the Address Book screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Displayed message:" New address can be added successfully" and user is redirected to the Address Book screen </t>
+  </si>
+  <si>
+    <t>3. The districts are updated according to the selected province</t>
+  </si>
+  <si>
+    <t>3. "Nam Tu Liem District" is copied 
+4. Available to pasted</t>
+  </si>
+  <si>
+    <t>3. "Ha Noi" is copied
+4. Available to pasted</t>
+  </si>
+  <si>
+    <t>2. The scrollbar can scroll up and down</t>
+  </si>
+  <si>
+    <t>2. The field displayed: "Please select your Province"</t>
+  </si>
+  <si>
+    <t>2. Ho Chi Minh City is first and the remaining 62 provinces are arranged in alphabetical order</t>
+  </si>
+  <si>
+    <t>2. Number of provinces displayed is: 63</t>
+  </si>
+  <si>
+    <t>2. The field displayed: "Please select your District"</t>
+  </si>
+  <si>
+    <t>2. Scrollbar sorted by alphabetically</t>
+  </si>
+  <si>
+    <t>2. Sufficient number of districts</t>
+  </si>
+  <si>
+    <t>3. Clear all the address field</t>
+  </si>
+  <si>
+    <t>2. No error message are displayed</t>
+  </si>
+  <si>
+    <t>2. The screen displayed a error message: "Please enter valid address"</t>
+  </si>
+  <si>
+    <t>2. The screen displayed a error message: "Please enter only house number, street name, apartment/building/company name here (Length from 5-350 characters)"</t>
+  </si>
+  <si>
+    <t>2. The screen displayed:"   18 ngõ 254 đường Mỹ Đình   "
+3. Switch to the Address Book screen, the information is displayed at the top and the address automatically trim space</t>
+  </si>
+  <si>
+    <t>3. Available to paste</t>
+  </si>
+  <si>
+    <t>2. The screen displayed a error message: "The addresslength should be 5 - 350 characters."</t>
+  </si>
+  <si>
+    <t>2. The screen displayed a error message: "Please enter your address"</t>
+  </si>
+  <si>
+    <t>2. The field displayed: "Please enter your address"</t>
+  </si>
+  <si>
+    <t>2. Unable to enter space</t>
+  </si>
+  <si>
+    <t>2. The screen displayed a error message: "Please enter valid phone number"</t>
+  </si>
+  <si>
+    <t>3. Clear all the phone number field</t>
+  </si>
+  <si>
+    <t>3. The screen displayed only number. Text and special characters does not displayed in this filed</t>
+  </si>
+  <si>
+    <t>2. The screen displayed a error message: "The length of Phone number should be 10 characters."</t>
+  </si>
+  <si>
+    <t>2. The screen displayed a error message: "The length of Phone number should be 10 characters"</t>
+  </si>
+  <si>
+    <t>2. The screen displayed a error message: "Please enter phone number"</t>
+  </si>
+  <si>
+    <t>2. The field displayed: "Please enter your phone number"</t>
+  </si>
+  <si>
+    <t>2. The screen displayed:"  Pham Anh Duc   "
+3. Switch to the Address Book screen, the information is displayed at the top and the fullname automatically trim space</t>
+  </si>
+  <si>
+    <t>2. The screen displayed a error message: "The name length should be 2 - 50 characters."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. The screen displayed a error message: "Name cannot contain special characters" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.The screen displayed a error message: "Name cannot contain special characters" </t>
+  </si>
+  <si>
+    <t>3. Clear all the fullname field</t>
+  </si>
+  <si>
+    <t>2. No error message and the fullname displayed: Pham Anh Duc
+3. Name is pasted</t>
+  </si>
+  <si>
+    <t>2. The screen displayed a error message: The name length should be 2 - 50 characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. The screen displayed a error message: "Please enter your Full name" </t>
+  </si>
+  <si>
+    <t>2. Fullname filed displayed: "Enter fullname"</t>
+  </si>
+  <si>
+    <t>2. The selected box is highlighted
+3. The unchecked box doesn't highlighted anymore</t>
+  </si>
+  <si>
+    <t>2. The field displayed 2 boxs: Home (with orange border) and Office (With blue border)</t>
+  </si>
+  <si>
+    <t>Check when user enters multiple addresses</t>
+  </si>
+  <si>
+    <t>1. Go to add new address screen
+2. Enter information in all other fields
+3. Click save
+4. Go to add new address screen
+5. Enter same information with last address in all other fields
+6. Click save</t>
+  </si>
+  <si>
+    <t>The new address created doesn't show an error message and appears at the top of the address book screen</t>
+  </si>
+  <si>
+    <t>2. Confirmation pop-up test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Delete Address function test</t>
   </si>
 </sst>
 </file>
@@ -4107,7 +4086,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4308,14 +4287,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF8EB63E"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="26"/>
       </patternFill>
     </fill>
   </fills>
@@ -4706,7 +4679,7 @@
     <xf numFmtId="166" fontId="56" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="304">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -5273,290 +5246,285 @@
     <xf numFmtId="0" fontId="52" fillId="33" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="35" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -5804,6 +5772,8 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF8EB63E"/>
+      <color rgb="FF68E911"/>
       <color rgb="FF6D829F"/>
       <color rgb="FFBFBFBF"/>
       <color rgb="FFF2F2F2"/>
@@ -5902,61 +5872,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2400300</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>487679</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>998034</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57B3631A-3433-4F9D-8A51-E000651258CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11361420" y="28422599"/>
-          <a:ext cx="2324100" cy="1013275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6373,37 +6288,37 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="216" t="s">
+      <c r="A4" s="213" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="217"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="218"/>
+      <c r="B4" s="214"/>
+      <c r="C4" s="214"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="219" t="s">
+      <c r="A5" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="219"/>
-      <c r="C5" s="220" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="220"/>
-      <c r="E5" s="220"/>
+      <c r="D5" s="217"/>
+      <c r="E5" s="217"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="221" t="s">
+      <c r="A6" s="218" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="222"/>
-      <c r="C6" s="215" t="s">
+      <c r="B6" s="219"/>
+      <c r="C6" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="215"/>
-      <c r="E6" s="215"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="212"/>
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -6415,14 +6330,14 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" s="147" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="213" t="s">
+      <c r="A8" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="214"/>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="214"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
     </row>
     <row r="9" spans="1:6" s="147" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="148" t="s">
@@ -6505,14 +6420,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="147" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="215" t="s">
+      <c r="A13" s="212" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="215"/>
-      <c r="C13" s="215"/>
-      <c r="D13" s="215"/>
-      <c r="E13" s="215"/>
-      <c r="F13" s="215"/>
+      <c r="B13" s="212"/>
+      <c r="C13" s="212"/>
+      <c r="D13" s="212"/>
+      <c r="E13" s="212"/>
+      <c r="F13" s="212"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18"/>
@@ -6643,13 +6558,13 @@
     </row>
     <row r="2" spans="1:12" s="84" customFormat="1" ht="24.6">
       <c r="A2" s="83"/>
-      <c r="C2" s="282" t="s">
+      <c r="C2" s="276" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
-      <c r="G2" s="282"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
       <c r="H2" s="85" t="s">
         <v>115</v>
       </c>
@@ -6660,15 +6575,15 @@
     </row>
     <row r="3" spans="1:12" s="84" customFormat="1" ht="22.8">
       <c r="A3" s="83"/>
-      <c r="C3" s="283" t="s">
+      <c r="C3" s="277" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="283"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="157"/>
-      <c r="F3" s="284" t="s">
+      <c r="F3" s="278" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="284"/>
+      <c r="G3" s="278"/>
       <c r="H3" s="86"/>
       <c r="I3" s="86"/>
       <c r="J3" s="87"/>
@@ -6693,10 +6608,10 @@
       <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="285" t="s">
+      <c r="B6" s="279" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="285"/>
+      <c r="C6" s="279"/>
       <c r="D6" s="94"/>
       <c r="E6" s="94"/>
       <c r="F6" s="94"/>
@@ -6865,11 +6780,11 @@
       <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="285" t="s">
+      <c r="B14" s="279" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="285"/>
-      <c r="D14" s="285"/>
+      <c r="C14" s="279"/>
+      <c r="D14" s="279"/>
       <c r="E14" s="94"/>
       <c r="F14" s="94"/>
       <c r="G14" s="95"/>
@@ -7045,11 +6960,11 @@
       <c r="G22" s="98"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="285" t="s">
+      <c r="B23" s="279" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="285"/>
-      <c r="D23" s="285"/>
+      <c r="C23" s="279"/>
+      <c r="D23" s="279"/>
       <c r="E23" s="94"/>
       <c r="F23" s="94"/>
       <c r="G23" s="95"/>
@@ -7095,10 +7010,10 @@
       <c r="F26" s="160" t="s">
         <v>165</v>
       </c>
-      <c r="G26" s="286" t="s">
+      <c r="G26" s="280" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="287"/>
+      <c r="H26" s="281"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="100">
@@ -7123,8 +7038,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="280"/>
-      <c r="H27" s="281"/>
+      <c r="G27" s="274"/>
+      <c r="H27" s="275"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="100">
@@ -7149,8 +7064,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="280"/>
-      <c r="H28" s="281"/>
+      <c r="G28" s="274"/>
+      <c r="H28" s="275"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="100">
@@ -7175,8 +7090,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="280"/>
-      <c r="H29" s="281"/>
+      <c r="G29" s="274"/>
+      <c r="H29" s="275"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="100">
@@ -7201,8 +7116,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="280"/>
-      <c r="H30" s="281"/>
+      <c r="G30" s="274"/>
+      <c r="H30" s="275"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="100"/>
@@ -7223,8 +7138,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="280"/>
-      <c r="H31" s="281"/>
+      <c r="G31" s="274"/>
+      <c r="H31" s="275"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="106"/>
@@ -7262,10 +7177,10 @@
       <c r="E34" s="160" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="288" t="s">
+      <c r="F34" s="282" t="s">
         <v>127</v>
       </c>
-      <c r="G34" s="289"/>
+      <c r="G34" s="283"/>
     </row>
     <row r="35" spans="1:12" s="125" customFormat="1" ht="14.4">
       <c r="A35" s="121"/>
@@ -7281,8 +7196,8 @@
       <c r="E35" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="F35" s="291"/>
-      <c r="G35" s="292"/>
+      <c r="F35" s="285"/>
+      <c r="G35" s="286"/>
       <c r="H35" s="124"/>
       <c r="I35" s="124"/>
       <c r="J35" s="124"/>
@@ -7305,8 +7220,8 @@
       <c r="E36" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="F36" s="280"/>
-      <c r="G36" s="281"/>
+      <c r="F36" s="274"/>
+      <c r="G36" s="275"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="100">
@@ -7324,8 +7239,8 @@
       <c r="E37" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="F37" s="280"/>
-      <c r="G37" s="281"/>
+      <c r="F37" s="274"/>
+      <c r="G37" s="275"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="106"/>
@@ -7338,10 +7253,10 @@
       <c r="H38" s="108"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="285" t="s">
+      <c r="B39" s="279" t="s">
         <v>179</v>
       </c>
-      <c r="C39" s="285"/>
+      <c r="C39" s="279"/>
       <c r="D39" s="94"/>
       <c r="E39" s="94"/>
       <c r="F39" s="94"/>
@@ -7365,15 +7280,15 @@
       <c r="B41" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="290" t="s">
+      <c r="C41" s="284" t="s">
         <v>181</v>
       </c>
-      <c r="D41" s="290"/>
-      <c r="E41" s="290" t="s">
+      <c r="D41" s="284"/>
+      <c r="E41" s="284" t="s">
         <v>182</v>
       </c>
-      <c r="F41" s="290"/>
-      <c r="G41" s="290"/>
+      <c r="F41" s="284"/>
+      <c r="G41" s="284"/>
       <c r="H41" s="99" t="s">
         <v>183</v>
       </c>
@@ -7385,15 +7300,15 @@
       <c r="B42" s="161" t="s">
         <v>184</v>
       </c>
-      <c r="C42" s="293" t="s">
+      <c r="C42" s="287" t="s">
         <v>185</v>
       </c>
-      <c r="D42" s="293"/>
-      <c r="E42" s="293" t="s">
+      <c r="D42" s="287"/>
+      <c r="E42" s="287" t="s">
         <v>186</v>
       </c>
-      <c r="F42" s="293"/>
-      <c r="G42" s="293"/>
+      <c r="F42" s="287"/>
+      <c r="G42" s="287"/>
       <c r="H42" s="109"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -7403,15 +7318,15 @@
       <c r="B43" s="161" t="s">
         <v>184</v>
       </c>
-      <c r="C43" s="293" t="s">
+      <c r="C43" s="287" t="s">
         <v>185</v>
       </c>
-      <c r="D43" s="293"/>
-      <c r="E43" s="293" t="s">
+      <c r="D43" s="287"/>
+      <c r="E43" s="287" t="s">
         <v>186</v>
       </c>
-      <c r="F43" s="293"/>
-      <c r="G43" s="293"/>
+      <c r="F43" s="287"/>
+      <c r="G43" s="287"/>
       <c r="H43" s="109"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -7421,15 +7336,15 @@
       <c r="B44" s="161" t="s">
         <v>184</v>
       </c>
-      <c r="C44" s="293" t="s">
+      <c r="C44" s="287" t="s">
         <v>185</v>
       </c>
-      <c r="D44" s="293"/>
-      <c r="E44" s="293" t="s">
+      <c r="D44" s="287"/>
+      <c r="E44" s="287" t="s">
         <v>186</v>
       </c>
-      <c r="F44" s="293"/>
-      <c r="G44" s="293"/>
+      <c r="F44" s="287"/>
+      <c r="G44" s="287"/>
       <c r="H44" s="109"/>
     </row>
     <row r="45" spans="1:12">
@@ -7441,10 +7356,10 @@
       <c r="G45" s="98"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="285" t="s">
+      <c r="B46" s="279" t="s">
         <v>187</v>
       </c>
-      <c r="C46" s="285"/>
+      <c r="C46" s="279"/>
       <c r="D46" s="94"/>
       <c r="E46" s="94"/>
       <c r="F46" s="94"/>
@@ -7462,25 +7377,25 @@
       <c r="G47" s="98"/>
     </row>
     <row r="48" spans="1:12" s="113" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="296" t="s">
+      <c r="A48" s="290" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="298" t="s">
+      <c r="B48" s="292" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="288" t="s">
+      <c r="C48" s="282" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="300"/>
-      <c r="E48" s="300"/>
-      <c r="F48" s="289"/>
-      <c r="G48" s="301" t="s">
+      <c r="D48" s="294"/>
+      <c r="E48" s="294"/>
+      <c r="F48" s="283"/>
+      <c r="G48" s="295" t="s">
         <v>157</v>
       </c>
-      <c r="H48" s="301" t="s">
+      <c r="H48" s="295" t="s">
         <v>189</v>
       </c>
-      <c r="I48" s="294" t="s">
+      <c r="I48" s="288" t="s">
         <v>191</v>
       </c>
       <c r="J48" s="112"/>
@@ -7488,8 +7403,8 @@
       <c r="L48" s="112"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="297"/>
-      <c r="B49" s="299"/>
+      <c r="A49" s="291"/>
+      <c r="B49" s="293"/>
       <c r="C49" s="114" t="s">
         <v>166</v>
       </c>
@@ -7502,13 +7417,13 @@
       <c r="F49" s="115" t="s">
         <v>169</v>
       </c>
-      <c r="G49" s="302"/>
-      <c r="H49" s="302"/>
-      <c r="I49" s="295"/>
+      <c r="G49" s="296"/>
+      <c r="H49" s="296"/>
+      <c r="I49" s="289"/>
     </row>
     <row r="50" spans="1:9" ht="26.4">
-      <c r="A50" s="297"/>
-      <c r="B50" s="299"/>
+      <c r="A50" s="291"/>
+      <c r="B50" s="293"/>
       <c r="C50" s="128" t="s">
         <v>192</v>
       </c>
@@ -7718,36 +7633,36 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="228" t="s">
+      <c r="B2" s="225" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="226" t="s">
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="223" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="226"/>
+      <c r="K2" s="223"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="229" t="s">
+      <c r="B3" s="226" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="227" t="s">
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="224" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="227"/>
-      <c r="H3" s="227"/>
-      <c r="I3" s="227"/>
-      <c r="J3" s="226"/>
-      <c r="K3" s="226"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="153"/>
@@ -7767,65 +7682,65 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="233" t="s">
+      <c r="A7" s="230" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="233"/>
-      <c r="C7" s="233"/>
-      <c r="D7" s="233"/>
-      <c r="E7" s="233"/>
-      <c r="F7" s="233"/>
-      <c r="G7" s="233"/>
-      <c r="H7" s="233"/>
-      <c r="I7" s="233"/>
+      <c r="B7" s="230"/>
+      <c r="C7" s="230"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="230"/>
+      <c r="F7" s="230"/>
+      <c r="G7" s="230"/>
+      <c r="H7" s="230"/>
+      <c r="I7" s="230"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="233"/>
-      <c r="B8" s="233"/>
-      <c r="C8" s="233"/>
-      <c r="D8" s="233"/>
-      <c r="E8" s="233"/>
-      <c r="F8" s="233"/>
-      <c r="G8" s="233"/>
-      <c r="H8" s="233"/>
-      <c r="I8" s="233"/>
+      <c r="A8" s="230"/>
+      <c r="B8" s="230"/>
+      <c r="C8" s="230"/>
+      <c r="D8" s="230"/>
+      <c r="E8" s="230"/>
+      <c r="F8" s="230"/>
+      <c r="G8" s="230"/>
+      <c r="H8" s="230"/>
+      <c r="I8" s="230"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="233" t="s">
+      <c r="A9" s="230" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="233"/>
-      <c r="C9" s="233"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="233"/>
-      <c r="F9" s="233"/>
-      <c r="G9" s="233"/>
-      <c r="H9" s="233"/>
-      <c r="I9" s="233"/>
+      <c r="B9" s="230"/>
+      <c r="C9" s="230"/>
+      <c r="D9" s="230"/>
+      <c r="E9" s="230"/>
+      <c r="F9" s="230"/>
+      <c r="G9" s="230"/>
+      <c r="H9" s="230"/>
+      <c r="I9" s="230"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="233"/>
-      <c r="B10" s="233"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="233"/>
-      <c r="G10" s="233"/>
-      <c r="H10" s="233"/>
-      <c r="I10" s="233"/>
+      <c r="A10" s="230"/>
+      <c r="B10" s="230"/>
+      <c r="C10" s="230"/>
+      <c r="D10" s="230"/>
+      <c r="E10" s="230"/>
+      <c r="F10" s="230"/>
+      <c r="G10" s="230"/>
+      <c r="H10" s="230"/>
+      <c r="I10" s="230"/>
     </row>
     <row r="11" spans="1:11" ht="13.8">
-      <c r="A11" s="234" t="s">
+      <c r="A11" s="231" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="234"/>
-      <c r="C11" s="234"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="234"/>
-      <c r="G11" s="234"/>
-      <c r="H11" s="234"/>
-      <c r="I11" s="234"/>
+      <c r="B11" s="231"/>
+      <c r="C11" s="231"/>
+      <c r="D11" s="231"/>
+      <c r="E11" s="231"/>
+      <c r="F11" s="231"/>
+      <c r="G11" s="231"/>
+      <c r="H11" s="231"/>
+      <c r="I11" s="231"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3"/>
@@ -7847,65 +7762,65 @@
       <c r="A14" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="230" t="s">
+      <c r="B14" s="227" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="231"/>
-      <c r="D14" s="231"/>
-      <c r="E14" s="231"/>
-      <c r="F14" s="231"/>
-      <c r="G14" s="231"/>
-      <c r="H14" s="231"/>
-      <c r="I14" s="231"/>
-      <c r="J14" s="231"/>
-      <c r="K14" s="232"/>
+      <c r="C14" s="228"/>
+      <c r="D14" s="228"/>
+      <c r="E14" s="228"/>
+      <c r="F14" s="228"/>
+      <c r="G14" s="228"/>
+      <c r="H14" s="228"/>
+      <c r="I14" s="228"/>
+      <c r="J14" s="228"/>
+      <c r="K14" s="229"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="230" t="s">
+      <c r="B15" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="231"/>
-      <c r="D15" s="231"/>
-      <c r="E15" s="231"/>
-      <c r="F15" s="231"/>
-      <c r="G15" s="231"/>
-      <c r="H15" s="231"/>
-      <c r="I15" s="231"/>
-      <c r="J15" s="231"/>
-      <c r="K15" s="232"/>
+      <c r="C15" s="228"/>
+      <c r="D15" s="228"/>
+      <c r="E15" s="228"/>
+      <c r="F15" s="228"/>
+      <c r="G15" s="228"/>
+      <c r="H15" s="228"/>
+      <c r="I15" s="228"/>
+      <c r="J15" s="228"/>
+      <c r="K15" s="229"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="134"/>
-      <c r="B16" s="230" t="s">
+      <c r="B16" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="231"/>
-      <c r="D16" s="231"/>
-      <c r="E16" s="231"/>
-      <c r="F16" s="231"/>
-      <c r="G16" s="231"/>
-      <c r="H16" s="231"/>
-      <c r="I16" s="231"/>
-      <c r="J16" s="231"/>
-      <c r="K16" s="232"/>
+      <c r="C16" s="228"/>
+      <c r="D16" s="228"/>
+      <c r="E16" s="228"/>
+      <c r="F16" s="228"/>
+      <c r="G16" s="228"/>
+      <c r="H16" s="228"/>
+      <c r="I16" s="228"/>
+      <c r="J16" s="228"/>
+      <c r="K16" s="229"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="134"/>
-      <c r="B17" s="230" t="s">
+      <c r="B17" s="227" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="231"/>
-      <c r="D17" s="231"/>
-      <c r="E17" s="231"/>
-      <c r="F17" s="231"/>
-      <c r="G17" s="231"/>
-      <c r="H17" s="231"/>
-      <c r="I17" s="231"/>
-      <c r="J17" s="231"/>
-      <c r="K17" s="232"/>
+      <c r="C17" s="228"/>
+      <c r="D17" s="228"/>
+      <c r="E17" s="228"/>
+      <c r="F17" s="228"/>
+      <c r="G17" s="228"/>
+      <c r="H17" s="228"/>
+      <c r="I17" s="228"/>
+      <c r="J17" s="228"/>
+      <c r="K17" s="229"/>
     </row>
     <row r="19" spans="1:14" ht="22.8">
       <c r="A19" s="4" t="s">
@@ -7916,40 +7831,40 @@
       <c r="A20" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="230" t="s">
+      <c r="B20" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="231"/>
-      <c r="D20" s="231"/>
-      <c r="E20" s="231"/>
-      <c r="F20" s="231"/>
-      <c r="G20" s="232"/>
+      <c r="C20" s="228"/>
+      <c r="D20" s="228"/>
+      <c r="E20" s="228"/>
+      <c r="F20" s="228"/>
+      <c r="G20" s="229"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="230" t="s">
+      <c r="B21" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="231"/>
-      <c r="D21" s="231"/>
-      <c r="E21" s="231"/>
-      <c r="F21" s="231"/>
-      <c r="G21" s="232"/>
+      <c r="C21" s="228"/>
+      <c r="D21" s="228"/>
+      <c r="E21" s="228"/>
+      <c r="F21" s="228"/>
+      <c r="G21" s="229"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="230" t="s">
+      <c r="B22" s="227" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="231"/>
-      <c r="D22" s="231"/>
-      <c r="E22" s="231"/>
-      <c r="F22" s="231"/>
-      <c r="G22" s="232"/>
+      <c r="C22" s="228"/>
+      <c r="D22" s="228"/>
+      <c r="E22" s="228"/>
+      <c r="F22" s="228"/>
+      <c r="G22" s="229"/>
     </row>
     <row r="24" spans="1:14" ht="22.8">
       <c r="A24" s="4" t="s">
@@ -8008,11 +7923,11 @@
       <c r="N27" s="70"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="223" t="s">
+      <c r="B29" s="220" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="224"/>
-      <c r="D29" s="225"/>
+      <c r="C29" s="221"/>
+      <c r="D29" s="222"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="5"/>
@@ -8089,14 +8004,14 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="24.6">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="232" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10"/>
@@ -8282,12 +8197,12 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="24.6">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="235" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
       <c r="E2" s="156"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -8448,18 +8363,18 @@
       <c r="F14" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="13.8">
-      <c r="A16" s="236" t="s">
+      <c r="A16" s="233" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="236"/>
+      <c r="B16" s="233"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="13.8">
-      <c r="A17" s="237" t="s">
+      <c r="A17" s="234" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="237"/>
+      <c r="B17" s="234"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="33"/>
@@ -8503,10 +8418,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="239"/>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
+      <c r="A1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -8515,13 +8430,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="237" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="244"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="241"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -8530,9 +8445,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="244"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="241"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -8543,11 +8458,11 @@
       <c r="A4" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="242" t="s">
+      <c r="B4" s="239" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -8561,9 +8476,9 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="241"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
+      <c r="B5" s="238"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -8577,9 +8492,9 @@
       <c r="A6" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="241"/>
-      <c r="C6" s="242"/>
-      <c r="D6" s="242"/>
+      <c r="B6" s="238"/>
+      <c r="C6" s="239"/>
+      <c r="D6" s="239"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -8590,11 +8505,11 @@
       <c r="A7" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="242" t="s">
+      <c r="B7" s="239" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="242"/>
-      <c r="D7" s="242"/>
+      <c r="C7" s="239"/>
+      <c r="D7" s="239"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -8606,9 +8521,9 @@
       <c r="A8" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="243"/>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
+      <c r="B8" s="240"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -8751,11 +8666,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="255" t="s">
+      <c r="F16" s="252" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="255"/>
-      <c r="H16" s="255"/>
+      <c r="G16" s="252"/>
+      <c r="H16" s="252"/>
       <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39.6">
@@ -8789,11 +8704,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="170"/>
-      <c r="B18" s="252" t="s">
+      <c r="B18" s="249" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="253"/>
-      <c r="D18" s="254"/>
+      <c r="C18" s="250"/>
+      <c r="D18" s="251"/>
       <c r="E18" s="170"/>
       <c r="F18" s="171"/>
       <c r="G18" s="171"/>
@@ -8972,12 +8887,12 @@
       <c r="I27" s="55"/>
     </row>
     <row r="28" spans="1:9" s="45" customFormat="1" ht="22.8" customHeight="1">
-      <c r="A28" s="246" t="s">
+      <c r="A28" s="243" t="s">
         <v>202</v>
       </c>
-      <c r="B28" s="247"/>
-      <c r="C28" s="247"/>
-      <c r="D28" s="248"/>
+      <c r="B28" s="244"/>
+      <c r="C28" s="244"/>
+      <c r="D28" s="245"/>
       <c r="E28" s="167"/>
       <c r="F28" s="168"/>
       <c r="G28" s="168"/>
@@ -8985,13 +8900,13 @@
       <c r="I28" s="169"/>
     </row>
     <row r="29" spans="1:9" s="177" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A29" s="256" t="s">
+      <c r="A29" s="253" t="s">
         <v>208</v>
       </c>
-      <c r="B29" s="257"/>
-      <c r="C29" s="257"/>
-      <c r="D29" s="257"/>
-      <c r="E29" s="258"/>
+      <c r="B29" s="254"/>
+      <c r="C29" s="254"/>
+      <c r="D29" s="254"/>
+      <c r="E29" s="255"/>
       <c r="F29" s="175"/>
       <c r="G29" s="175"/>
       <c r="H29" s="175"/>
@@ -9169,13 +9084,13 @@
       <c r="I38" s="55"/>
     </row>
     <row r="39" spans="1:9" s="181" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A39" s="259" t="s">
+      <c r="A39" s="256" t="s">
         <v>212</v>
       </c>
-      <c r="B39" s="260"/>
-      <c r="C39" s="260"/>
-      <c r="D39" s="260"/>
-      <c r="E39" s="261"/>
+      <c r="B39" s="257"/>
+      <c r="C39" s="257"/>
+      <c r="D39" s="257"/>
+      <c r="E39" s="258"/>
       <c r="F39" s="179"/>
       <c r="G39" s="179"/>
       <c r="H39" s="179"/>
@@ -9259,11 +9174,11 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A44" s="172"/>
-      <c r="B44" s="252" t="s">
+      <c r="B44" s="249" t="s">
         <v>213</v>
       </c>
-      <c r="C44" s="253"/>
-      <c r="D44" s="254"/>
+      <c r="C44" s="250"/>
+      <c r="D44" s="251"/>
       <c r="E44" s="173"/>
       <c r="F44" s="174"/>
       <c r="G44" s="174"/>
@@ -9380,12 +9295,12 @@
       <c r="I50" s="62"/>
     </row>
     <row r="51" spans="1:9" s="191" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A51" s="249" t="s">
+      <c r="A51" s="246" t="s">
         <v>220</v>
       </c>
-      <c r="B51" s="250"/>
-      <c r="C51" s="250"/>
-      <c r="D51" s="251"/>
+      <c r="B51" s="247"/>
+      <c r="C51" s="247"/>
+      <c r="D51" s="248"/>
       <c r="E51" s="190"/>
       <c r="F51" s="189"/>
       <c r="G51" s="189"/>
@@ -9507,12 +9422,12 @@
       <c r="I57" s="62"/>
     </row>
     <row r="58" spans="1:9" s="191" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A58" s="249" t="s">
+      <c r="A58" s="246" t="s">
         <v>221</v>
       </c>
-      <c r="B58" s="250"/>
-      <c r="C58" s="250"/>
-      <c r="D58" s="251"/>
+      <c r="B58" s="247"/>
+      <c r="C58" s="247"/>
+      <c r="D58" s="248"/>
       <c r="E58" s="190"/>
       <c r="F58" s="189"/>
       <c r="G58" s="189"/>
@@ -9596,12 +9511,12 @@
       <c r="I62" s="62"/>
     </row>
     <row r="63" spans="1:9" s="191" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A63" s="249" t="s">
+      <c r="A63" s="246" t="s">
         <v>238</v>
       </c>
-      <c r="B63" s="250"/>
-      <c r="C63" s="250"/>
-      <c r="D63" s="251"/>
+      <c r="B63" s="247"/>
+      <c r="C63" s="247"/>
+      <c r="D63" s="248"/>
       <c r="E63" s="190"/>
       <c r="F63" s="189"/>
       <c r="G63" s="189"/>
@@ -9741,10 +9656,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="239"/>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
+      <c r="A1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -9753,13 +9668,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="237" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="244"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="241"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -9768,9 +9683,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.2" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="244"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="241"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -9781,11 +9696,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="242" t="s">
+      <c r="B4" s="239" t="s">
         <v>340</v>
       </c>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -9799,9 +9714,9 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="241"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
+      <c r="B5" s="238"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -9815,9 +9730,9 @@
       <c r="A6" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="241"/>
-      <c r="C6" s="242"/>
-      <c r="D6" s="242"/>
+      <c r="B6" s="238"/>
+      <c r="C6" s="239"/>
+      <c r="D6" s="239"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -9828,11 +9743,11 @@
       <c r="A7" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="242" t="s">
+      <c r="B7" s="239" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="242"/>
-      <c r="D7" s="242"/>
+      <c r="C7" s="239"/>
+      <c r="D7" s="239"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -9844,9 +9759,9 @@
       <c r="A8" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="243"/>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
+      <c r="B8" s="240"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -9989,11 +9904,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="266" t="s">
+      <c r="F16" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="267"/>
-      <c r="H16" s="268"/>
+      <c r="G16" s="264"/>
+      <c r="H16" s="265"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39.6">
@@ -10027,11 +9942,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="262" t="s">
+      <c r="B18" s="259" t="s">
         <v>308</v>
       </c>
-      <c r="C18" s="263"/>
-      <c r="D18" s="264"/>
+      <c r="C18" s="260"/>
+      <c r="D18" s="261"/>
       <c r="E18" s="67"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -10039,12 +9954,12 @@
       <c r="I18" s="67"/>
     </row>
     <row r="19" spans="1:9" s="45" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A19" s="269" t="s">
+      <c r="A19" s="266" t="s">
         <v>313</v>
       </c>
-      <c r="B19" s="270"/>
-      <c r="C19" s="270"/>
-      <c r="D19" s="271"/>
+      <c r="B19" s="267"/>
+      <c r="C19" s="267"/>
+      <c r="D19" s="268"/>
       <c r="E19" s="193"/>
       <c r="F19" s="192"/>
       <c r="G19" s="192"/>
@@ -10078,10 +9993,10 @@
         <v>365</v>
       </c>
       <c r="C21" s="52" t="s">
+        <v>647</v>
+      </c>
+      <c r="D21" s="59" t="s">
         <v>649</v>
-      </c>
-      <c r="D21" s="59" t="s">
-        <v>651</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="52"/>
@@ -10116,10 +10031,10 @@
         <v>312</v>
       </c>
       <c r="C23" s="52" t="s">
+        <v>648</v>
+      </c>
+      <c r="D23" s="60" t="s">
         <v>650</v>
-      </c>
-      <c r="D23" s="60" t="s">
-        <v>652</v>
       </c>
       <c r="E23" s="54"/>
       <c r="F23" s="52"/>
@@ -10138,7 +10053,7 @@
         <v>451</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="52"/>
@@ -10157,7 +10072,7 @@
         <v>450</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E25" s="54"/>
       <c r="F25" s="52"/>
@@ -10262,11 +10177,11 @@
     </row>
     <row r="31" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A31" s="196"/>
-      <c r="B31" s="272" t="s">
+      <c r="B31" s="269" t="s">
         <v>314</v>
       </c>
-      <c r="C31" s="273"/>
-      <c r="D31" s="274"/>
+      <c r="C31" s="270"/>
+      <c r="D31" s="271"/>
       <c r="E31" s="197"/>
       <c r="F31" s="198"/>
       <c r="G31" s="198"/>
@@ -10636,11 +10551,11 @@
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A51" s="200"/>
-      <c r="B51" s="272" t="s">
+      <c r="B51" s="269" t="s">
         <v>317</v>
       </c>
-      <c r="C51" s="275"/>
-      <c r="D51" s="276"/>
+      <c r="C51" s="272"/>
+      <c r="D51" s="273"/>
       <c r="E51" s="201"/>
       <c r="F51" s="195"/>
       <c r="G51" s="195"/>
@@ -10972,11 +10887,11 @@
     </row>
     <row r="69" spans="1:9" s="199" customFormat="1" ht="13.8">
       <c r="A69" s="196"/>
-      <c r="B69" s="272" t="s">
+      <c r="B69" s="269" t="s">
         <v>322</v>
       </c>
-      <c r="C69" s="273"/>
-      <c r="D69" s="274"/>
+      <c r="C69" s="270"/>
+      <c r="D69" s="271"/>
       <c r="E69" s="197"/>
       <c r="F69" s="198"/>
       <c r="G69" s="198"/>
@@ -11061,11 +10976,11 @@
     </row>
     <row r="74" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A74" s="196"/>
-      <c r="B74" s="272" t="s">
+      <c r="B74" s="269" t="s">
         <v>325</v>
       </c>
-      <c r="C74" s="273"/>
-      <c r="D74" s="274"/>
+      <c r="C74" s="270"/>
+      <c r="D74" s="271"/>
       <c r="E74" s="197"/>
       <c r="F74" s="198"/>
       <c r="G74" s="198"/>
@@ -11283,11 +11198,11 @@
     </row>
     <row r="86" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A86" s="196"/>
-      <c r="B86" s="272" t="s">
+      <c r="B86" s="269" t="s">
         <v>384</v>
       </c>
-      <c r="C86" s="273"/>
-      <c r="D86" s="274"/>
+      <c r="C86" s="270"/>
+      <c r="D86" s="271"/>
       <c r="E86" s="197"/>
       <c r="F86" s="198"/>
       <c r="G86" s="198"/>
@@ -11505,11 +11420,11 @@
     </row>
     <row r="98" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A98" s="196"/>
-      <c r="B98" s="272" t="s">
+      <c r="B98" s="269" t="s">
         <v>385</v>
       </c>
-      <c r="C98" s="273"/>
-      <c r="D98" s="274"/>
+      <c r="C98" s="270"/>
+      <c r="D98" s="271"/>
       <c r="E98" s="197"/>
       <c r="F98" s="198"/>
       <c r="G98" s="198"/>
@@ -11573,11 +11488,11 @@
     </row>
     <row r="102" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A102" s="77"/>
-      <c r="B102" s="262" t="s">
+      <c r="B102" s="259" t="s">
         <v>309</v>
       </c>
-      <c r="C102" s="263"/>
-      <c r="D102" s="264"/>
+      <c r="C102" s="260"/>
+      <c r="D102" s="261"/>
       <c r="E102" s="69"/>
       <c r="F102" s="66"/>
       <c r="G102" s="66"/>
@@ -11586,11 +11501,11 @@
     </row>
     <row r="103" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A103" s="202"/>
-      <c r="B103" s="269" t="s">
+      <c r="B103" s="266" t="s">
         <v>333</v>
       </c>
-      <c r="C103" s="270"/>
-      <c r="D103" s="271"/>
+      <c r="C103" s="267"/>
+      <c r="D103" s="268"/>
       <c r="E103" s="193"/>
       <c r="F103" s="192"/>
       <c r="G103" s="192"/>
@@ -11726,11 +11641,11 @@
     </row>
     <row r="111" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A111" s="202"/>
-      <c r="B111" s="269" t="s">
+      <c r="B111" s="266" t="s">
         <v>343</v>
       </c>
-      <c r="C111" s="270"/>
-      <c r="D111" s="271"/>
+      <c r="C111" s="267"/>
+      <c r="D111" s="268"/>
       <c r="E111" s="193"/>
       <c r="F111" s="192"/>
       <c r="G111" s="192"/>
@@ -11777,11 +11692,11 @@
     </row>
     <row r="114" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A114" s="202"/>
-      <c r="B114" s="269" t="s">
+      <c r="B114" s="266" t="s">
         <v>337</v>
       </c>
-      <c r="C114" s="270"/>
-      <c r="D114" s="271"/>
+      <c r="C114" s="267"/>
+      <c r="D114" s="268"/>
       <c r="E114" s="193"/>
       <c r="F114" s="192"/>
       <c r="G114" s="192"/>
@@ -11828,11 +11743,11 @@
     </row>
     <row r="117" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A117" s="202"/>
-      <c r="B117" s="269" t="s">
+      <c r="B117" s="266" t="s">
         <v>339</v>
       </c>
-      <c r="C117" s="270"/>
-      <c r="D117" s="271"/>
+      <c r="C117" s="267"/>
+      <c r="D117" s="268"/>
       <c r="E117" s="193"/>
       <c r="F117" s="192"/>
       <c r="G117" s="192"/>
@@ -11879,11 +11794,11 @@
     </row>
     <row r="120" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A120" s="202"/>
-      <c r="B120" s="269" t="s">
+      <c r="B120" s="266" t="s">
         <v>356</v>
       </c>
-      <c r="C120" s="270"/>
-      <c r="D120" s="271"/>
+      <c r="C120" s="267"/>
+      <c r="D120" s="268"/>
       <c r="E120" s="193"/>
       <c r="F120" s="192"/>
       <c r="G120" s="192"/>
@@ -12050,8 +11965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2"/>
@@ -12065,10 +11980,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="239"/>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
+      <c r="A1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -12077,13 +11992,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="237" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="244"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="241"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -12092,9 +12007,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="244"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="241"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -12105,11 +12020,11 @@
       <c r="A4" s="139" t="s">
         <v>441</v>
       </c>
-      <c r="B4" s="242" t="s">
+      <c r="B4" s="239" t="s">
         <v>442</v>
       </c>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -12123,9 +12038,9 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="241"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
+      <c r="B5" s="238"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -12139,9 +12054,9 @@
       <c r="A6" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="241"/>
-      <c r="C6" s="242"/>
-      <c r="D6" s="242"/>
+      <c r="B6" s="238"/>
+      <c r="C6" s="239"/>
+      <c r="D6" s="239"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -12152,11 +12067,11 @@
       <c r="A7" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="242" t="s">
+      <c r="B7" s="239" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="242"/>
-      <c r="D7" s="242"/>
+      <c r="C7" s="239"/>
+      <c r="D7" s="239"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -12168,11 +12083,11 @@
       <c r="A8" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="243">
+      <c r="B8" s="240">
         <v>44857</v>
       </c>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -12315,11 +12230,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="266" t="s">
+      <c r="F16" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="267"/>
-      <c r="H16" s="268"/>
+      <c r="G16" s="264"/>
+      <c r="H16" s="265"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39.6">
@@ -12353,11 +12268,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="262" t="s">
+      <c r="B18" s="259" t="s">
         <v>403</v>
       </c>
-      <c r="C18" s="263"/>
-      <c r="D18" s="264"/>
+      <c r="C18" s="260"/>
+      <c r="D18" s="261"/>
       <c r="E18" s="67"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -12689,11 +12604,11 @@
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A36" s="77"/>
-      <c r="B36" s="262" t="s">
+      <c r="B36" s="259" t="s">
         <v>402</v>
       </c>
-      <c r="C36" s="263"/>
-      <c r="D36" s="264"/>
+      <c r="C36" s="260"/>
+      <c r="D36" s="261"/>
       <c r="E36" s="69"/>
       <c r="F36" s="66"/>
       <c r="G36" s="66"/>
@@ -12778,11 +12693,11 @@
     </row>
     <row r="41" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A41" s="203"/>
-      <c r="B41" s="269" t="s">
+      <c r="B41" s="266" t="s">
         <v>431</v>
       </c>
-      <c r="C41" s="270"/>
-      <c r="D41" s="271"/>
+      <c r="C41" s="267"/>
+      <c r="D41" s="268"/>
       <c r="E41" s="193"/>
       <c r="F41" s="192"/>
       <c r="G41" s="192"/>
@@ -12878,11 +12793,11 @@
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A47" s="203"/>
-      <c r="B47" s="269" t="s">
+      <c r="B47" s="266" t="s">
         <v>432</v>
       </c>
-      <c r="C47" s="270"/>
-      <c r="D47" s="271"/>
+      <c r="C47" s="267"/>
+      <c r="D47" s="268"/>
       <c r="E47" s="193"/>
       <c r="F47" s="192"/>
       <c r="G47" s="192"/>
@@ -12982,10 +12897,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6293B0-DF3D-4C68-9428-8CCCA99D1C41}">
-  <dimension ref="A1:X103"/>
+  <dimension ref="A1:X109"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2"/>
@@ -12999,10 +12914,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="239"/>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
+      <c r="A1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -13011,13 +12926,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="237" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="244"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="241"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -13026,9 +12941,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="244"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="241"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -13037,13 +12952,13 @@
     </row>
     <row r="4" spans="1:24" s="38" customFormat="1">
       <c r="A4" s="139" t="s">
-        <v>782</v>
-      </c>
-      <c r="B4" s="242" t="s">
-        <v>779</v>
-      </c>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
+        <v>710</v>
+      </c>
+      <c r="B4" s="239" t="s">
+        <v>707</v>
+      </c>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -13057,9 +12972,9 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="241"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
+      <c r="B5" s="238"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -13073,9 +12988,9 @@
       <c r="A6" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="241"/>
-      <c r="C6" s="242"/>
-      <c r="D6" s="242"/>
+      <c r="B6" s="238"/>
+      <c r="C6" s="239"/>
+      <c r="D6" s="239"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -13086,11 +13001,11 @@
       <c r="A7" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="242" t="s">
+      <c r="B7" s="239" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="242"/>
-      <c r="D7" s="242"/>
+      <c r="C7" s="239"/>
+      <c r="D7" s="239"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -13102,11 +13017,11 @@
       <c r="A8" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="243">
+      <c r="B8" s="240">
         <v>44861</v>
       </c>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -13148,15 +13063,15 @@
         <v>41</v>
       </c>
       <c r="B11" s="75">
-        <f>COUNTIF($F$19:$F$49655,"*Passed")</f>
+        <f>COUNTIF($F$19:$F$49656,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C11" s="75">
-        <f>COUNTIF($G$19:$G$49655,"*Passed")</f>
+        <f>COUNTIF($G$19:$G$49656,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="75">
-        <f>COUNTIF($H$19:$H$49655,"*Passed")</f>
+        <f>COUNTIF($H$19:$H$49656,"*Passed")</f>
         <v>0</v>
       </c>
     </row>
@@ -13165,15 +13080,15 @@
         <v>43</v>
       </c>
       <c r="B12" s="75">
-        <f>COUNTIF($F$19:$F$49375,"*Failed*")</f>
+        <f>COUNTIF($F$19:$F$49376,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="75">
-        <f>COUNTIF($G$19:$G$49375,"*Failed*")</f>
+        <f>COUNTIF($G$19:$G$49376,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="75">
-        <f>COUNTIF($H$19:$H$49375,"*Failed*")</f>
+        <f>COUNTIF($H$19:$H$49376,"*Failed*")</f>
         <v>0</v>
       </c>
     </row>
@@ -13182,15 +13097,15 @@
         <v>45</v>
       </c>
       <c r="B13" s="75">
-        <f>COUNTIF($F$19:$F$49375,"*Not Run*")</f>
+        <f>COUNTIF($F$19:$F$49376,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="75">
-        <f>COUNTIF($G$19:$G$49375,"*Not Run*")</f>
+        <f>COUNTIF($G$19:$G$49376,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="75">
-        <f>COUNTIF($H$19:$H$49375,"*Not Run*")</f>
+        <f>COUNTIF($H$19:$H$49376,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
@@ -13204,15 +13119,15 @@
         <v>100</v>
       </c>
       <c r="B14" s="75">
-        <f>COUNTIF($F$19:$F$49375,"*NA*")</f>
+        <f>COUNTIF($F$19:$F$49376,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="75">
-        <f>COUNTIF($G$19:$G$49375,"*NA*")</f>
+        <f>COUNTIF($G$19:$G$49376,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="75">
-        <f>COUNTIF($H$19:$H$49375,"*NA*")</f>
+        <f>COUNTIF($H$19:$H$49376,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="64"/>
@@ -13226,15 +13141,15 @@
         <v>101</v>
       </c>
       <c r="B15" s="75">
-        <f>COUNTIF($F$19:$F$49375,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$19:$F$49376,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="75">
-        <f>COUNTIF($G$19:$G$49375,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$19:$G$49376,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="75">
-        <f>COUNTIF($H$19:$H$49375,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$19:$H$49376,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="1"/>
@@ -13249,11 +13164,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="266" t="s">
+      <c r="F16" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="267"/>
-      <c r="H16" s="268"/>
+      <c r="G16" s="264"/>
+      <c r="H16" s="265"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39.6">
@@ -13289,7 +13204,7 @@
       <c r="A18" s="205"/>
       <c r="B18" s="206"/>
       <c r="C18" s="209" t="s">
-        <v>740</v>
+        <v>697</v>
       </c>
       <c r="D18" s="207"/>
       <c r="E18" s="207"/>
@@ -13300,11 +13215,11 @@
     </row>
     <row r="19" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="67"/>
-      <c r="B19" s="262" t="s">
+      <c r="B19" s="259" t="s">
         <v>308</v>
       </c>
-      <c r="C19" s="263"/>
-      <c r="D19" s="264"/>
+      <c r="C19" s="260"/>
+      <c r="D19" s="261"/>
       <c r="E19" s="67"/>
       <c r="F19" s="68"/>
       <c r="G19" s="68"/>
@@ -13313,11 +13228,11 @@
     </row>
     <row r="20" spans="1:9" s="45" customFormat="1">
       <c r="A20" s="192"/>
-      <c r="B20" s="269" t="s">
+      <c r="B20" s="266" t="s">
         <v>621</v>
       </c>
-      <c r="C20" s="270"/>
-      <c r="D20" s="271"/>
+      <c r="C20" s="267"/>
+      <c r="D20" s="268"/>
       <c r="E20" s="193"/>
       <c r="F20" s="192"/>
       <c r="G20" s="192"/>
@@ -13329,13 +13244,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>236</v>
+        <v>729</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>671</v>
+        <v>800</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="52"/>
@@ -13343,18 +13258,18 @@
       <c r="H21" s="52"/>
       <c r="I21" s="55"/>
     </row>
-    <row r="22" spans="1:9" s="45" customFormat="1" ht="66">
+    <row r="22" spans="1:9" s="45" customFormat="1" ht="52.8">
       <c r="A22" s="52">
         <v>2</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>730</v>
+        <v>689</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>700</v>
+        <v>799</v>
       </c>
       <c r="E22" s="54"/>
       <c r="F22" s="52"/>
@@ -13362,7 +13277,7 @@
       <c r="H22" s="52"/>
       <c r="I22" s="55"/>
     </row>
-    <row r="23" spans="1:9" s="45" customFormat="1" ht="39.6">
+    <row r="23" spans="1:9" s="45" customFormat="1" ht="26.4">
       <c r="A23" s="52">
         <v>3</v>
       </c>
@@ -13370,10 +13285,10 @@
         <v>622</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>699</v>
+        <v>798</v>
       </c>
       <c r="E23" s="54"/>
       <c r="F23" s="52"/>
@@ -13389,10 +13304,10 @@
         <v>623</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>630</v>
+        <v>776</v>
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="52"/>
@@ -13411,7 +13326,7 @@
         <v>628</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>630</v>
+        <v>776</v>
       </c>
       <c r="E25" s="54"/>
       <c r="F25" s="52"/>
@@ -13427,10 +13342,10 @@
         <v>316</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D26" s="54" t="s">
-        <v>630</v>
+        <v>776</v>
       </c>
       <c r="E26" s="54"/>
       <c r="F26" s="52"/>
@@ -13438,7 +13353,7 @@
       <c r="H26" s="52"/>
       <c r="I26" s="61"/>
     </row>
-    <row r="27" spans="1:9" s="48" customFormat="1" ht="52.8">
+    <row r="27" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A27" s="62">
         <v>7</v>
       </c>
@@ -13446,10 +13361,10 @@
         <v>327</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D27" s="54" t="s">
-        <v>695</v>
+        <v>793</v>
       </c>
       <c r="E27" s="54"/>
       <c r="F27" s="52"/>
@@ -13457,7 +13372,7 @@
       <c r="H27" s="52"/>
       <c r="I27" s="61"/>
     </row>
-    <row r="28" spans="1:9" s="48" customFormat="1" ht="52.8">
+    <row r="28" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A28" s="62">
         <v>8</v>
       </c>
@@ -13465,10 +13380,10 @@
         <v>625</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>698</v>
+        <v>797</v>
       </c>
       <c r="E28" s="54"/>
       <c r="F28" s="52"/>
@@ -13484,10 +13399,10 @@
         <v>361</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>541</v>
+        <v>796</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="52"/>
@@ -13503,10 +13418,10 @@
         <v>626</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>630</v>
+        <v>776</v>
       </c>
       <c r="E30" s="54"/>
       <c r="F30" s="52"/>
@@ -13514,18 +13429,18 @@
       <c r="H30" s="52"/>
       <c r="I30" s="61"/>
     </row>
-    <row r="31" spans="1:9" s="48" customFormat="1" ht="39.6">
+    <row r="31" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A31" s="62">
         <v>11</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>697</v>
+        <v>795</v>
       </c>
       <c r="E31" s="54"/>
       <c r="F31" s="52"/>
@@ -13533,18 +13448,18 @@
       <c r="H31" s="52"/>
       <c r="I31" s="61"/>
     </row>
-    <row r="32" spans="1:9" s="48" customFormat="1" ht="39.6">
+    <row r="32" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A32" s="62">
         <v>12</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>696</v>
+        <v>794</v>
       </c>
       <c r="E32" s="54"/>
       <c r="F32" s="52"/>
@@ -13552,7 +13467,7 @@
       <c r="H32" s="52"/>
       <c r="I32" s="61"/>
     </row>
-    <row r="33" spans="1:9" s="48" customFormat="1" ht="52.8">
+    <row r="33" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A33" s="62">
         <v>13</v>
       </c>
@@ -13560,10 +13475,10 @@
         <v>627</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>695</v>
+        <v>793</v>
       </c>
       <c r="E33" s="54"/>
       <c r="F33" s="52"/>
@@ -13571,11 +13486,17 @@
       <c r="H33" s="52"/>
       <c r="I33" s="61"/>
     </row>
-    <row r="34" spans="1:9" s="48" customFormat="1" ht="13.8">
+    <row r="34" spans="1:9" s="48" customFormat="1" ht="52.8">
       <c r="A34" s="62"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="54"/>
+      <c r="B34" s="52" t="s">
+        <v>745</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>747</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>792</v>
+      </c>
       <c r="E34" s="54"/>
       <c r="F34" s="52"/>
       <c r="G34" s="52"/>
@@ -13583,49 +13504,41 @@
       <c r="I34" s="61"/>
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A35" s="202"/>
-      <c r="B35" s="269" t="s">
-        <v>633</v>
-      </c>
-      <c r="C35" s="270"/>
-      <c r="D35" s="271"/>
-      <c r="E35" s="193"/>
-      <c r="F35" s="192"/>
-      <c r="G35" s="192"/>
-      <c r="H35" s="192"/>
-      <c r="I35" s="204"/>
-    </row>
-    <row r="36" spans="1:9" s="48" customFormat="1" ht="39.6">
-      <c r="A36" s="62">
+      <c r="A35" s="62"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="61"/>
+    </row>
+    <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A36" s="202"/>
+      <c r="B36" s="266" t="s">
+        <v>632</v>
+      </c>
+      <c r="C36" s="267"/>
+      <c r="D36" s="268"/>
+      <c r="E36" s="193"/>
+      <c r="F36" s="192"/>
+      <c r="G36" s="192"/>
+      <c r="H36" s="192"/>
+      <c r="I36" s="204"/>
+    </row>
+    <row r="37" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A37" s="62">
         <v>1</v>
       </c>
-      <c r="B36" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>646</v>
-      </c>
-      <c r="D36" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="61"/>
-    </row>
-    <row r="37" spans="1:9" s="48" customFormat="1" ht="39.6">
-      <c r="A37" s="62">
-        <v>2</v>
-      </c>
       <c r="B37" s="52" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D37" s="54" t="s">
-        <v>694</v>
+        <v>791</v>
       </c>
       <c r="E37" s="54"/>
       <c r="F37" s="52"/>
@@ -13633,18 +13546,18 @@
       <c r="H37" s="52"/>
       <c r="I37" s="61"/>
     </row>
-    <row r="38" spans="1:9" s="48" customFormat="1" ht="52.8">
+    <row r="38" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A38" s="62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>365</v>
+        <v>689</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="D38" s="54" t="s">
-        <v>693</v>
+        <v>790</v>
       </c>
       <c r="E38" s="54"/>
       <c r="F38" s="52"/>
@@ -13652,18 +13565,18 @@
       <c r="H38" s="52"/>
       <c r="I38" s="61"/>
     </row>
-    <row r="39" spans="1:9" s="48" customFormat="1" ht="26.4">
+    <row r="39" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A39" s="62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D39" s="54" t="s">
-        <v>630</v>
+        <v>789</v>
       </c>
       <c r="E39" s="54"/>
       <c r="F39" s="52"/>
@@ -13671,18 +13584,18 @@
       <c r="H39" s="52"/>
       <c r="I39" s="61"/>
     </row>
-    <row r="40" spans="1:9" s="48" customFormat="1" ht="52.8">
+    <row r="40" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A40" s="62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D40" s="54" t="s">
-        <v>692</v>
+        <v>776</v>
       </c>
       <c r="E40" s="54"/>
       <c r="F40" s="52"/>
@@ -13692,16 +13605,16 @@
     </row>
     <row r="41" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A41" s="62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D41" s="54" t="s">
-        <v>690</v>
+        <v>788</v>
       </c>
       <c r="E41" s="54"/>
       <c r="F41" s="52"/>
@@ -13709,18 +13622,18 @@
       <c r="H41" s="52"/>
       <c r="I41" s="61"/>
     </row>
-    <row r="42" spans="1:9" s="48" customFormat="1" ht="39.6">
+    <row r="42" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A42" s="62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D42" s="54" t="s">
-        <v>690</v>
+        <v>785</v>
       </c>
       <c r="E42" s="54"/>
       <c r="F42" s="52"/>
@@ -13728,18 +13641,18 @@
       <c r="H42" s="52"/>
       <c r="I42" s="61"/>
     </row>
-    <row r="43" spans="1:9" s="48" customFormat="1" ht="52.8">
+    <row r="43" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A43" s="62">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>446</v>
+        <v>346</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D43" s="54" t="s">
-        <v>691</v>
+        <v>785</v>
       </c>
       <c r="E43" s="54"/>
       <c r="F43" s="52"/>
@@ -13749,16 +13662,16 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A44" s="62">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>361</v>
+        <v>446</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>679</v>
+        <v>749</v>
       </c>
       <c r="D44" s="54" t="s">
-        <v>662</v>
+        <v>787</v>
       </c>
       <c r="E44" s="54"/>
       <c r="F44" s="52"/>
@@ -13768,16 +13681,16 @@
     </row>
     <row r="45" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A45" s="62">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" s="52" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="D45" s="54" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
       <c r="E45" s="54"/>
       <c r="F45" s="52"/>
@@ -13787,16 +13700,16 @@
     </row>
     <row r="46" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A46" s="62">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D46" s="54" t="s">
-        <v>630</v>
+        <v>785</v>
       </c>
       <c r="E46" s="54"/>
       <c r="F46" s="52"/>
@@ -13804,80 +13717,80 @@
       <c r="H46" s="52"/>
       <c r="I46" s="61"/>
     </row>
-    <row r="47" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A47" s="62"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="54"/>
+    <row r="47" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A47" s="62">
+        <v>11</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>655</v>
+      </c>
+      <c r="D47" s="54" t="s">
+        <v>776</v>
+      </c>
       <c r="E47" s="54"/>
       <c r="F47" s="52"/>
       <c r="G47" s="52"/>
       <c r="H47" s="52"/>
       <c r="I47" s="61"/>
     </row>
-    <row r="48" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A48" s="202"/>
-      <c r="B48" s="269" t="s">
-        <v>664</v>
-      </c>
-      <c r="C48" s="270"/>
-      <c r="D48" s="271"/>
-      <c r="E48" s="193"/>
-      <c r="F48" s="192"/>
-      <c r="G48" s="192"/>
-      <c r="H48" s="192"/>
-      <c r="I48" s="204"/>
-    </row>
-    <row r="49" spans="1:9" s="48" customFormat="1" ht="39.6">
-      <c r="A49" s="62">
-        <v>1</v>
-      </c>
-      <c r="B49" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>672</v>
-      </c>
-      <c r="D49" s="54" t="s">
-        <v>673</v>
-      </c>
+    <row r="48" spans="1:9" s="48" customFormat="1" ht="39.6">
+      <c r="A48" s="62">
+        <v>12</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>627</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>748</v>
+      </c>
+      <c r="D48" s="54" t="s">
+        <v>784</v>
+      </c>
+      <c r="E48" s="54"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="61"/>
+    </row>
+    <row r="49" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A49" s="62"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="54"/>
       <c r="E49" s="54"/>
       <c r="F49" s="52"/>
       <c r="G49" s="52"/>
       <c r="H49" s="52"/>
       <c r="I49" s="61"/>
     </row>
-    <row r="50" spans="1:9" s="48" customFormat="1" ht="39.6">
-      <c r="A50" s="62">
-        <v>2</v>
-      </c>
-      <c r="B50" s="52" t="s">
-        <v>730</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>648</v>
-      </c>
-      <c r="D50" s="54" t="s">
-        <v>689</v>
-      </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="61"/>
-    </row>
-    <row r="51" spans="1:9" s="48" customFormat="1" ht="52.8">
+    <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A50" s="202"/>
+      <c r="B50" s="266" t="s">
+        <v>659</v>
+      </c>
+      <c r="C50" s="267"/>
+      <c r="D50" s="268"/>
+      <c r="E50" s="193"/>
+      <c r="F50" s="192"/>
+      <c r="G50" s="192"/>
+      <c r="H50" s="192"/>
+      <c r="I50" s="204"/>
+    </row>
+    <row r="51" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A51" s="62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B51" s="52" t="s">
-        <v>665</v>
+        <v>236</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="D51" s="54" t="s">
-        <v>688</v>
+        <v>783</v>
       </c>
       <c r="E51" s="54"/>
       <c r="F51" s="52"/>
@@ -13887,16 +13800,16 @@
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A52" s="62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>666</v>
+        <v>689</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>675</v>
+        <v>646</v>
       </c>
       <c r="D52" s="54" t="s">
-        <v>630</v>
+        <v>782</v>
       </c>
       <c r="E52" s="54"/>
       <c r="F52" s="52"/>
@@ -13904,18 +13817,18 @@
       <c r="H52" s="52"/>
       <c r="I52" s="61"/>
     </row>
-    <row r="53" spans="1:9" s="48" customFormat="1" ht="26.4">
+    <row r="53" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A53" s="62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B53" s="52" t="s">
+        <v>660</v>
+      </c>
+      <c r="C53" s="52" t="s">
         <v>667</v>
       </c>
-      <c r="C53" s="52" t="s">
-        <v>676</v>
-      </c>
       <c r="D53" s="54" t="s">
-        <v>630</v>
+        <v>781</v>
       </c>
       <c r="E53" s="54"/>
       <c r="F53" s="52"/>
@@ -13925,16 +13838,16 @@
     </row>
     <row r="54" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A54" s="62">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B54" s="52" t="s">
+        <v>661</v>
+      </c>
+      <c r="C54" s="52" t="s">
         <v>668</v>
       </c>
-      <c r="C54" s="52" t="s">
-        <v>677</v>
-      </c>
       <c r="D54" s="54" t="s">
-        <v>630</v>
+        <v>776</v>
       </c>
       <c r="E54" s="54"/>
       <c r="F54" s="52"/>
@@ -13942,18 +13855,18 @@
       <c r="H54" s="52"/>
       <c r="I54" s="61"/>
     </row>
-    <row r="55" spans="1:9" s="48" customFormat="1" ht="52.8">
+    <row r="55" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A55" s="62">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B55" s="52" t="s">
+        <v>662</v>
+      </c>
+      <c r="C55" s="52" t="s">
         <v>669</v>
       </c>
-      <c r="C55" s="52" t="s">
-        <v>678</v>
-      </c>
       <c r="D55" s="54" t="s">
-        <v>688</v>
+        <v>776</v>
       </c>
       <c r="E55" s="54"/>
       <c r="F55" s="52"/>
@@ -13961,18 +13874,18 @@
       <c r="H55" s="52"/>
       <c r="I55" s="61"/>
     </row>
-    <row r="56" spans="1:9" s="48" customFormat="1" ht="52.8">
+    <row r="56" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A56" s="62">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B56" s="52" t="s">
+        <v>663</v>
+      </c>
+      <c r="C56" s="52" t="s">
         <v>670</v>
       </c>
-      <c r="C56" s="52" t="s">
-        <v>683</v>
-      </c>
       <c r="D56" s="54" t="s">
-        <v>661</v>
+        <v>776</v>
       </c>
       <c r="E56" s="54"/>
       <c r="F56" s="52"/>
@@ -13982,16 +13895,16 @@
     </row>
     <row r="57" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A57" s="62">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>361</v>
+        <v>664</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="D57" s="54" t="s">
-        <v>681</v>
+        <v>781</v>
       </c>
       <c r="E57" s="54"/>
       <c r="F57" s="52"/>
@@ -13999,18 +13912,18 @@
       <c r="H57" s="52"/>
       <c r="I57" s="61"/>
     </row>
-    <row r="58" spans="1:9" s="48" customFormat="1" ht="26.4">
+    <row r="58" spans="1:9" s="48" customFormat="1" ht="52.8">
       <c r="A58" s="62">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>626</v>
+        <v>665</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D58" s="54" t="s">
-        <v>630</v>
+        <v>780</v>
       </c>
       <c r="E58" s="54"/>
       <c r="F58" s="52"/>
@@ -14020,16 +13933,16 @@
     </row>
     <row r="59" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A59" s="62">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B59" s="52" t="s">
-        <v>631</v>
+        <v>361</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="D59" s="54" t="s">
-        <v>687</v>
+        <v>775</v>
       </c>
       <c r="E59" s="54"/>
       <c r="F59" s="52"/>
@@ -14037,18 +13950,18 @@
       <c r="H59" s="52"/>
       <c r="I59" s="61"/>
     </row>
-    <row r="60" spans="1:9" s="48" customFormat="1" ht="39.6">
+    <row r="60" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A60" s="62">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="D60" s="54" t="s">
-        <v>687</v>
+        <v>776</v>
       </c>
       <c r="E60" s="54"/>
       <c r="F60" s="52"/>
@@ -14056,18 +13969,18 @@
       <c r="H60" s="52"/>
       <c r="I60" s="61"/>
     </row>
-    <row r="61" spans="1:9" s="48" customFormat="1" ht="66">
+    <row r="61" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A61" s="62">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B61" s="52" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="D61" s="54" t="s">
-        <v>686</v>
+        <v>777</v>
       </c>
       <c r="E61" s="54"/>
       <c r="F61" s="52"/>
@@ -14075,42 +13988,56 @@
       <c r="H61" s="52"/>
       <c r="I61" s="61"/>
     </row>
-    <row r="62" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A62" s="62"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="54"/>
+    <row r="62" spans="1:9" s="48" customFormat="1" ht="39.6">
+      <c r="A62" s="62">
+        <v>12</v>
+      </c>
+      <c r="B62" s="52" t="s">
+        <v>631</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>676</v>
+      </c>
+      <c r="D62" s="54" t="s">
+        <v>777</v>
+      </c>
       <c r="E62" s="54"/>
       <c r="F62" s="52"/>
       <c r="G62" s="52"/>
       <c r="H62" s="52"/>
       <c r="I62" s="61"/>
     </row>
-    <row r="63" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A63" s="202"/>
-      <c r="B63" s="269" t="s">
-        <v>701</v>
-      </c>
-      <c r="C63" s="270"/>
-      <c r="D63" s="271"/>
-      <c r="E63" s="193"/>
-      <c r="F63" s="192"/>
-      <c r="G63" s="192"/>
-      <c r="H63" s="192"/>
-      <c r="I63" s="204"/>
-    </row>
-    <row r="64" spans="1:9" s="48" customFormat="1" ht="39.6">
+    <row r="63" spans="1:9" s="48" customFormat="1" ht="52.8">
+      <c r="A63" s="62">
+        <v>13</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>627</v>
+      </c>
+      <c r="C63" s="52" t="s">
+        <v>677</v>
+      </c>
+      <c r="D63" s="54" t="s">
+        <v>778</v>
+      </c>
+      <c r="E63" s="54"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="61"/>
+    </row>
+    <row r="64" spans="1:9" s="48" customFormat="1" ht="66">
       <c r="A64" s="62">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B64" s="52" t="s">
-        <v>236</v>
+        <v>745</v>
       </c>
       <c r="C64" s="52" t="s">
-        <v>703</v>
+        <v>746</v>
       </c>
       <c r="D64" s="54" t="s">
-        <v>707</v>
+        <v>779</v>
       </c>
       <c r="E64" s="54"/>
       <c r="F64" s="52"/>
@@ -14118,84 +14045,84 @@
       <c r="H64" s="52"/>
       <c r="I64" s="61"/>
     </row>
-    <row r="65" spans="1:9" s="48" customFormat="1" ht="39.6">
-      <c r="A65" s="62">
-        <v>2</v>
-      </c>
-      <c r="B65" s="52" t="s">
-        <v>702</v>
-      </c>
-      <c r="C65" s="52" t="s">
-        <v>706</v>
-      </c>
-      <c r="D65" s="54" t="s">
-        <v>709</v>
-      </c>
+    <row r="65" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A65" s="62"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="54"/>
       <c r="E65" s="54"/>
       <c r="F65" s="52"/>
       <c r="G65" s="52"/>
       <c r="H65" s="52"/>
       <c r="I65" s="61"/>
     </row>
-    <row r="66" spans="1:9" s="48" customFormat="1" ht="79.2">
-      <c r="A66" s="62">
-        <v>3</v>
-      </c>
-      <c r="B66" s="52" t="s">
-        <v>741</v>
-      </c>
-      <c r="C66" s="52" t="s">
-        <v>706</v>
-      </c>
-      <c r="D66" s="54" t="s">
-        <v>742</v>
-      </c>
-      <c r="E66" s="54" t="s">
-        <v>743</v>
-      </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="61"/>
-    </row>
-    <row r="67" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A67" s="62"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="54"/>
+    <row r="66" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A66" s="202"/>
+      <c r="B66" s="266" t="s">
+        <v>678</v>
+      </c>
+      <c r="C66" s="267"/>
+      <c r="D66" s="268"/>
+      <c r="E66" s="193"/>
+      <c r="F66" s="192"/>
+      <c r="G66" s="192"/>
+      <c r="H66" s="192"/>
+      <c r="I66" s="204"/>
+    </row>
+    <row r="67" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A67" s="62">
+        <v>1</v>
+      </c>
+      <c r="B67" s="52" t="s">
+        <v>729</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>680</v>
+      </c>
+      <c r="D67" s="54" t="s">
+        <v>769</v>
+      </c>
       <c r="E67" s="54"/>
       <c r="F67" s="52"/>
       <c r="G67" s="52"/>
       <c r="H67" s="52"/>
       <c r="I67" s="61"/>
     </row>
-    <row r="68" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A68" s="202"/>
-      <c r="B68" s="269" t="s">
-        <v>711</v>
-      </c>
-      <c r="C68" s="270"/>
-      <c r="D68" s="271"/>
-      <c r="E68" s="193"/>
-      <c r="F68" s="192"/>
-      <c r="G68" s="192"/>
-      <c r="H68" s="192"/>
-      <c r="I68" s="204"/>
+    <row r="68" spans="1:9" s="48" customFormat="1" ht="39.6">
+      <c r="A68" s="62">
+        <v>2</v>
+      </c>
+      <c r="B68" s="52" t="s">
+        <v>679</v>
+      </c>
+      <c r="C68" s="52" t="s">
+        <v>681</v>
+      </c>
+      <c r="D68" s="54" t="s">
+        <v>768</v>
+      </c>
+      <c r="E68" s="54"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="61"/>
     </row>
     <row r="69" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A69" s="62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B69" s="52" t="s">
-        <v>236</v>
+        <v>698</v>
       </c>
       <c r="C69" s="52" t="s">
-        <v>713</v>
+        <v>681</v>
       </c>
       <c r="D69" s="54" t="s">
-        <v>718</v>
-      </c>
-      <c r="E69" s="54"/>
+        <v>770</v>
+      </c>
+      <c r="E69" s="54" t="s">
+        <v>744</v>
+      </c>
       <c r="F69" s="52"/>
       <c r="G69" s="52"/>
       <c r="H69" s="52"/>
@@ -14203,16 +14130,16 @@
     </row>
     <row r="70" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A70" s="62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B70" s="52" t="s">
-        <v>702</v>
+        <v>730</v>
       </c>
       <c r="C70" s="52" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="D70" s="54" t="s">
-        <v>709</v>
+        <v>771</v>
       </c>
       <c r="E70" s="54"/>
       <c r="F70" s="52"/>
@@ -14220,18 +14147,18 @@
       <c r="H70" s="52"/>
       <c r="I70" s="61"/>
     </row>
-    <row r="71" spans="1:9" s="48" customFormat="1" ht="39.6">
+    <row r="71" spans="1:9" s="48" customFormat="1" ht="66">
       <c r="A71" s="62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B71" s="52" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C71" s="52" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
       <c r="D71" s="54" t="s">
-        <v>742</v>
+        <v>767</v>
       </c>
       <c r="E71" s="54"/>
       <c r="F71" s="52"/>
@@ -14252,18 +14179,18 @@
     </row>
     <row r="73" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A73" s="202"/>
-      <c r="B73" s="269" t="s">
-        <v>720</v>
-      </c>
-      <c r="C73" s="270"/>
-      <c r="D73" s="271"/>
+      <c r="B73" s="266" t="s">
+        <v>682</v>
+      </c>
+      <c r="C73" s="267"/>
+      <c r="D73" s="268"/>
       <c r="E73" s="193"/>
       <c r="F73" s="192"/>
       <c r="G73" s="192"/>
       <c r="H73" s="192"/>
       <c r="I73" s="204"/>
     </row>
-    <row r="74" spans="1:9" s="48" customFormat="1" ht="39.6">
+    <row r="74" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A74" s="62">
         <v>1</v>
       </c>
@@ -14271,10 +14198,10 @@
         <v>236</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>722</v>
+        <v>683</v>
       </c>
       <c r="D74" s="54" t="s">
-        <v>725</v>
+        <v>772</v>
       </c>
       <c r="E74" s="54"/>
       <c r="F74" s="52"/>
@@ -14287,13 +14214,13 @@
         <v>2</v>
       </c>
       <c r="B75" s="52" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="C75" s="52" t="s">
-        <v>724</v>
+        <v>684</v>
       </c>
       <c r="D75" s="54" t="s">
-        <v>709</v>
+        <v>768</v>
       </c>
       <c r="E75" s="54"/>
       <c r="F75" s="52"/>
@@ -14306,13 +14233,13 @@
         <v>3</v>
       </c>
       <c r="B76" s="52" t="s">
-        <v>741</v>
+        <v>698</v>
       </c>
       <c r="C76" s="52" t="s">
-        <v>724</v>
+        <v>684</v>
       </c>
       <c r="D76" s="54" t="s">
-        <v>742</v>
+        <v>773</v>
       </c>
       <c r="E76" s="54"/>
       <c r="F76" s="52"/>
@@ -14320,42 +14247,56 @@
       <c r="H76" s="52"/>
       <c r="I76" s="61"/>
     </row>
-    <row r="77" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A77" s="62"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="54"/>
+    <row r="77" spans="1:9" s="48" customFormat="1" ht="39.6">
+      <c r="A77" s="62">
+        <v>4</v>
+      </c>
+      <c r="B77" s="52" t="s">
+        <v>730</v>
+      </c>
+      <c r="C77" s="52" t="s">
+        <v>732</v>
+      </c>
+      <c r="D77" s="54" t="s">
+        <v>774</v>
+      </c>
       <c r="E77" s="54"/>
       <c r="F77" s="52"/>
       <c r="G77" s="52"/>
       <c r="H77" s="52"/>
       <c r="I77" s="61"/>
     </row>
-    <row r="78" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A78" s="202"/>
-      <c r="B78" s="269" t="s">
-        <v>726</v>
-      </c>
-      <c r="C78" s="270"/>
-      <c r="D78" s="271"/>
-      <c r="E78" s="193"/>
-      <c r="F78" s="192"/>
-      <c r="G78" s="192"/>
-      <c r="H78" s="192"/>
-      <c r="I78" s="204"/>
-    </row>
-    <row r="79" spans="1:9" s="48" customFormat="1" ht="39.6">
+    <row r="78" spans="1:9" s="48" customFormat="1" ht="39.6">
+      <c r="A78" s="62">
+        <v>5</v>
+      </c>
+      <c r="B78" s="52" t="s">
+        <v>734</v>
+      </c>
+      <c r="C78" s="52" t="s">
+        <v>735</v>
+      </c>
+      <c r="D78" s="54" t="s">
+        <v>765</v>
+      </c>
+      <c r="E78" s="54"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="52"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="61"/>
+    </row>
+    <row r="79" spans="1:9" s="48" customFormat="1" ht="66">
       <c r="A79" s="62">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B79" s="52" t="s">
-        <v>236</v>
+        <v>740</v>
       </c>
       <c r="C79" s="52" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="D79" s="54" t="s">
-        <v>736</v>
+        <v>766</v>
       </c>
       <c r="E79" s="54"/>
       <c r="F79" s="52"/>
@@ -14363,56 +14304,42 @@
       <c r="H79" s="52"/>
       <c r="I79" s="61"/>
     </row>
-    <row r="80" spans="1:9" s="48" customFormat="1" ht="66">
-      <c r="A80" s="62">
-        <v>2</v>
-      </c>
-      <c r="B80" s="52" t="s">
-        <v>731</v>
-      </c>
-      <c r="C80" s="52" t="s">
-        <v>733</v>
-      </c>
-      <c r="D80" s="54" t="s">
-        <v>737</v>
-      </c>
+    <row r="80" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A80" s="62"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="54"/>
       <c r="E80" s="54"/>
       <c r="F80" s="52"/>
       <c r="G80" s="52"/>
       <c r="H80" s="52"/>
       <c r="I80" s="61"/>
     </row>
-    <row r="81" spans="1:9" s="48" customFormat="1" ht="92.4">
-      <c r="A81" s="62">
-        <v>3</v>
-      </c>
-      <c r="B81" s="52" t="s">
-        <v>734</v>
-      </c>
-      <c r="C81" s="52" t="s">
-        <v>738</v>
-      </c>
-      <c r="D81" s="54" t="s">
-        <v>747</v>
-      </c>
-      <c r="E81" s="54"/>
-      <c r="F81" s="52"/>
-      <c r="G81" s="52"/>
-      <c r="H81" s="52"/>
-      <c r="I81" s="61"/>
-    </row>
-    <row r="82" spans="1:9" s="48" customFormat="1" ht="92.4">
+    <row r="81" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A81" s="202"/>
+      <c r="B81" s="266" t="s">
+        <v>685</v>
+      </c>
+      <c r="C81" s="267"/>
+      <c r="D81" s="268"/>
+      <c r="E81" s="193"/>
+      <c r="F81" s="192"/>
+      <c r="G81" s="192"/>
+      <c r="H81" s="192"/>
+      <c r="I81" s="204"/>
+    </row>
+    <row r="82" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A82" s="62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B82" s="52" t="s">
-        <v>735</v>
+        <v>236</v>
       </c>
       <c r="C82" s="52" t="s">
-        <v>739</v>
+        <v>686</v>
       </c>
       <c r="D82" s="54" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="E82" s="54"/>
       <c r="F82" s="52"/>
@@ -14420,283 +14347,275 @@
       <c r="H82" s="52"/>
       <c r="I82" s="61"/>
     </row>
-    <row r="83" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A83" s="62"/>
-      <c r="B83" s="52"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="54"/>
+    <row r="83" spans="1:9" s="48" customFormat="1" ht="39.6">
+      <c r="A83" s="62">
+        <v>2</v>
+      </c>
+      <c r="B83" s="52" t="s">
+        <v>679</v>
+      </c>
+      <c r="C83" s="52" t="s">
+        <v>687</v>
+      </c>
+      <c r="D83" s="54" t="s">
+        <v>755</v>
+      </c>
       <c r="E83" s="54"/>
       <c r="F83" s="52"/>
       <c r="G83" s="52"/>
       <c r="H83" s="52"/>
       <c r="I83" s="61"/>
     </row>
-    <row r="84" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A84" s="77"/>
-      <c r="B84" s="262" t="s">
-        <v>309</v>
-      </c>
-      <c r="C84" s="263"/>
-      <c r="D84" s="264"/>
-      <c r="E84" s="69"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="66"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="69"/>
-    </row>
-    <row r="85" spans="1:9" s="48" customFormat="1" ht="75.599999999999994" customHeight="1">
+    <row r="84" spans="1:9" s="48" customFormat="1" ht="39.6">
+      <c r="A84" s="62">
+        <v>3</v>
+      </c>
+      <c r="B84" s="52" t="s">
+        <v>698</v>
+      </c>
+      <c r="C84" s="52" t="s">
+        <v>687</v>
+      </c>
+      <c r="D84" s="54" t="s">
+        <v>754</v>
+      </c>
+      <c r="E84" s="54"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="52"/>
+      <c r="I84" s="61"/>
+    </row>
+    <row r="85" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A85" s="62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B85" s="52" t="s">
-        <v>334</v>
+        <v>730</v>
       </c>
       <c r="C85" s="52" t="s">
-        <v>750</v>
-      </c>
-      <c r="D85" s="53" t="s">
-        <v>754</v>
+        <v>733</v>
+      </c>
+      <c r="D85" s="54" t="s">
+        <v>753</v>
       </c>
       <c r="E85" s="54"/>
       <c r="F85" s="52"/>
       <c r="G85" s="52"/>
       <c r="H85" s="52"/>
-      <c r="I85" s="62"/>
-    </row>
-    <row r="86" spans="1:9" s="48" customFormat="1" ht="84.6" customHeight="1">
+      <c r="I85" s="61"/>
+    </row>
+    <row r="86" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A86" s="62">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B86" s="52" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>756</v>
-      </c>
-      <c r="D86" s="53" t="s">
-        <v>755</v>
+        <v>735</v>
+      </c>
+      <c r="D86" s="54" t="s">
+        <v>752</v>
       </c>
       <c r="E86" s="54"/>
       <c r="F86" s="52"/>
       <c r="G86" s="52"/>
       <c r="H86" s="52"/>
-      <c r="I86" s="62"/>
-    </row>
-    <row r="87" spans="1:9" s="48" customFormat="1" ht="88.2" customHeight="1">
+      <c r="I86" s="61"/>
+    </row>
+    <row r="87" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A87" s="62">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B87" s="52" t="s">
-        <v>318</v>
+        <v>736</v>
       </c>
       <c r="C87" s="52" t="s">
-        <v>757</v>
-      </c>
-      <c r="D87" s="53" t="s">
-        <v>759</v>
+        <v>737</v>
+      </c>
+      <c r="D87" s="54" t="s">
+        <v>751</v>
       </c>
       <c r="E87" s="54"/>
       <c r="F87" s="52"/>
       <c r="G87" s="52"/>
       <c r="H87" s="52"/>
-      <c r="I87" s="62"/>
-    </row>
-    <row r="88" spans="1:9" s="48" customFormat="1" ht="84.6" customHeight="1">
+      <c r="I87" s="61"/>
+    </row>
+    <row r="88" spans="1:9" s="48" customFormat="1" ht="79.2">
       <c r="A88" s="62">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B88" s="52" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="C88" s="52" t="s">
-        <v>758</v>
-      </c>
-      <c r="D88" s="53" t="s">
-        <v>760</v>
+        <v>743</v>
+      </c>
+      <c r="D88" s="54" t="s">
+        <v>750</v>
       </c>
       <c r="E88" s="54"/>
       <c r="F88" s="52"/>
       <c r="G88" s="52"/>
       <c r="H88" s="52"/>
-      <c r="I88" s="62"/>
-    </row>
-    <row r="89" spans="1:9" s="48" customFormat="1" ht="55.8" customHeight="1">
-      <c r="A89" s="62">
-        <v>5</v>
-      </c>
-      <c r="B89" s="52" t="s">
-        <v>729</v>
-      </c>
-      <c r="C89" s="52" t="s">
-        <v>705</v>
-      </c>
-      <c r="D89" s="53" t="s">
-        <v>708</v>
-      </c>
+      <c r="I88" s="61"/>
+    </row>
+    <row r="89" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A89" s="62"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="54"/>
       <c r="E89" s="54"/>
       <c r="F89" s="52"/>
       <c r="G89" s="52"/>
       <c r="H89" s="52"/>
-      <c r="I89" s="62"/>
-    </row>
-    <row r="90" spans="1:9" s="48" customFormat="1" ht="40.799999999999997" customHeight="1">
-      <c r="A90" s="62">
-        <v>6</v>
-      </c>
-      <c r="B90" s="52" t="s">
-        <v>704</v>
-      </c>
-      <c r="C90" s="52" t="s">
-        <v>716</v>
-      </c>
-      <c r="D90" s="53" t="s">
-        <v>710</v>
-      </c>
-      <c r="E90" s="54"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="52"/>
-      <c r="H90" s="52"/>
-      <c r="I90" s="62"/>
-    </row>
-    <row r="91" spans="1:9" s="48" customFormat="1" ht="56.4" customHeight="1">
+      <c r="I89" s="61"/>
+    </row>
+    <row r="90" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A90" s="202"/>
+      <c r="B90" s="266" t="s">
+        <v>688</v>
+      </c>
+      <c r="C90" s="267"/>
+      <c r="D90" s="268"/>
+      <c r="E90" s="193"/>
+      <c r="F90" s="192"/>
+      <c r="G90" s="192"/>
+      <c r="H90" s="192"/>
+      <c r="I90" s="204"/>
+    </row>
+    <row r="91" spans="1:9" s="48" customFormat="1" ht="26.4">
       <c r="A91" s="62">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B91" s="52" t="s">
-        <v>728</v>
+        <v>236</v>
       </c>
       <c r="C91" s="52" t="s">
-        <v>714</v>
-      </c>
-      <c r="D91" s="53" t="s">
-        <v>708</v>
+        <v>691</v>
+      </c>
+      <c r="D91" s="54" t="s">
+        <v>802</v>
       </c>
       <c r="E91" s="54"/>
       <c r="F91" s="52"/>
       <c r="G91" s="52"/>
       <c r="H91" s="52"/>
-      <c r="I91" s="62"/>
-    </row>
-    <row r="92" spans="1:9" s="48" customFormat="1" ht="49.2" customHeight="1">
+      <c r="I91" s="61"/>
+    </row>
+    <row r="92" spans="1:9" s="48" customFormat="1" ht="52.8">
       <c r="A92" s="62">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B92" s="52" t="s">
-        <v>712</v>
+        <v>690</v>
       </c>
       <c r="C92" s="52" t="s">
-        <v>717</v>
-      </c>
-      <c r="D92" s="53" t="s">
-        <v>719</v>
+        <v>692</v>
+      </c>
+      <c r="D92" s="54" t="s">
+        <v>757</v>
       </c>
       <c r="E92" s="54"/>
       <c r="F92" s="52"/>
       <c r="G92" s="52"/>
       <c r="H92" s="52"/>
-      <c r="I92" s="62"/>
-    </row>
-    <row r="93" spans="1:9" s="48" customFormat="1" ht="54.6" customHeight="1">
+      <c r="I92" s="61"/>
+    </row>
+    <row r="93" spans="1:9" s="48" customFormat="1" ht="52.8">
       <c r="A93" s="62">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B93" s="52" t="s">
-        <v>727</v>
+        <v>693</v>
       </c>
       <c r="C93" s="52" t="s">
-        <v>723</v>
-      </c>
-      <c r="D93" s="53" t="s">
-        <v>708</v>
+        <v>695</v>
+      </c>
+      <c r="D93" s="54" t="s">
+        <v>758</v>
       </c>
       <c r="E93" s="54"/>
       <c r="F93" s="52"/>
       <c r="G93" s="52"/>
       <c r="H93" s="52"/>
-      <c r="I93" s="62"/>
-    </row>
-    <row r="94" spans="1:9" s="48" customFormat="1" ht="60" customHeight="1">
+      <c r="I93" s="61"/>
+    </row>
+    <row r="94" spans="1:9" s="48" customFormat="1" ht="52.8">
       <c r="A94" s="62">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B94" s="52" t="s">
-        <v>721</v>
+        <v>694</v>
       </c>
       <c r="C94" s="52" t="s">
-        <v>744</v>
-      </c>
-      <c r="D94" s="53" t="s">
-        <v>745</v>
+        <v>696</v>
+      </c>
+      <c r="D94" s="54" t="s">
+        <v>759</v>
       </c>
       <c r="E94" s="54"/>
       <c r="F94" s="52"/>
       <c r="G94" s="52"/>
       <c r="H94" s="52"/>
-      <c r="I94" s="62"/>
-    </row>
-    <row r="95" spans="1:9" s="48" customFormat="1" ht="72.599999999999994" customHeight="1">
+      <c r="I94" s="61"/>
+    </row>
+    <row r="95" spans="1:9" s="48" customFormat="1" ht="52.8">
       <c r="A95" s="62">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B95" s="52" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="C95" s="52" t="s">
-        <v>752</v>
-      </c>
-      <c r="D95" s="53" t="s">
-        <v>753</v>
+        <v>739</v>
+      </c>
+      <c r="D95" s="54" t="s">
+        <v>801</v>
       </c>
       <c r="E95" s="54"/>
       <c r="F95" s="52"/>
       <c r="G95" s="52"/>
       <c r="H95" s="52"/>
-      <c r="I95" s="62"/>
-    </row>
-    <row r="96" spans="1:9" s="48" customFormat="1" ht="27" customHeight="1">
-      <c r="A96" s="210"/>
-      <c r="B96" s="277" t="s">
-        <v>761</v>
-      </c>
-      <c r="C96" s="278"/>
-      <c r="D96" s="279"/>
-      <c r="E96" s="212"/>
-      <c r="F96" s="211"/>
-      <c r="G96" s="211"/>
-      <c r="H96" s="211"/>
-      <c r="I96" s="210"/>
-    </row>
-    <row r="97" spans="1:9" s="48" customFormat="1" ht="79.2">
-      <c r="A97" s="62">
+      <c r="I95" s="61"/>
+    </row>
+    <row r="96" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A96" s="62"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="54"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="52"/>
+      <c r="I96" s="61"/>
+    </row>
+    <row r="97" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A97" s="77"/>
+      <c r="B97" s="259" t="s">
+        <v>309</v>
+      </c>
+      <c r="C97" s="260"/>
+      <c r="D97" s="261"/>
+      <c r="E97" s="69"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="66"/>
+      <c r="H97" s="66"/>
+      <c r="I97" s="69"/>
+    </row>
+    <row r="98" spans="1:9" s="48" customFormat="1" ht="75.599999999999994" customHeight="1">
+      <c r="A98" s="62">
         <v>1</v>
       </c>
-      <c r="B97" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="C97" s="52" t="s">
-        <v>765</v>
-      </c>
-      <c r="D97" s="53" t="s">
-        <v>766</v>
-      </c>
-      <c r="E97" s="54"/>
-      <c r="F97" s="52"/>
-      <c r="G97" s="52"/>
-      <c r="H97" s="52"/>
-      <c r="I97" s="62"/>
-    </row>
-    <row r="98" spans="1:9" s="48" customFormat="1" ht="39.6">
-      <c r="A98" s="62">
-        <v>2</v>
-      </c>
       <c r="B98" s="52" t="s">
-        <v>762</v>
+        <v>334</v>
       </c>
       <c r="C98" s="52" t="s">
-        <v>767</v>
+        <v>701</v>
       </c>
       <c r="D98" s="53" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="E98" s="54"/>
       <c r="F98" s="52"/>
@@ -14704,18 +14623,18 @@
       <c r="H98" s="52"/>
       <c r="I98" s="62"/>
     </row>
-    <row r="99" spans="1:9" s="48" customFormat="1" ht="26.4">
+    <row r="99" spans="1:9" s="48" customFormat="1" ht="84.6" customHeight="1">
       <c r="A99" s="62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B99" s="52" t="s">
-        <v>763</v>
+        <v>699</v>
       </c>
       <c r="C99" s="52" t="s">
-        <v>769</v>
+        <v>704</v>
       </c>
       <c r="D99" s="53" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="E99" s="54"/>
       <c r="F99" s="52"/>
@@ -14723,18 +14642,18 @@
       <c r="H99" s="52"/>
       <c r="I99" s="62"/>
     </row>
-    <row r="100" spans="1:9" s="48" customFormat="1" ht="39.6">
+    <row r="100" spans="1:9" s="48" customFormat="1" ht="88.2" customHeight="1">
       <c r="A100" s="62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B100" s="52" t="s">
-        <v>764</v>
+        <v>318</v>
       </c>
       <c r="C100" s="52" t="s">
-        <v>770</v>
+        <v>705</v>
       </c>
       <c r="D100" s="53" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="E100" s="54"/>
       <c r="F100" s="52"/>
@@ -14742,18 +14661,18 @@
       <c r="H100" s="52"/>
       <c r="I100" s="62"/>
     </row>
-    <row r="101" spans="1:9" s="48" customFormat="1" ht="79.2">
+    <row r="101" spans="1:9" s="48" customFormat="1" ht="84.6" customHeight="1">
       <c r="A101" s="62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B101" s="52" t="s">
-        <v>774</v>
+        <v>700</v>
       </c>
       <c r="C101" s="52" t="s">
-        <v>775</v>
+        <v>706</v>
       </c>
       <c r="D101" s="53" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="E101" s="54"/>
       <c r="F101" s="52"/>
@@ -14761,18 +14680,18 @@
       <c r="H101" s="52"/>
       <c r="I101" s="62"/>
     </row>
-    <row r="102" spans="1:9" s="48" customFormat="1" ht="79.2">
+    <row r="102" spans="1:9" s="48" customFormat="1" ht="94.8" customHeight="1">
       <c r="A102" s="62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B102" s="52" t="s">
-        <v>773</v>
+        <v>803</v>
       </c>
       <c r="C102" s="52" t="s">
-        <v>776</v>
+        <v>804</v>
       </c>
       <c r="D102" s="53" t="s">
-        <v>778</v>
+        <v>805</v>
       </c>
       <c r="E102" s="54"/>
       <c r="F102" s="52"/>
@@ -14780,55 +14699,127 @@
       <c r="H102" s="52"/>
       <c r="I102" s="62"/>
     </row>
-    <row r="103" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A103" s="62"/>
-      <c r="B103" s="52"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="53"/>
+    <row r="103" spans="1:9" s="48" customFormat="1" ht="40.799999999999997" customHeight="1">
+      <c r="A103" s="62">
+        <v>6</v>
+      </c>
+      <c r="B103" s="52" t="s">
+        <v>702</v>
+      </c>
+      <c r="C103" s="52" t="s">
+        <v>703</v>
+      </c>
+      <c r="D103" s="53" t="s">
+        <v>764</v>
+      </c>
       <c r="E103" s="54"/>
       <c r="F103" s="52"/>
       <c r="G103" s="52"/>
       <c r="H103" s="52"/>
       <c r="I103" s="62"/>
     </row>
+    <row r="104" spans="1:9" s="48" customFormat="1" ht="56.4" customHeight="1">
+      <c r="A104" s="62"/>
+      <c r="B104" s="52"/>
+      <c r="C104" s="52"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="52"/>
+      <c r="G104" s="52"/>
+      <c r="H104" s="52"/>
+      <c r="I104" s="62"/>
+    </row>
+    <row r="105" spans="1:9" s="48" customFormat="1" ht="49.2" customHeight="1">
+      <c r="A105" s="78"/>
+      <c r="B105" s="46"/>
+      <c r="C105" s="46"/>
+      <c r="D105" s="46"/>
+      <c r="E105" s="46"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="46"/>
+      <c r="I105" s="46"/>
+    </row>
+    <row r="106" spans="1:9" s="48" customFormat="1" ht="54.6" customHeight="1">
+      <c r="A106" s="78"/>
+      <c r="B106" s="46"/>
+      <c r="C106" s="46"/>
+      <c r="D106" s="46"/>
+      <c r="E106" s="46"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="46"/>
+      <c r="I106" s="46"/>
+    </row>
+    <row r="107" spans="1:9" s="48" customFormat="1" ht="60" customHeight="1">
+      <c r="A107" s="78"/>
+      <c r="B107" s="46"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="46"/>
+      <c r="E107" s="46"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="46"/>
+      <c r="I107" s="46"/>
+    </row>
+    <row r="108" spans="1:9" s="48" customFormat="1" ht="72.599999999999994" customHeight="1">
+      <c r="A108" s="78"/>
+      <c r="B108" s="46"/>
+      <c r="C108" s="46"/>
+      <c r="D108" s="46"/>
+      <c r="E108" s="46"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="46"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="46"/>
+    </row>
+    <row r="109" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A109" s="78"/>
+      <c r="B109" s="46"/>
+      <c r="C109" s="46"/>
+      <c r="D109" s="46"/>
+      <c r="E109" s="46"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="46"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B48:D48"/>
+  <mergeCells count="19">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B50:D50"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B97:D97"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B73:D73"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F104:H161" xr:uid="{A26CAB16-5177-405E-A193-96BF75473D78}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F105:H162" xr:uid="{A26CAB16-5177-405E-A193-96BF75473D78}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:H19" xr:uid="{53C8D922-461A-4138-A726-56112D88BF10}"/>
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H18" xr:uid="{2984DC30-CCAC-47D9-988E-C26086B537B8}"/>
-    <dataValidation type="list" allowBlank="1" sqref="F20:H103" xr:uid="{7F9B81C1-1B09-4EEC-A5EE-7D6E92DF101C}">
+    <dataValidation type="list" allowBlank="1" sqref="F20:H104" xr:uid="{7F9B81C1-1B09-4EEC-A5EE-7D6E92DF101C}">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14836,8 +14827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA4F572-02A8-4D7C-BFA9-148701534C50}">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2"/>
@@ -14851,10 +14842,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="239"/>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
+      <c r="A1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -14863,13 +14854,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="237" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="244"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="241"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -14878,9 +14869,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="244"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="241"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -14889,13 +14880,13 @@
     </row>
     <row r="4" spans="1:24" s="38" customFormat="1">
       <c r="A4" s="139" t="s">
-        <v>781</v>
-      </c>
-      <c r="B4" s="242" t="s">
-        <v>780</v>
-      </c>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
+        <v>709</v>
+      </c>
+      <c r="B4" s="239" t="s">
+        <v>708</v>
+      </c>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -14909,9 +14900,9 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="241"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
+      <c r="B5" s="238"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -14925,9 +14916,9 @@
       <c r="A6" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="241"/>
-      <c r="C6" s="242"/>
-      <c r="D6" s="242"/>
+      <c r="B6" s="238"/>
+      <c r="C6" s="239"/>
+      <c r="D6" s="239"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -14938,11 +14929,11 @@
       <c r="A7" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="242" t="s">
+      <c r="B7" s="239" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="242"/>
-      <c r="D7" s="242"/>
+      <c r="C7" s="239"/>
+      <c r="D7" s="239"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -14954,11 +14945,11 @@
       <c r="A8" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="243">
+      <c r="B8" s="240">
         <v>44861</v>
       </c>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -15101,11 +15092,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="266" t="s">
+      <c r="F16" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="267"/>
-      <c r="H16" s="268"/>
+      <c r="G16" s="264"/>
+      <c r="H16" s="265"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39.6">
@@ -15138,30 +15129,30 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="303"/>
-      <c r="B18" s="272" t="s">
-        <v>783</v>
-      </c>
-      <c r="C18" s="273"/>
-      <c r="D18" s="274"/>
-      <c r="E18" s="303"/>
-      <c r="F18" s="304"/>
-      <c r="G18" s="304"/>
-      <c r="H18" s="304"/>
-      <c r="I18" s="303"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="259" t="s">
+        <v>807</v>
+      </c>
+      <c r="C18" s="260"/>
+      <c r="D18" s="261"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="67"/>
     </row>
     <row r="19" spans="1:9" s="45" customFormat="1" ht="52.8">
       <c r="A19" s="52">
         <v>1</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>236</v>
+        <v>729</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>795</v>
+        <v>721</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="52"/>
@@ -15174,13 +15165,13 @@
         <v>2</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>784</v>
+        <v>711</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>791</v>
+        <v>717</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>790</v>
+        <v>716</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="52"/>
@@ -15193,13 +15184,13 @@
         <v>3</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>785</v>
+        <v>712</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>792</v>
+        <v>718</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>793</v>
+        <v>719</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="52"/>
@@ -15218,31 +15209,31 @@
       <c r="H22" s="52"/>
       <c r="I22" s="55"/>
     </row>
-    <row r="23" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A23" s="202"/>
-      <c r="B23" s="269" t="s">
-        <v>786</v>
-      </c>
-      <c r="C23" s="270"/>
-      <c r="D23" s="271"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="192"/>
-      <c r="I23" s="204"/>
+    <row r="23" spans="1:9" s="48" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A23" s="297"/>
+      <c r="B23" s="301" t="s">
+        <v>806</v>
+      </c>
+      <c r="C23" s="302"/>
+      <c r="D23" s="303"/>
+      <c r="E23" s="298"/>
+      <c r="F23" s="299"/>
+      <c r="G23" s="299"/>
+      <c r="H23" s="299"/>
+      <c r="I23" s="300"/>
     </row>
     <row r="24" spans="1:9" s="48" customFormat="1" ht="92.4">
       <c r="A24" s="62">
         <v>1</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>236</v>
+        <v>729</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>797</v>
+        <v>723</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>796</v>
+        <v>722</v>
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="52"/>
@@ -15255,13 +15246,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>787</v>
+        <v>713</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>798</v>
+        <v>724</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>799</v>
+        <v>725</v>
       </c>
       <c r="E25" s="54"/>
       <c r="F25" s="52"/>
@@ -15274,13 +15265,13 @@
         <v>3</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>788</v>
+        <v>714</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>800</v>
+        <v>726</v>
       </c>
       <c r="D26" s="54" t="s">
-        <v>799</v>
+        <v>725</v>
       </c>
       <c r="E26" s="54"/>
       <c r="F26" s="52"/>
@@ -15293,13 +15284,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>789</v>
+        <v>715</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>801</v>
+        <v>727</v>
       </c>
       <c r="D27" s="54" t="s">
-        <v>802</v>
+        <v>728</v>
       </c>
       <c r="E27" s="54"/>
       <c r="F27" s="52"/>
@@ -15381,12 +15372,12 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17" xr:uid="{E4040F56-3E48-4B09-B800-39EA178C1DA8}"/>

--- a/Test design technique assignment_Phạm Anh Đức.xlsx
+++ b/Test design technique assignment_Phạm Anh Đức.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\OJT Nash Tech\Test design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0DC5B2-1992-45F8-B457-17545EA0F082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE639EC-E8A1-4162-8478-A41E675CDDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="813">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -2891,10 +2891,6 @@
     <t>Check when user enters space</t>
   </si>
   <si>
-    <t>1. Go to the add new address screen
-2. Enter: "Pham Anh Duc"</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Go to the sign up screen
 2. Enter: @#$%^
 </t>
@@ -2909,56 +2905,8 @@
     <t>1.2. Phone number Field</t>
   </si>
   <si>
-    <t>1. Go to add new address screen
-2. Enter: "              "</t>
-  </si>
-  <si>
-    <t>1. Go to add new address screen
-2. Enter: "Pham %^&amp;"</t>
-  </si>
-  <si>
-    <t>1. Go to add new address screen
-2. Enter: "@#$%^&amp;"</t>
-  </si>
-  <si>
-    <t>1. Go to add new address screen
-2. Enter: "Nguyen Van 123"</t>
-  </si>
-  <si>
-    <t>1. Go to add new address screen
-2. Enter: Pham Anh Duc
-3. Click on the button clear all on the right</t>
-  </si>
-  <si>
-    <t>1. Go to add new address screen
-2. Copy "Pham Anh Duc" 
-2. Paste it to the fullname field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Go to add new address screen
-2. Enter: "Pham Anh DucPham Anh DucPham Anh DucPham Anh DucDuc"  </t>
-  </si>
-  <si>
-    <t>1. Go to add new address screen
-2. Enter: "Pham Anh DucPham Anh DucPham Anh DucPham Anh DucDu"</t>
-  </si>
-  <si>
-    <t>1. Go to add new address screen
-2. Enter: "ab"</t>
-  </si>
-  <si>
-    <t>1. Go to add new address screen
-2. Enter: "a"</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Go to add new address screen
 2. Check the fullname field </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Go to add new address screen
-2. Not enter any characters
-3. Enter valid data for other fields
-4. Click save </t>
   </si>
   <si>
     <t>1. Go to add new address screen
@@ -2987,16 +2935,6 @@
 2. The screen shows error message: The length of Phone number should be 10 characters.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Go to add new address screen
-2. Enter numbers: "09234"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Go to the sign up screen
-2. Enter numbers: "09234584754"
-</t>
-  </si>
-  <si>
     <t>1.
 2. The screen shows a error message: Please enter valid phone number</t>
   </si>
@@ -3005,22 +2943,6 @@
 2. The screen shows a error message: Please enter valid phone number</t>
   </si>
   <si>
-    <t>1. Go to add new address screen
-2. Enter 10 numbers: "0923458475"</t>
-  </si>
-  <si>
-    <t>1. Go to add new address screen
-2. Enter: "fjr03516"</t>
-  </si>
-  <si>
-    <t>1. Go to add new address screen
-2. Enter: ghjkasdjf</t>
-  </si>
-  <si>
-    <t>1. Go to add new address screen
-2. Enter: "123456789"</t>
-  </si>
-  <si>
     <t>1.3. Address Field</t>
   </si>
   <si>
@@ -3064,11 +2986,6 @@
   <si>
     <t>1. Go to add new address screen
 2. Enter more than 350 characters</t>
-  </si>
-  <si>
-    <t>1. Go to add new address screen
-2. Enter: "092542495"
-3. Clicks the button clear all</t>
   </si>
   <si>
     <t>1. Go to add new address screen
@@ -3078,11 +2995,6 @@
   <si>
     <t>1. Go to add new address screen
 2. Enter: "@@@@@@@@@@@@@@@@@@@"</t>
-  </si>
-  <si>
-    <t>1. Go to add new address screen
-2. Copy the number: "18 ngõ 254 đường Mỹ Đình"
-3. Paste it to the address filed</t>
   </si>
   <si>
     <t>1. Go to add new address screen
@@ -3227,20 +3139,6 @@
     <t>Check when the user click delete normal address</t>
   </si>
   <si>
-    <t>Check when user click "x" in the top right corner</t>
-  </si>
-  <si>
-    <t>Check when user click "Cancel"</t>
-  </si>
-  <si>
-    <t>Check when user click "Delete"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.
-2. 
-3. The screen displayed a error message: "You cannot delete your default address" </t>
-  </si>
-  <si>
     <t>1. Go to the Address Book screen
 2. Click "Edit" in the default address line 
 3. Click "Delete" in the top right corner</t>
@@ -3252,28 +3150,12 @@
 4. Click "Delete"</t>
   </si>
   <si>
-    <t>1.
-2.
-3. A confirmation pop-up is displayed
-4. The deleted address is not displayed in Address Book anymore</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Go to the Edit address screen
 2. Click "Delete" in the top right corner
 3. Check the pop-up 
 </t>
   </si>
   <si>
-    <t>1. 
-2. 
-3. A confirmation pop-up is displayed</t>
-  </si>
-  <si>
-    <t>1.
-2.
-3. The confirmation pop-up displays information about the user's address with the fields: Full name, address, phone number. Cancel box to exit and delete box to confirm deletion.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Go to the Edit address screen
 2. Click "Delete" in the top right corner
 3. Check the confirmation pop-up </t>
@@ -3284,11 +3166,6 @@
 3. Click "x" in the top right corner</t>
   </si>
   <si>
-    <t>1.
-2.
-3. Back to the address edit screen</t>
-  </si>
-  <si>
     <t>1. Go to the Edit address screen
 2. Click "Delete" in the top right corner
 3. Click "Cancel" box at the bottom left</t>
@@ -3299,19 +3176,10 @@
 3. Click "Delete" box at the bottom right</t>
   </si>
   <si>
-    <t>1.
-2. 
-3. That address is deleted and it's not displayed in Address Book anymore</t>
-  </si>
-  <si>
     <t>Check the default value</t>
   </si>
   <si>
     <t>Check quanlity when user select field</t>
-  </si>
-  <si>
-    <t>1. Go to add new address screen
-2. Click on the province section and check the  quanlity</t>
   </si>
   <si>
     <t>1. Go to add new address screen
@@ -3384,21 +3252,6 @@
 3. Click save</t>
   </si>
   <si>
-    <t>1. Go to add new address screen
-2. Enter: "  Pham Anh Duc   "
-3. Click save</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Go to add new address screen
-2. Enter: "    "
-</t>
-  </si>
-  <si>
-    <t>1. Go to add new address screen
-2. Copy the number: "Abc094548952@"
-3. Paste it to the phone number filed</t>
-  </si>
-  <si>
     <t>5. "My Dinh Ward 1" is copied 
 6. Available to pasted</t>
   </si>
@@ -3471,9 +3324,6 @@
   </si>
   <si>
     <t>2. Ho Chi Minh City is first and the remaining 62 provinces are arranged in alphabetical order</t>
-  </si>
-  <si>
-    <t>2. Number of provinces displayed is: 63</t>
   </si>
   <si>
     <t>2. The field displayed: "Please select your District"</t>
@@ -3591,6 +3441,163 @@
   </si>
   <si>
     <t xml:space="preserve"> 1. Delete Address function test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to add new address screen
+2. Not enter any characters in the full name field
+3. Enter valid data for other fields
+4. Click save </t>
+  </si>
+  <si>
+    <t>1. Click in to full name field
+2. Enter: "a"</t>
+  </si>
+  <si>
+    <t>1. Click in to full name field
+2. Enter: "ab"</t>
+  </si>
+  <si>
+    <t>1. Click in to full name field
+2. Enter: "Pham Anh Duc"</t>
+  </si>
+  <si>
+    <t>1. Click in to full name field
+2. Enter: "Pham Anh DucPham Anh DucPham Anh DucPham Anh DucDu"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click in to full name field
+2. Enter: "Pham Anh DucPham Anh DucPham Anh DucPham Anh DucDuc"  </t>
+  </si>
+  <si>
+    <t>1. Click in to full name field
+2. Copy "Pham Anh Duc" 
+2. Paste it to the fullname field</t>
+  </si>
+  <si>
+    <t>1. Click in to full name field
+2. Enter: Pham Anh Duc
+3. Click on the button clear all on the right</t>
+  </si>
+  <si>
+    <t>1. Click in to full name field
+2. Enter: "Nguyen Van 123"</t>
+  </si>
+  <si>
+    <t>1. Click in to full name field
+2. Enter: "@#$%^&amp;"</t>
+  </si>
+  <si>
+    <t>1. Click in to full name field
+2. Enter: "Pham %^&amp;"</t>
+  </si>
+  <si>
+    <t>1. Click in to full name field
+2. Enter: "              "</t>
+  </si>
+  <si>
+    <t>1. Click in to full name field
+2. Enter: "  Pham Anh Duc   "
+3. Click save</t>
+  </si>
+  <si>
+    <t>1. Go to add new address screen
+2. Not enter any characters in the phone number field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click in to phone number field
+2. Enter numbers: "09234"
+</t>
+  </si>
+  <si>
+    <t>1. Click in to phone number field
+2. Enter 10 numbers: "0923458475"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click in to phone number field
+2. Enter numbers: "09234584754"
+</t>
+  </si>
+  <si>
+    <t>1. Click in to phone number field
+2. Enter: "fjr03516"</t>
+  </si>
+  <si>
+    <t>1. Click in to phone number field
+2. Enter: ghjkasdjf</t>
+  </si>
+  <si>
+    <t>1. Click in to phone number field
+2. Copy the number: "Abc094548952@"
+3. Paste it to the phone number filed</t>
+  </si>
+  <si>
+    <t>1. Click in to phone number field
+2. Enter: "092542495"
+3. Clicks the button clear all</t>
+  </si>
+  <si>
+    <t>1. Click in to phone number field
+2. Enter: "123456789"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click in to phone number field
+2. Enter: "    "
+</t>
+  </si>
+  <si>
+    <t>1. Go to add new address screen
+2. Copy the address: "18 ngõ 254 đường Mỹ Đình"
+3. Paste it to the address filed</t>
+  </si>
+  <si>
+    <t>1. Go to the Edit address screen
+2. Click "Delete" in the top right corner
+3. Check that the information displayed on the pop-up is the same as the information entered by the customer</t>
+  </si>
+  <si>
+    <t>3. That address is deleted and it's not displayed in Address Book anymore</t>
+  </si>
+  <si>
+    <t>3. Back to the address edit screen</t>
+  </si>
+  <si>
+    <t>3. The confirmation pop-up displays information about the user's address with the fields: Full name, address, phone number. Cancel box to exit and delete box to confirm deletion.</t>
+  </si>
+  <si>
+    <t>3. A confirmation pop-up is displayed
+4. The deleted address is not displayed in Address Book anymore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. The screen displayed a error message: "You cannot delete your default address" </t>
+  </si>
+  <si>
+    <t>3. A confirmation pop-up is displayed</t>
+  </si>
+  <si>
+    <t>3. The information displayed on the pop-up is the same as the information entered by the customer</t>
+  </si>
+  <si>
+    <t>Check the confirmation pop-up test when user click "x" in the top right corner</t>
+  </si>
+  <si>
+    <t>Check the confirmation pop-up test the default value</t>
+  </si>
+  <si>
+    <t>Check the confirmation pop-up test when user click "Cancel"</t>
+  </si>
+  <si>
+    <t>Check the confirmation pop-up test when user click "Delete"</t>
+  </si>
+  <si>
+    <t>Check the confirmation pop-up test that the information displayed on the pop-up is the same as the information entered by the customer</t>
+  </si>
+  <si>
+    <t>Check the confirmation pop-up test when user presses "esc" from keyboard</t>
+  </si>
+  <si>
+    <t>1. Go to the Edit address screen
+2. Click "Delete" in the top right corner
+3. Presses "esc" from keyboard</t>
   </si>
 </sst>
 </file>
@@ -5246,6 +5253,16 @@
     <xf numFmtId="0" fontId="52" fillId="33" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5438,6 +5455,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5505,25 +5531,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6288,37 +6295,37 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="213" t="s">
+      <c r="A4" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="214"/>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="B4" s="218"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="219"/>
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="220" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="216"/>
-      <c r="C5" s="217" t="s">
+      <c r="B5" s="220"/>
+      <c r="C5" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="217"/>
-      <c r="E5" s="217"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="221"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="218" t="s">
+      <c r="A6" s="222" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="219"/>
-      <c r="C6" s="212" t="s">
+      <c r="B6" s="223"/>
+      <c r="C6" s="216" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="212"/>
-      <c r="E6" s="212"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -6330,14 +6337,14 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" s="147" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="210" t="s">
+      <c r="A8" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="211"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
-      <c r="F8" s="211"/>
+      <c r="B8" s="215"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="215"/>
     </row>
     <row r="9" spans="1:6" s="147" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="148" t="s">
@@ -6420,14 +6427,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="147" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="212" t="s">
+      <c r="A13" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="212"/>
-      <c r="C13" s="212"/>
-      <c r="D13" s="212"/>
-      <c r="E13" s="212"/>
-      <c r="F13" s="212"/>
+      <c r="B13" s="216"/>
+      <c r="C13" s="216"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="216"/>
+      <c r="F13" s="216"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18"/>
@@ -6558,13 +6565,13 @@
     </row>
     <row r="2" spans="1:12" s="84" customFormat="1" ht="24.6">
       <c r="A2" s="83"/>
-      <c r="C2" s="276" t="s">
+      <c r="C2" s="283" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="276"/>
+      <c r="D2" s="283"/>
+      <c r="E2" s="283"/>
+      <c r="F2" s="283"/>
+      <c r="G2" s="283"/>
       <c r="H2" s="85" t="s">
         <v>115</v>
       </c>
@@ -6575,15 +6582,15 @@
     </row>
     <row r="3" spans="1:12" s="84" customFormat="1" ht="22.8">
       <c r="A3" s="83"/>
-      <c r="C3" s="277" t="s">
+      <c r="C3" s="284" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="284"/>
       <c r="E3" s="157"/>
-      <c r="F3" s="278" t="s">
+      <c r="F3" s="285" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="278"/>
+      <c r="G3" s="285"/>
       <c r="H3" s="86"/>
       <c r="I3" s="86"/>
       <c r="J3" s="87"/>
@@ -6608,10 +6615,10 @@
       <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="279" t="s">
+      <c r="B6" s="286" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="279"/>
+      <c r="C6" s="286"/>
       <c r="D6" s="94"/>
       <c r="E6" s="94"/>
       <c r="F6" s="94"/>
@@ -6780,11 +6787,11 @@
       <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="279" t="s">
+      <c r="B14" s="286" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="279"/>
-      <c r="D14" s="279"/>
+      <c r="C14" s="286"/>
+      <c r="D14" s="286"/>
       <c r="E14" s="94"/>
       <c r="F14" s="94"/>
       <c r="G14" s="95"/>
@@ -6960,11 +6967,11 @@
       <c r="G22" s="98"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="279" t="s">
+      <c r="B23" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="279"/>
-      <c r="D23" s="279"/>
+      <c r="C23" s="286"/>
+      <c r="D23" s="286"/>
       <c r="E23" s="94"/>
       <c r="F23" s="94"/>
       <c r="G23" s="95"/>
@@ -7010,10 +7017,10 @@
       <c r="F26" s="160" t="s">
         <v>165</v>
       </c>
-      <c r="G26" s="280" t="s">
+      <c r="G26" s="287" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="281"/>
+      <c r="H26" s="288"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="100">
@@ -7038,8 +7045,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="274"/>
-      <c r="H27" s="275"/>
+      <c r="G27" s="281"/>
+      <c r="H27" s="282"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="100">
@@ -7064,8 +7071,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="274"/>
-      <c r="H28" s="275"/>
+      <c r="G28" s="281"/>
+      <c r="H28" s="282"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="100">
@@ -7090,8 +7097,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="274"/>
-      <c r="H29" s="275"/>
+      <c r="G29" s="281"/>
+      <c r="H29" s="282"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="100">
@@ -7116,8 +7123,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="274"/>
-      <c r="H30" s="275"/>
+      <c r="G30" s="281"/>
+      <c r="H30" s="282"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="100"/>
@@ -7138,8 +7145,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="274"/>
-      <c r="H31" s="275"/>
+      <c r="G31" s="281"/>
+      <c r="H31" s="282"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="106"/>
@@ -7177,10 +7184,10 @@
       <c r="E34" s="160" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="282" t="s">
+      <c r="F34" s="289" t="s">
         <v>127</v>
       </c>
-      <c r="G34" s="283"/>
+      <c r="G34" s="290"/>
     </row>
     <row r="35" spans="1:12" s="125" customFormat="1" ht="14.4">
       <c r="A35" s="121"/>
@@ -7196,8 +7203,8 @@
       <c r="E35" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="F35" s="285"/>
-      <c r="G35" s="286"/>
+      <c r="F35" s="292"/>
+      <c r="G35" s="293"/>
       <c r="H35" s="124"/>
       <c r="I35" s="124"/>
       <c r="J35" s="124"/>
@@ -7220,8 +7227,8 @@
       <c r="E36" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="F36" s="274"/>
-      <c r="G36" s="275"/>
+      <c r="F36" s="281"/>
+      <c r="G36" s="282"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="100">
@@ -7239,8 +7246,8 @@
       <c r="E37" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="F37" s="274"/>
-      <c r="G37" s="275"/>
+      <c r="F37" s="281"/>
+      <c r="G37" s="282"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="106"/>
@@ -7253,10 +7260,10 @@
       <c r="H38" s="108"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="279" t="s">
+      <c r="B39" s="286" t="s">
         <v>179</v>
       </c>
-      <c r="C39" s="279"/>
+      <c r="C39" s="286"/>
       <c r="D39" s="94"/>
       <c r="E39" s="94"/>
       <c r="F39" s="94"/>
@@ -7280,15 +7287,15 @@
       <c r="B41" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="284" t="s">
+      <c r="C41" s="291" t="s">
         <v>181</v>
       </c>
-      <c r="D41" s="284"/>
-      <c r="E41" s="284" t="s">
+      <c r="D41" s="291"/>
+      <c r="E41" s="291" t="s">
         <v>182</v>
       </c>
-      <c r="F41" s="284"/>
-      <c r="G41" s="284"/>
+      <c r="F41" s="291"/>
+      <c r="G41" s="291"/>
       <c r="H41" s="99" t="s">
         <v>183</v>
       </c>
@@ -7300,15 +7307,15 @@
       <c r="B42" s="161" t="s">
         <v>184</v>
       </c>
-      <c r="C42" s="287" t="s">
+      <c r="C42" s="294" t="s">
         <v>185</v>
       </c>
-      <c r="D42" s="287"/>
-      <c r="E42" s="287" t="s">
+      <c r="D42" s="294"/>
+      <c r="E42" s="294" t="s">
         <v>186</v>
       </c>
-      <c r="F42" s="287"/>
-      <c r="G42" s="287"/>
+      <c r="F42" s="294"/>
+      <c r="G42" s="294"/>
       <c r="H42" s="109"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -7318,15 +7325,15 @@
       <c r="B43" s="161" t="s">
         <v>184</v>
       </c>
-      <c r="C43" s="287" t="s">
+      <c r="C43" s="294" t="s">
         <v>185</v>
       </c>
-      <c r="D43" s="287"/>
-      <c r="E43" s="287" t="s">
+      <c r="D43" s="294"/>
+      <c r="E43" s="294" t="s">
         <v>186</v>
       </c>
-      <c r="F43" s="287"/>
-      <c r="G43" s="287"/>
+      <c r="F43" s="294"/>
+      <c r="G43" s="294"/>
       <c r="H43" s="109"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -7336,15 +7343,15 @@
       <c r="B44" s="161" t="s">
         <v>184</v>
       </c>
-      <c r="C44" s="287" t="s">
+      <c r="C44" s="294" t="s">
         <v>185</v>
       </c>
-      <c r="D44" s="287"/>
-      <c r="E44" s="287" t="s">
+      <c r="D44" s="294"/>
+      <c r="E44" s="294" t="s">
         <v>186</v>
       </c>
-      <c r="F44" s="287"/>
-      <c r="G44" s="287"/>
+      <c r="F44" s="294"/>
+      <c r="G44" s="294"/>
       <c r="H44" s="109"/>
     </row>
     <row r="45" spans="1:12">
@@ -7356,10 +7363,10 @@
       <c r="G45" s="98"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="279" t="s">
+      <c r="B46" s="286" t="s">
         <v>187</v>
       </c>
-      <c r="C46" s="279"/>
+      <c r="C46" s="286"/>
       <c r="D46" s="94"/>
       <c r="E46" s="94"/>
       <c r="F46" s="94"/>
@@ -7377,25 +7384,25 @@
       <c r="G47" s="98"/>
     </row>
     <row r="48" spans="1:12" s="113" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="290" t="s">
+      <c r="A48" s="297" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="292" t="s">
+      <c r="B48" s="299" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="282" t="s">
+      <c r="C48" s="289" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="294"/>
-      <c r="E48" s="294"/>
-      <c r="F48" s="283"/>
-      <c r="G48" s="295" t="s">
+      <c r="D48" s="301"/>
+      <c r="E48" s="301"/>
+      <c r="F48" s="290"/>
+      <c r="G48" s="302" t="s">
         <v>157</v>
       </c>
-      <c r="H48" s="295" t="s">
+      <c r="H48" s="302" t="s">
         <v>189</v>
       </c>
-      <c r="I48" s="288" t="s">
+      <c r="I48" s="295" t="s">
         <v>191</v>
       </c>
       <c r="J48" s="112"/>
@@ -7403,8 +7410,8 @@
       <c r="L48" s="112"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="291"/>
-      <c r="B49" s="293"/>
+      <c r="A49" s="298"/>
+      <c r="B49" s="300"/>
       <c r="C49" s="114" t="s">
         <v>166</v>
       </c>
@@ -7417,13 +7424,13 @@
       <c r="F49" s="115" t="s">
         <v>169</v>
       </c>
-      <c r="G49" s="296"/>
-      <c r="H49" s="296"/>
-      <c r="I49" s="289"/>
+      <c r="G49" s="303"/>
+      <c r="H49" s="303"/>
+      <c r="I49" s="296"/>
     </row>
     <row r="50" spans="1:9" ht="26.4">
-      <c r="A50" s="291"/>
-      <c r="B50" s="293"/>
+      <c r="A50" s="298"/>
+      <c r="B50" s="300"/>
       <c r="C50" s="128" t="s">
         <v>192</v>
       </c>
@@ -7633,36 +7640,36 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="225" t="s">
+      <c r="B2" s="229" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="225"/>
-      <c r="H2" s="225"/>
-      <c r="I2" s="225"/>
-      <c r="J2" s="223" t="s">
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="227" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="223"/>
+      <c r="K2" s="227"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="226" t="s">
+      <c r="B3" s="230" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="224" t="s">
+      <c r="C3" s="230"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="224"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="224"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="227"/>
+      <c r="K3" s="227"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="153"/>
@@ -7682,65 +7689,65 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="230" t="s">
+      <c r="A7" s="234" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="230"/>
-      <c r="C7" s="230"/>
-      <c r="D7" s="230"/>
-      <c r="E7" s="230"/>
-      <c r="F7" s="230"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="230"/>
-      <c r="I7" s="230"/>
+      <c r="B7" s="234"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="234"/>
+      <c r="E7" s="234"/>
+      <c r="F7" s="234"/>
+      <c r="G7" s="234"/>
+      <c r="H7" s="234"/>
+      <c r="I7" s="234"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="230"/>
-      <c r="B8" s="230"/>
-      <c r="C8" s="230"/>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230"/>
-      <c r="G8" s="230"/>
-      <c r="H8" s="230"/>
-      <c r="I8" s="230"/>
+      <c r="A8" s="234"/>
+      <c r="B8" s="234"/>
+      <c r="C8" s="234"/>
+      <c r="D8" s="234"/>
+      <c r="E8" s="234"/>
+      <c r="F8" s="234"/>
+      <c r="G8" s="234"/>
+      <c r="H8" s="234"/>
+      <c r="I8" s="234"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="230" t="s">
+      <c r="A9" s="234" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="230"/>
-      <c r="C9" s="230"/>
-      <c r="D9" s="230"/>
-      <c r="E9" s="230"/>
-      <c r="F9" s="230"/>
-      <c r="G9" s="230"/>
-      <c r="H9" s="230"/>
-      <c r="I9" s="230"/>
+      <c r="B9" s="234"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
+      <c r="G9" s="234"/>
+      <c r="H9" s="234"/>
+      <c r="I9" s="234"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="230"/>
-      <c r="B10" s="230"/>
-      <c r="C10" s="230"/>
-      <c r="D10" s="230"/>
-      <c r="E10" s="230"/>
-      <c r="F10" s="230"/>
-      <c r="G10" s="230"/>
-      <c r="H10" s="230"/>
-      <c r="I10" s="230"/>
+      <c r="A10" s="234"/>
+      <c r="B10" s="234"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
+      <c r="G10" s="234"/>
+      <c r="H10" s="234"/>
+      <c r="I10" s="234"/>
     </row>
     <row r="11" spans="1:11" ht="13.8">
-      <c r="A11" s="231" t="s">
+      <c r="A11" s="235" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="231"/>
-      <c r="C11" s="231"/>
-      <c r="D11" s="231"/>
-      <c r="E11" s="231"/>
-      <c r="F11" s="231"/>
-      <c r="G11" s="231"/>
-      <c r="H11" s="231"/>
-      <c r="I11" s="231"/>
+      <c r="B11" s="235"/>
+      <c r="C11" s="235"/>
+      <c r="D11" s="235"/>
+      <c r="E11" s="235"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="235"/>
+      <c r="H11" s="235"/>
+      <c r="I11" s="235"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3"/>
@@ -7762,65 +7769,65 @@
       <c r="A14" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="227" t="s">
+      <c r="B14" s="231" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="228"/>
-      <c r="D14" s="228"/>
-      <c r="E14" s="228"/>
-      <c r="F14" s="228"/>
-      <c r="G14" s="228"/>
-      <c r="H14" s="228"/>
-      <c r="I14" s="228"/>
-      <c r="J14" s="228"/>
-      <c r="K14" s="229"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="232"/>
+      <c r="E14" s="232"/>
+      <c r="F14" s="232"/>
+      <c r="G14" s="232"/>
+      <c r="H14" s="232"/>
+      <c r="I14" s="232"/>
+      <c r="J14" s="232"/>
+      <c r="K14" s="233"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="227" t="s">
+      <c r="B15" s="231" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="228"/>
-      <c r="D15" s="228"/>
-      <c r="E15" s="228"/>
-      <c r="F15" s="228"/>
-      <c r="G15" s="228"/>
-      <c r="H15" s="228"/>
-      <c r="I15" s="228"/>
-      <c r="J15" s="228"/>
-      <c r="K15" s="229"/>
+      <c r="C15" s="232"/>
+      <c r="D15" s="232"/>
+      <c r="E15" s="232"/>
+      <c r="F15" s="232"/>
+      <c r="G15" s="232"/>
+      <c r="H15" s="232"/>
+      <c r="I15" s="232"/>
+      <c r="J15" s="232"/>
+      <c r="K15" s="233"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="134"/>
-      <c r="B16" s="227" t="s">
+      <c r="B16" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="228"/>
-      <c r="D16" s="228"/>
-      <c r="E16" s="228"/>
-      <c r="F16" s="228"/>
-      <c r="G16" s="228"/>
-      <c r="H16" s="228"/>
-      <c r="I16" s="228"/>
-      <c r="J16" s="228"/>
-      <c r="K16" s="229"/>
+      <c r="C16" s="232"/>
+      <c r="D16" s="232"/>
+      <c r="E16" s="232"/>
+      <c r="F16" s="232"/>
+      <c r="G16" s="232"/>
+      <c r="H16" s="232"/>
+      <c r="I16" s="232"/>
+      <c r="J16" s="232"/>
+      <c r="K16" s="233"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="134"/>
-      <c r="B17" s="227" t="s">
+      <c r="B17" s="231" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="228"/>
-      <c r="D17" s="228"/>
-      <c r="E17" s="228"/>
-      <c r="F17" s="228"/>
-      <c r="G17" s="228"/>
-      <c r="H17" s="228"/>
-      <c r="I17" s="228"/>
-      <c r="J17" s="228"/>
-      <c r="K17" s="229"/>
+      <c r="C17" s="232"/>
+      <c r="D17" s="232"/>
+      <c r="E17" s="232"/>
+      <c r="F17" s="232"/>
+      <c r="G17" s="232"/>
+      <c r="H17" s="232"/>
+      <c r="I17" s="232"/>
+      <c r="J17" s="232"/>
+      <c r="K17" s="233"/>
     </row>
     <row r="19" spans="1:14" ht="22.8">
       <c r="A19" s="4" t="s">
@@ -7831,40 +7838,40 @@
       <c r="A20" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="227" t="s">
+      <c r="B20" s="231" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="228"/>
-      <c r="D20" s="228"/>
-      <c r="E20" s="228"/>
-      <c r="F20" s="228"/>
-      <c r="G20" s="229"/>
+      <c r="C20" s="232"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="232"/>
+      <c r="F20" s="232"/>
+      <c r="G20" s="233"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="227" t="s">
+      <c r="B21" s="231" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="228"/>
-      <c r="D21" s="228"/>
-      <c r="E21" s="228"/>
-      <c r="F21" s="228"/>
-      <c r="G21" s="229"/>
+      <c r="C21" s="232"/>
+      <c r="D21" s="232"/>
+      <c r="E21" s="232"/>
+      <c r="F21" s="232"/>
+      <c r="G21" s="233"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="231" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="228"/>
-      <c r="D22" s="228"/>
-      <c r="E22" s="228"/>
-      <c r="F22" s="228"/>
-      <c r="G22" s="229"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="232"/>
+      <c r="E22" s="232"/>
+      <c r="F22" s="232"/>
+      <c r="G22" s="233"/>
     </row>
     <row r="24" spans="1:14" ht="22.8">
       <c r="A24" s="4" t="s">
@@ -7923,11 +7930,11 @@
       <c r="N27" s="70"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="220" t="s">
+      <c r="B29" s="224" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="221"/>
-      <c r="D29" s="222"/>
+      <c r="C29" s="225"/>
+      <c r="D29" s="226"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="5"/>
@@ -8004,14 +8011,14 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="24.6">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="236" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10"/>
@@ -8197,12 +8204,12 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="24.6">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="239" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
       <c r="E2" s="156"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -8363,18 +8370,18 @@
       <c r="F14" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="13.8">
-      <c r="A16" s="233" t="s">
+      <c r="A16" s="237" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="233"/>
+      <c r="B16" s="237"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="13.8">
-      <c r="A17" s="234" t="s">
+      <c r="A17" s="238" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="234"/>
+      <c r="B17" s="238"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="33"/>
@@ -8418,10 +8425,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="236"/>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
+      <c r="A1" s="240"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -8430,13 +8437,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="241" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="241"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="245"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -8445,9 +8452,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="242"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="241"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="245"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -8458,11 +8465,11 @@
       <c r="A4" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="239" t="s">
+      <c r="B4" s="243" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -8476,9 +8483,9 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="238"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
+      <c r="B5" s="242"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -8492,9 +8499,9 @@
       <c r="A6" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="238"/>
-      <c r="C6" s="239"/>
-      <c r="D6" s="239"/>
+      <c r="B6" s="242"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -8505,11 +8512,11 @@
       <c r="A7" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="239" t="s">
+      <c r="B7" s="243" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="239"/>
-      <c r="D7" s="239"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -8521,9 +8528,9 @@
       <c r="A8" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="240"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
+      <c r="B8" s="244"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -8666,11 +8673,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="252" t="s">
+      <c r="F16" s="256" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="252"/>
-      <c r="H16" s="252"/>
+      <c r="G16" s="256"/>
+      <c r="H16" s="256"/>
       <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39.6">
@@ -8704,11 +8711,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="170"/>
-      <c r="B18" s="249" t="s">
+      <c r="B18" s="253" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="250"/>
-      <c r="D18" s="251"/>
+      <c r="C18" s="254"/>
+      <c r="D18" s="255"/>
       <c r="E18" s="170"/>
       <c r="F18" s="171"/>
       <c r="G18" s="171"/>
@@ -8887,12 +8894,12 @@
       <c r="I27" s="55"/>
     </row>
     <row r="28" spans="1:9" s="45" customFormat="1" ht="22.8" customHeight="1">
-      <c r="A28" s="243" t="s">
+      <c r="A28" s="247" t="s">
         <v>202</v>
       </c>
-      <c r="B28" s="244"/>
-      <c r="C28" s="244"/>
-      <c r="D28" s="245"/>
+      <c r="B28" s="248"/>
+      <c r="C28" s="248"/>
+      <c r="D28" s="249"/>
       <c r="E28" s="167"/>
       <c r="F28" s="168"/>
       <c r="G28" s="168"/>
@@ -8900,13 +8907,13 @@
       <c r="I28" s="169"/>
     </row>
     <row r="29" spans="1:9" s="177" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A29" s="253" t="s">
+      <c r="A29" s="257" t="s">
         <v>208</v>
       </c>
-      <c r="B29" s="254"/>
-      <c r="C29" s="254"/>
-      <c r="D29" s="254"/>
-      <c r="E29" s="255"/>
+      <c r="B29" s="258"/>
+      <c r="C29" s="258"/>
+      <c r="D29" s="258"/>
+      <c r="E29" s="259"/>
       <c r="F29" s="175"/>
       <c r="G29" s="175"/>
       <c r="H29" s="175"/>
@@ -9084,13 +9091,13 @@
       <c r="I38" s="55"/>
     </row>
     <row r="39" spans="1:9" s="181" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A39" s="256" t="s">
+      <c r="A39" s="260" t="s">
         <v>212</v>
       </c>
-      <c r="B39" s="257"/>
-      <c r="C39" s="257"/>
-      <c r="D39" s="257"/>
-      <c r="E39" s="258"/>
+      <c r="B39" s="261"/>
+      <c r="C39" s="261"/>
+      <c r="D39" s="261"/>
+      <c r="E39" s="262"/>
       <c r="F39" s="179"/>
       <c r="G39" s="179"/>
       <c r="H39" s="179"/>
@@ -9174,11 +9181,11 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A44" s="172"/>
-      <c r="B44" s="249" t="s">
+      <c r="B44" s="253" t="s">
         <v>213</v>
       </c>
-      <c r="C44" s="250"/>
-      <c r="D44" s="251"/>
+      <c r="C44" s="254"/>
+      <c r="D44" s="255"/>
       <c r="E44" s="173"/>
       <c r="F44" s="174"/>
       <c r="G44" s="174"/>
@@ -9295,12 +9302,12 @@
       <c r="I50" s="62"/>
     </row>
     <row r="51" spans="1:9" s="191" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A51" s="246" t="s">
+      <c r="A51" s="250" t="s">
         <v>220</v>
       </c>
-      <c r="B51" s="247"/>
-      <c r="C51" s="247"/>
-      <c r="D51" s="248"/>
+      <c r="B51" s="251"/>
+      <c r="C51" s="251"/>
+      <c r="D51" s="252"/>
       <c r="E51" s="190"/>
       <c r="F51" s="189"/>
       <c r="G51" s="189"/>
@@ -9422,12 +9429,12 @@
       <c r="I57" s="62"/>
     </row>
     <row r="58" spans="1:9" s="191" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A58" s="246" t="s">
+      <c r="A58" s="250" t="s">
         <v>221</v>
       </c>
-      <c r="B58" s="247"/>
-      <c r="C58" s="247"/>
-      <c r="D58" s="248"/>
+      <c r="B58" s="251"/>
+      <c r="C58" s="251"/>
+      <c r="D58" s="252"/>
       <c r="E58" s="190"/>
       <c r="F58" s="189"/>
       <c r="G58" s="189"/>
@@ -9511,12 +9518,12 @@
       <c r="I62" s="62"/>
     </row>
     <row r="63" spans="1:9" s="191" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A63" s="246" t="s">
+      <c r="A63" s="250" t="s">
         <v>238</v>
       </c>
-      <c r="B63" s="247"/>
-      <c r="C63" s="247"/>
-      <c r="D63" s="248"/>
+      <c r="B63" s="251"/>
+      <c r="C63" s="251"/>
+      <c r="D63" s="252"/>
       <c r="E63" s="190"/>
       <c r="F63" s="189"/>
       <c r="G63" s="189"/>
@@ -9656,10 +9663,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="236"/>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
+      <c r="A1" s="240"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -9668,13 +9675,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="241" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="241"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="245"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -9683,9 +9690,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.2" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="241"/>
+      <c r="C3" s="266"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="245"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -9696,11 +9703,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="239" t="s">
+      <c r="B4" s="243" t="s">
         <v>340</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -9714,9 +9721,9 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="238"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
+      <c r="B5" s="242"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -9730,9 +9737,9 @@
       <c r="A6" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="238"/>
-      <c r="C6" s="239"/>
-      <c r="D6" s="239"/>
+      <c r="B6" s="242"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -9743,11 +9750,11 @@
       <c r="A7" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="239" t="s">
+      <c r="B7" s="243" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="239"/>
-      <c r="D7" s="239"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -9759,9 +9766,9 @@
       <c r="A8" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="240"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
+      <c r="B8" s="244"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -9904,11 +9911,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="263" t="s">
+      <c r="F16" s="267" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="264"/>
-      <c r="H16" s="265"/>
+      <c r="G16" s="268"/>
+      <c r="H16" s="269"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39.6">
@@ -9942,11 +9949,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="259" t="s">
+      <c r="B18" s="263" t="s">
         <v>308</v>
       </c>
-      <c r="C18" s="260"/>
-      <c r="D18" s="261"/>
+      <c r="C18" s="264"/>
+      <c r="D18" s="265"/>
       <c r="E18" s="67"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -9954,12 +9961,12 @@
       <c r="I18" s="67"/>
     </row>
     <row r="19" spans="1:9" s="45" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A19" s="266" t="s">
+      <c r="A19" s="270" t="s">
         <v>313</v>
       </c>
-      <c r="B19" s="267"/>
-      <c r="C19" s="267"/>
-      <c r="D19" s="268"/>
+      <c r="B19" s="271"/>
+      <c r="C19" s="271"/>
+      <c r="D19" s="272"/>
       <c r="E19" s="193"/>
       <c r="F19" s="192"/>
       <c r="G19" s="192"/>
@@ -9993,10 +10000,10 @@
         <v>365</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="52"/>
@@ -10031,10 +10038,10 @@
         <v>312</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="D23" s="60" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="E23" s="54"/>
       <c r="F23" s="52"/>
@@ -10053,7 +10060,7 @@
         <v>451</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="52"/>
@@ -10072,7 +10079,7 @@
         <v>450</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="E25" s="54"/>
       <c r="F25" s="52"/>
@@ -10177,11 +10184,11 @@
     </row>
     <row r="31" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A31" s="196"/>
-      <c r="B31" s="269" t="s">
+      <c r="B31" s="273" t="s">
         <v>314</v>
       </c>
-      <c r="C31" s="270"/>
-      <c r="D31" s="271"/>
+      <c r="C31" s="274"/>
+      <c r="D31" s="275"/>
       <c r="E31" s="197"/>
       <c r="F31" s="198"/>
       <c r="G31" s="198"/>
@@ -10551,11 +10558,11 @@
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A51" s="200"/>
-      <c r="B51" s="269" t="s">
+      <c r="B51" s="273" t="s">
         <v>317</v>
       </c>
-      <c r="C51" s="272"/>
-      <c r="D51" s="273"/>
+      <c r="C51" s="276"/>
+      <c r="D51" s="277"/>
       <c r="E51" s="201"/>
       <c r="F51" s="195"/>
       <c r="G51" s="195"/>
@@ -10887,11 +10894,11 @@
     </row>
     <row r="69" spans="1:9" s="199" customFormat="1" ht="13.8">
       <c r="A69" s="196"/>
-      <c r="B69" s="269" t="s">
+      <c r="B69" s="273" t="s">
         <v>322</v>
       </c>
-      <c r="C69" s="270"/>
-      <c r="D69" s="271"/>
+      <c r="C69" s="274"/>
+      <c r="D69" s="275"/>
       <c r="E69" s="197"/>
       <c r="F69" s="198"/>
       <c r="G69" s="198"/>
@@ -10976,11 +10983,11 @@
     </row>
     <row r="74" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A74" s="196"/>
-      <c r="B74" s="269" t="s">
+      <c r="B74" s="273" t="s">
         <v>325</v>
       </c>
-      <c r="C74" s="270"/>
-      <c r="D74" s="271"/>
+      <c r="C74" s="274"/>
+      <c r="D74" s="275"/>
       <c r="E74" s="197"/>
       <c r="F74" s="198"/>
       <c r="G74" s="198"/>
@@ -11185,7 +11192,7 @@
         <v>328</v>
       </c>
       <c r="C85" s="52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D85" s="54" t="s">
         <v>543</v>
@@ -11198,11 +11205,11 @@
     </row>
     <row r="86" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A86" s="196"/>
-      <c r="B86" s="269" t="s">
+      <c r="B86" s="273" t="s">
         <v>384</v>
       </c>
-      <c r="C86" s="270"/>
-      <c r="D86" s="271"/>
+      <c r="C86" s="274"/>
+      <c r="D86" s="275"/>
       <c r="E86" s="197"/>
       <c r="F86" s="198"/>
       <c r="G86" s="198"/>
@@ -11420,11 +11427,11 @@
     </row>
     <row r="98" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A98" s="196"/>
-      <c r="B98" s="269" t="s">
+      <c r="B98" s="273" t="s">
         <v>385</v>
       </c>
-      <c r="C98" s="270"/>
-      <c r="D98" s="271"/>
+      <c r="C98" s="274"/>
+      <c r="D98" s="275"/>
       <c r="E98" s="197"/>
       <c r="F98" s="198"/>
       <c r="G98" s="198"/>
@@ -11488,11 +11495,11 @@
     </row>
     <row r="102" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A102" s="77"/>
-      <c r="B102" s="259" t="s">
+      <c r="B102" s="263" t="s">
         <v>309</v>
       </c>
-      <c r="C102" s="260"/>
-      <c r="D102" s="261"/>
+      <c r="C102" s="264"/>
+      <c r="D102" s="265"/>
       <c r="E102" s="69"/>
       <c r="F102" s="66"/>
       <c r="G102" s="66"/>
@@ -11501,11 +11508,11 @@
     </row>
     <row r="103" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A103" s="202"/>
-      <c r="B103" s="266" t="s">
+      <c r="B103" s="270" t="s">
         <v>333</v>
       </c>
-      <c r="C103" s="267"/>
-      <c r="D103" s="268"/>
+      <c r="C103" s="271"/>
+      <c r="D103" s="272"/>
       <c r="E103" s="193"/>
       <c r="F103" s="192"/>
       <c r="G103" s="192"/>
@@ -11641,11 +11648,11 @@
     </row>
     <row r="111" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A111" s="202"/>
-      <c r="B111" s="266" t="s">
+      <c r="B111" s="270" t="s">
         <v>343</v>
       </c>
-      <c r="C111" s="267"/>
-      <c r="D111" s="268"/>
+      <c r="C111" s="271"/>
+      <c r="D111" s="272"/>
       <c r="E111" s="193"/>
       <c r="F111" s="192"/>
       <c r="G111" s="192"/>
@@ -11692,11 +11699,11 @@
     </row>
     <row r="114" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A114" s="202"/>
-      <c r="B114" s="266" t="s">
+      <c r="B114" s="270" t="s">
         <v>337</v>
       </c>
-      <c r="C114" s="267"/>
-      <c r="D114" s="268"/>
+      <c r="C114" s="271"/>
+      <c r="D114" s="272"/>
       <c r="E114" s="193"/>
       <c r="F114" s="192"/>
       <c r="G114" s="192"/>
@@ -11743,11 +11750,11 @@
     </row>
     <row r="117" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A117" s="202"/>
-      <c r="B117" s="266" t="s">
+      <c r="B117" s="270" t="s">
         <v>339</v>
       </c>
-      <c r="C117" s="267"/>
-      <c r="D117" s="268"/>
+      <c r="C117" s="271"/>
+      <c r="D117" s="272"/>
       <c r="E117" s="193"/>
       <c r="F117" s="192"/>
       <c r="G117" s="192"/>
@@ -11794,11 +11801,11 @@
     </row>
     <row r="120" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A120" s="202"/>
-      <c r="B120" s="266" t="s">
+      <c r="B120" s="270" t="s">
         <v>356</v>
       </c>
-      <c r="C120" s="267"/>
-      <c r="D120" s="268"/>
+      <c r="C120" s="271"/>
+      <c r="D120" s="272"/>
       <c r="E120" s="193"/>
       <c r="F120" s="192"/>
       <c r="G120" s="192"/>
@@ -11980,10 +11987,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="236"/>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
+      <c r="A1" s="240"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -11992,13 +11999,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="241" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="241"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="245"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -12007,9 +12014,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="241"/>
+      <c r="C3" s="266"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="245"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -12020,11 +12027,11 @@
       <c r="A4" s="139" t="s">
         <v>441</v>
       </c>
-      <c r="B4" s="239" t="s">
+      <c r="B4" s="243" t="s">
         <v>442</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -12038,9 +12045,9 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="238"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
+      <c r="B5" s="242"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -12054,9 +12061,9 @@
       <c r="A6" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="238"/>
-      <c r="C6" s="239"/>
-      <c r="D6" s="239"/>
+      <c r="B6" s="242"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -12067,11 +12074,11 @@
       <c r="A7" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="239" t="s">
+      <c r="B7" s="243" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="239"/>
-      <c r="D7" s="239"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -12083,11 +12090,11 @@
       <c r="A8" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="240">
+      <c r="B8" s="244">
         <v>44857</v>
       </c>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -12230,11 +12237,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="263" t="s">
+      <c r="F16" s="267" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="264"/>
-      <c r="H16" s="265"/>
+      <c r="G16" s="268"/>
+      <c r="H16" s="269"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39.6">
@@ -12268,11 +12275,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="259" t="s">
+      <c r="B18" s="263" t="s">
         <v>403</v>
       </c>
-      <c r="C18" s="260"/>
-      <c r="D18" s="261"/>
+      <c r="C18" s="264"/>
+      <c r="D18" s="265"/>
       <c r="E18" s="67"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -12604,11 +12611,11 @@
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A36" s="77"/>
-      <c r="B36" s="259" t="s">
+      <c r="B36" s="263" t="s">
         <v>402</v>
       </c>
-      <c r="C36" s="260"/>
-      <c r="D36" s="261"/>
+      <c r="C36" s="264"/>
+      <c r="D36" s="265"/>
       <c r="E36" s="69"/>
       <c r="F36" s="66"/>
       <c r="G36" s="66"/>
@@ -12693,11 +12700,11 @@
     </row>
     <row r="41" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A41" s="203"/>
-      <c r="B41" s="266" t="s">
+      <c r="B41" s="270" t="s">
         <v>431</v>
       </c>
-      <c r="C41" s="267"/>
-      <c r="D41" s="268"/>
+      <c r="C41" s="271"/>
+      <c r="D41" s="272"/>
       <c r="E41" s="193"/>
       <c r="F41" s="192"/>
       <c r="G41" s="192"/>
@@ -12793,11 +12800,11 @@
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A47" s="203"/>
-      <c r="B47" s="266" t="s">
+      <c r="B47" s="270" t="s">
         <v>432</v>
       </c>
-      <c r="C47" s="267"/>
-      <c r="D47" s="268"/>
+      <c r="C47" s="271"/>
+      <c r="D47" s="272"/>
       <c r="E47" s="193"/>
       <c r="F47" s="192"/>
       <c r="G47" s="192"/>
@@ -12897,10 +12904,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6293B0-DF3D-4C68-9428-8CCCA99D1C41}">
-  <dimension ref="A1:X109"/>
+  <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView showGridLines="0" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2"/>
@@ -12914,10 +12921,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="236"/>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
+      <c r="A1" s="240"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -12926,13 +12933,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="241" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="241"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="245"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -12941,9 +12948,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="241"/>
+      <c r="C3" s="266"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="245"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -12952,13 +12959,13 @@
     </row>
     <row r="4" spans="1:24" s="38" customFormat="1">
       <c r="A4" s="139" t="s">
-        <v>710</v>
-      </c>
-      <c r="B4" s="239" t="s">
-        <v>707</v>
-      </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
+        <v>690</v>
+      </c>
+      <c r="B4" s="243" t="s">
+        <v>687</v>
+      </c>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -12972,9 +12979,9 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="238"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
+      <c r="B5" s="242"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -12988,9 +12995,9 @@
       <c r="A6" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="238"/>
-      <c r="C6" s="239"/>
-      <c r="D6" s="239"/>
+      <c r="B6" s="242"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -13001,11 +13008,11 @@
       <c r="A7" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="239" t="s">
+      <c r="B7" s="243" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="239"/>
-      <c r="D7" s="239"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -13017,11 +13024,11 @@
       <c r="A8" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="240">
+      <c r="B8" s="244">
         <v>44861</v>
       </c>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -13063,15 +13070,15 @@
         <v>41</v>
       </c>
       <c r="B11" s="75">
-        <f>COUNTIF($F$19:$F$49656,"*Passed")</f>
+        <f>COUNTIF($F$19:$F$49655,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C11" s="75">
-        <f>COUNTIF($G$19:$G$49656,"*Passed")</f>
+        <f>COUNTIF($G$19:$G$49655,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="75">
-        <f>COUNTIF($H$19:$H$49656,"*Passed")</f>
+        <f>COUNTIF($H$19:$H$49655,"*Passed")</f>
         <v>0</v>
       </c>
     </row>
@@ -13080,15 +13087,15 @@
         <v>43</v>
       </c>
       <c r="B12" s="75">
-        <f>COUNTIF($F$19:$F$49376,"*Failed*")</f>
+        <f>COUNTIF($F$19:$F$49375,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="75">
-        <f>COUNTIF($G$19:$G$49376,"*Failed*")</f>
+        <f>COUNTIF($G$19:$G$49375,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="75">
-        <f>COUNTIF($H$19:$H$49376,"*Failed*")</f>
+        <f>COUNTIF($H$19:$H$49375,"*Failed*")</f>
         <v>0</v>
       </c>
     </row>
@@ -13097,15 +13104,15 @@
         <v>45</v>
       </c>
       <c r="B13" s="75">
-        <f>COUNTIF($F$19:$F$49376,"*Not Run*")</f>
+        <f>COUNTIF($F$19:$F$49375,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="75">
-        <f>COUNTIF($G$19:$G$49376,"*Not Run*")</f>
+        <f>COUNTIF($G$19:$G$49375,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="75">
-        <f>COUNTIF($H$19:$H$49376,"*Not Run*")</f>
+        <f>COUNTIF($H$19:$H$49375,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
@@ -13119,15 +13126,15 @@
         <v>100</v>
       </c>
       <c r="B14" s="75">
-        <f>COUNTIF($F$19:$F$49376,"*NA*")</f>
+        <f>COUNTIF($F$19:$F$49375,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="75">
-        <f>COUNTIF($G$19:$G$49376,"*NA*")</f>
+        <f>COUNTIF($G$19:$G$49375,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="75">
-        <f>COUNTIF($H$19:$H$49376,"*NA*")</f>
+        <f>COUNTIF($H$19:$H$49375,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="64"/>
@@ -13141,15 +13148,15 @@
         <v>101</v>
       </c>
       <c r="B15" s="75">
-        <f>COUNTIF($F$19:$F$49376,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$19:$F$49375,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="75">
-        <f>COUNTIF($G$19:$G$49376,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$19:$G$49375,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="75">
-        <f>COUNTIF($H$19:$H$49376,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$19:$H$49375,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="1"/>
@@ -13164,11 +13171,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="263" t="s">
+      <c r="F16" s="267" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="264"/>
-      <c r="H16" s="265"/>
+      <c r="G16" s="268"/>
+      <c r="H16" s="269"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39.6">
@@ -13204,7 +13211,7 @@
       <c r="A18" s="205"/>
       <c r="B18" s="206"/>
       <c r="C18" s="209" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="D18" s="207"/>
       <c r="E18" s="207"/>
@@ -13215,11 +13222,11 @@
     </row>
     <row r="19" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="67"/>
-      <c r="B19" s="259" t="s">
+      <c r="B19" s="263" t="s">
         <v>308</v>
       </c>
-      <c r="C19" s="260"/>
-      <c r="D19" s="261"/>
+      <c r="C19" s="264"/>
+      <c r="D19" s="265"/>
       <c r="E19" s="67"/>
       <c r="F19" s="68"/>
       <c r="G19" s="68"/>
@@ -13228,11 +13235,11 @@
     </row>
     <row r="20" spans="1:9" s="45" customFormat="1">
       <c r="A20" s="192"/>
-      <c r="B20" s="266" t="s">
+      <c r="B20" s="270" t="s">
         <v>621</v>
       </c>
-      <c r="C20" s="267"/>
-      <c r="D20" s="268"/>
+      <c r="C20" s="271"/>
+      <c r="D20" s="272"/>
       <c r="E20" s="193"/>
       <c r="F20" s="192"/>
       <c r="G20" s="192"/>
@@ -13244,13 +13251,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>800</v>
+        <v>766</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="52"/>
@@ -13258,18 +13265,18 @@
       <c r="H21" s="52"/>
       <c r="I21" s="55"/>
     </row>
-    <row r="22" spans="1:9" s="45" customFormat="1" ht="52.8">
+    <row r="22" spans="1:9" s="45" customFormat="1" ht="66">
       <c r="A22" s="52">
         <v>2</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>644</v>
+        <v>774</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>799</v>
+        <v>765</v>
       </c>
       <c r="E22" s="54"/>
       <c r="F22" s="52"/>
@@ -13285,10 +13292,10 @@
         <v>622</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>642</v>
+        <v>775</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>798</v>
+        <v>764</v>
       </c>
       <c r="E23" s="54"/>
       <c r="F23" s="52"/>
@@ -13304,10 +13311,10 @@
         <v>623</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>641</v>
+        <v>776</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>776</v>
+        <v>742</v>
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="52"/>
@@ -13323,10 +13330,10 @@
         <v>624</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>628</v>
+        <v>777</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>776</v>
+        <v>742</v>
       </c>
       <c r="E25" s="54"/>
       <c r="F25" s="52"/>
@@ -13342,10 +13349,10 @@
         <v>316</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>640</v>
+        <v>778</v>
       </c>
       <c r="D26" s="54" t="s">
-        <v>776</v>
+        <v>742</v>
       </c>
       <c r="E26" s="54"/>
       <c r="F26" s="52"/>
@@ -13361,10 +13368,10 @@
         <v>327</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>639</v>
+        <v>779</v>
       </c>
       <c r="D27" s="54" t="s">
-        <v>793</v>
+        <v>759</v>
       </c>
       <c r="E27" s="54"/>
       <c r="F27" s="52"/>
@@ -13380,10 +13387,10 @@
         <v>625</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>638</v>
+        <v>780</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>797</v>
+        <v>763</v>
       </c>
       <c r="E28" s="54"/>
       <c r="F28" s="52"/>
@@ -13399,10 +13406,10 @@
         <v>361</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>637</v>
+        <v>781</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>796</v>
+        <v>762</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="52"/>
@@ -13418,10 +13425,10 @@
         <v>626</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>636</v>
+        <v>782</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>776</v>
+        <v>742</v>
       </c>
       <c r="E30" s="54"/>
       <c r="F30" s="52"/>
@@ -13434,13 +13441,13 @@
         <v>11</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>635</v>
+        <v>783</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>795</v>
+        <v>761</v>
       </c>
       <c r="E31" s="54"/>
       <c r="F31" s="52"/>
@@ -13453,13 +13460,13 @@
         <v>12</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>634</v>
+        <v>784</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>794</v>
+        <v>760</v>
       </c>
       <c r="E32" s="54"/>
       <c r="F32" s="52"/>
@@ -13475,10 +13482,10 @@
         <v>627</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>633</v>
+        <v>785</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>793</v>
+        <v>759</v>
       </c>
       <c r="E33" s="54"/>
       <c r="F33" s="52"/>
@@ -13487,15 +13494,17 @@
       <c r="I33" s="61"/>
     </row>
     <row r="34" spans="1:9" s="48" customFormat="1" ht="52.8">
-      <c r="A34" s="62"/>
+      <c r="A34" s="62">
+        <v>14</v>
+      </c>
       <c r="B34" s="52" t="s">
-        <v>745</v>
+        <v>715</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>747</v>
+        <v>786</v>
       </c>
       <c r="D34" s="54" t="s">
-        <v>792</v>
+        <v>758</v>
       </c>
       <c r="E34" s="54"/>
       <c r="F34" s="52"/>
@@ -13516,11 +13525,11 @@
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A36" s="202"/>
-      <c r="B36" s="266" t="s">
-        <v>632</v>
-      </c>
-      <c r="C36" s="267"/>
-      <c r="D36" s="268"/>
+      <c r="B36" s="270" t="s">
+        <v>631</v>
+      </c>
+      <c r="C36" s="271"/>
+      <c r="D36" s="272"/>
       <c r="E36" s="193"/>
       <c r="F36" s="192"/>
       <c r="G36" s="192"/>
@@ -13532,13 +13541,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="D37" s="54" t="s">
-        <v>791</v>
+        <v>757</v>
       </c>
       <c r="E37" s="54"/>
       <c r="F37" s="52"/>
@@ -13546,18 +13555,18 @@
       <c r="H37" s="52"/>
       <c r="I37" s="61"/>
     </row>
-    <row r="38" spans="1:9" s="48" customFormat="1" ht="26.4">
+    <row r="38" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A38" s="62">
         <v>2</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>646</v>
+        <v>787</v>
       </c>
       <c r="D38" s="54" t="s">
-        <v>790</v>
+        <v>756</v>
       </c>
       <c r="E38" s="54"/>
       <c r="F38" s="52"/>
@@ -13573,10 +13582,10 @@
         <v>365</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>651</v>
+        <v>788</v>
       </c>
       <c r="D39" s="54" t="s">
-        <v>789</v>
+        <v>755</v>
       </c>
       <c r="E39" s="54"/>
       <c r="F39" s="52"/>
@@ -13592,10 +13601,10 @@
         <v>311</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>655</v>
+        <v>789</v>
       </c>
       <c r="D40" s="54" t="s">
-        <v>776</v>
+        <v>742</v>
       </c>
       <c r="E40" s="54"/>
       <c r="F40" s="52"/>
@@ -13611,10 +13620,10 @@
         <v>312</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>652</v>
+        <v>790</v>
       </c>
       <c r="D41" s="54" t="s">
-        <v>788</v>
+        <v>754</v>
       </c>
       <c r="E41" s="54"/>
       <c r="F41" s="52"/>
@@ -13630,10 +13639,10 @@
         <v>345</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>656</v>
+        <v>791</v>
       </c>
       <c r="D42" s="54" t="s">
-        <v>785</v>
+        <v>751</v>
       </c>
       <c r="E42" s="54"/>
       <c r="F42" s="52"/>
@@ -13649,10 +13658,10 @@
         <v>346</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>657</v>
+        <v>792</v>
       </c>
       <c r="D43" s="54" t="s">
-        <v>785</v>
+        <v>751</v>
       </c>
       <c r="E43" s="54"/>
       <c r="F43" s="52"/>
@@ -13668,10 +13677,10 @@
         <v>446</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>749</v>
+        <v>793</v>
       </c>
       <c r="D44" s="54" t="s">
-        <v>787</v>
+        <v>753</v>
       </c>
       <c r="E44" s="54"/>
       <c r="F44" s="52"/>
@@ -13687,10 +13696,10 @@
         <v>361</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>672</v>
+        <v>794</v>
       </c>
       <c r="D45" s="54" t="s">
-        <v>786</v>
+        <v>752</v>
       </c>
       <c r="E45" s="54"/>
       <c r="F45" s="52"/>
@@ -13706,10 +13715,10 @@
         <v>318</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>658</v>
+        <v>795</v>
       </c>
       <c r="D46" s="54" t="s">
-        <v>785</v>
+        <v>751</v>
       </c>
       <c r="E46" s="54"/>
       <c r="F46" s="52"/>
@@ -13725,10 +13734,10 @@
         <v>319</v>
       </c>
       <c r="C47" s="52" t="s">
-        <v>655</v>
+        <v>789</v>
       </c>
       <c r="D47" s="54" t="s">
-        <v>776</v>
+        <v>742</v>
       </c>
       <c r="E47" s="54"/>
       <c r="F47" s="52"/>
@@ -13744,10 +13753,10 @@
         <v>627</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>748</v>
+        <v>796</v>
       </c>
       <c r="D48" s="54" t="s">
-        <v>784</v>
+        <v>750</v>
       </c>
       <c r="E48" s="54"/>
       <c r="F48" s="52"/>
@@ -13768,11 +13777,11 @@
     </row>
     <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A50" s="202"/>
-      <c r="B50" s="266" t="s">
-        <v>659</v>
-      </c>
-      <c r="C50" s="267"/>
-      <c r="D50" s="268"/>
+      <c r="B50" s="270" t="s">
+        <v>641</v>
+      </c>
+      <c r="C50" s="271"/>
+      <c r="D50" s="272"/>
       <c r="E50" s="193"/>
       <c r="F50" s="192"/>
       <c r="G50" s="192"/>
@@ -13787,10 +13796,10 @@
         <v>236</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
       <c r="D51" s="54" t="s">
-        <v>783</v>
+        <v>749</v>
       </c>
       <c r="E51" s="54"/>
       <c r="F51" s="52"/>
@@ -13803,13 +13812,13 @@
         <v>2</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="D52" s="54" t="s">
-        <v>782</v>
+        <v>748</v>
       </c>
       <c r="E52" s="54"/>
       <c r="F52" s="52"/>
@@ -13822,13 +13831,13 @@
         <v>3</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="D53" s="54" t="s">
-        <v>781</v>
+        <v>747</v>
       </c>
       <c r="E53" s="54"/>
       <c r="F53" s="52"/>
@@ -13841,13 +13850,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="52" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
       <c r="D54" s="54" t="s">
-        <v>776</v>
+        <v>742</v>
       </c>
       <c r="E54" s="54"/>
       <c r="F54" s="52"/>
@@ -13860,13 +13869,13 @@
         <v>5</v>
       </c>
       <c r="B55" s="52" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
       <c r="D55" s="54" t="s">
-        <v>776</v>
+        <v>742</v>
       </c>
       <c r="E55" s="54"/>
       <c r="F55" s="52"/>
@@ -13879,13 +13888,13 @@
         <v>6</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
       <c r="D56" s="54" t="s">
-        <v>776</v>
+        <v>742</v>
       </c>
       <c r="E56" s="54"/>
       <c r="F56" s="52"/>
@@ -13898,13 +13907,13 @@
         <v>7</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="D57" s="54" t="s">
-        <v>781</v>
+        <v>747</v>
       </c>
       <c r="E57" s="54"/>
       <c r="F57" s="52"/>
@@ -13917,13 +13926,13 @@
         <v>8</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>665</v>
+        <v>647</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>675</v>
+        <v>797</v>
       </c>
       <c r="D58" s="54" t="s">
-        <v>780</v>
+        <v>746</v>
       </c>
       <c r="E58" s="54"/>
       <c r="F58" s="52"/>
@@ -13939,10 +13948,10 @@
         <v>361</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="D59" s="54" t="s">
-        <v>775</v>
+        <v>741</v>
       </c>
       <c r="E59" s="54"/>
       <c r="F59" s="52"/>
@@ -13958,10 +13967,10 @@
         <v>626</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
       <c r="D60" s="54" t="s">
-        <v>776</v>
+        <v>742</v>
       </c>
       <c r="E60" s="54"/>
       <c r="F60" s="52"/>
@@ -13974,13 +13983,13 @@
         <v>11</v>
       </c>
       <c r="B61" s="52" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="D61" s="54" t="s">
-        <v>777</v>
+        <v>743</v>
       </c>
       <c r="E61" s="54"/>
       <c r="F61" s="52"/>
@@ -13993,13 +14002,13 @@
         <v>12</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="D62" s="54" t="s">
-        <v>777</v>
+        <v>743</v>
       </c>
       <c r="E62" s="54"/>
       <c r="F62" s="52"/>
@@ -14015,10 +14024,10 @@
         <v>627</v>
       </c>
       <c r="C63" s="52" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="D63" s="54" t="s">
-        <v>778</v>
+        <v>744</v>
       </c>
       <c r="E63" s="54"/>
       <c r="F63" s="52"/>
@@ -14031,13 +14040,13 @@
         <v>14</v>
       </c>
       <c r="B64" s="52" t="s">
+        <v>715</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>716</v>
+      </c>
+      <c r="D64" s="54" t="s">
         <v>745</v>
-      </c>
-      <c r="C64" s="52" t="s">
-        <v>746</v>
-      </c>
-      <c r="D64" s="54" t="s">
-        <v>779</v>
       </c>
       <c r="E64" s="54"/>
       <c r="F64" s="52"/>
@@ -14058,11 +14067,11 @@
     </row>
     <row r="66" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A66" s="202"/>
-      <c r="B66" s="266" t="s">
-        <v>678</v>
-      </c>
-      <c r="C66" s="267"/>
-      <c r="D66" s="268"/>
+      <c r="B66" s="270" t="s">
+        <v>658</v>
+      </c>
+      <c r="C66" s="271"/>
+      <c r="D66" s="272"/>
       <c r="E66" s="193"/>
       <c r="F66" s="192"/>
       <c r="G66" s="192"/>
@@ -14074,13 +14083,13 @@
         <v>1</v>
       </c>
       <c r="B67" s="52" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="C67" s="52" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="D67" s="54" t="s">
-        <v>769</v>
+        <v>736</v>
       </c>
       <c r="E67" s="54"/>
       <c r="F67" s="52"/>
@@ -14093,13 +14102,13 @@
         <v>2</v>
       </c>
       <c r="B68" s="52" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="C68" s="52" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="D68" s="54" t="s">
-        <v>768</v>
+        <v>735</v>
       </c>
       <c r="E68" s="54"/>
       <c r="F68" s="52"/>
@@ -14112,34 +14121,34 @@
         <v>3</v>
       </c>
       <c r="B69" s="52" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="C69" s="52" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="D69" s="54" t="s">
-        <v>770</v>
+        <v>737</v>
       </c>
       <c r="E69" s="54" t="s">
-        <v>744</v>
+        <v>714</v>
       </c>
       <c r="F69" s="52"/>
       <c r="G69" s="52"/>
       <c r="H69" s="52"/>
       <c r="I69" s="61"/>
     </row>
-    <row r="70" spans="1:9" s="48" customFormat="1" ht="39.6">
+    <row r="70" spans="1:9" s="48" customFormat="1" ht="66">
       <c r="A70" s="62">
         <v>4</v>
       </c>
       <c r="B70" s="52" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="C70" s="52" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
       <c r="D70" s="54" t="s">
-        <v>771</v>
+        <v>734</v>
       </c>
       <c r="E70" s="54"/>
       <c r="F70" s="52"/>
@@ -14147,19 +14156,11 @@
       <c r="H70" s="52"/>
       <c r="I70" s="61"/>
     </row>
-    <row r="71" spans="1:9" s="48" customFormat="1" ht="66">
-      <c r="A71" s="62">
-        <v>5</v>
-      </c>
-      <c r="B71" s="52" t="s">
-        <v>740</v>
-      </c>
-      <c r="C71" s="52" t="s">
-        <v>742</v>
-      </c>
-      <c r="D71" s="54" t="s">
-        <v>767</v>
-      </c>
+    <row r="71" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A71" s="62"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="54"/>
       <c r="E71" s="54"/>
       <c r="F71" s="52"/>
       <c r="G71" s="52"/>
@@ -14167,41 +14168,49 @@
       <c r="I71" s="61"/>
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A72" s="62"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="61"/>
-    </row>
-    <row r="73" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A73" s="202"/>
-      <c r="B73" s="266" t="s">
-        <v>682</v>
-      </c>
-      <c r="C73" s="267"/>
-      <c r="D73" s="268"/>
-      <c r="E73" s="193"/>
-      <c r="F73" s="192"/>
-      <c r="G73" s="192"/>
-      <c r="H73" s="192"/>
-      <c r="I73" s="204"/>
-    </row>
-    <row r="74" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A72" s="202"/>
+      <c r="B72" s="270" t="s">
+        <v>662</v>
+      </c>
+      <c r="C72" s="271"/>
+      <c r="D72" s="272"/>
+      <c r="E72" s="193"/>
+      <c r="F72" s="192"/>
+      <c r="G72" s="192"/>
+      <c r="H72" s="192"/>
+      <c r="I72" s="204"/>
+    </row>
+    <row r="73" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A73" s="62">
+        <v>1</v>
+      </c>
+      <c r="B73" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="C73" s="52" t="s">
+        <v>663</v>
+      </c>
+      <c r="D73" s="54" t="s">
+        <v>738</v>
+      </c>
+      <c r="E73" s="54"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="61"/>
+    </row>
+    <row r="74" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A74" s="62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B74" s="52" t="s">
-        <v>236</v>
+        <v>659</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="D74" s="54" t="s">
-        <v>772</v>
+        <v>735</v>
       </c>
       <c r="E74" s="54"/>
       <c r="F74" s="52"/>
@@ -14211,16 +14220,16 @@
     </row>
     <row r="75" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A75" s="62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B75" s="52" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C75" s="52" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="D75" s="54" t="s">
-        <v>768</v>
+        <v>739</v>
       </c>
       <c r="E75" s="54"/>
       <c r="F75" s="52"/>
@@ -14230,16 +14239,16 @@
     </row>
     <row r="76" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A76" s="62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B76" s="52" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C76" s="52" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="D76" s="54" t="s">
-        <v>773</v>
+        <v>740</v>
       </c>
       <c r="E76" s="54"/>
       <c r="F76" s="52"/>
@@ -14249,16 +14258,16 @@
     </row>
     <row r="77" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A77" s="62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B77" s="52" t="s">
-        <v>730</v>
+        <v>704</v>
       </c>
       <c r="C77" s="52" t="s">
+        <v>705</v>
+      </c>
+      <c r="D77" s="54" t="s">
         <v>732</v>
-      </c>
-      <c r="D77" s="54" t="s">
-        <v>774</v>
       </c>
       <c r="E77" s="54"/>
       <c r="F77" s="52"/>
@@ -14266,18 +14275,18 @@
       <c r="H77" s="52"/>
       <c r="I77" s="61"/>
     </row>
-    <row r="78" spans="1:9" s="48" customFormat="1" ht="39.6">
+    <row r="78" spans="1:9" s="48" customFormat="1" ht="66">
       <c r="A78" s="62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B78" s="52" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="C78" s="52" t="s">
-        <v>735</v>
+        <v>711</v>
       </c>
       <c r="D78" s="54" t="s">
-        <v>765</v>
+        <v>733</v>
       </c>
       <c r="E78" s="54"/>
       <c r="F78" s="52"/>
@@ -14285,19 +14294,11 @@
       <c r="H78" s="52"/>
       <c r="I78" s="61"/>
     </row>
-    <row r="79" spans="1:9" s="48" customFormat="1" ht="66">
-      <c r="A79" s="62">
-        <v>6</v>
-      </c>
-      <c r="B79" s="52" t="s">
-        <v>740</v>
-      </c>
-      <c r="C79" s="52" t="s">
-        <v>741</v>
-      </c>
-      <c r="D79" s="54" t="s">
-        <v>766</v>
-      </c>
+    <row r="79" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A79" s="62"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="52"/>
+      <c r="D79" s="54"/>
       <c r="E79" s="54"/>
       <c r="F79" s="52"/>
       <c r="G79" s="52"/>
@@ -14305,41 +14306,49 @@
       <c r="I79" s="61"/>
     </row>
     <row r="80" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A80" s="62"/>
-      <c r="B80" s="52"/>
-      <c r="C80" s="52"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="52"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="61"/>
-    </row>
-    <row r="81" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A81" s="202"/>
-      <c r="B81" s="266" t="s">
-        <v>685</v>
-      </c>
-      <c r="C81" s="267"/>
-      <c r="D81" s="268"/>
-      <c r="E81" s="193"/>
-      <c r="F81" s="192"/>
-      <c r="G81" s="192"/>
-      <c r="H81" s="192"/>
-      <c r="I81" s="204"/>
+      <c r="A80" s="202"/>
+      <c r="B80" s="270" t="s">
+        <v>665</v>
+      </c>
+      <c r="C80" s="271"/>
+      <c r="D80" s="272"/>
+      <c r="E80" s="193"/>
+      <c r="F80" s="192"/>
+      <c r="G80" s="192"/>
+      <c r="H80" s="192"/>
+      <c r="I80" s="204"/>
+    </row>
+    <row r="81" spans="1:9" s="48" customFormat="1" ht="39.6">
+      <c r="A81" s="62">
+        <v>1</v>
+      </c>
+      <c r="B81" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="C81" s="52" t="s">
+        <v>666</v>
+      </c>
+      <c r="D81" s="54" t="s">
+        <v>723</v>
+      </c>
+      <c r="E81" s="54"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="52"/>
+      <c r="H81" s="52"/>
+      <c r="I81" s="61"/>
     </row>
     <row r="82" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A82" s="62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B82" s="52" t="s">
-        <v>236</v>
+        <v>659</v>
       </c>
       <c r="C82" s="52" t="s">
-        <v>686</v>
+        <v>667</v>
       </c>
       <c r="D82" s="54" t="s">
-        <v>756</v>
+        <v>722</v>
       </c>
       <c r="E82" s="54"/>
       <c r="F82" s="52"/>
@@ -14349,16 +14358,16 @@
     </row>
     <row r="83" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A83" s="62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B83" s="52" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C83" s="52" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="D83" s="54" t="s">
-        <v>755</v>
+        <v>721</v>
       </c>
       <c r="E83" s="54"/>
       <c r="F83" s="52"/>
@@ -14368,16 +14377,16 @@
     </row>
     <row r="84" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A84" s="62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B84" s="52" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C84" s="52" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="D84" s="54" t="s">
-        <v>754</v>
+        <v>720</v>
       </c>
       <c r="E84" s="54"/>
       <c r="F84" s="52"/>
@@ -14387,16 +14396,16 @@
     </row>
     <row r="85" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A85" s="62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B85" s="52" t="s">
-        <v>730</v>
+        <v>704</v>
       </c>
       <c r="C85" s="52" t="s">
-        <v>733</v>
+        <v>705</v>
       </c>
       <c r="D85" s="54" t="s">
-        <v>753</v>
+        <v>719</v>
       </c>
       <c r="E85" s="54"/>
       <c r="F85" s="52"/>
@@ -14406,16 +14415,16 @@
     </row>
     <row r="86" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A86" s="62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B86" s="52" t="s">
-        <v>734</v>
+        <v>706</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>735</v>
+        <v>707</v>
       </c>
       <c r="D86" s="54" t="s">
-        <v>752</v>
+        <v>718</v>
       </c>
       <c r="E86" s="54"/>
       <c r="F86" s="52"/>
@@ -14423,18 +14432,18 @@
       <c r="H86" s="52"/>
       <c r="I86" s="61"/>
     </row>
-    <row r="87" spans="1:9" s="48" customFormat="1" ht="39.6">
+    <row r="87" spans="1:9" s="48" customFormat="1" ht="79.2">
       <c r="A87" s="62">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B87" s="52" t="s">
-        <v>736</v>
+        <v>710</v>
       </c>
       <c r="C87" s="52" t="s">
-        <v>737</v>
+        <v>713</v>
       </c>
       <c r="D87" s="54" t="s">
-        <v>751</v>
+        <v>717</v>
       </c>
       <c r="E87" s="54"/>
       <c r="F87" s="52"/>
@@ -14442,19 +14451,11 @@
       <c r="H87" s="52"/>
       <c r="I87" s="61"/>
     </row>
-    <row r="88" spans="1:9" s="48" customFormat="1" ht="79.2">
-      <c r="A88" s="62">
-        <v>7</v>
-      </c>
-      <c r="B88" s="52" t="s">
-        <v>740</v>
-      </c>
-      <c r="C88" s="52" t="s">
-        <v>743</v>
-      </c>
-      <c r="D88" s="54" t="s">
-        <v>750</v>
-      </c>
+    <row r="88" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A88" s="62"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="54"/>
       <c r="E88" s="54"/>
       <c r="F88" s="52"/>
       <c r="G88" s="52"/>
@@ -14462,41 +14463,49 @@
       <c r="I88" s="61"/>
     </row>
     <row r="89" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A89" s="62"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="54"/>
-      <c r="E89" s="54"/>
-      <c r="F89" s="52"/>
-      <c r="G89" s="52"/>
-      <c r="H89" s="52"/>
-      <c r="I89" s="61"/>
-    </row>
-    <row r="90" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A90" s="202"/>
-      <c r="B90" s="266" t="s">
-        <v>688</v>
-      </c>
-      <c r="C90" s="267"/>
-      <c r="D90" s="268"/>
-      <c r="E90" s="193"/>
-      <c r="F90" s="192"/>
-      <c r="G90" s="192"/>
-      <c r="H90" s="192"/>
-      <c r="I90" s="204"/>
-    </row>
-    <row r="91" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A89" s="202"/>
+      <c r="B89" s="270" t="s">
+        <v>668</v>
+      </c>
+      <c r="C89" s="271"/>
+      <c r="D89" s="272"/>
+      <c r="E89" s="193"/>
+      <c r="F89" s="192"/>
+      <c r="G89" s="192"/>
+      <c r="H89" s="192"/>
+      <c r="I89" s="204"/>
+    </row>
+    <row r="90" spans="1:9" s="48" customFormat="1" ht="26.4">
+      <c r="A90" s="62">
+        <v>1</v>
+      </c>
+      <c r="B90" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="C90" s="52" t="s">
+        <v>671</v>
+      </c>
+      <c r="D90" s="54" t="s">
+        <v>768</v>
+      </c>
+      <c r="E90" s="54"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="52"/>
+      <c r="I90" s="61"/>
+    </row>
+    <row r="91" spans="1:9" s="48" customFormat="1" ht="52.8">
       <c r="A91" s="62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B91" s="52" t="s">
-        <v>236</v>
+        <v>670</v>
       </c>
       <c r="C91" s="52" t="s">
-        <v>691</v>
+        <v>672</v>
       </c>
       <c r="D91" s="54" t="s">
-        <v>802</v>
+        <v>724</v>
       </c>
       <c r="E91" s="54"/>
       <c r="F91" s="52"/>
@@ -14506,16 +14515,16 @@
     </row>
     <row r="92" spans="1:9" s="48" customFormat="1" ht="52.8">
       <c r="A92" s="62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B92" s="52" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="C92" s="52" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="D92" s="54" t="s">
-        <v>757</v>
+        <v>725</v>
       </c>
       <c r="E92" s="54"/>
       <c r="F92" s="52"/>
@@ -14525,16 +14534,16 @@
     </row>
     <row r="93" spans="1:9" s="48" customFormat="1" ht="52.8">
       <c r="A93" s="62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B93" s="52" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="C93" s="52" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="D93" s="54" t="s">
-        <v>758</v>
+        <v>726</v>
       </c>
       <c r="E93" s="54"/>
       <c r="F93" s="52"/>
@@ -14544,16 +14553,16 @@
     </row>
     <row r="94" spans="1:9" s="48" customFormat="1" ht="52.8">
       <c r="A94" s="62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B94" s="52" t="s">
-        <v>694</v>
+        <v>708</v>
       </c>
       <c r="C94" s="52" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="D94" s="54" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="E94" s="54"/>
       <c r="F94" s="52"/>
@@ -14561,19 +14570,11 @@
       <c r="H94" s="52"/>
       <c r="I94" s="61"/>
     </row>
-    <row r="95" spans="1:9" s="48" customFormat="1" ht="52.8">
-      <c r="A95" s="62">
-        <v>5</v>
-      </c>
-      <c r="B95" s="52" t="s">
-        <v>738</v>
-      </c>
-      <c r="C95" s="52" t="s">
-        <v>739</v>
-      </c>
-      <c r="D95" s="54" t="s">
-        <v>801</v>
-      </c>
+    <row r="95" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A95" s="62"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="52"/>
+      <c r="D95" s="54"/>
       <c r="E95" s="54"/>
       <c r="F95" s="52"/>
       <c r="G95" s="52"/>
@@ -14581,41 +14582,49 @@
       <c r="I95" s="61"/>
     </row>
     <row r="96" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A96" s="62"/>
-      <c r="B96" s="52"/>
-      <c r="C96" s="52"/>
-      <c r="D96" s="54"/>
-      <c r="E96" s="54"/>
-      <c r="F96" s="52"/>
-      <c r="G96" s="52"/>
-      <c r="H96" s="52"/>
-      <c r="I96" s="61"/>
-    </row>
-    <row r="97" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A97" s="77"/>
-      <c r="B97" s="259" t="s">
+      <c r="A96" s="77"/>
+      <c r="B96" s="263" t="s">
         <v>309</v>
       </c>
-      <c r="C97" s="260"/>
-      <c r="D97" s="261"/>
-      <c r="E97" s="69"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="66"/>
-      <c r="I97" s="69"/>
-    </row>
-    <row r="98" spans="1:9" s="48" customFormat="1" ht="75.599999999999994" customHeight="1">
+      <c r="C96" s="264"/>
+      <c r="D96" s="265"/>
+      <c r="E96" s="69"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="66"/>
+      <c r="I96" s="69"/>
+    </row>
+    <row r="97" spans="1:9" s="48" customFormat="1" ht="75.599999999999994" customHeight="1">
+      <c r="A97" s="62">
+        <v>1</v>
+      </c>
+      <c r="B97" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="C97" s="52" t="s">
+        <v>681</v>
+      </c>
+      <c r="D97" s="53" t="s">
+        <v>727</v>
+      </c>
+      <c r="E97" s="54"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="52"/>
+      <c r="I97" s="62"/>
+    </row>
+    <row r="98" spans="1:9" s="48" customFormat="1" ht="84.6" customHeight="1">
       <c r="A98" s="62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B98" s="52" t="s">
-        <v>334</v>
+        <v>679</v>
       </c>
       <c r="C98" s="52" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="D98" s="53" t="s">
-        <v>760</v>
+        <v>729</v>
       </c>
       <c r="E98" s="54"/>
       <c r="F98" s="52"/>
@@ -14623,18 +14632,18 @@
       <c r="H98" s="52"/>
       <c r="I98" s="62"/>
     </row>
-    <row r="99" spans="1:9" s="48" customFormat="1" ht="84.6" customHeight="1">
+    <row r="99" spans="1:9" s="48" customFormat="1" ht="88.2" customHeight="1">
       <c r="A99" s="62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B99" s="52" t="s">
-        <v>699</v>
+        <v>318</v>
       </c>
       <c r="C99" s="52" t="s">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="D99" s="53" t="s">
-        <v>762</v>
+        <v>728</v>
       </c>
       <c r="E99" s="54"/>
       <c r="F99" s="52"/>
@@ -14642,18 +14651,18 @@
       <c r="H99" s="52"/>
       <c r="I99" s="62"/>
     </row>
-    <row r="100" spans="1:9" s="48" customFormat="1" ht="88.2" customHeight="1">
+    <row r="100" spans="1:9" s="48" customFormat="1" ht="84.6" customHeight="1">
       <c r="A100" s="62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B100" s="52" t="s">
-        <v>318</v>
+        <v>680</v>
       </c>
       <c r="C100" s="52" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
       <c r="D100" s="53" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
       <c r="E100" s="54"/>
       <c r="F100" s="52"/>
@@ -14661,18 +14670,18 @@
       <c r="H100" s="52"/>
       <c r="I100" s="62"/>
     </row>
-    <row r="101" spans="1:9" s="48" customFormat="1" ht="84.6" customHeight="1">
+    <row r="101" spans="1:9" s="48" customFormat="1" ht="94.8" customHeight="1">
       <c r="A101" s="62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B101" s="52" t="s">
-        <v>700</v>
+        <v>769</v>
       </c>
       <c r="C101" s="52" t="s">
-        <v>706</v>
+        <v>770</v>
       </c>
       <c r="D101" s="53" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="E101" s="54"/>
       <c r="F101" s="52"/>
@@ -14680,18 +14689,18 @@
       <c r="H101" s="52"/>
       <c r="I101" s="62"/>
     </row>
-    <row r="102" spans="1:9" s="48" customFormat="1" ht="94.8" customHeight="1">
+    <row r="102" spans="1:9" s="48" customFormat="1" ht="40.799999999999997" customHeight="1">
       <c r="A102" s="62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B102" s="52" t="s">
-        <v>803</v>
+        <v>682</v>
       </c>
       <c r="C102" s="52" t="s">
-        <v>804</v>
+        <v>683</v>
       </c>
       <c r="D102" s="53" t="s">
-        <v>805</v>
+        <v>731</v>
       </c>
       <c r="E102" s="54"/>
       <c r="F102" s="52"/>
@@ -14699,37 +14708,29 @@
       <c r="H102" s="52"/>
       <c r="I102" s="62"/>
     </row>
-    <row r="103" spans="1:9" s="48" customFormat="1" ht="40.799999999999997" customHeight="1">
-      <c r="A103" s="62">
-        <v>6</v>
-      </c>
-      <c r="B103" s="52" t="s">
-        <v>702</v>
-      </c>
-      <c r="C103" s="52" t="s">
-        <v>703</v>
-      </c>
-      <c r="D103" s="53" t="s">
-        <v>764</v>
-      </c>
+    <row r="103" spans="1:9" s="48" customFormat="1" ht="56.4" customHeight="1">
+      <c r="A103" s="62"/>
+      <c r="B103" s="52"/>
+      <c r="C103" s="52"/>
+      <c r="D103" s="53"/>
       <c r="E103" s="54"/>
       <c r="F103" s="52"/>
       <c r="G103" s="52"/>
       <c r="H103" s="52"/>
       <c r="I103" s="62"/>
     </row>
-    <row r="104" spans="1:9" s="48" customFormat="1" ht="56.4" customHeight="1">
-      <c r="A104" s="62"/>
-      <c r="B104" s="52"/>
-      <c r="C104" s="52"/>
-      <c r="D104" s="53"/>
-      <c r="E104" s="54"/>
-      <c r="F104" s="52"/>
-      <c r="G104" s="52"/>
-      <c r="H104" s="52"/>
-      <c r="I104" s="62"/>
-    </row>
-    <row r="105" spans="1:9" s="48" customFormat="1" ht="49.2" customHeight="1">
+    <row r="104" spans="1:9" s="48" customFormat="1" ht="49.2" customHeight="1">
+      <c r="A104" s="78"/>
+      <c r="B104" s="46"/>
+      <c r="C104" s="46"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="46"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="46"/>
+      <c r="H104" s="46"/>
+      <c r="I104" s="46"/>
+    </row>
+    <row r="105" spans="1:9" s="48" customFormat="1" ht="54.6" customHeight="1">
       <c r="A105" s="78"/>
       <c r="B105" s="46"/>
       <c r="C105" s="46"/>
@@ -14740,7 +14741,7 @@
       <c r="H105" s="46"/>
       <c r="I105" s="46"/>
     </row>
-    <row r="106" spans="1:9" s="48" customFormat="1" ht="54.6" customHeight="1">
+    <row r="106" spans="1:9" s="48" customFormat="1" ht="60" customHeight="1">
       <c r="A106" s="78"/>
       <c r="B106" s="46"/>
       <c r="C106" s="46"/>
@@ -14751,7 +14752,7 @@
       <c r="H106" s="46"/>
       <c r="I106" s="46"/>
     </row>
-    <row r="107" spans="1:9" s="48" customFormat="1" ht="60" customHeight="1">
+    <row r="107" spans="1:9" s="48" customFormat="1" ht="72.599999999999994" customHeight="1">
       <c r="A107" s="78"/>
       <c r="B107" s="46"/>
       <c r="C107" s="46"/>
@@ -14762,7 +14763,7 @@
       <c r="H107" s="46"/>
       <c r="I107" s="46"/>
     </row>
-    <row r="108" spans="1:9" s="48" customFormat="1" ht="72.599999999999994" customHeight="1">
+    <row r="108" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A108" s="78"/>
       <c r="B108" s="46"/>
       <c r="C108" s="46"/>
@@ -14773,47 +14774,36 @@
       <c r="H108" s="46"/>
       <c r="I108" s="46"/>
     </row>
-    <row r="109" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A109" s="78"/>
-      <c r="B109" s="46"/>
-      <c r="C109" s="46"/>
-      <c r="D109" s="46"/>
-      <c r="E109" s="46"/>
-      <c r="F109" s="46"/>
-      <c r="G109" s="46"/>
-      <c r="H109" s="46"/>
-      <c r="I109" s="46"/>
-    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B90:D90"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B96:D96"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B89:D89"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F105:H162" xr:uid="{A26CAB16-5177-405E-A193-96BF75473D78}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F104:H161" xr:uid="{A26CAB16-5177-405E-A193-96BF75473D78}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:H19" xr:uid="{53C8D922-461A-4138-A726-56112D88BF10}"/>
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H18" xr:uid="{2984DC30-CCAC-47D9-988E-C26086B537B8}"/>
-    <dataValidation type="list" allowBlank="1" sqref="F20:H104" xr:uid="{7F9B81C1-1B09-4EEC-A5EE-7D6E92DF101C}">
+    <dataValidation type="list" allowBlank="1" sqref="F20:H103" xr:uid="{7F9B81C1-1B09-4EEC-A5EE-7D6E92DF101C}">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -14825,10 +14815,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA4F572-02A8-4D7C-BFA9-148701534C50}">
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:D23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2"/>
@@ -14842,10 +14832,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="236"/>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
+      <c r="A1" s="240"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -14854,13 +14844,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="241" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="241"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="245"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -14869,9 +14859,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="241"/>
+      <c r="C3" s="266"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="245"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -14880,13 +14870,13 @@
     </row>
     <row r="4" spans="1:24" s="38" customFormat="1">
       <c r="A4" s="139" t="s">
-        <v>709</v>
-      </c>
-      <c r="B4" s="239" t="s">
-        <v>708</v>
-      </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
+        <v>689</v>
+      </c>
+      <c r="B4" s="243" t="s">
+        <v>688</v>
+      </c>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -14900,9 +14890,9 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="238"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
+      <c r="B5" s="242"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -14916,9 +14906,9 @@
       <c r="A6" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="238"/>
-      <c r="C6" s="239"/>
-      <c r="D6" s="239"/>
+      <c r="B6" s="242"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -14929,11 +14919,11 @@
       <c r="A7" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="239" t="s">
+      <c r="B7" s="243" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="239"/>
-      <c r="D7" s="239"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -14945,11 +14935,11 @@
       <c r="A8" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="240">
+      <c r="B8" s="244">
         <v>44861</v>
       </c>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -14991,15 +14981,15 @@
         <v>41</v>
       </c>
       <c r="B11" s="75">
-        <f>COUNTIF($F$18:$F$49580,"*Passed")</f>
+        <f>COUNTIF($F$18:$F$49581,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C11" s="75">
-        <f>COUNTIF($G$18:$G$49580,"*Passed")</f>
+        <f>COUNTIF($G$18:$G$49581,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="75">
-        <f>COUNTIF($H$18:$H$49580,"*Passed")</f>
+        <f>COUNTIF($H$18:$H$49581,"*Passed")</f>
         <v>0</v>
       </c>
     </row>
@@ -15008,15 +14998,15 @@
         <v>43</v>
       </c>
       <c r="B12" s="75">
-        <f>COUNTIF($F$18:$F$49300,"*Failed*")</f>
+        <f>COUNTIF($F$18:$F$49301,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="75">
-        <f>COUNTIF($G$18:$G$49300,"*Failed*")</f>
+        <f>COUNTIF($G$18:$G$49301,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="75">
-        <f>COUNTIF($H$18:$H$49300,"*Failed*")</f>
+        <f>COUNTIF($H$18:$H$49301,"*Failed*")</f>
         <v>0</v>
       </c>
     </row>
@@ -15025,15 +15015,15 @@
         <v>45</v>
       </c>
       <c r="B13" s="75">
-        <f>COUNTIF($F$18:$F$49300,"*Not Run*")</f>
+        <f>COUNTIF($F$18:$F$49301,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="75">
-        <f>COUNTIF($G$18:$G$49300,"*Not Run*")</f>
+        <f>COUNTIF($G$18:$G$49301,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="75">
-        <f>COUNTIF($H$18:$H$49300,"*Not Run*")</f>
+        <f>COUNTIF($H$18:$H$49301,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
@@ -15047,15 +15037,15 @@
         <v>100</v>
       </c>
       <c r="B14" s="75">
-        <f>COUNTIF($F$18:$F$49300,"*NA*")</f>
+        <f>COUNTIF($F$18:$F$49301,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="75">
-        <f>COUNTIF($G$18:$G$49300,"*NA*")</f>
+        <f>COUNTIF($G$18:$G$49301,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="75">
-        <f>COUNTIF($H$18:$H$49300,"*NA*")</f>
+        <f>COUNTIF($H$18:$H$49301,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="64"/>
@@ -15069,15 +15059,15 @@
         <v>101</v>
       </c>
       <c r="B15" s="75">
-        <f>COUNTIF($F$18:$F$49300,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$18:$F$49301,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="75">
-        <f>COUNTIF($G$18:$G$49300,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$18:$G$49301,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="75">
-        <f>COUNTIF($H$18:$H$49300,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$18:$H$49301,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="1"/>
@@ -15092,11 +15082,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="263" t="s">
+      <c r="F16" s="267" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="264"/>
-      <c r="H16" s="265"/>
+      <c r="G16" s="268"/>
+      <c r="H16" s="269"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39.6">
@@ -15130,11 +15120,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="259" t="s">
-        <v>807</v>
-      </c>
-      <c r="C18" s="260"/>
-      <c r="D18" s="261"/>
+      <c r="B18" s="263" t="s">
+        <v>773</v>
+      </c>
+      <c r="C18" s="264"/>
+      <c r="D18" s="265"/>
       <c r="E18" s="67"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -15146,13 +15136,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>720</v>
+        <v>695</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>721</v>
+        <v>804</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="52"/>
@@ -15160,18 +15150,18 @@
       <c r="H19" s="52"/>
       <c r="I19" s="55"/>
     </row>
-    <row r="20" spans="1:9" s="45" customFormat="1" ht="52.8">
+    <row r="20" spans="1:9" s="45" customFormat="1" ht="39.6">
       <c r="A20" s="52">
         <v>2</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>717</v>
+        <v>693</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>716</v>
+        <v>803</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="52"/>
@@ -15179,18 +15169,18 @@
       <c r="H20" s="52"/>
       <c r="I20" s="55"/>
     </row>
-    <row r="21" spans="1:9" s="45" customFormat="1" ht="66">
+    <row r="21" spans="1:9" s="45" customFormat="1" ht="52.8">
       <c r="A21" s="62">
         <v>3</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>718</v>
+        <v>694</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>719</v>
+        <v>802</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="52"/>
@@ -15210,30 +15200,30 @@
       <c r="I22" s="55"/>
     </row>
     <row r="23" spans="1:9" s="48" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A23" s="297"/>
-      <c r="B23" s="301" t="s">
-        <v>806</v>
-      </c>
-      <c r="C23" s="302"/>
-      <c r="D23" s="303"/>
-      <c r="E23" s="298"/>
-      <c r="F23" s="299"/>
-      <c r="G23" s="299"/>
-      <c r="H23" s="299"/>
-      <c r="I23" s="300"/>
-    </row>
-    <row r="24" spans="1:9" s="48" customFormat="1" ht="92.4">
+      <c r="A23" s="210"/>
+      <c r="B23" s="278" t="s">
+        <v>772</v>
+      </c>
+      <c r="C23" s="279"/>
+      <c r="D23" s="280"/>
+      <c r="E23" s="211"/>
+      <c r="F23" s="212"/>
+      <c r="G23" s="212"/>
+      <c r="H23" s="212"/>
+      <c r="I23" s="213"/>
+    </row>
+    <row r="24" spans="1:9" s="48" customFormat="1" ht="66">
       <c r="A24" s="62">
         <v>1</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>729</v>
+        <v>807</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>723</v>
+        <v>696</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>722</v>
+        <v>801</v>
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="52"/>
@@ -15246,13 +15236,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>713</v>
+        <v>806</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>725</v>
+        <v>800</v>
       </c>
       <c r="E25" s="54"/>
       <c r="F25" s="52"/>
@@ -15265,13 +15255,13 @@
         <v>3</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>714</v>
+        <v>808</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>726</v>
+        <v>698</v>
       </c>
       <c r="D26" s="54" t="s">
-        <v>725</v>
+        <v>800</v>
       </c>
       <c r="E26" s="54"/>
       <c r="F26" s="52"/>
@@ -15279,18 +15269,18 @@
       <c r="H26" s="52"/>
       <c r="I26" s="61"/>
     </row>
-    <row r="27" spans="1:9" s="48" customFormat="1" ht="52.8">
+    <row r="27" spans="1:9" s="48" customFormat="1" ht="39.6">
       <c r="A27" s="62">
         <v>4</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>715</v>
+        <v>809</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>727</v>
+        <v>699</v>
       </c>
       <c r="D27" s="54" t="s">
-        <v>728</v>
+        <v>799</v>
       </c>
       <c r="E27" s="54"/>
       <c r="F27" s="52"/>
@@ -15298,27 +15288,43 @@
       <c r="H27" s="52"/>
       <c r="I27" s="61"/>
     </row>
-    <row r="28" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A28" s="62"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="53"/>
+    <row r="28" spans="1:9" s="48" customFormat="1" ht="66">
+      <c r="A28" s="62">
+        <v>5</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>810</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>798</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>805</v>
+      </c>
       <c r="E28" s="54"/>
       <c r="F28" s="52"/>
       <c r="G28" s="52"/>
       <c r="H28" s="52"/>
-      <c r="I28" s="62"/>
-    </row>
-    <row r="29" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A29" s="78"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
+      <c r="I28" s="61"/>
+    </row>
+    <row r="29" spans="1:9" s="48" customFormat="1" ht="39.6">
+      <c r="A29" s="62">
+        <v>6</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>811</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>812</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>800</v>
+      </c>
+      <c r="E29" s="54"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="62"/>
     </row>
     <row r="30" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A30" s="78"/>
@@ -15363,6 +15369,17 @@
       <c r="G33" s="46"/>
       <c r="H33" s="46"/>
       <c r="I33" s="46"/>
+    </row>
+    <row r="34" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A34" s="78"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -15382,11 +15399,11 @@
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17" xr:uid="{E4040F56-3E48-4B09-B800-39EA178C1DA8}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:H18" xr:uid="{5B79A2A5-7ECD-41DE-9E54-E876B0A23207}"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F29:H86" xr:uid="{FC3DC3AC-9DBC-4230-825E-FF3809DE0356}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F30:H87" xr:uid="{FC3DC3AC-9DBC-4230-825E-FF3809DE0356}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F19:H28" xr:uid="{1671E7B6-0145-4D70-BE3D-8F7EE7BA573F}">
+    <dataValidation type="list" allowBlank="1" sqref="F19:H29" xr:uid="{1671E7B6-0145-4D70-BE3D-8F7EE7BA573F}">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
